--- a/2025-02-03/Football_2025-02-03.xlsx
+++ b/2025-02-03/Football_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:H361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256799869268?_skw=PSA+10&amp;epid=16055549672&amp;hash=item3bca770954:g:mVkAAOSwd7ZnnC0K&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlTQSR2h2jDQFoCs7hjfr5XZwICWGFydMtWUF0L6ZtKPdW%2BeX7dPJUuu0UzkNPvI0xXljekhxypfuhU7ZJaR9I6TVLu%2FEE0PaGmMkPj4D2KG46sBUIZR8Tvmkv47h%2BnnSaZlZxy5IOt5sTdOtKtyvY0jlSr3k2wwiraMqwEczS1hH165C1g%2BdyGcV2a18U1zuxBq6vgtMZaJTOjEHCs3QXBzL0LzO1Z%2FG4YEp5%2FUHgmmmca9ViigaI10OityovUOl7gb49JyMHEw%2FYJ0HTwCjPL%7Ctkp%3ABk9SR9Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/256799869268?_skw=PSA+10&amp;epid=16055549672&amp;hash=item3bca770954:g:mVkAAOSwd7ZnnC0K&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlTQSR2h2jDQFoCs7hjfr5XZwICWGFydMtWUF0L6ZtKPdW%2BeX7dPJUuu0UzkNPvI0xXljekhxypfuhU7ZJaR9I6TVLu%2FEE0PaGmMkPj4D2KG46sBUIZR8Tvmkv47h%2BnnSZqv0s9v2Cl4POMeEyVAyJ9bWy4dTR%2BKYpUA4QGQuMkxjhzD0375DjMt8kRgwe9AVfY3jA%2F32NWrdxQ6eHuezMywqREtav7k6OtVscHdHeWJcjtrEHH5SWfSrcl43oE8uz0%2B3%2FKta8XVyuA0dalYI7i%7Ctkp%3ABk9SR_ye0paaZQ</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296939211915?_skw=PSA+10&amp;epid=2326629494&amp;hash=item4522f4cc8b:g:eFIAAOSw49lnhD2H&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmenfHK%2BOwxGeDO2qyJjeMpWCqb5YASVJqECl%2FyprdB3%2F1dQaY2RKiXzu6e%2BQyS8uXcYFuhzgk4n059bD2LBMGCPOCMBZfcc2LXwKs6GYwJMUl8lVKMWWA%2BytMNYhAu8nukf7OXlSvFkxyaCMVUmkE5MJMBQykmRS%2BBQ%2FupLRbelA08VTxUEfL82PxTZx5rsc3KElAZQ5XWL7HFWjrt4LQ3W8FVXqyOFmg4NiMrI44j4Q%3D%3D%7Ctkp%3ABk9SR9Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/296939211915?_skw=PSA+10&amp;epid=2326629494&amp;hash=item4522f4cc8b:g:eFIAAOSw49lnhD2H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk8YSMcfLEkMZiMqRutcU6VZs%2Fcl5froiuVteznjWXPfFUMfmjEfwIGl0FqpEyVAkl8UEFUacqjE%2B6m%2F%2B5aY8oSPJgjNIg%2FL9pOmJKLEcuOKxiOACJjQT5eK0OzCWYQ0Lc%2BvO0wPCweDy9L8KI9kbaYg0S0dsNpiY%2FWsEtaLcgF51zrooXDcEx3%2B9n%2BNdOrxKQXsvNnxH5htIN6A7n3RDaWWw%2Fb24ORL9FNROFbcyrPTBogd%2Fco%2BHbM%2FX%2BGZYFihIAlkswXIfRQr01qp%2FaCXOLs%7Ctkp%3ABk9SR_ye0paaZQ</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167283467660?_skw=PSA+10&amp;hash=item26f2df258c:g:LFwAAOSwtpNnjYUD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnkiCfm4edIOOqJu%2BO%2FLRvn8Y07DKKyOaORwEosNb0ahAtqdGVNNuEjhuooCC6pvg1KiA4AY1KskK4G%2FeR8V1ZPr5%2FLR4j3ttogx6RUIzWpaFs8wXR35KeSurFgzkpUW5UpnDEdOaS4Nt67nDXcHJEILeF1C6RSQSCMlx1k8SvgoBm82vIofbMs8kcnJh80vXB9bgDNDQD9DvQIOW4N0HzIofDq7W30JSHFGKzylAqhQg%3D%3D%7Ctkp%3ABk9SR9Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/167283467660?_skw=PSA+10&amp;hash=item26f2df258c:g:LFwAAOSwtpNnjYUD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnkiCfm4edIOOqJu%2BO%2FLRvn8Y07DKKyOaORwEosNb0ahIwOrJ1RSll3Xio8NEEiU03SrWWgoS2FiiNqxhf%2BYhAV1oi4o2%2B6wjHMSD6zV7zw%2FV2YRkY3tVDnt12SEyG5PtLrJr3uac51x5o1O1VhvYgzDAtvn8PFrVsAVqaM4Cg98lyE4eqngOuWBgrd3D3b%2B4RC9LIndmbgOLRwfKLtAEf2FOAaIPn8N7RW0CbLFawAqw%3D%3D%7Ctkp%3ABk9SR_ye0paaZQ</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316180414727?_skw=PSA+10&amp;epid=10055572470&amp;hash=item499dd24107:g:ASEAAOSwHcVnoGGF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXkab1de9soRmB7us373ss9YJHksMWsg0ATAnkcy2BtLaBBgKyEXqP%2Fv9dCgwXKeBxvNNHOkfodxazhItyL1bYYlJmaJBs49Q4aF3CULWJPIqsMWdHybQAv1Fa2N%2Btz7lUGEXZRMyQo9YZkWgJZuklDUSDhYCE6NxEbwALBk%2BLXEHkM4WDSDeZMgcvof%2FZSOx4PPsrBMbMKy25FcgANa%2BbryIJnc1x88JgA25YFe1FULwD0966GV1cilt8esifu9rrpa00bISPObT0b8Ngwk1q%7Ctkp%3ABk9SR9Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/316180414727?_skw=PSA+10&amp;epid=10055572470&amp;hash=item499dd24107:g:ASEAAOSwHcVnoGGF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXkab1de9soRmB7us373ss9YJHksMWsg0ATAnkcy2BtLaBBgKyEXqP%2Fv9dCgwXKeBxvNNHOkfodxazhItyL1bYYlJmaJBs49Q4aF3CULWJPIqsMWdHybQAv1Fa2N%2Btz7nnXmvSvTqIYH2eCPq04MyY%2FtSIfWsHlijSia%2F3qN5eyaP3Ldn6iBvmw0PJUH%2F4d3R4gFGM5cwhEmGTgCiO5HRwTKEskrc2UleF6N36ZLiqCVPHwJTC%2BOKcjPyDfDZALcEjpJSHx9hUOokDh28uH74D%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286257759337?_skw=PSA+10&amp;hash=item42a64ac469:g:JXQAAOSwG-lngVp2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlXzfUAyWMVyJMYhpSsVDX5oOskPc2uACA1gjx3ff62ArmjgVRTms%2FrDC8snks3pFP6PF8ibWFqLiN7WAIR9rzRH5VLjaSfXdIjRXGygzyn%2BEWVShyPlrdcdJ2Ntojb6tc2aYa0hSu3f47K6obi1D9AY8oJ7Re6YyYnxgCHLgAEH3Kai6Jhxh2hkvrfBiLuNKWl48ds1MVOzCr2eNHO%2BT%2BfpvGKtlt6HMjU8ZdG2Jc6n5JIhQiEu34kMFqU8JKu1SlBuE4YXzc5aqCm%2BGDBrZcO%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/286257759337?_skw=PSA+10&amp;hash=item42a64ac469:g:JXQAAOSwG-lngVp2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlXzfUAyWMVyJMYhpSsVDX5oOskPc2uACA1gjx3ff62ArmjgVRTms%2FrDC8snks3pFP6PF8ibWFqLiN7WAIR9rzRH5VLjaSfXdIjRXGygzyn%2BEWVShyPlrdcdJ2Ntojb6tfdAotnbO9wHRpL4oqIuJ2jFL%2FZIenqjrhtKnWG4OgyiZPUa%2F%2B%2BZJ0uFvomQoYZbbEut56CLuSzvSbBuKIqL99avdJVeDxelqFiSrtd%2BhP5yPXD3mqb2FKGmNHYSHj5HK1EaOfaCo32hiwZHx%2FAfmhD%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276836195904?_skw=PSA+10&amp;epid=9065165361&amp;hash=item4074b91e40:g:d-YAAOSwtsxnmxQB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlkVvZab26JzoClWjcwVI9aFZqLMYBRus8gWDUQfl97R4zxB6FSnu1ri2Om8RwHLl6kBWcvW2A6WobrXvBVZPqwXZWuEHpgHfcmZFDeb8C4IYABCmFHI8DnQ31I5u6hQRgBTGzTzTYtobsZWgp8rBOkVJTZ4iChU%2FWuj9Mx49dZJExH%2BbAXVZ7j7M0eI%2FFi%2BOtTBzULuxbQWYQTYheByFwjahJ5jp3%2BNEu5KPgccEKdXQ%3D%3D%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276836195904?_skw=PSA+10&amp;epid=9065165361&amp;hash=item4074b91e40:g:d-YAAOSwtsxnmxQB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl8Nv78I2u6Egm8rSxAm4bAYJZ42YSFIAaxAQvSOlTyN5c5bkXM%2F309e%2FC3Rzp5H60egacgrfgpIIifxo5uwJEcbt9WJkmPmH%2FPfIuiUX45XL9tosu2mJvMKVdNPbIZ7j07k4KPSKtELKe7oTDegyRV8bKH%2FbmaT0%2F%2Bcfe4CrHUtWr606o3YOdXykmgh1rTaG%2BKzhUh6CPvg%2BIyx0vB4WzsJaq8q1floDB46T7w9NtyFldym3dNDJ%2FK2TtSfphbI5y1kr28ICZzOjBIwFIxBFyo%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276836193025?_skw=PSA+10&amp;epid=16071753578&amp;hash=item4074b91301:g:9YcAAOSwFH9nmxMu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmym6bdrgA6JIk%2BW77D%2FUEXnklUReQF9Idn4qGzm3sqNV3fp9Uxrfo6pURwk5PNGA%2BEfMjTlh%2FBwGb1E5wDYVtmYDtWLTogz4bpy981hSCRAiXdT3ARNzL0ly1H%2FpxXGBrD6%2FATtRZr6EH2tMctRrjbdmh41zhGiDaQMB8DPk%2BAhM4faBouFiLuFVCbR3iezpR0TBSPD6qL9MbL8lTLy7XUUazoCHS%2FCe4F2RczL%2Bvr7Q%3D%3D%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276836193025?_skw=PSA+10&amp;epid=16071753578&amp;hash=item4074b91301:g:9YcAAOSwFH9nmxMu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmym6bdrgA6JIk%2BW77D%2FUEXnklUReQF9Idn4qGzm3sqNeHPZwOpEJlSjpvYxl2yprDCDGbXVome9f9sJM44ThzGYAtC9RCSWQAneqhTRqvYnzYt%2Fz1%2BQZeybI6wvtbKjNqkTtZlqAQcPrsKfHzyhhID%2BHs91nglPE9hDFpeQnMprMiRd7ZnvXJTkvCRXOeEuSzn06I0vzia%2BWNpnXYkWN8hfKL2VtXRWiCkG4RSsVDvRg%3D%3D%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296616371952?_skw=PSA+10&amp;epid=12066255952&amp;hash=item450fb6a6f0:g:uusAAOSwzX5msrtS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntdyaBa0a2zFQDiYCoW74AV1z6%2BtSlBS%2Fbk0vbCG%2B4TYwX2bkeMXk9eq2wJOMJ3EZKPnIzS43yQlIgjXXYaFtE7nLqG%2BxS%2BEjgshUTEJi%2BO0MvjUPAjsZxBMtnB1XtNbdPdQgHpy3Sll5nEFTXlxN1u4Hly0NdPdgOWcrc5Bw4B%2FWe%2FxRhcQVnra5py%2Bnb5wirH5TzjMlDamXk6GdZYWGkM%2BJ1JAM9x2N8VbMNFYfCA4UIWrz84%2FWJxnG4LubKjlkctfJ1nJNLR5YeGHyuvqz0%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/296616371952?_skw=PSA+10&amp;epid=12066255952&amp;hash=item450fb6a6f0:g:uusAAOSwzX5msrtS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlu%2BJWton29qgYjGdYV6%2Fraxs40JNQoxOCqW%2Fq7Ur%2BpAro0Sej20rjf8gEhnBHCy1TSg5f%2BSWJJ3ql%2FA4OtZBdPwh0YLpIduHTrUJLEvKQbQn9vxpDxntvdlU60a1X9VxVHJkcVxOc1dko2Vbi2X97fERjT1wb59gAUZm3fiTO79HHlQ49KWDGybOn%2BDTntVxnHJ3A0kVmqdfDGdI45bHcRQMX3VgZhWZ2FQuSmv9ITcA%3D%3D%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7lpblo9X%2FNollTibfjxQvYRZPeZnmF7aovdfl1z4f%2Fz5z9%2BZL%2FQxcLPDQWwMHsSq57oFuyD69gbqSHzzTRsm5f8LasRG058AtAJx3n4SI8ayeUXkgen3QoWOJa5hoS8q7dz%2B9OeDt46UjEaKh%2F%2BEfyWqc0SZbcc846vARsmM2iSAk2qmf8WpMrqevJPVCbg2vPW983q1TKWtPKvdRXcdQfNF%2BNSfeM5sc5txdI9TrKg%3D%3D%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHdT4MtsxfuofLix9hi0nvLT23ZWkSozQtRBbtIb7kl1RkfphLn338UTAbm1%2BOr6KSNspA54LeVKIpaugpJ1QoTK30kNTrWVzDgZBZPK7G8FhBqSvp3TVWYn5Gq4YFpFJuDf%2FMRV54vGogwyc1kYpE5snzOy5WFfKQbNJXG%2Foma958imZwBONlVHocHalmzZ8ESrKYWoj5UjkMOGgK%2FBMOxeg%2FERQ8Z99C3r%2B%2BfA3p6PE%2FBTgQ58aEAP9S0%2FcFe9ojzMzYyW2ZTeBqu35o7i6r%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361916659?_skw=PSA+10&amp;hash=item5511446af3:g:igUAAOSwauBnk8hp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlDOzKw5Oy0MER5Bjp445wxa03ZZXi7qIca4%2FgSt3T%2BZA9Ht1QzwKjB1ZMcRo5bPZtxmi7oenWsDWMHfBCPaCCin9Igi2jvZObcph6sa6ePMpRZd0biqwnrdOOc%2F4mBFoBNaQPc0%2BbMzS%2BpkeYBpGdJEzrTwAXpozaIHVBaBOS%2FKhwJKk3XZhWoE4fXkORLzI%2FRn%2FePffl1FCB%2B%2FODRwn%2F0ZwYxURBoMtVMzLy47zluJQ%3D%3D%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365361916659?_skw=PSA+10&amp;hash=item5511446af3:g:igUAAOSwauBnk8hp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlDOzKw5Oy0MER5Bjp445wxa03ZZXi7qIca4%2FgSt3T%2BZCdYjl6BxZUex13NC%2B5VJEO9UMbx48ZvBKxLeEgycqGwBk0r8A6%2Bd6EEkS1Ur%2F4UEc6pbdSSk%2FGZypPqRaFLmA2GUDu5XEgvtZ%2FWYv5V400Sd9037RBYahGHSfleqZc2UsaL55ZqSyK%2BLGJJjtCkofmoa3Fs8I5kVd4NuAjgYRBEVD30TPbBS4eXij3ERq5JXQ%3D%3D%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361936673?_skw=PSA+10&amp;hash=item551144b921:g:y2oAAOSwgjhnk8wO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKncAHoVk3eMGxHSmPCg2fuHAG6nnUYyuCDqwCmgJEicjof8LLOLYl4fmJ5aQdv39DIyod%2BrkYZSbDuMv9HySvSqnpYQNcce%2BBXmTjbqkk7yjow8ZC6wmBy9XbvVY0BYabeMaWbpsIEg3g2k1pSZOcyAIrjIzWngcmCVD%2F281QWdfqFH47JMBO4yZzp1jesUbKfzB4qgyaqYjhIqCQyI3VbFIJJSWyzxrkgdG0%2FueTJHpeNWmJSkqSTnLMhDBmB5YGMF9YxjasiSJedPYILVOvLz%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365361936673?_skw=PSA+10&amp;hash=item551144b921:g:y2oAAOSwgjhnk8wO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkDs44legAdp3KR2XbG2JuUqsN5fWrZX0J6lxGiBJC15Mk1uvfEddQ2RI6hSxnbjcBkzw3XsMuNVrQyBDlU9vbWy2bW57rhGuN7f6dlENvjXJhnUApnTQX41HSP87RiD1Sl2HEyushkRq9%2BqVnFezwAg2G5asnvFV55BihgfrM3vbgeZHdsLgOBxF%2FX3aqDYk8GJELTYsxTBdCBJT50YEuZwRz16uEvurVEch8K%2F%2BofMA%3D%3D%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366835587?_skw=PSA+10&amp;epid=16074256419&amp;hash=item55118f7983:g:MjEAAOSwQRNnl99l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncWRLhskgYakp2foI0vsYrHcgT%2B9xWEi81VDdoN%2BTBWuZiCrWkuwKUkqs2Mp%2BeDquUCqQ3ba64H%2F9cSP%2BMmXNIiz7O11rPC0Uix0CHRJnYdE5gzLpYuoPOPi9x7q1aqAsgp%2Bp5y8MkEhcmZqEhBp8qdGH1FGWSlaYw9kH%2B4JEbNEg9O1gf9AV0mspqaVLmQEXynQk7oBvc4rTpHv90HPx73gVWVKC09a5%2BrL07GgLg0g%3D%3D%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366835587?_skw=PSA+10&amp;epid=16074256419&amp;hash=item55118f7983:g:MjEAAOSwQRNnl99l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkPk5DEQPgCw4Om9AkT%2FRGZbH%2FK%2BMi8ZFR8m1FEybr0RzBUoq1fA0skJNx3wgs9qrCo0AjzjTQNha2nrkov4aoPqTPUBkGw%2FUmRoG6WjIQ%2BBGoQlAytFm1lPiHOlCgN2YZyjTo6mzoajCCx9oN17ocj%2F5BTHX3yTJyjgevGm3V5tmZjYX4QFbbSCJ%2FrUHwpba%2Frcq5kB88yT6FakHK1E4ZQxZkWpjBuerpPrtAhmqDecso5m6%2BsGSyWj9CV8I%2FS2I5sfT%2BCJz8CaEQNaLMkBGTY%7Ctkp%3ABk9SR_6e0paaZQ</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367255129?_skw=PSA+10&amp;hash=item551195e059:g:4wgAAOSwRhBnaats&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlDbE%2FjrQ9wMR8Lj3V1VrY2FVCv%2Fa5X7a8D--aRUs%2BFUMoAKQ6JhGbjuO1Nbv7oo2L4df80%2BrqbKv3vFQGgpxeDFwsyY9ZEZCVco1M8zmdybKIJezpMBtRP6H3TlM6WT0mG499%2FlpWYL93TzfLslL9WQVb5d3htQfUuLjXaboRnFazKb2It0zv59t3QNz5Ht5ZOIV%2F%2BI9Bb5YWZ4PN%2FSeNQnXigR0nTTOD0Gmplfw9c5Z2vajqUERIShF3imCoSLGj0EFLxJLoViJDPnaietVfZ%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365367255129?_skw=PSA+10&amp;hash=item551195e059:g:4wgAAOSwRhBnaats&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlDbE%2FjrQ9wMR8Lj3V1VrY2FVCv%2Fa5X7a8D--aRUs%2BFUMoAKQ6JhGbjuO1Nbv7oo2L4df80%2BrqbKv3vFQGgpxeDFwsyY9ZEZCVco1M8zmdybKIJezpMBtRP6H3TlM6WT0l0rqUMw0SLVmJT2iiUkIS3W5yNiFOv5FWy8XIpITnWgJkKbV0LovsASeOHsMp%2FmtmAL7RH%2F6rVbOlfKofBluydYcGuq8nSSNOu6NKL2E3BNpwMiJjzgHQayUAgY0tLvHE2FgiH75ZQOdzx4VauWWaI%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947433674?_skw=PSA+10&amp;hash=item57883696ca:g:KiIAAOSwSEFnk8lH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlSeKCnmtM7THMUOde9vik%2FeMe%2FaQgZI%2BaT70PipKKE0G%2B%2BwrPec0bxJmrFrQUNCRuztTLmtioRp9afC5FafORNCLVxWCONrryQYoZNHVIBgt7ZTTieh9Ey4btMMJStui8CQkujrdoCfhPNuxMl3wF4awed%2B6ReINfu3EEjGhVItm5i%2FF3Ef7uTJFQgFdAjN2rK2zJaK76EdZfD3hbYrtCS2Sz9DxLafnYCpCWaJe2bww%3D%3D%7Ctkp%3ABk9SR9Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375947433674?_skw=PSA+10&amp;hash=item57883696ca:g:KiIAAOSwSEFnk8lH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlSeKCnmtM7THMUOde9vik%2FeMe%2FaQgZI%2BaT70PipKKE0GxleYQ8Z%2FOLdxcjg8bQ8u%2BBkfrLV%2FPFX3WNTr9sPwsGMJztVYucgTIZDcJs7R93USYWHgT2hG8jgu868IsORvDcaljXAD301Wbb6NE3ClD9uuHLhA4y%2BrCF7cceLX864GhxKW5x2C%2FHeqTQdGkF%2FvMFAt%2FNICcQ7UULsRR78fEQzjxs6%2FDAuOIt9FtNRxhXRA%3D%3D%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954047093?_skw=PSA+10&amp;epid=3055532206&amp;hash=item57889b8075:g:kM0AAOSwVj9nl6vI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk7USAwYz2EMbii92ywV%2B8JOVg9vTnxeSV2GP4tEOFaY4wjHJzMvD%2FUo2qJUNkNK60nbDLcR1qH9SalLiC4nXMVv%2BLwsYvSc06AMDU6gUQAvqjjMVdRT8eSlyPU7lXdfvo%2BrjxNBQy1YI6vdaR%2BdHl3jvYNfnBPDA8BvePPOSR6ZzVcQ9XmhflGaaG5aAsY7cbplNSwe0MQ0rEcFOr6NIJi2FbkB8LedakEbOCt1OGex%2FbYaJjH%2Fqo533nrexpauHGKSazVokpazQ%2BMIs1nV9nM%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954047093?_skw=PSA+10&amp;epid=3055532206&amp;hash=item57889b8075:g:kM0AAOSwVj9nl6vI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKma55hzJtOkPpI9bARM4N9MRXd106QWtQHsVavSP1LO7XFXf9%2FqTcNAWXNbmebbFsTtqTE9usd%2FrMz5rDUN3%2BN6GdpsbNfA1Qq%2BW3aMIM768eztTTDsImeTkpDI8eEegsKRI0UQI%2FUhK7gWaukBZPDzjaNF0ZxZ%2BDGV4616GrK9IQaefxpG7s4GBi%2Btolqb9KFvTKaVPEqt4kBeCgljjmQOvbZgooxrxlU6YCRGz4%2Flgg%3D%3D%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954347151?_skw=PSA+10&amp;hash=item5788a0148f:g:uJQAAOSwmwdnl-ug&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5GBLpJFcZP3dgNiRhzJTL9kWk3u0PKtQ7TrnZ4UMC5%2FDWu9Hjf9%2BrhMoIIbKiOSJy2ofJeBL9U7Rk4LmV2KC5tokMDmsAZnfq97ZKv5UpKHQRj8oE%2FUhAzQBnf3nQFBDCTSkjNYHjdB%2FAhe08Rr5z%2B3cji1r0t2m6BN1udtJD29C3tV4%2BvTQvou4xHMNsvx7SxS%2F7bg%2Fhh5KQ%2BL4962aOe2lIMUqWh9kbEo0dTaEapg%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954347151?_skw=PSA+10&amp;hash=item5788a0148f:g:uJQAAOSwmwdnl-ug&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5GBLpJFcZP3dgNiRhzJTL9kWk3u0PKtQ7TrnZ4UMC5zOT5Q231u4fEPw8JyUNjWGhsmS9zsnAbq0hWnQN02kKzXQzlExdmp0h0Y7nM77TPfxmRzlIo2ksTJubFCBs36M27Shlwd5vKJE1RraN2SDKtKuT0r4SNjoiG4fYyUy9B8FrJLlZJM1DXFwwdLBjt3XlLXDrtiX%2FTKdSzJBgVPgwaRLo6RUUOhR23ZMY%2Fpm8Nw%3D%3D%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954348320?_skw=PSA+10&amp;epid=9067184945&amp;hash=item5788a01920:g:OBwAAOSwsW1nl-v9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmb0LyFQXSU3aiYyFiNByxlZ3nf2WUHftA%2BhdHlvVB6FtR4JF6sQzIf3vLRsF1e1bhCKx5W%2FlaS0RcHns5IZEh45V0Srm5BXdEDmrqegbi9nrHKQFdak2hvijWrBLX%2FFELVKEruSsZmB21lh2jHcx%2BAjxi8vEaJ9QLuYSMNTC%2B2FgsTWDoEUrQrc9%2Bz8EnGYNky1b7tL4OuTzHIrFauqdY5FcW%2FnN44ONY2pinBz0H1C51YppP5kWNmhzYoO3SGMmy%2FOeTpVuYtE5UY3HG%2F1V%2Fa%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954348320?_skw=PSA+10&amp;epid=9067184945&amp;hash=item5788a01920:g:OBwAAOSwsW1nl-v9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmb0LyFQXSU3aiYyFiNByxlZ3nf2WUHftA%2BhdHlvVB6FtR4JF6sQzIf3vLRsF1e1bhCKx5W%2FlaS0RcHns5IZEh45V0Srm5BXdEDmrqegbi9nrHKQFdak2hvijWrBLX%2FFEJJgUYOVFaFN9sNzU%2FmKeQX5uReoM4cN4r94T5cpnF6WQ3shwoZdQYdAv9yOIlKsk5PiLeD%2BrA0jdAkdEmLcipLhlaNwQvsVB9Qu4OYBe%2B06JghFMBM8nxkzhFlNbicZcgakJxq5mM88cJALStc8wZR%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954613521?_skw=PSA+10&amp;epid=2326659361&amp;hash=item5788a42511:g:8iIAAOSwPndnmCXF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmgCTiSYbVOgS6eUm4veHU1iEouc9GcmleS5NAMryPO3uqvt2PTLroT6oQXUY6cLawq4Elm0P9zL5UiNT5y73%2FZFcXic3l8FQEyEQHBKYRXen%2FuUP9cV%2B64fp4JD7ZDdkJtKiHEnxiVBMRJmbEHmovatUyORX6V3r5%2FGkRWR0ICvJO97ccDGWQd5jVHOsvSeogFjDvWJI1m4KNsHqFAOzl8DQYNMOspnu8H51TQAmM8xA%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954613521?_skw=PSA+10&amp;epid=2326659361&amp;hash=item5788a42511:g:8iIAAOSwPndnmCXF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnKFY%2FiLsUz53n3yGFsDmxIehz0Yhy0Kcc14te9YzAuUd%2FRyW5gXpDFplMrSm16iRMK0tmLIsUssdJ1wObnAtJKJnsDYLQH99mkVwkzkiXQlER5IEbo0Scl41iwwM666k2MJ6kRHd68NOIiUDf2N9waOsFMe3L2JtqSOCmAoJ2Mxg3pjv4FDls3%2F5WY29tLQT%2FsSyll4Sv8rODWKehySIn%2FlVCBTStQjlWssV%2B4zX%2B9G9MwJdlRsdVo9lVjZS0rD0s9mzHkkPmp53sbO3kWj7xO%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954619331?_skw=PSA+10&amp;hash=item5788a43bc3:g:ZYwAAOSwb6tnmCga&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKla3H%2B8%2FFtI3YLtg02cF%2FQ6B6ls72oDKpykLQ%2Bi%2FiTryDIC%2FiWhGMZbXjLNjMRNPAjG1M%2FQlV%2BZgw%2BNsheV%2BsDoMJoSx9mN5zjkzsWdVzPE4JI%2Bv0AidrC9lqxlM%2FAfRkDqmqyNES%2FbPsI4vq6Y8q9BjPxGjgVhBcDGTWZtqAWCx1W%2BdD9cANUPSFiTM5PH9ICCFujdtsY5F3k%2F%2BxLuLAtKdLvbwaujVcKwlv%2BwyK63Iw%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954619331?_skw=PSA+10&amp;hash=item5788a43bc3:g:ZYwAAOSwb6tnmCga&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKla3H%2B8%2FFtI3YLtg02cF%2FQ6B6ls72oDKpykLQ%2Bi%2FiTryPN5kRQChecyugrSfSOg6Ay%2BGY5pzG0O7W%2F%2B7y9zf5JOYpDkF%2FmgwDqdlUyC%2FxFrM7Lk5rkE7R2TH4zqbJQo7CQCTvq1XoJUGh2e2qIBN8csCmoABInHYVPQdYwAcl8B%2FzqkLcq8sDyW3ro%2B9akvzX2EQjsncBquJGlwfZp%2BpO3uA%2FbAXYerdgdQBzwS2DtLwQ%3D%3D%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855703831?_skw=PSA+10&amp;epid=28055530732&amp;hash=item5a4e005f17:g:ESsAAOSwbnBnk8i-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkmjNHgTmnYw%2FH2bTmGIb7itSNPyTisHQDXtXW9YRpP3BtAyWlt3astX9Z2gxdv0sn75LPXVbxP%2BZpIvqxuEC19UqVj4dkAaT8UAAjE4O8lqRPBqRrdKnshWtH7AzHDOPim8o7Z%2Fw%2FDEn0HPAzFxHiWwnOBGEgNaL9sgwLmHBRXAsSzoXfBBi9gRl97sPfvShr8Cr%2FcQ5df8hU6HVDqAf9tsMHGns4Fh6%2FEcz2ERSno%2BA%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387855703831?_skw=PSA+10&amp;epid=28055530732&amp;hash=item5a4e005f17:g:ESsAAOSwbnBnk8i-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkmjNHgTmnYw%2FH2bTmGIb7itSNPyTisHQDXtXW9YRpP3N0Lpmxyxt2ANVCHVFRkzzNnuy%2FWwG4PkKqqB83Tmx2dbSIngrFVheT92lYbtJCg43dsiFJ9ZZJL5CunDnZ%2FUeiI581KkpNb65r0%2FY6LEWj3ZibPlx5w%2F8wqniDkID%2FKlyEFN5Flibdx308vWeDZeOm6Je19OhWFZy36n7f3%2BWNdFws%2BQUDcOwHONgsbfSlLzQ%3D%3D%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867005304?_skw=PSA+10&amp;epid=10071774400&amp;hash=item5a4eacd178:g:8u0AAOSw6NpnmCFl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl4L3ja%2Fi%2FuxOwmP6WssSjUJa5F4y8dAF4vdOIPBaGwPTYpvrxf519MFwXlV3%2FCjTs6CV1TC4EUlsddl8Eo9DlIJtjS44ZpY9ErfW9vCMa9MjlAn9Nw8kL3vzoJNYWWKp3G3YVkMMdNm92E380%2BZ%2Bvm8%2FjEz9gvQ7ccwrNp6Y28H1d9r1ICIm5xde7FDZXJbj3qe4%2FuwSXi3JZona5UzbFjOunt0yEWXiJIMcbwYwxIFw%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387867005304?_skw=PSA+10&amp;epid=10071774400&amp;hash=item5a4eacd178:g:8u0AAOSw6NpnmCFl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKleQzB0XdBLcM2BKyTEdYpSOZEJt5E66WqhXWozrTwbmJGt1txgNxVYaLzHQ8pZsL0BVCsjKA%2FR2KM6H4%2FWuG4om4iT3H6MGkd0XV0tlF3xvWgy7F6KKi0ctDDoR%2BbvdDmB5WtHLm1D9HjLrU1p%2FPQLtEGfgrr7kFtnXxWWRnyx%2FwejFKLDQEWYZkzSKtoMOY5AUadrjiVLkYWt4NJBEEdTUyTNTs2TpvBR%2FKeO5XbEA5KfpL8JkTFqTym9swnmjPVQ%2F1MlCMvXpNGPbFL4k26E%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176811994398?_skw=PSA+10&amp;epid=8055596942&amp;hash=item292ad0ed1e:g:zUQAAOSwEtZnmW4R&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmvfhNmfortSwWZnf4TKbx0IqVn3fnl6bWTDsqKNppbaiZsUEMH2Ifku8Zbnp8X%2FtLTzjeorvmhyFiPiI7qzoYC%2B5rU%2Bayq5L%2BJVLJVj1Tbv26ocFU21xIEGyR9ACFi1%2FdVV83V2aW6C1fzILlCgs4pa9jev1lbSE9O%2BKywp1yROAgNKX8BaQ0M3AXAYecMjkes83Xb8okQ0mZesnJCFarMLVmx9HiX4hdjvezR7%2Bhk1A%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176811994398?_skw=PSA+10&amp;epid=8055596942&amp;hash=item292ad0ed1e:g:zUQAAOSwEtZnmW4R&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmvfhNmfortSwWZnf4TKbx0IqVn3fnl6bWTDsqKNppbauz7YRJYL09Vkw6TMO%2FQqsBLFDhH94Xdd5OeTyaycIJYOVUs4SiHv2mVyi%2F5so%2FqKlkgGBCNgDBWIkubCKW14qwydZiEnBuW67nbQAawqSR0tlP5Sc6lBCSJfJOYI0ky628%2BDu2MTw7E%2FAocGx3%2Ba6HQJloB0ZrclJqufXFeeGR%2B1MgH7EV8pLkBOkKMyurp6A%3D%3D%7Ctkp%3ABk9SR4Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356511577559?_skw=PSA+10&amp;epid=6066538666&amp;hash=item5301bef5d7:g:~XIAAOSwwd1nmBsk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlce6Qg2qoDdmFhAa1gsCKrscaBHA7TYWOqAT4eCpTljSn0gGSzXUgFJLGcH0e7PdhNFkdHmT68BrhlCUoiajOeToCjgFKvFD5iPQWZfor78BVodOBEDUIhV2%2FnrYFuvEDx3nznxe4KXYYKAynh34bMc36UsLMhNNtifnbIaQbPjiqYB8y8fv82Dt05QCRbl6BZBr2JkEjfStq4G5IGAyIXRZlkObVfv4kzc16sm166zg%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356511577559?_skw=PSA+10&amp;epid=6066538666&amp;hash=item5301bef5d7:g:~XIAAOSwwd1nmBsk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnMEqYDGnQVSe5VXfH6z6M7hJdmPbluMDOX%2B7eMNhjgyjt5DNebBLXmQcScXY77uOxDQEKfnFI0%2FF1V6wTW%2BcjNkH7e1Ecn%2FOfLEScpJDNC67pvzazE6DSn1WlIGB%2BnKnVc4asu3CIAuI39LNFPKYqop9f9nGsLmD08FqlfX6Ku%2BJjsbx8k9M6oDd1VXS6bkzZR68aq0NyZRObRrZkkfe2UAeUmgabe%2BcDCUaJWJwbl14EreZM16rw0Bm2lrghaQ4BlI1%2F2n86Ls7yjpH0yDeFy%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356511566527?_skw=PSA+10&amp;hash=item5301becabf:g:i20AAOSwgmVnmBsS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkx2fLXERvOwiyrGRNSpxm2Aq78PXnZJQtpKlqK45thkLHwIhPZ%2F%2BzYpDYUlqeRiHdeBi1k9iBsiBNkyVDFU0eyR7n%2BAvX%2BdjsvmncdSKD52MKCS4vnSpcETr%2FR8zk--sbWdyWftPZDqPNch6ynSu8XBs1yzw4rVpUw%2B%2BBxzVoUdRPBy8qaKLbJETc%2BrO9K7ugqFGzJE85IgZ3fNT6iJTe5jsud1e8Q%2BLm6DNXSKPZMKAJbv4LAhuUDWgcgLmmwXw%2BKV3P8MhlntajH7yIDCOMI%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356511566527?_skw=PSA+10&amp;hash=item5301becabf:g:i20AAOSwgmVnmBsS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkx2fLXERvOwiyrGRNSpxm2Aq78PXnZJQtpKlqK45thkLHwIhPZ%2F%2BzYpDYUlqeRiHdeBi1k9iBsiBNkyVDFU0eyR7n%2BAvX%2BdjsvmncdSKD52MKCS4vnSpcETr%2FR8zk--sYj0%2FGIVidHt2%2F3oJv5JG3JA5DtyLUO2WemsJ9ZlOHNJinWkBHKROJ5Y1G%2F6L3C44s6Qw8SHhAAa77UA32WAOBp22DCpr9k%2FXs9EiUdH--NJ2%2F2a7HBrFPVSeuTXbL9wGt0%2F1piJIQ0YDAQ5HbGupII%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256678290021?_skw=PSA+10&amp;hash=item3bc337e265:g:HWUAAOSwqntnD1pI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkypHhtu4gIlLpf40jm7AsFyCyRj8cqyQix1hoiTgW9vmlpCCWguyinYA3CgVdZcLDR2DMamGQYcIYjgFpuwtBkKr8fu2HxnbUu5nG8tBh%2FTLEeb9OYcItrqhEzTjXITqi2CqF0p84zMvzXtNjMOZ%2FAVFPBMrWATMNm%2BiIIn6iuxdbgiJQLWZEhQaQNAuRUHzqRoRYRgufW82CaVb0vb8BQwiNPJ0bAp06HdOndtMGmzw%3D%3D%7Ctkp%3ABk9SR9bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/256678290021?_skw=PSA+10&amp;hash=item3bc337e265:g:HWUAAOSwqntnD1pI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgOM0%2B9zvzJmLEY%2BJ12Cf73cQqePBw63eIUoOZbVT3LpwVraXmvML75renaGaKPlhQsk5esEMY98KTKPWAWzYOFygjZGY9qOg3YoRIobx4DWuCRaayub6lUfSCW3SyrsFhLYwEat9eNirKbG8lFkDeT3nOCOS14%2FswujnpPvNkPlN%2FIs%2FxphgODWo7RvzoUFooNq9Xwe5JlhOZiGW6D8JUKk868xJ%2FqKdE%2BV49CRwZXbNN7z97zp2X%2FBb0i9UGlfc6S8mPAN5%2B52Js0KuIn%2BzK%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126915763459?_skw=PSA+10&amp;epid=23065559546&amp;hash=item1d8cc4dd03:g:A1gAAOSwQ1tncFm4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKluvbUqNdEpEimsUdVsssjPkfcpIxLbOvQFpjtNXe5OMjN6lvGVnywY%2Fbd6hrLRgfR6IpSPe8i83kwXM3l6bdeZNGxGkjUWVli3%2BmXusbz3YQXmL4ZUHNjlmZIKjeCN9bYypwK56exDvPcb0boW8MlteeNw1%2BcAhmtKeja4rhkBkUHFaKA2wdcsJA4PYRdmp9yzE8BP2G5pSrsei4TeIAzat%2FZVVQuwQl7oDNohBGBb6Ac3L4Meq%2BLfLuXgi3IYbTclRRk%2FJ7MQqwJkZ5FCYj5H%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126915763459?_skw=PSA+10&amp;epid=23065559546&amp;hash=item1d8cc4dd03:g:A1gAAOSwQ1tncFm4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKluvbUqNdEpEimsUdVsssjPkfcpIxLbOvQFpjtNXe5OMjN6lvGVnywY%2Fbd6hrLRgfR6IpSPe8i83kwXM3l6bdeZNGxGkjUWVli3%2BmXusbz3YQXmL4ZUHNjlmZIKjeCN9bZHqfUD1ST9sTuTPvpigQ%2FVKl%2B0F1lxKRHaL%2B%2BA94V0WhS0aG%2FRIKFDL8AvGj7pzNgA9Nsf00jiVdO7dcRjOCSEratFwknnImYN7WKIdd0qRipUN2S%2FG4ga8FhxWIgOXFgjZqTlqt1mXlJoqTaIIDqv%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146361922876?_skw=PSA+10&amp;epid=28055592797&amp;hash=item2213d9b53c:g:ev4AAOSwyZlnnOgS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl8IKtRzKeYxd%2FasmbzZBU6EXSoYzSPWi5lwyO1R8oEsGKt9tKj9o3ogCNZeJ1OmtnP4PbkJClVMLT5ROgvWJP3xMzZZXCR38PdpUNq5OQPRfubppZLwQ7IKyma%2FaQvbdzwjFvpd0WsVzXNQX2skY%2Fdfm8FyEVEg%2F3mS7oJ5f1KTDEpZeYYrYU6VWeZjMHTvbl2tibGMBYsjXP6a1yciBwWlH6sa%2B3MNWsH7pdYy%2FZe5g%3D%3D%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/146361922876?_skw=PSA+10&amp;epid=28055592797&amp;hash=item2213d9b53c:g:ev4AAOSwyZlnnOgS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkjjg88JUQxtMJ%2BX3zXXoB4D%2FRMuXlzMkf0Zxd5ZlYgtTZhaEH%2FrBoFVggEqB5oQ6DAGJo8jdprDLUUem3BxfwaE1k7O%2FTV%2BqyNqlJbgM9R5zQVpf1BrbCCZz5%2F6bKuEAV%2BtOLIfezy6Eki4umKkeqEfAk04nJQX8IJXUZz50fPJ2zhrgITSiSEAZg0saLoLpbs8nPtOoVPG%2BoV%2FhH5WObHWmXMHusB9xITA92%2FiGhc9UhmzvEqZigMxi%2F95poRCcUrtM7hWyhcq36SJmCvR3TN%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186817400250?_skw=PSA+10&amp;epid=15055566371&amp;hash=item2b7f2f4dba:g:~IIAAOSw2j5nS1N7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnNUUq789mU5sm2bK6ImouInSLLAsS%2FqNJXuOzH3F7bxun%2FODSfrvW%2FtbOx2gaH5Sj3Lf7HbCHYvjSF8HTFQju%2BtgQCCcUigEJb%2By6hlopUUBM7ekmWqL3VbuBAweD4mLw3U1LiTDJfafKN81lduj4zHG%2F7Jc2aE3xZATS9sXQmXEdv753kU7OxNLzYFUwIVscz87y3NqkCDsHTctyBEDzRDzfC61fs0HQPnAuXieFdqQW3Z%2Ffi5zT6ZJWKuxmBqpaVkEvnFaT9hn71v59wXKjc%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186817400250?_skw=PSA+10&amp;epid=15055566371&amp;hash=item2b7f2f4dba:g:~IIAAOSw2j5nS1N7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnNUUq789mU5sm2bK6ImouInSLLAsS%2FqNJXuOzH3F7bxun%2FODSfrvW%2FtbOx2gaH5Sj3Lf7HbCHYvjSF8HTFQju%2BtgQCCcUigEJb%2By6hlopUUBM7ekmWqL3VbuBAweD4mLxZsKS1UwXNllsi2TqN6JnBlES6vrwyvT98ZYxAWEETJG43ZiQ3%2FiLxPc3qock6gR7zbcgxdPUj3NLoDyFz6f6Lxpr%2FW3Hqh6RmosaPaJQwBxoKgJl%2F42bR9CYmoP4%2BccvyGw6n%2F27Z9b%2B%2FbEOdZUOg%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126918113545?_skw=PSA+10&amp;epid=11061285822&amp;hash=item1d8ce8b909:g:dR0AAOSwNk9nn~3~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnurNG%2BHE2dqZAdt1cfTVBjoDQ122Bl5cgdr4Om%2B75NaDh3XXFxLtc9DSgViEYPXLDXPe2Lz4%2BQJN2rapbOav30Y9jLu6UFS4wmuVyy6jwBG%2BFKbgM7pv32CxC3ENCyuPM7C7hM8RJi1PRLftfHGWzyUsCIVGQG%2FyLCZDDfKt2QFVqdM50Q2KdTQQJ6SrFvdvijh8N%2B%2FW01NMgAtnfHSrN--tZZMueLcB6aQFdp3ER93M77HEAzZs2PuM8s88XPA2xFF0qyJGJCl3dVZCHEAGFH%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126918113545?_skw=PSA+10&amp;epid=11061285822&amp;hash=item1d8ce8b909:g:dR0AAOSwNk9nn~3~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlf%2BkIrsVBCOhB6Vzv7X4VhkEOAssiVxwG1gW%2FbqUoNazfHW%2FWADVqZTUzOG8JkXzfjwqyTyRqFUFxH1PWkCLZ7spZXy5BDzO%2BBEI5TQXMTlQZx78Hl%2BbnqjN9XHXYpJIPVRMv%2FmA0SdmeTOEOTA7fCGTZQWUkSjxs%2FmHZti%2BmFJ8Kvrdqwv5tzDtIBFO68PQ9hwR6ZX7LMBtZ%2FuM6vwCuLPGGUmjOcIoih%2FTJmUKTMwA%3D%3D%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146355423628?_skw=PSA+10&amp;epid=21056196403&amp;hash=item221376898c:g:9zoAAOSwvqhmGDRZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk1LpHqfwbEFdQG9powZEOmehoX5CZZyI0AVuQvGkMXa95khMCKYqt1HH4MnYxo0r0feahkIffRYf%2Fj0b4ZyEmk%2FzYUv6qeH%2BzKUNDKBH%2BuH4E0gqcYweCf2Bds%2BlfmcprAecaDq35pOUHx2xMX7pjO8bue0RNISotB5vDvlwRgjkNbIZYOQ7pK9XoMa3TlN7aaWCFTtyRxU6ojDDcgI1i0fDUiMlfxoHz%2BgKvLPY%2Bj0oRFMLKGreSOJC5wwSK0Cz4%2BgPRqLcHyHLXHpYwv8df1%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/146355423628?_skw=PSA+10&amp;epid=21056196403&amp;hash=item221376898c:g:9zoAAOSwvqhmGDRZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk1LpHqfwbEFdQG9powZEOmehoX5CZZyI0AVuQvGkMXa95khMCKYqt1HH4MnYxo0r0feahkIffRYf%2Fj0b4ZyEmk%2FzYUv6qeH%2BzKUNDKBH%2BuH4E0gqcYweCf2Bds%2Blfmcpqb8%2BYP6aMXQGt3vT%2FYMJCV9yD8VVn2FDpdzLqUqnbfC127fLK5h7mSKUbRjCSYcLkcRFKn9HzU5L27MDIl%2FuXi13tkXkaJWMGSwZg7218ApwZGnYwreOa11Kl6CjCW4jOeHm%2BCBzuyQSDcc4mRyC8Y%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356528772176?_skw=PSA+10&amp;epid=5073129288&amp;hash=item5302c55450:g:t2sAAOSwp~lnnCEt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLp8j10VZaZ5Axqnk5QL7Dxez8DQBFHw%2B3PJOxVKl6XqEJsozqEPsOdQWhrH0Vz4xD5jPtNde%2BgM8SXHeVntQWYxnziC98NpZYLqP8hEHFnlNkYDBu8Zka7o5rYA0bkWgZUO2FdKt4GN1c%2BK8%2FIdzWbBvYB8vY%2BnV8I6%2Fnw8cawpE9fv23U5hLa%2BboPQcNnc%2BWiEak2nGqaF0BwurQ3nS0AzYliFJqBMNNXUUPYLubeQ%3D%3D%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356528772176?_skw=PSA+10&amp;epid=5073129288&amp;hash=item5302c55450:g:t2sAAOSwp~lnnCEt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLp8j10VZaZ5Axqnk5QL7Dxez8DQBFHw%2B3PJOxVKl6Xi6VfxML9XJF8c75yOUf3cc3lJpoplk7UwTtttCxbjjoH18Bj1cRqINgI2JgL00PWUbnZuZE01FupyFtsZspBTenV6E6zS7wZZ2ajMdj69nNwlS3HjkvNKlUHxH1Ud4Pjoimg0LssSzmzU1A416a9IpP0VdMJlNNp6EPFQ2T5qKO6HrYEvhuRx8u1lTLu6MDAQ%3D%3D%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356389712810?_skw=PSA+10&amp;epid=6065184609&amp;hash=item52fa7b73aa:g:mlgAAOSweTdnZEMi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkISdEcbiEi8YQHz%2BZaNxmXqaXTI8kJ1r5cePl0W2kCCMPsI2ybNPCL2sgMDz8Nu6ecUuVsALnoukNhgfcnkjrqvE4Qgx7FnU7QfVFp8l%2Fms%2Bnb7BBZlJcrD1deQw1wk5V4rrJjuUBGGnHu6Xs9TFUcmHnkHJCDfNgEeGSLVBHtNffSoQeEKxfvxWwdiBYcGJ0bDRkJNA0gUfQctR2tgs3ju7881wx6VG313J853WMNv7DDQtBAupM0AKP4rUBYPl99kbGAm1%2Fh9yxl4R2LAC94%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356389712810?_skw=PSA+10&amp;epid=6065184609&amp;hash=item52fa7b73aa:g:mlgAAOSweTdnZEMi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmBxQSaVp8rSWBs%2BCziS5%2F6GTNOSHIOYobkn9vV%2BuhpReXjAvwgy8vGevV%2Bk2eJzV2mKgWwF94ghOETXpKiiYUd%2FGaYJWMFvEKLvV5jwgb8khdwV2wGHwynPgNMuy71wQxpCkrPhLPY7dp9z88J1T%2BzFkYmcR5pvawaFfGt%2Bh56ept0oZ7x4a6CT4mwX%2BoJtUXvW%2FbCd3lD7lDQ3KMHOkaZMJQAruLGt1sIXve0fBC0Ig%3D%3D%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316164922296?_skw=PSA+10&amp;epid=8074121690&amp;hash=item499ce5dbb8:g:2TsAAOSwuRNnmBMa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk18ewHqyALLfaGvC2wweEBWkKt5PC1GNbr%2B%2Fp8trQHfSmwAsVFAXWl%2BzMxdOmP6DAYnwcTspd6DWSBcmd04jfTV14xNPlSPXlac%2BHd055%2FMa%2FYSZqiUuxiSYZIDfkYYRs2AkxzQEkuuAHzOVOrt935xbgNYyJ%2FAazxdZ2qaaBjCbdhI36wvaM%2FE6izqsU7N8gXHBlvDFDEuyR882JFqBwA8LquAN8ng46b3c6gn8QOgQ%3D%3D%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/316164922296?_skw=PSA+10&amp;epid=8074121690&amp;hash=item499ce5dbb8:g:2TsAAOSwuRNnmBMa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmhVNwOHYR49Fku3CYJdeVU18EDCUHynYV3BGgChEEH%2FudwtypPzsU1ktULzkHZTSYkyu70Gv1k3sF%2B940oIh4S2sDBTUV0lVFhbyYwiJB7iqFs6G5BbqKEtTPxM3JwfX7KUDzEo8%2BHcJ3RFMjU41Yh9PJiSM7a6pAI1J1LcN2%2F84Hj%2BqE0KqkbMMOrgyx3MtwvaM36ydgnCVMhq35b1M6iu7AMoSlH8E8ay62EuReg3pP2rDxlegpw7nwOUWujLj109DEhtro%2BwLWh66vw4C2S%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146350603749?_skw=PSA+10&amp;hash=item22132cfde5:g:-5EAAOSwgjhnlGT4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHScatEfBPz5be%2B95fsgbDtIMfiSKx3p2AyLw0CqoQDj%2FbxWOs756UOC580RMpfJURpMzRfh%2Bom8LTRjYvOrogwngvqmYVWWMD7xEmGcMAmSdW9c%2BoDD76X82Vc5fTQEKtF%2FY3lF669fwMInzwRJ70QRjfax5drxboVaaIlrtQSPCuATCwjM25a6pwWBgHUA%2Fve0kRrTRFcrSs5Xg4aCbrxy42JYbNWn3DjnCZ7OCuX4TltFNWRUTza8XWDbfsTqSHwTy0SLe7G6RYCIj5uczv%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/146350603749?_skw=PSA+10&amp;hash=item22132cfde5:g:-5EAAOSwgjhnlGT4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6TgWe5zZhtHfIn%2FrMYcnLGlMcc5c9PvDai9dwz5zvNb1tqGfPdbVe2NkP5fBJMAf9eV%2FFKwFL2r8TiNDuLFoFjzAwlO0mDURZgQ6XrGCxvWU4mGW7xQh4%2FhzetToBJTT0ks5Cl87pGp0B8hWlJ8suoWZjB1I%2FXEhZCzYwX%2F1cO1VCxNjURnitEvU%2B7fXVsZomKrZl6fJLrK5EVwMHc2i9wYgZWimLPX%2B8GekWQu0Vfw%3D%3D%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167279387847?_skw=PSA+10&amp;epid=24072415417&amp;hash=item26f2a0e4c7:g:jBcAAOSw2Z9nmFeF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLLnA7SYhepPbfTepWo2wciIU1DOTOTXfW%2BjrQNfY0TT7MCwOZp7WHS8hmPL6t24ozZpQKGuKhsseq3bofytXLNMa%2FdkYiw1je9xQKLb7u5xvf5BNl%2FQL8IRLrJ%2BvryZbxhZuFD3pq%2B%2BR2VTaZyylQDejVAbszmtJIAzqF870oiDglwxByvMH%2B9yke17Z%2BrqbtP3dA5xv8hC5T7yGLMt55%2FHyNRgVdok66i59rSDUM1A%3D%3D%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/167279387847?_skw=PSA+10&amp;epid=24072415417&amp;hash=item26f2a0e4c7:g:jBcAAOSw2Z9nmFeF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk4u%2BlGg9QoTIHoj0K%2Bv0vh2WjtVGryOMHNKij8jN7ft74R4%2F%2BqjBf2XrZ%2FWo5M7WOxMcC2fPYSuqQDhTs3nYJNaYXaoCuIlG%2F9ijSbwuWNFiPat0A9MgCniv1iH%2BzuXiMHVgvF6GLvwKOJtgCqqj7J8dg11fCe3x6oGr2mpMtUAZLoNqEDorro%2FkKe90J1gqxLMjRa0a1Ax%2BK1MNissFEyl6Gxwj7RGOUrJj%2FKqs8380ZjRxolc98eLHZolIJZZxm3raA5nv7El8Big59U00Yr%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135516375624?_skw=PSA+10&amp;epid=11071750292&amp;hash=item1f8d67ca48:g:OccAAOSwgqJnlGPJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkt539mm0ytn5vDD6Rxl9n5qnjuejfaNKKnupXG3JyaLAUj4DEmccFdGoQtuQ0W7Qhhasb3ffl9BBwqIJnM1ILqI5TXHAfn91NJtKV2m%2Bc3e0TlhFe2e7gyPqr0%2BwJBHFtHbpng3jnD8n432%2BxFYviUpcdO04p6tykSBRSMxwNAT2e3rh4huyGKlgSq6I47k%2Ftr66MFiVlnZhxIbwKxOSIcvBFiv9jUUdTG7hMRLqIekg%3D%3D%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/135516375624?_skw=PSA+10&amp;epid=11071750292&amp;hash=item1f8d67ca48:g:OccAAOSwgqJnlGPJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm3pnsIVB224wEU5F3wj9aJuNzqrBsrBGlfZKDshXHIRxdH0sP5OuzKmQBdF7YkN91EhLrAQ0%2Bn01g%2FrU5QgSC17EXfyrWmD6F01jjJxY6ykirjNHSiyZyL6%2BJlRQsPxoz3%2FMsWnChIo%2FsV3B0nKE%2BZVYzEYOUyNPAAqaf%2F2qfZiXBhw9bT8QmOxGdqKKA2DdtQaJoDnQAqqeF8QmCKlaPfSP%2FEzcoIMqUVlAPE4hRvX77t%2B6qVz%2FWEdYU1AM%2FyZZqapQ3N21LDO40PfPRzvy6T%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167279378382?_skw=PSA+10&amp;hash=item26f2a0bfce:g:k4cAAOSw~O9nmFbN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2FWT5CjAZgdZ%2BzQqcDngy413XJCzfWB7HV4y4c1Vz7SnWKuEoaXjSrjY%2FwoBgXLDEfKFR2bSsyGdgWeb96grpltSv97VO59TixE2HWSQtj5MTAQVToQBPpeLMYJoKxOrVeBjQLpFXiGLCCx9i42y%2FZtgVHkuiTk%2FOFqHYjloiGBv4UY%2FLF8qTJg12aI%2F1uIV%2FvyWJEGD4GVlD8SfB3AB1%2FND1WCe%2B0bxB7NgHWJ5nlHv0tCYokPH1H5CyILqJWj2Z71uIP%2BKkVwVXqbq7qOOqI%7Ctkp%3ABk9SR9jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/167279378382?_skw=PSA+10&amp;hash=item26f2a0bfce:g:k4cAAOSw~O9nmFbN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnBu01ra2BMplH13noPw300sfbct81CdncqSiOFfQSEUreOrHIWIndp9IhlbpKJ2KmifNdf59QrqJ6ZHEorD0Yl0%2FUPzhy%2BAdHmxV%2FtzemQfZQWJUtmvsvitnL98M2eBauL9UCY9sjbq%2BjipazTws95lHcwtSCoOw8v3M8ofBJGbk7Ai94QP%2BYX8LpX0II7gUMTrluTlDJZTX6SQchnltz8Gb2BlH6ixOW1HZwYIC9VOQ%3D%3D%7Ctkp%3ABk9SR4Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366849236?_skw=PSA+10&amp;hash=item55118faed4:g:bk8AAOSwjpZne~JK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk3LQrIvownxQHl%2FZvIjebqtBuEl%2F9Z4XWfWquwvT0kaLLS7zOgqj%2Fybluovs4F15qzLX%2BoZImkb4BeEIN5RowTjoGHCKoVz3oeZuohgS9ccpWz%2Fpmf1DFU6tHJF4rHym4KLFS%2FLoIxGvXoLKPG0ha8mALmHuciCvlOL0k82noQwI4HIq2pRdZen1bHntxrl2yGg4QHqh%2FVgSQ5n8S9SiKcE1%2Fw7Vl%2BzwEGH71jHZOJntwNc7vYPAbfBUGLRwUyuMjNTnLBhVaPHFxjGb0WBA2V%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366849236?_skw=PSA+10&amp;hash=item55118faed4:g:bk8AAOSwjpZne~JK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl9WGhI536CWXp6CJPfnFshPvMnhjJ55f%2FNGAzBhbzxicnSQG8PPoUFSXxjMB%2B0TaodfrkHwJN879MyCzKAFlnLdScBh9zvIcMwccKnZRZyAv0NBrq2v5FZiOsc25XUoLy1GxBvu%2B3PvM6wsNpiHikI6wAyIGjJN9B5TuU5gI697FH85mxq9f840rHunYOXtq9zrM%2BgkiHxRUTFQ8ylaf74df0kemd%2FS708rz8r9L%2BuFQ%3D%3D%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366890300?_skw=PSA+10&amp;epid=13055691420&amp;hash=item5511904f3c:g:yqcAAOSw~s9nfXRL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkEfczqBpK5R8aZgJ6%2FvmpMm0muBJ%2Bbvn0bDzxhmUlG8ZzScyYxqvwLw9kAiMFo%2BqYb3z18%2BDw6AHjQ8YYNR1u%2F%2BHF2oZ7oiWXVwL2n3%2FG4BTtKkX9r8Grv1vMFuDdWdeTzHzbI%2FUtzMCHxuta1XUGM%2BqB4ZfyD3q2iQQmIJ8NABmZQsnb6uuROm0Rx833s%2FU53Pklh6ShA3f%2B23BoqQ%2BGJcd5pQBC%2FnTwyqnLsO4FtVw%3D%3D%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366890300?_skw=PSA+10&amp;epid=13055691420&amp;hash=item5511904f3c:g:yqcAAOSw~s9nfXRL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKknAJj0E1EhjSY0u6E%2BvLdrWtzmfPwY7XJnmqSmZ3MSnCWcyzAvj%2FIlDOGetLIt7FrE%2B7cl6FHP%2Fs9pPVeFTNPee0RVht9Hh9lHbmCK8gHbZlslmCqKbNhy6eel72Jvl%2BMV2n%2Ba5VPlAVTr8zwgDKfEkeTWRYmqcqejSPI3gGoB8NVHU5zL7qlp9MLhHTgnEtTmXsk8UK5Uxw7qjpi7CPhUhfIwZFDgUJp3QwJcf8OtKnAuEIAcRO7E6oXjeeqoWRIZb2bPfkPEE6DpSPCbPBz%2F%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276838387281?_skw=PSA+10&amp;epid=26073431434&amp;hash=item4074da8e51:g:f1MAAOSw8LZnnVaP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmr2wQEo%2FaZXwn1Uo1wy9946WxclLp38dmQasKjCGb51rVEYVfa4faD97wgrXxZ6e7VnR8OSPMEcqM0V%2FbuiFA5ZKZ%2B%2FgR9U8SHgsROXTQbMdZGlpkaomUsAGpDFz1kKpuetkCnGJCyOuT0eZqJk%2Bcydr7oHmEnT4OWud4ltrCKUq6jiV9eTOunxCFt%2BvpMkZtJnX0VpUgKBjYG%2FWoK3VCLkJczPkDWyuCvysWgdlOnJw%3D%3D%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276838387281?_skw=PSA+10&amp;epid=26073431434&amp;hash=item4074da8e51:g:f1MAAOSw8LZnnVaP&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmr2wQEo%2FaZXwn1Uo1wy9946WxclLp38dmQasKjCGb51i5sS%2FSJ9y83rLhAvomdk%2BZX%2BAMupT9FQQdxa6nYaJB257dOU4sKrO9vU4CIg3MmJS0%2Fb%2B8HVfFH7biukKWNq4%2FyLzDS4nw0GZ%2F61wRNr842wYJI9sQn0Z5PVNz7et5WPPdYp%2F4CbJnQAfeDwmW0o0p3MlCkkdZ2gi8sVYVBA%2BbgnaKp6ZAh572aw3UY7ncdkg%3D%3D%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146350587209?_skw=PSA+10&amp;epid=5073129288&amp;hash=item22132cbd49:g:VzYAAOSw48xnlGD8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2BhPCo9F%2F7XcXxDPm7%2FcJ6lyObxmHnSSdP973jRhNpvgKjYwkIfzAaZSyr4PeCrKksC7o6QIc7%2FDswKsqEN0j1CipHQFOqbGxwyUXuxtSCmFUNbz6mRjV4F8Le58bZUXjT64Kjue8hFoM85FZ1%2FR9qi4dzrWNfzpdftBta4vR3JH5NISfMFNhU3zyXD7K0coH05Brd6JwZFRftsbq4audpUyiEJMnU7r8er87HTa2YFiNS7uezCks4%2FGhMokKpkPkPBciR3IISTKOZuuQ72Ozo%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/146350587209?_skw=PSA+10&amp;epid=5073129288&amp;hash=item22132cbd49:g:VzYAAOSw48xnlGD8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2BhPCo9F%2F7XcXxDPm7%2FcJ6lyObxmHnSSdP973jRhNpvgKjYwkIfzAaZSyr4PeCrKksC7o6QIc7%2FDswKsqEN0j1CipHQFOqbGxwyUXuxtSCmFUNbz6mRjV4F8Le58bZUXgH13idY0KFmNpeHeaKVnpBwaNVo2Xpd%2BbxcK8MmCVvkMttqhHSuI13wh7GyRU9KTJCy5Cr9ApL96lA8VcUowfQLhGvo%2FTm%2BDYvVsYhttVLYom6UC%2Byb0IFwSFu1S7qxYGiDQZrjQzx2e2dJY91zkSl%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167279374717?_skw=PSA+10&amp;hash=item26f2a0b17d:g:bNgAAOSwKWNnmFQq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkf6jUBsgO%2B2DkHjGrqaryXdVpu7GEuhgzeinIe7AeS7R09j8VLU%2FyQYhuYVLMDBywAJef3MsJ5r7upOrYzYXfTijpK6Y60PZ87qaup8vU69%2BED6Gh6fZ5auPzQNrVtm15RevR9RHM3WhOK32eP0EB7BsTZViQCekrvXKJ7yk0bEZkjJ7grhQXKvIN2viG6goOjfDLTYQIo79TCauIqA3ZPKJAEO0S16XOM7zd5oi3ZmA%3D%3D%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/167279374717?_skw=PSA+10&amp;hash=item26f2a0b17d:g:bNgAAOSwKWNnmFQq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFozGIWJn2wwGrzzRRPwzl6bTdL066%2BPTQwOF37YFAbz32YCqId6TVLhEsEQbXOhvdp7XR496fybV20pqC7lqj2NugB%2BD5FHIwwZSUb4ET4WCmSqinIkE%2BKANeCsZN7QNcKj8RkKWjLzhUyGWkUHecaM%2BmsLMuAVpoTLznn63QvIKn16fqNgcRZ%2Bx9wxLoeYMQbLhEfjd7J6Y67Es8U9ksS712SPkg1iqEqRobF%2FrdDN0Ctks4etLJqaZQN9MZbMxVjfW6inTMnMS5GxVuqfLl%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366891712?_skw=PSA+10&amp;epid=5059594293&amp;hash=item55119054c0:g:RUwAAOSwi~Bnl-5I&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2DeqT1ZfR%2F9FVCy0EBZIJc0%2Bsl4ST6PZRuzHTfImPKrNBi%2F6R6pV5srnop2Xi8YQqjjEh%2BuOjXdfbBG90xFzB6ULXpPCN11A%2Bo3GIwx72bryjc2niolaYwrbVzqvF4%2BabLotT56UEY%2BQVBeLqRsPBhSlGKjondhss11dkvP0dOczeYT41iFi2OYF9Jd%2FQgA2Wq64fWUBkYmR%2Bgsno1UjD1bfkG708hM7JoVAZAheXRc%2BqeTedHrT8cbfCBmaggV9EdCVbxfIz6Po%2BeIn9sVp%2F%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366891712?_skw=PSA+10&amp;epid=5059594293&amp;hash=item55119054c0:g:RUwAAOSwi~Bnl-5I&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2DeqT1ZfR%2F9FVCy0EBZIJc0%2Bsl4ST6PZRuzHTfImPKrNBi%2F6R6pV5srnop2Xi8YQqjjEh%2BuOjXdfbBG90xFzB6ULXpPCN11A%2Bo3GIwx72bryjc2niolaYwrbVzqvF4%2BZBjmn%2BMJyB85mYihmyBqX7JGLPMem0SQLAg%2B1l0ugN6Ew0NY91Jaja8ScGyV4NhnfQizCgSL3SITi3w2S%2BtpOXIx2rzkFEL51anfz89CINkwuc%2FEHorUfHLBm9S%2BLpc6tp1mjRU%2Br8AlnxJ%2Ff8J%2BOO%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226572517722?_skw=PSA+10&amp;epid=6055592298&amp;hash=item34c0c6415a:g:AE4AAOSwUOlm8lUN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlay7nj%2BnzO5%2BkwWNUPVzLauK1oekDKRp9H5vLqWoHUAcczOERLwefGOQZK7cXXxWxtynczry8gVK27XAwHG1JBySDAATUK44gQ0LqO3g01LZkfjTACyQ9qRVLXbEUUjVvmphNUG0JramBZXGw4wLvD6p8PG3BFF2x3J0PeU0Xb1ytJjkotCXgyBUbWZgZA7eeVdqDVyLVJxndDnt1i5AYS6Q3CZH31xnRYT2Bp%2Fw5aM52rT3vQa1Zsz2xQaUKvRGemB4HId5iYMnvkqVwBPUN1%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/226572517722?_skw=PSA+10&amp;epid=6055592298&amp;hash=item34c0c6415a:g:AE4AAOSwUOlm8lUN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm3dA6vt2DrYGhrBRHBOgcr0LgO%2BtJ1LrAqBoUURdwz5XPkrBzP1G8rzsyN1w7JdKTu6slF50ln7qDaG4QHbJZ1SOgcoEw%2FSxj4R6uBScoMXea6XEztgGRNzsEoM6OeAU1rQST4RAkRnNj3v3gDy715no%2BPHlcLdrKah7EoH7ynzjVyK9YWxJ8TJBrRNN8YX%2BRzZDjIjGOu8%2FwT%2Fo14VyotG4jb1EAHQOPffar3btKstg%3D%3D%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176809068727?_skw=PSA+10&amp;epid=24065163429&amp;hash=item292aa448b7:g:qiUAAOSw4ORnlseb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZRXrozRglPI274VH3o4s%2Bar8ZvpDetfAajqJoNoxunjTvGDCyVrk7ZRB2McAlZCUsqePYumH1HL61QcZC5nOJeTkmL6%2Bzhm8fHIt5FY%2Bgr5nZm7M7frsW7v5N5V7H5XYCAR7TlkYagPyrBlABbLwrS%2FWFar4jjICUx0FQjuBJyZT7%2BjtiECVbcMS8GfF6gW7GODk2LV9bovFUKtbgxoXblIZEwfIiJ%2Fs0in%2BFIMtysw%3D%3D%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176809068727?_skw=PSA+10&amp;epid=24065163429&amp;hash=item292aa448b7:g:qiUAAOSw4ORnlseb&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkZRXrozRglPI274VH3o4s%2Bar8ZvpDetfAajqJoNoxunvzBF5IenSHf3JNu9CO2L6UFQaTe8anCjX9nCRsX6yer%2Br6bv%2BPgaLybUW%2F9XUHWbyAOo0OOCuZTdi6MT6iZqR1zISrwF%2FlQyUA8Ip1Ib94bceF99S%2B%2BboRa%2FYfBj26ZjqsR--2y%2FL8AQFlcPk9M06EspbPoakB2kcU0Ouy%2FZ0dA%2BGken3dS2SzMs10HNo3vrA%3D%3D%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296456073722?_skw=PSA+10&amp;epid=26056578932&amp;hash=item450628b1fa:g:HbYAAOSw-jNmUQRl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnk%2FjDzlenEl4VZ1p%2BaH84NPj%2BdsoAil0bcjikmiz%2FL6yEG45On1k6Q6Zn5OQyGm%2FlYJ38Tbt2yW11ju91xfxDaJiyCZTZ7gu64%2Fu3bRRPb1svLf9bDk3G6njP0OMv6ycekkjbpf29Wbq16O%2Bsp9iEWOBV35giku8iHIV7dDfYVwmzNPidCuf8YQ9tJ6o83m1W3Jl3x3DzThnTWncCcJjdk36qRI%2Fwp5TuksD3I4yldyg%3D%3D%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/296456073722?_skw=PSA+10&amp;epid=26056578932&amp;hash=item450628b1fa:g:HbYAAOSw-jNmUQRl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnk%2FjDzlenEl4VZ1p%2BaH84NPj%2BdsoAil0bcjikmiz%2FL6xnmm0SPAGQCPftSceoay7syr1hc%2BWHuqdFsck7hxUTUTm%2FkszXJ%2F58DG5YRhPicbBbxOWVXZ5MfqYGgVQ988z58Pz0N%2Fg6FoIfrZP0kwm36yh%2Bx9HS0yDdMjs2eZgNPMQAlgP6VwjTg1rF6O9r7tkW9AqdHDTE7n2EgAVImMz3rzqlNA1ZLXapL7O56l3DTmg%3D%3D%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954310081?_skw=PSA+10&amp;hash=item57889f83c1:g:BIMAAOSwFohnl-OJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlRPF23t35kRmlYILD1DRyq%2B82f%2FvBR%2F%2BNoRerIt3vj8bXHj1omvIS2cZf0CbX4s5Gj6P3YUf193uNgszEnyXxhd8EnSrFDb%2FBFNFBos7o%2BnIoxxFTCiXXvD4roqINq83M4MF1vL1ZBbgVsSLfThSx8vDSIbupV%2Fl1XilXwl%2BYpL1SGGQ0PSujtdjokQKcfazKvyTdjT99kBF2M08razwIUH6Wc3bLWMDO8wKKwQiUAbg%3D%3D%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954310081?_skw=PSA+10&amp;hash=item57889f83c1:g:BIMAAOSwFohnl-OJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl4syqOrkM1sCvfFxAFnI4M19rEKH13iKRtGtQOgTBRu8KwVWGzPkizKFAankM80sWubXpvTCzDVmYF9hvqlf%2F16TA9zmATjoXSDca62G7YSh8hZAWVzg8mPC7RWfeWxtcG9BCtklXoPdhmP%2F5NfpB5PWGXuC4vLZnLPTXjMZoJNwI3p%2BxGwV%2Br3fQOslYWAeePRdMs4kv0k4mhjZvY02ilh%2FI5%2BtmrzVe1QwikrR5kyrtGzZKkkyBczsYy%2BAp9HwyTUDrcPwPjN4n2kmGnH%2FwW%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866419269?_skw=PSA+10&amp;epid=4070310934&amp;hash=item5a4ea3e045:g:uYsAAOSwtsxnl-Ns&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkcj7dwo%2FxpTvB0%2BfuTuHtvT5mAJQ4Ua8i9IpYrUUXx2iimGV7VUuo9%2Bqal2UDd6RExb497eshJtmEMecPf9kvejXEqd5LpOGC7RRIenE0gRs3yskIGcMHxk9pNQRVyeQPdeKKdMRKHIm%2FHtMadsfbacmjUXVD3qZ%2FsZSOmKI%2BMmtI89jZCQCfdl%2F6JkYyUYoboQZe9s6wNEF6lBQ8iRYCK6m5MOcDvYhdU7OmI72S7iP1vdFGpzxFmQTKSL0JB62mWxCEfkSuqj%2Bpbf8ia2pWe%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866419269?_skw=PSA+10&amp;epid=4070310934&amp;hash=item5a4ea3e045:g:uYsAAOSwtsxnl-Ns&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkcj7dwo%2FxpTvB0%2BfuTuHtvT5mAJQ4Ua8i9IpYrUUXx2iimGV7VUuo9%2Bqal2UDd6RExb497eshJtmEMecPf9kvejXEqd5LpOGC7RRIenE0gRs3yskIGcMHxk9pNQRVyeQMN%2FV2RtoQe%2BtH2wcvhyOm1LlEwvMWOaPSQgVLUXDZ106o9S6ORPEst0OWe0BFK62f%2BwHyYvgtIwY6SKr%2FaIvmuAGan30o1DzB75bnpmQyQ7rLmFhTIchPxfkn06dnyDXSSZCqwlGj1SEFyDSMkgmIk%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866421526?_skw=PSA+10&amp;hash=item5a4ea3e916:g:BdAAAOSw-9Fnl-P8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk5rC60trUvSKe%2FdoTSrh%2BOj90jMyGftO3106QlmnIr5eMMawQ3PFSbGXvOqqZymsGVW1FiRD7f%2BZQKa0z9u0Qs7SbGRNh7ysE2djXFLeNA36uc37kGanqwlhqxhaK1YLK3l39ZegaVp9FqJYAm1q%2FHrxuAcbhf2RzAxsBADxMNe8uKXT83P2FTP1L5cMMk7RsQAgaEJ2ZBvy7ugDxs8lNR0WH4T1l5%2B9qeKtdQ2BMG%2B4UN%2Fb0ad7E%2BeU8Xz7xnb9I0RbBIhtdtqmN7D0zr0rMx%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866421526?_skw=PSA+10&amp;hash=item5a4ea3e916:g:BdAAAOSw-9Fnl-P8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk5rC60trUvSKe%2FdoTSrh%2BOj90jMyGftO3106QlmnIr5eMMawQ3PFSbGXvOqqZymsGVW1FiRD7f%2BZQKa0z9u0Qs7SbGRNh7ysE2djXFLeNA36uc37kGanqwlhqxhaK1YLLiuhbmxAbLHFWUlDRe%2BglkAWCziZHOtAIkOZLqLX6ktg9pWT7z9DYWT1uawe4lotdRh3lxqxdUp%2FB204g0iYP8NoufZramMOXqqTcIZVMjpXunpGwQOv0Lzn1942QgD4kfrtbqcU2WovglSvDBFYwb%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296969926447?_skw=PSA+10&amp;epid=28060760890&amp;hash=item4524c9772f:g:~HsAAOSw4I5nja5P&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlCyqMBNtUHiXKcncgwxkxUUuQ2Lw36q1wnN0dGEOBqMLElQl2AhszCT83%2B%2B3vSz72aLxqdAMsvXHk3AuCWK3qptUvvKHvd5Z9GG7q%2FqbvMeFCdqqLWYbYUob4JeWRYojSZpt7FoZuTsp%2B74ZYyQdGY%2Fd%2Bcq%2BoSLOq1q2HmuxUBHPoCucNOyG0W6n6Ki414tKhafHT6htikIbidNORYLJYOW4A0VZuRnc7WkB6cs3jp5dMzgOc0HPO6MCqUI5OexQa53MZNbHPD1V5EzgDqSxRG%7Ctkp%3ABk9SR9rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/296969926447?_skw=PSA+10&amp;epid=28060760890&amp;hash=item4524c9772f:g:~HsAAOSw4I5nja5P&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlCyqMBNtUHiXKcncgwxkxUUuQ2Lw36q1wnN0dGEOBqMLElQl2AhszCT83%2B%2B3vSz72aLxqdAMsvXHk3AuCWK3qptUvvKHvd5Z9GG7q%2FqbvMeFCdqqLWYbYUob4JeWRYojSZvfnpBsI95th20hN%2BjhWKJ5YdYkSPazNoMhRo5CYip%2B%2FfnmziqrZdpWVSq7F6z6z6SUHcdfRfQg3J69WzYaj7QUfkRfmw9Dzb3SPlcQLgqaNEjmfRVZu%2FXYyGzRY%2FmXHD04DjSBO4k7nNqTn523%2BD%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387879328219?_skw=PSA+10&amp;epid=8073122906&amp;hash=item5a4f68d9db:g:tjIAAOSwD3BnnVgL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJSY0eNgUrI2OqCZ4i5c%2B7AP860HsqYBv8ONXYbRvUEA8lBjaeCAA0m2s%2B0qnKIvGYWjrJFwXfPp9wPwBrDv8tfUiFux04yqad2RkTISuox5C027BEgFTRLyAjo5QF6EVhR3hKm3n6Y2sSB3%2FW7XRWEPU5YQ4J6HxFAG3KVQJeXCZ7zNI%2FKhlR0Ri5OFjnbSM4nJDJaoRCB%2BC0VnbbJEDxpbjVsqUJa0tEq%2F0PiaCR5TIoslI4SRQ4cXS2tha5OSQcZwxhaAfYLLk4ciFp5WZr%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387879328219?_skw=PSA+10&amp;epid=8073122906&amp;hash=item5a4f68d9db:g:tjIAAOSwD3BnnVgL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJSY0eNgUrI2OqCZ4i5c%2B7AP860HsqYBv8ONXYbRvUEA8lBjaeCAA0m2s%2B0qnKIvGYWjrJFwXfPp9wPwBrDv8tfUiFux04yqad2RkTISuox5C027BEgFTRLyAjo5QF6EUWDjLhRO1Pt%2FctSX2TPRx0gQuav3WloehMclBo2pBWo0PCn64%2BScYbFhTfXCg3Q3fug1dcm5GavsA5jVsZ1iapaZYnAh%2B4rNLoVU3Fd8M1pkr7XKNY%2F9r5aeywxBc27oDwkKwxqFfU6R%2BlBKEDJBEq%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356517561020?_skw=PSA+10&amp;epid=7072433934&amp;hash=item53021a42bc:g:d0kAAOSwUPVnmwcR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlgEQ3UQZ85B5IiOgm3%2FHpaiEL4Wrww%2Frvzl7frvTKJWqQaJD3bOc0lmQzyils3BceKK90F29EheKC%2FFpvJZhkWz4iDwXEAzFqfxsiFU50JyW%2Fz6AvgEJcBFykYUOcJP05KNz2kUsXhQ0UOSy7sVMp%2FBC8CPO6H9qNF2A70bXnmIM%2B26AQLSISkKAu%2FV7kp3lJJ2l6uUbUYATp%2FtiYjCh%2FXkfPPrDIRT%2B6irmv2RKPhBw%3D%3D%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356517561020?_skw=PSA+10&amp;epid=7072433934&amp;hash=item53021a42bc:g:d0kAAOSwUPVnmwcR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlp98UyYnVPma9Svs2y2Z%2BihOyIGS14ZkLWxbXRtcaxiWg7seQsAuLPbetVBTFuOGaJ7KkDz5hbcGLbaopjcgjxyHa24vSkDhpGG%2BM%2BAAiU%2BSq%2BSzv5Bxl1RLz4AI2tZi1303qQqa8BejNyVD9uTerIpTWDXU0Rlp%2BZ351mVb7ACSv3vcxsxVdROA%2FEITf76kMBBcgC%2BBtNo5CBd9HHP6nWOKjxkkah8Xf8CtBbJIU%2Fpp2rTtLjqDbXTRFNZQgo9M1%2B3Xd8CVpiC6%2B7iojMmhTG%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833370275?_skw=PSA+10&amp;hash=item40748e00a3:g:tm4AAOSwyEtnmB1T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnTwh92HQBejl2WabPMwDHYf2ESk%2BeFt9bJ8Q0fSn5NpkDD6Oj0YJarOky6Krry0aA7%2FbQ9JqyC7FbEcb%2B924aB57d%2Ffdx0jpeVBn536809racsOs5toRK9IjFUZeBI%2FGdD%2BFVPvEqrlUTEXss4ZN%2FDjj2LsuC2FyOnpWJdxb9ABGj2G9z%2BSgsC8EUbCdYVYPEf11x%2BGLPdFdr0EL96dpWMxNWD6IZMkOj%2F7kMs4Py%2FUPedbiX9%2FviNm2lUhtke3pYXe0RcublLogU8aoC0bT7X%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833370275?_skw=PSA+10&amp;hash=item40748e00a3:g:tm4AAOSwyEtnmB1T&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm70tExx0rT8PNGj9nTOof6d1ozZrRkm3SkQsWOb21%2BCPAwZBlb%2FCo9u28GpcQFf4q2QJBGcC7odGAb17Owv9sf1oYVIf8mLHgF%2F42fnHiomTWWkE16A0qNe1DGWuCSsoPumXsJewgpimsQAr5oBpEOlS9ZQ31Bcv7t0RuaRGm17sgvvCGWwYR8Mseun8NXjLagqhoIeq3mtcU924SzIgW39xwS7JbWk2NnTPV0BTDleQ%3D%3D%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833370308?_skw=PSA+10&amp;epid=25055582347&amp;hash=item40748e00c4:g:8p0AAeSwfjNnmB13&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmx%2FfWbyOXviL%2F0yalrXEASPfG5z2wwWmi0H8dqshywJjRWfpbC%2Bm9GWgFwiMVlErV1o6Un9zno6QBC3pWfg93KhLhM4KdieSTu9pbCpkNincAv3IY5TZYWILH3jRCGVy9qIO9d5i6d%2Bv73ECOamMy9wP9E7FHQG%2FstUjWRT4HMig8H1c%2BwXAoLynntHcq1ex7BG5NqAY3osts5UEb3vN2HzEKR2GaqCYbtBNy%2FMEC%2FWA%3D%3D%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833370308?_skw=PSA+10&amp;epid=25055582347&amp;hash=item40748e00c4:g:8p0AAeSwfjNnmB13&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmx%2FfWbyOXviL%2F0yalrXEASPfG5z2wwWmi0H8dqshywJk%2BQp5ybybWB0WuCQ84RNr72CKdzepmYdY8W%2BManxacpfVwriPTzCeGcil9t422yvJAi4%2Fi9WKyQXtnMqtX1pZqAOlFtkzQ0Gm7Nf2UfcHRBwAR6LuQ7GYmxLQoGPdVVGp7nfy%2F1F%2FRHUmIWZ1Bbb5zwRQYmWGEmliAg4u8P%2FQe8mT7rhlEMxZNQxgW8cXbxTg%3D%3D%7Ctkp%3ABk9SR4Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958436894?_skw=PSA+10&amp;epid=3065174995&amp;hash=item5788de7c1e:g:0uQAAeSwMlVnmqzG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk3RuXEGJ2u2s3M7z5qkhBlzp7fapUaUe%2FbZHp%2Bww52Sirx7uwRsWsxtAZy3UjoqhmwgVNzlkGJ9qkTVZpc4fqSm926ZCvqSV1rjLe7AoXClswcn5ujjzO%2BBxST%2FC0qCtBvI8zc%2B0R9Djt3q%2Fj%2BNPjcwsRfyoiMEXrEoh%2FprHmPcoxPSgcFTX731QvbJeGzCbLdmisovHtJFbm2NMYHLHtTjrfNv22XfhmLA06Vi9E0iA%3D%3D%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958436894?_skw=PSA+10&amp;epid=3065174995&amp;hash=item5788de7c1e:g:0uQAAeSwMlVnmqzG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKknuf%2B31AR3IbN2tU4RPxpc1zqleS1xy3kG49U7Dktop1gHvgDT8GrjGOyNYm%2BfvX8vuDAVNioAvdthDXeLhLuKaZJC8K7b%2F31cx3P7XFN2sMmmXwxtkXq5X9ryv54phQWf3uAwgiEwdCd9Eq%2B1%2FlcX%2FuzFYEyF8G8s96NjmQMGlvpPyCHn7RAMAqPhpW2oB1Vyg4b8wUQlYI10%2FH0GNkPUzVoSsIhjvAMfq0JFay584Tbdtvpe9aBaVT85xc3ran5x4d5iuu3RRcn06uXAgV3N%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909236338?_skw=PSA+10&amp;epid=8065168638&amp;hash=item1d8c614472:g:1M8AAeSw1y9nmqxs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJmtIwdlbF6ngbtPRqgGcYXtZxZYVm2ecyBV5rZ6ceyrjerH3GQbZEI8sDE1rUIrQnS6fgbgd%2B1CCXpgKv%2Fj%2BZTnsPPOfS5jdVB2%2BagDVdl4sq28chxCJLLpHbbim8dBWq1TCtzVS6zmmN1HSzTScT4%2FakllgWlnXpQNVhQBX3aI%2FhSnYzHT3LWOWPG0YRvS6zz%2FmrQzvwqJSwQJVX0q8qzHDDEgzcHueP5r4M1Yv7FSKfdFkxOhjs8RbD5l3nnuLfSE3Ozv21TedKsmhHS2Ve%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909236338?_skw=PSA+10&amp;epid=8065168638&amp;hash=item1d8c614472:g:1M8AAeSw1y9nmqxs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlJmtIwdlbF6ngbtPRqgGcYXtZxZYVm2ecyBV5rZ6ceyrjerH3GQbZEI8sDE1rUIrQnS6fgbgd%2B1CCXpgKv%2Fj%2BZTnsPPOfS5jdVB2%2BagDVdl4sq28chxCJLLpHbbim8dBUFQWuKLkVSc9E%2Fa6mF7ET%2Bzw%2BaO82V03yl9XFayDL3%2FXDILYhJPZo43FshA7HjyjcL7KovUKs49a0DSP0EXpVTn07ywRphDm1EsE2leyCXcwM3sJ9scT8L5DdAvpNKncOEduYzU4yhDSNl1G8tVQHA%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958436872?_skw=PSA+10&amp;hash=item5788de7c08:g:7IkAAeSws6RnmqzE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn04oOtLc5G6M3BQWQ7GFhZimu8NRP9ZbzCv0AAbrmJ8LXXKxrJNXld5XM8uhRCsxj%2BVhOF%2FR%2BjpvWMPgTflbeLMIOpfSwWraL9S9FclMOW%2BUkTr6bmRROI%2FNmzufNblIJejLaZ2qokgaFnwY1Vv9p%2FCI8WD16ltwJ3xYzT0FaIdSVQ%2BQp7q0RXRSEkhLd5Lj%2BO6g3d1P0e9phjt%2B3vUnoRWVdR8ZxzNI58jcbawsFgEPgKIUZ9Gu4k5BilIO0IfLQVNytjKXHsKIPvpJt%2Bejxn%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958436872?_skw=PSA+10&amp;hash=item5788de7c08:g:7IkAAeSws6RnmqzE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn04oOtLc5G6M3BQWQ7GFhZimu8NRP9ZbzCv0AAbrmJ8LXXKxrJNXld5XM8uhRCsxj%2BVhOF%2FR%2BjpvWMPgTflbeLMIOpfSwWraL9S9FclMOW%2BUkTr6bmRROI%2FNmzufNblIIKaChrGulRw5XdJZl5lej31lHAyHc5kD3S%2BD4NE4vsbt46Lh185UnD5HctcMq0AXRHJNfWkhsdLOoFlPHY6udp%2FOwptgqNHuF%2B5I07U5g9usfhRlgoEhAMamRleyjIqE3BCnQN3t6kSTeVvMaumbNw%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833370303?_skw=PSA+10&amp;hash=item40748e00bf:g:MPAAAOSwYK5nmB2T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnL8CiX1CI8B%2BkHIaYIrVHgM650muwT%2FcrT9N2SS4TTNHH%2FE47YEH2fE4N%2FmZiWNWrpzRObmiM%2FOe4UFIWxm%2FLWTorDbqXB8%2BFjyj7q6HTq%2F0Qxs2e5IvG41KLOY6mOaTiQho9p%2BIvMML3gu0L2LnCdz3ynX2zWqHRCWdGvCy8HzTjvx30JJMO3fmQjGqfRnfdjgTFJqALhN30u%2B9dAUhZSZExnwG14zLkeFxQtfv%2BME9CnbnfCPcARlmgocSdy4pByyrixNIL6gWGlsUUJ2xjw%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833370303?_skw=PSA+10&amp;hash=item40748e00bf:g:MPAAAOSwYK5nmB2T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnL8CiX1CI8B%2BkHIaYIrVHgM650muwT%2FcrT9N2SS4TTNHH%2FE47YEH2fE4N%2FmZiWNWrpzRObmiM%2FOe4UFIWxm%2FLWTorDbqXB8%2BFjyj7q6HTq%2F0Qxs2e5IvG41KLOY6mOaTi8f%2Fen4KcQCyebAO6TMn4cewKNvgtKV3SwbT%2BBue3KLV2uKnem5PdGhj3HOSLyd79iopT9SljFqrYr94Nh0YgjM0NLRdrBuT9PAMLKDXZ6FrkK0xQbzjk53Fb2lHV7lFNaYeoQ4LQHq%2BdVt5X5mTiL%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909236145?_skw=PSA+10&amp;epid=11055609703&amp;hash=item1d8c6143b1:g:7QIAAeSwzt1nmqwN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmWdHBIyfgq815cL7sJA906GVIFEcWzhaN0SxdEsvdOl4ZgHn2r0eTh3ocYzt9bZw6kUTbGIyVvX%2F87CozKQgVbiZCZcLwaLpJDI0zWmLeKUxwakASFjsP0gghfxlzZ0Npgoj0plRAj51n7fcbo4%2BIzRJpFx3JCF9SYFRSoEbR%2Bkz64bjrVX9QgeApNlDz%2FutXEG62VmP2MeA3oZMLHV0CvM2v2p8xu72IPLVPvHBT50g%3D%3D%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909236145?_skw=PSA+10&amp;epid=11055609703&amp;hash=item1d8c6143b1:g:7QIAAeSwzt1nmqwN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnUTVn6PdLDpYDfp0wu8YYvxjsxTkmmYF9ySidl4ODHXj4W3oItdd8Xy1oOxjuKvWFjz5oyxnh3DvcHpKE1QwA6ugNB3rSxWRHOdtAPK1y2PtKYMN%2B4K4IozEtLwT%2B2rTqQuJbIeuTSbXQdTMLzdBYRHPCx%2B8N4GD%2BYSH95puu4WHV1zTiS%2FqWMhlQEnbDIaWm25BtSd4QrDAgtsw0bsRVKcjxR5o6LdatwwybZ%2FC433uaO23FVbEMp0MhfpR2rHsVXOqjCHfk%2FyA3V2A8QksCT%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909236134?_skw=PSA+10&amp;epid=7060326748&amp;hash=item1d8c6143a6:g:UZ8AAeSw2jJnmqxq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2Bns%2BVcnXmepuXT6VsKwQYhvAFTUvp%2FFZ3bU%2FfDzZobqoTeis36AWr3s8TFJbbgpESPd%2FOitZuY6dkeHCaMHd%2FWOcmUtpU%2BkNCXFsKPLLx%2FEivJH%2FNnEgk9u1DahFpPNdO%2FokHpYoeXddrUMXvhqTVHJMoRpcKq46K8P8Fzlj0sac49GBdb43LUXxtDyvi6EogeCO2lgQFOQ54r4eZ9nSxBdeueGd2tAwJnVeFBxPrsA%3D%3D%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909236134?_skw=PSA+10&amp;epid=7060326748&amp;hash=item1d8c6143a6:g:UZ8AAeSw2jJnmqxq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnzXVl8vMNEjeVwVYJKFsVgEKpvavJTl8GbeWnBGoSDmQ2s0Pgwf%2FsDrlppixkl8NSCBn1K%2FM9a72p1C1PkUfiNHkzOLYIRrf%2FpsbsfeYJp%2BBVPIO0gbgCGYfC2L1ASEWHKZ9TWEJtJj%2FOexQcWw0wz7nZEW6M5WBA9r4aTHDeErrwzQgEBpelgZKq2TkdYl7a4EVG%2BrCgsSOCO%2BrhEzuEU%2B9ZsI%2BSnqAvESXr73AbwLfUm7XCALt7IveBgC6LUtCeJyUNC%2BAa%2FVRqo4swRbQOt%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135414144892?_skw=PSA+10&amp;epid=15055545406&amp;hash=item1f874fdf7c:g:B3MAAOSwO9Nl55jk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkNbFI6htgL3%2FRfOop1Yq%2FijRQHpb2k%2B8UMNao%2BE8QoAZJio9w56lWysFR%2Bj5ni6Suh7gkeYJHRpkCA75dO8Zo%2FgGzNbbvqXQ0LKkQtiSy6lbcEcHFQ%2FE9HXiMvKiNBV8RW%2BbancwygGQtnM2Ul5xCCwzON1Zng1zs0xRCFsQe1Zy8aiARk%2B7pxlTdubZQEacJtbVbWfI3L4TAmUOwwZzpBkSLlDBvMoHNyxwgAxHWmkHiU3A%2FqgrVHzdzbIw940TuvD3Jus8SpZOyGGUVA9Skq%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/135414144892?_skw=PSA+10&amp;epid=15055545406&amp;hash=item1f874fdf7c:g:B3MAAOSwO9Nl55jk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl4j9csQW9Jh%2BndZUUcElbvfPNO9Z0DDf%2BX32kHjaiXmYOZaysIZsKF7jSYzXrv3duXy0zjhOC0J9rGYH8FbVOszBuha6F3RKicDBaGyulNk0JSEjbfly8Dw52Crfw8Pqadk00i0czGWyMesvEAba2o21TAhRpRwKk7CJ%2BBdQejTdffvC0zg90WhqQgdZV2jH7twSAa6qoJ0o4xD6NzmYpqmg83VlQ4uiI--52SR9UOxw%3D%3D%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356393790803?_skw=PSA+10&amp;epid=18055564842&amp;hash=item52fab9ad53:g:rUIAAOSwIRtnZfx~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKns6e5tSHjwpMfJ3ajjJdU193rApUnHuV0meVeuDfFThECXkx6krhpN5ElKmND0XoWYmEQSejUYJkjhDphl%2Fs3orzxdthXhYawkOjRhfYldk2vwgAxVdqe1cg1zxmfOp0qXAW%2FEW3DXUB3Xuz4B6zAHQZnzxrTAKJEQIqYqrROvkAgPTb36Zz4oXqkanOipiU3226TG7kYsR8pM%2FKLEbjd7uiU6JDTJpz4iB0D3qYg6aA%3D%3D%7Ctkp%3ABk9SR9zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356393790803?_skw=PSA+10&amp;epid=18055564842&amp;hash=item52fab9ad53:g:rUIAAOSwIRtnZfx~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkB%2BFjvPZsWC1j854Kv08exAFLRU00JkikpfR2DC94rOKgd48Z82LK3reoLBUAXChKeKF2LIRgURCAn%2FQ6CiHUqp8pkjxs%2FDhmHzPSbrdunIiaBG1ISm2Yk6lL0wtsCnjL89OermhKjFiUz940LN1tLCJzCIdpGRRt8Wja%2B3bbD26CZOSBV2D4alrL1yKDDwLdYB4SjiKcVrzSG5A8C9MdeXhgx5wViYfIbmRqSikO791%2BqfTVFp5iHFdYI%2FasWWl7L0hyRh2cKO4iR%2BlkGg9j4%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186916163625?_skw=PSA+10&amp;epid=26070320282&amp;hash=item2b85125029:g:jJAAAOSwrl9nmDdS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlusmTi5p5YsH4BllmHd%2FQzz%2BDntwyjunr9Z0LNGP91mloAL7T%2FZGgMw9AoKGPRwVx6QfNcrhGgIoqNuvf5yXq%2FPYF%2BRNpU8kO%2BctHpbj2Yzu6NeoG1QDX6l9ZABWSH9QWhBnTthw9gUeGXtfclV6FUMfig0K6qSx%2BfSW1ZsTyRyIlKVSOQU6ichYwU9PLbja77y1SQL1NYOcSlKrNP5sS62D%2B2344U2m218Rd1sW9mGw%3D%3D%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186916163625?_skw=PSA+10&amp;epid=26070320282&amp;hash=item2b85125029:g:jJAAAOSwrl9nmDdS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlusmTi5p5YsH4BllmHd%2FQzz%2BDntwyjunr9Z0LNGP91mleeGSOIVEnJJ51LzAxBxW49KRbM%2FGfY%2FWRCmRnrRb6TGN03nviEYsEFRgVr0rMJvmDCaJwhfdiHe2TugFDp0ruNYSYI27ApqkvrbTTQHlKjjIKKRm%2Bb7CRTpPepCbzsI8nbS55UgX5yebhG2IoV9dRD9xe%2BF1313aFgKnq3OEjHv0AnopbC5sd%2FBZIb6%2BTy4A%3D%3D%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366700677?_skw=PSA+10&amp;epid=9070305288&amp;hash=item55118d6a85:g:iOwAAOSwJUBnl79q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlFCxquEUBqxKe4QkVbDzTL8LdElB6MeeLJj%2FHO678d6%2B7J8Is%2FMp1lO9hLOjmZe%2FxGEEwNlQGpzvkM0KAArpcNZqEOZA4dfA0Ctg5ENiYVGbneBQUStGl2lfOC4i18cBOOnjhsImpVl6FhuVxCaFTf3HQNq61%2FkSlQW87Xyq0LufuSppePpD%2BV7cssDtWnWASdD7sKR20iK16XLtsxRB6Fi4gVwhvHgUOAU62IYRq42Q%3D%3D%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366700677?_skw=PSA+10&amp;epid=9070305288&amp;hash=item55118d6a85:g:iOwAAOSwJUBnl79q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm91B2eMz1Exx2mdkCSHWk2ooj1DT08P9SCavBOwPr8NtSTpy164E%2FiKITV9wGPihRoGAOKI9Y1J6bRkZ%2Bgljfeh4sy6cCx7%2BQhU4TxKZgOh7p79EKeLyrFoALREpUTAdmlGqnSqgqpSshjb%2Bo9HgUabSc6LSDWY5gHt4fcMYcD5RZc5dwV2gB87KgeJsFPpIKdcsIlt9fCVnPakX8luUZH5cXsuDJA0xSmCWfkY4sh0Gei1uLEHfNMmft%2FCdiJwKIW49oVznI%2FPS7CCFjizgA2%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954137409?_skw=PSA+10&amp;hash=item57889ce141:g:0nQAAOSwiKRnl7-8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmvCdXa7VmvE6woz%2Bw7p8F4ga301pHO3R9R9Cpwkyws4TAdahgkj9YgW6KPRIf9%2BFC233%2FBDte6QUs5e4DQ5udJr%2FoYkdp%2F4gqaWcDkwLWS8WhYE1n5TuuQ511NsBAdn1NJb9E1gwl%2F7p5QhwUbcXnert25qEfjv9HR%2BzqFdHQDwv6B8Z4W5TyK6mr7uBKN5jjUWM73yI3XMAcmzDmXZ6IfRt5YlYqD0ysfD7CE5h%2FEdg%3D%3D%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954137409?_skw=PSA+10&amp;hash=item57889ce141:g:0nQAAOSwiKRnl7-8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnGvui%2FhwEGXi%2FSnipQhu2AacCwVOQmkhfyTSl0ew98txkYZkTYk96hlyo5q6Y%2FtSXrrQlvUVv8Tz3XRUXTr7QUtWZWN%2Bw%2FZVtR8qWzOualXXmWdhKB2hR9X%2BnK%2F0BP%2BpoYmysFlHRrBTfo2uY%2Fne%2Bb%2FOHdPrcxQ3fqu1keOzs7VVyDOVMl87MUu%2Fi%2ButB7JPLn4pzs5k%2Frhn%2F%2BBHROR2IMvfkOARzHK%2BvsoKqe5io5rN0Y8d2F4DS5U%2FqFtrGX3SMs%2BvIvWLy24PDt002GU6Kj%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356526535199?_skw=PSA+10&amp;hash=item5302a3321f:g:qqcAAOSw0ZVnnvG~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnmctbCcQP3E7yg4NAhrKHxZ2M3l58WU2hUpBTTgSKeKa07F8FRzAnvV5GupETcfvohDmjrSQVbhFJgCRZvz0Dz55bnMq%2FJOp0QTQl59ZyGGoO%2BdiNygYA1C8LQWoaKViBemQmk6rDMMxziiqnmzF%2BA9xGqng7%2FM5SDd1ZuIpuBQ6CsSJcWu8Sw0wQmryn%2FVjY4uyRmy%2FUL7mwHd708LZeLybPPN0vqi4x575D9WEaCcQ%3D%3D%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356526535199?_skw=PSA+10&amp;hash=item5302a3321f:g:qqcAAOSw0ZVnnvG~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnmctbCcQP3E7yg4NAhrKHxZ2M3l58WU2hUpBTTgSKeKd0VqDpALsGnRyx5U%2Fhw9WeGaV5GHg5aTkdyW%2FQyBwRAt2eo3mO%2Fq8viiM6lopxm31RWLzyBuFclETk%2B5AmgAa5t0SlTLzH76FpI4cjd%2BMjFi2V2SRQwTtm8hdkZFaBDpnkGtd5HN8%2BcWMiYEKa6DD%2BgZHkZXG%2BhwA7pPrzfnbUxXWIzfZCWMEljUfcahZpmiA%3D%3D%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954467782?_skw=PSA+10&amp;hash=item5788a1ebc6:g:5CMAAOSwjARnmAfM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkmnTv2b6Quyz3WatxAcnorgneMWB3bwxzRCl92fHJSLL9DpmNETDGwjNSwwpuNt7NsZHDBbIBs7uF34t66MP%2FZAY8JKTLWqfu3xrOU%2F1Gz95d%2FtwwC9h%2FlrbN%2BeDRQNenxlhefOlWMSPJwqnysAZ5%2BL83cWlKH93li8RCzhK7FQkxMfucsgJTLB7FQlmcs0vx2I4sEuwjPetINkBOyN4N8RImlTvYPMke%2FKierPGPxUQ%3D%3D%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954467782?_skw=PSA+10&amp;hash=item5788a1ebc6:g:5CMAAOSwjARnmAfM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn3gs%2FAQpMAkyy8SN0MwtPwFsOcvg53v%2BBKg4OjsMPcS6yAKYIbNiYf%2F2DOuk6U%2B02cQ9%2F9fSnEOVAtIegAEFMzKt67SmedfOZc%2BydeokIDZsvOzJ%2B7STuCEwWMo6dOrNu4fjwizD5BO5VB9nURwwSDNiLtX1XN9LgnqaUYKBWE4jOoW6kAYDqJasASvQOzq8LRoz4n%2F%2Bow7S2uqVWkW6Jtfblo5BSctAHpwHbfSr%2Fg73lp52L8urBrP9tsXvGCvElGwIcVxuhenJqsK%2B7uCrl%2F%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366987686?_skw=PSA+10&amp;hash=item551191cba6:g:GsMAAOSwAK1nmAh6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlLIbXlXvyat6MXwAhikieTpWgjeWgZrQA%2FAfZ57l8aRrwOKYxs%2FN9sHA4mGau%2FinuyG%2BUjvhzi%2B0eJg1zkrlL8DFykTyfNh%2FlqLP4ltw5yxQvCM%2BLQ5%2BTSgLPhJ5d7xBIntrISkNjysE0IsX4JnH0jGkVC0HUW6uH7zVH6vR3NLBIon5HK2Nf1TQYDWKMS5GThrpgp6enCMN6tCrhU3FEhIEtLUT%2FR3Zw9Stzjyra0AlY5oqRJFIfXlu8cMm3TnU8NLfB2cu5EFF5dKILS6mY7%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366987686?_skw=PSA+10&amp;hash=item551191cba6:g:GsMAAOSwAK1nmAh6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmrghwGs0%2Bor393qecCMcP701t0V7LkTOgfVQ%2BswwE42ah3lsYvkQU7j1X%2FiRDumAY5uNpt9oZ57YHunWyFIWQntZEIz14Y3tDrfdbYvy3QRiKXiJYh8fRtV6ZqlO%2FA50S2SzxE9amrhvDeu9ytd%2B%2BRSAaO2hXSb9omONGzH%2FIAVWKpXcvC8%2FdojW2IEvKEY3GioP7YBiJQdwI8oeSTVSNV1%2BWFwnXlSMJre0g0OppQUg%3D%3D%7Ctkp%3ABk9SR4af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866752459?_skw=PSA+10&amp;hash=item5a4ea8f5cb:g:MbUAAOSwQb9nmAg7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkwuhu%2FR18VugoZkolSTvpDZxw3lUgFvv7i31VrXdOpWk0yWkHF5y%2F%2BvsNPlV6PsYMiLHGPaT6e%2F9i3jNynDf1V0wv%2BPhHUWeebb6j0tU4hprZiP2t1ikZX01L6RbhP%2BNGMslX6OH8HMgWnPREkzCoZn3--7IEA%2BFplqhI7nH3hT0UMqIBevQW0sBkS1SGznHfmbW%2F%2BqDAqzb%2BdUZv0lw0Uob0GivuQcFEuJ7ImQZVf1g%3D%3D%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866752459?_skw=PSA+10&amp;hash=item5a4ea8f5cb:g:MbUAAOSwQb9nmAg7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkwuhu%2FR18VugoZkolSTvpDZxw3lUgFvv7i31VrXdOpWnfabaSLjzl%2FzSk%2BCtQb6tfy0ozt%2FQFBk6FZH24TBdaSmIDcephHE9x4TH5KNujsLgBi9apVWREuVqxdpC%2BXECLNcuIOYcYrN7ByqV3OKdbF0Rp0d2A2Ah8yR4d5cW%2BmLmKFYEFlbRq8H3gMHKegPvFV93uKpj2C8Cxgx2eChlusYTMazHl%2FbV1WPuTdHO2Ytw%3D%3D%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196976129763?_skw=PSA+10&amp;epid=19055622506&amp;hash=item2ddcb136e3:g:oVgAAOSwdlNnmCZu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlR53yHUvYTfZwbgcV0g5uAH3c7Oe0c6Vc6w8FGBKAm69o1DHRUma2EhTjR98aC%2BrRmi4iHHby1iYI70F72xI1iaGwKU6XsuEUdAvJSkcNlPAp%2BV7cZHACYaHni8MrAcEQ%2FaaUbBXaBqAR63vCJKyZlHcvtewrgMfWu4smKR4kI8hzVm5nWkfOerEEw%2BHWI%2FsSXenwzFzyfL70U99bz%2B4KUx8MCTKpNXJL%2B7oNqjd89cNRksLG7fARMuArWnsRA%2B5efid3adLVh9PEG%2FVwWrqG4%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196976129763?_skw=PSA+10&amp;epid=19055622506&amp;hash=item2ddcb136e3:g:oVgAAOSwdlNnmCZu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2Be74x16gpDBIVhGteltv%2FqKHWUuAoutGQIwkb5OukhXsLhlIRJLZfOm83UsNlNVXxD2QThfpWj%2BUk7gYtF0B%2Fqc7qvmwf7JKL%2B6XhSiY0Itns4ZA2LK7X5caovS7WSeZDB0seftwTg%2FnPlnWYLkLSGYKBDONAuoo1rJ3iUAjGzMlCp39QmeOhOSVamFZ09zHCEhKkwJojmrY2i1x%2B7HubfScIj3u6j7kwkjh6AeIw4A%3D%3D%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335787489737?_skw=PSA+10&amp;epid=11061007881&amp;hash=item4e2e7e79c9:g:bOEAAOSwz-xnmBqd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKWHLQ14%2Bhtbb7tS8ayCBckk4Fp4%2FPu%2FO0Gj19wp30R0wxb5pRzc8cEpXGLRIUfPnUot4%2Bq9yyHlA6VSqSnPKNMBzYR462HNS0spaJ5V5Qi%2B%2FYV3wBht5RQJe7EkbICK2%2BC1E63%2FEiTGHuAUoClE%2BtmOGxPh5x2%2FEyo9KNE%2BCEeTxwR3FdTwafsvtKBqy2%2BZIFsOPNKLJj%2FX0SXiK%2FMD7uJOion1ITzMlx2SUXj%2FMSMGCwfuJHymkDj3t90vOYQIKiuCb6K2NZSOi0lGr7tDVT%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/335787489737?_skw=PSA+10&amp;epid=11061007881&amp;hash=item4e2e7e79c9:g:bOEAAOSwz-xnmBqd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKWHLQ14%2Bhtbb7tS8ayCBckk4Fp4%2FPu%2FO0Gj19wp30R0wxb5pRzc8cEpXGLRIUfPnUot4%2Bq9yyHlA6VSqSnPKNMBzYR462HNS0spaJ5V5Qi%2B%2FYV3wBht5RQJe7EkbICK0MQlHcmak5OAqOw0GEGqmMRVnoL8t1p2XmigKw80Jt69rHu7DSbHI3xffzJcOCMC3pxmTv1iwK0Vn%2FxhRD4rCqOOfpl5DZYtYQ0sRCKifTBgZQ%2BoMGE2jAX6PYQ3UDmv7syCRmS2I3m19%2BqFVPWSIp%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356484987790?_skw=PSA+10&amp;hash=item5300293b8e:g:4dkAAOSw86BnjVNo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnMFgUvGYl3kWwV36LK0aYoC23fv7NdDwBbU4eGfnTgK2ooLMhX2pWJGc6OqyuFId9hvH9lh2YSuWoanPGQeDnDlTvKDgBWF5qvEycn2fC0RlN2Kg1%2B8MTjJR4inPGX%2F7EUwdmAuS6KS9qf4KqconRFsMbX9iK4w1vaduel6%2FETDLb08dXnaMvipTSdxLD7F32K0lhN9PnpLavFXxQHjUrCphIwAKSZM4I4rAK6gLm5e8couTcEn0mBEwFv%2FIxAtv0DAf3R0b9DmnA7kLOH%2BGwr%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/356484987790?_skw=PSA+10&amp;hash=item5300293b8e:g:4dkAAOSw86BnjVNo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnMFgUvGYl3kWwV36LK0aYoC23fv7NdDwBbU4eGfnTgK2ooLMhX2pWJGc6OqyuFId9hvH9lh2YSuWoanPGQeDnDlTvKDgBWF5qvEycn2fC0RlN2Kg1%2B8MTjJR4inPGX%2F7EsjE2tAMiEHJKkaLwsM9CkuSyCP1mPoDyLKZHWm5Up%2F15OcBNLRbRc%2FbmBAjWeO3gqfK9dMB%2BwtnmTmJsMJRNO4CHsLBrxSULRZynkWHupJQ8mvPnzb8qqaNtenGxoe88RHgK6TCsDB0gswhxTss88%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387694396652?_skw=PSA+10&amp;hash=item5a446304ec:g:DIIAAOSwmPhnUS01&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl2Na9ntU1uvkMsLZovME4x%2FFp4h2gani5PYZkAMUD8A2wriNJjahEEp8YnTb9AvtMya1anXaZXTb%2B8wXSNctqYyelvG8O61hiOu2LQRdxNmSppXqSpTMSi3Wxs3C%2Fna1LeyycqzioJYGIeltAwlKjmGeEDISu2FuzxUDeCdn4Xd5J3fVh25hzkUP9HA8ZO0xqrW5zX8Q5YW7cH74czxgX8NgVde3%2FwtZbBfblltkKSMEj9WLb2hQzhVVSqZlHUcPPevbWwR%2FN8hQBrD4ka3pws%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387694396652?_skw=PSA+10&amp;hash=item5a446304ec:g:DIIAAOSwmPhnUS01&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFkijSoBFH6Oz1CCE2MsuoVZX%2BJ%2B0JdCiGeT7soUp6mG6qzZ%2Bcl4YYihHOrFPkmH5GvK2%2BpmomV1AqxkJznokbnQ8l3lK55CDeDVyAHRr%2FwvvcOGnQZcYPAcfZ%2F01e%2FrdCyaIkrimumdN5ZTQ78vnngwYYXqKNH7c68u9n2EVv%2Fsi5oKachGUD1ymrDu1hz55wKTj1g%2BGWB1F0001CnjXPyW%2BtP6WfTNTPInAnUuVsZQ%3D%3D%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175869606804?_skw=PSA+10&amp;hash=item28f2a53b94:g:dgcAAOSwpMpk5A1V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCnApl%2BxjFbCZgp8gZvVA7mVSEzZ3Dm3oMkmCXmpaIaIA7Rea0MKJdeKaIfrGz6tEJOmNKvv92ma8%2B0BE2kHYfEj5lemJgkYet9%2BINFcz4UWmDKWE6lSD0J47cCIbEoYVehdnbwaV4QRPZXHDWrTio%2FPeNtn4bWJhMcrIDf0mH6Gkd7tagcE5Rerk2klRarm9jkiblG%2B1x7orqEZC0CtcyWPPPA4iKkOApuJF02A9aXg%3D%3D%7Ctkp%3ABk9SR97h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/175869606804?_skw=PSA+10&amp;hash=item28f2a53b94:g:dgcAAOSwpMpk5A1V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCnApl%2BxjFbCZgp8gZvVA7mVSEzZ3Dm3oMkmCXmpaIaNO3ujexhFicEJv8GeyhBLPhwGezlQjpMjC98DLAf1WEVgUrrGkhjti%2B3ywgl2shCFs0euXEJqRT6T5VLT%2Bj%2BkcgkIkRiBMAd1QkxHB3JE3Ayy883XgO2vXFZld96NengT8DCTBdw9j1lTxheq4vuNfzZzO%2BGLe5pLzpKjE7T32bhOzPgxBqHS%2FligyW5PvU5Q%3D%3D%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167279340700?_skw=PSA+10&amp;epid=8065169133&amp;hash=item26f2a02c9c:g:6X8AAOSwkGtnmEwF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2B6lEBhHfiKow0PME33O64C9YTNGEhRRODSNcLEj690DWv0z6dmp5BJbolOKZW9NpVYLyP487rcW9zK65y1g4nEoneS4eoSa75y6nHYId4z9qrUvT5WkpVq4fY6nL0oarbWhV0ZKsLKZDlNYOQ6WKJF9hC07XePcKu6rrXuSBbtzg7RdcHbQRZ1QcQIXdaqAWohWYpZnDZUBi2FS7f3vNKTL9uR7bvwFnIk8qMVQbgCC90jqYWa3u1NoIOSN22OEUD062VaxmunBa0iiPlTzHm%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/167279340700?_skw=PSA+10&amp;epid=8065169133&amp;hash=item26f2a02c9c:g:6X8AAOSwkGtnmEwF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2B6lEBhHfiKow0PME33O64C9YTNGEhRRODSNcLEj690DWv0z6dmp5BJbolOKZW9NpVYLyP487rcW9zK65y1g4nEoneS4eoSa75y6nHYId4z9qrUvT5WkpVq4fY6nL0oapmHRkrQzSu5cvgAOx3cRULoCffuq6POZFKnahnLFz%2Fzauby5%2BUAoDIeGfeNBSwhnvszF%2FECSzzdpcRrDYXFtgNvhY516htkYPVtX1vACKG909ZRFjYDmpIZ8vzZp2Mh9My7ThMtlz8MO7PA4FfzNyu%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366989332?_skw=PSA+10&amp;epid=18065171954&amp;hash=item551191d214:g:qwAAAOSwa1BnmAjx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlleW2myc7QlGuuCAoUB0O7484qXPBxJv5uqasSG6Xg2B2JnBtRtLVebUj0bjYX91kzfZa2XD46HFM%2FLgfCzuvVuSZuFk6A6UCR7MKfMPbPtQYGeIQ3jNFHH4qRDNIpf9%2FYl1Q92liFcrkL7tmZNdpIhZBh5BIXlZq8qweIESvnudvsO1fPLLf1zrsAaUF8nf0RzD5avn0wtveHojyf8e9kvlTJai6JZmleLjCLWg1mGDvTCKK%2BBOvw9NgwiPJkkUzEEUhJl0UvWskD34rBrw2s%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366989332?_skw=PSA+10&amp;epid=18065171954&amp;hash=item551191d214:g:qwAAAOSwa1BnmAjx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlleW2myc7QlGuuCAoUB0O7484qXPBxJv5uqasSG6Xg2B2JnBtRtLVebUj0bjYX91kzfZa2XD46HFM%2FLgfCzuvVuSZuFk6A6UCR7MKfMPbPtQYGeIQ3jNFHH4qRDNIpf9%2FFJgCVtE1CZ84td2ze8gV%2FuJl6AuSjrPYjYg7JjJWp2eiXDCjyTF0jG2rRzXtL1RRzsG06Fe89HcA8miVUM0WDSpYpZ6knkPWOLG1dwa1Px5IBOnCYCCM%2FZdd8gwUp3mOawL6beqE%2BNYlSq1hx3QAO%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366991785?_skw=PSA+10&amp;epid=15065172850&amp;hash=item551191dba9:g:oucAAOSwWaJnmAmO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl5mCQFoEXCrsCg79qB1gh0qRIxi7iEudjqFwQPXRPkAbyqtBZ7dqN9%2Fq46VlosIb29nQh5cGjbQUBZ4YHLn1fKCYf3dSGoxVIjGNhfaOrwp4%2BKAYnXLTqXG49xCbTyVIvj0KzHsImPEpuPR8BxqC14AgtpXenc6Nh0DrvlH%2FUB%2F9U4ZLQig7g8nMm7CpW8lY8eJ7lawZmILyd6vejebOXy%2BpCfc0Z%2Ft3r0fpTQfJxhiw%3D%3D%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366991785?_skw=PSA+10&amp;epid=15065172850&amp;hash=item551191dba9:g:oucAAOSwWaJnmAmO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkwKJOy34STayeBYEuLCHtOX8dfsobYxJ89SamljzVGTFpxLv%2BiaMp%2BThsdSkN5o%2Fxx3OoBYfQ%2FVp%2BYH%2BWuGrPOIrZsNtgSC%2BgZAQ%2BNDRaU0LRc5emvXyaJ9ERlL66RW%2BgrcdQMgYPnvrMrSAVU9BLBxZAO51jZVVmtJm7pXyXqFl%2FSWpOeGolZrrstWa8oX6SIJuSrMj01dSy0nMcxbkqFRRhSPPbw%2BQqUOOgLFWurHUKp7R%2F8mHBUbVfaaWdh1RF7WzehVDDdW36G52yT%2Fxwu%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366998563?_skw=PSA+10&amp;epid=18070314701&amp;hash=item551191f623:g:hbUAAOSwjVdnmAvp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmbDnVNXDjfKuIr2LsPRR4mv9mjspE5NLG7exWj2zXzhAG1B2M1wJaMnqsiHGFPT%2BFTCxFf1c3clshS8GsGdlnN5XRHjJB9oyCX9XT7ltE2vK0RtFJA3ztkSA7GAPxVIbX%2BpWQyULJI%2FgRAPEAwMMsq6M69DAr15zqGPKwFh%2BnEvetmhJqPRUKDQzfuWY%2F4gAZjZ6VoStWbSMmkUT6BSACfAGaJZEaJSqcA8HvYGpvV6Q%3D%3D%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366998563?_skw=PSA+10&amp;epid=18070314701&amp;hash=item551191f623:g:hbUAAOSwjVdnmAvp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkiAkgDBCjf5L3OUMqAA%2FMhXuEjkdoxZ9CItd3KM6hgCP8eF%2FaG7yjUTPx0t666ORuHy4YCSuJnmqFfj4SHS83AaVDnV5VH3t%2BU%2B4sM0H%2FFkdzNKuwwrtQjvMbCZQXCUIsas0N76O7tvOSG%2FEFkWkvolXuNf5PcJod4B00O3efytYFVW4A98f5nH6yM1S770Kb0Vn1MrkT4kgoWtpxm0tMOLbqskc0ZSori9xyNrWvNg8KD1repq4LXTh%2B23ZasBVd4y4L1o3RNcbQUXyA%2FfmFU%7Ctkp%3ABk9SR4if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954477576?_skw=PSA+10&amp;epid=16065164125&amp;hash=item5788a21208:g:rNYAAOSwfi1nmAlk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmYA%2FZWHMZWS5vo0lHRKP%2Fyj5D8BUy%2BiEWfj9qRajQXEFoA5R9vOwpvnMDFUhue8uJxpnGcNieZkEolDXsV2UAoKtUCN7Cst74T7E6cWBXkuJsaIfh1ibwynFyvB2xQq4gDt%2FJ%2BpW0bFVhAQ938d%2Bc1JzVLVcJpY445%2B8o2bk6chPNAqGJwl8RCv9luDJWDILpOQL7biJ9sSd%2FVg%2BKxdUwJOgl5rSq0Hwb8BDp0COWM6r2KYRV%2BgXyyx1XOlxBaIBsaCPabPdrvzcoat9j2UbFh%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954477576?_skw=PSA+10&amp;epid=16065164125&amp;hash=item5788a21208:g:rNYAAOSwfi1nmAlk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmYA%2FZWHMZWS5vo0lHRKP%2Fyj5D8BUy%2BiEWfj9qRajQXEFoA5R9vOwpvnMDFUhue8uJxpnGcNieZkEolDXsV2UAoKtUCN7Cst74T7E6cWBXkuJsaIfh1ibwynFyvB2xQq4jo%2FaQ02evY48hATZHQ%2BjtuBCBosvRML3oVizW0GIFPCuBpOwFZnZWAvoDvNHs4wELdi6iyuMb%2FCAZYB7KWaVsMYzxH%2FOzFCTaMcnlJXO216k3ewMftMpIpYTEnhJVQL%2FXpHqkF%2FbHcpKTihL91Yj%2Fv%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954480761?_skw=PSA+10&amp;hash=item5788a21e79:g:rYYAAOSwjJJnmApk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmfwUClcnVVDS1homU886vWLBAyRcpoDiH6FcG2dgunIfhaZq1MYkcdhsY5l3ragrzXElGTVPxINUUR4ByWDKcPxtmy07AXdzwERF%2B0O9BzoPxL9K4%2Fix6lBbnOiV0Vx1fe2jIaxWv7IAcbZtTNcji2Ux2g6ihKpz8rbScemHZRDTgagScoYML1YkfbrqQ37Bz0eyHv3vBfr5mCe3l0oash3nVWJ6AG4ErLHm996Z0r8Q%3D%3D%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954480761?_skw=PSA+10&amp;hash=item5788a21e79:g:rYYAAOSwjJJnmApk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmfwUClcnVVDS1homU886vWLBAyRcpoDiH6FcG2dgunIUNh%2BclM3NMd2ya5e3700KnGivSgX88ymqAMdnjBd03CR5y8HiYNyBxESR0vhZDS%2BFT2R09apcLS4DtmNoLFCdn6XSzr6eOkY%2FTp0oGiRnJMb0VgpmMullcL%2Fx32DSPdTHdhUKYb74coQPuA25FD72mhPLTwP55C7yNpXYE5dry6cXjU9jadP4E8E5AhRYixew%3D%3D%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954521134?_skw=PSA+10&amp;epid=23056203091&amp;hash=item5788a2bc2e:g:dMUAAOSwoO5nmBPw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkdER13yTU5iXt%2BIY0n%2FMZkiBtv%2BShgSgrO0OzwaYK6nNY1S6F2nJ8KPBE6DcInOjvxvPPwLQKzApiADduNX%2FtB4xMHjnGofPGruQbBDagAdu3qkIB09Iv8uJEhXyM5ifwQLh9dvbY2LY5FbDM0zdrNqnbBr6zbV9uOcjBZrq2FVTt%2ByLxeUnjXpe5hqB66ebcho9U%2FYfc4RfM8Nl0bY47BYotfPwVVK%2FNUwfYheuPo1hk%2BnjxEwSTCIwA3wAKLajQTC9J5NU7SzyN83oSVgTD%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954521134?_skw=PSA+10&amp;epid=23056203091&amp;hash=item5788a2bc2e:g:dMUAAOSwoO5nmBPw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkdER13yTU5iXt%2BIY0n%2FMZkiBtv%2BShgSgrO0OzwaYK6nNY1S6F2nJ8KPBE6DcInOjvxvPPwLQKzApiADduNX%2FtB4xMHjnGofPGruQbBDagAdu3qkIB09Iv8uJEhXyM5iedrNqa7zVzFRVDnWlSFQhfrzOnmzltiUvg3zo7qFoUnXQMDZUqsY8xGRrTpnxCBe9uoibBLLLp3U%2BO3rnx2f%2FAQ4%2FX0dpfeRy45vNl7gdD1Ll4wzhzIbRbvSP5cUtgAJ0Jvcm6BKqbUyAKhCYU4U0b%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866758074?_skw=PSA+10&amp;epid=10065181305&amp;hash=item5a4ea90bba:g:34YAAOSw~9FnmAky&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmYkkzrdQ4V%2BkNi%2BcKxV1mRI42Qf8UIh0SatmootZB2JXagJjNn6cicAvzi5j8h98KkXUx1jC6x08NYwDYMx7LUi9wdl9GyNcP5jYijAxFjJfTzYBTjFYm5YiExfwQ6V5OyisGdEInuQj%2BH%2FB0q%2FUm1uJ0moGt6EljZLCT%2Bpsift2%2FQVYwP6O4OEhzVC2Ou3MiEZso6Z616CYlV%2BLfhdkiiCSZ7ndj%2FnXI2mqDWKdywrrcJNK%2FNLxpCjYloqLQTTTxy0JhjQvBPcVdKTJ7K%2BRj2%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866758074?_skw=PSA+10&amp;epid=10065181305&amp;hash=item5a4ea90bba:g:34YAAOSw~9FnmAky&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKltEZda2RfVkawf5GAuFL33tK5Ofe7IJsg9L86F16YXQArzflcLjtedDZ9ZiTiNj%2BGKsUAXtHPuAsNb9g6VkfUUoZzSnOA6XOpdxXcU%2B5rRdX6DrJ%2F7ZmTPo3JMb2Ug6QbSssOXlaKGHTcd6NEFU4yEfSQRSDkp9bIAwXDieYNXP6yHyoHTdGu06sCchaKiVaqNtZQCocdtXtXK8ejYmMEBTe2WAT0HoXTkgk7tSyfsVA%3D%3D%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866768374?_skw=PSA+10&amp;hash=item5a4ea933f6:g:lWQAAOSwmZlnmAqi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnUe6vIiZ4InaDW9WcFcPuHHoR9BviHqsbRd0V0Nrf9LUMXsBoPOj%2FpywhRbxDRyKO5aIsdNMjwAqVhWm7E3uh8QZTWyCStZwfXn%2FgYYTKg3ZnwLdtbTrMszaKlVUN0w%2FoJRDBSLFF%2BT860L4YIoUc8g3jZx90tI%2BDYEWfxn%2FZoQoGLJOOHrUfB2i66fLJhS3qQXdEfx1AnQw6XTZ5ylZ1TxxMpL6KiiL9jCjjTKJFc2TgGbwtH%2FPNYwkyE2eaZ6ZP%2FAFCxTcBYvzDZQ1veOdc%2B%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866768374?_skw=PSA+10&amp;hash=item5a4ea933f6:g:lWQAAOSwmZlnmAqi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncx7ZE7T9y%2FdPx3BFY5%2FmhNmEWdZXdoUzyVsfiT0sNo14hkV%2BmaijHC1BXIkOWuxG%2BEIzyI36rkkWYjEQWwHMGeBBvUcIdZSqXhdpmIx3j48Vy0tBRf3Ig%2Ft9OxI33WCt6Z73Pe0%2B68gn%2B%2BHZkn67laHP7hMNdfRLHSZKe5zoLjTy%2BgF%2BRXZwtU23pBRsnWEPAT7IaRSoqtoOW%2Bq0c5FkzolJ3JeJiP1V5W4n5E4Ke%2FQ%3D%3D%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387378949553?_skw=PSA+10&amp;hash=item5a3195adb1:g:PqgAAOSwqC1m4ayH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmWJk3a8uHcKC0SmIQPwMMD%2FyEhkhKehM51ig5jNfX5aIcX%2FFOK%2FQ7Yk4%2FwiIWjXYLI4C9jSS1EhsMn1cFnrewSlL2BDhEO3796%2BwL1i%2F%2B7YFGsozde7N2fx5%2B%2Fk2kBz7rHTrj3lE1ebczZBWNzaGn45D5hGHgQQKefjwuz04MzcNtrQeZCq1cfqfHxhCJ9ZtFix%2BE7VtYhjAVSsfdvqcmx%2Bq2TcRDM84RTgBleedMr8OpWFB9dw0SUdCA%2FG82TpCGopsYP3J2DG6HQTrRmLIXX%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387378949553?_skw=PSA+10&amp;hash=item5a3195adb1:g:PqgAAOSwqC1m4ayH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmWJk3a8uHcKC0SmIQPwMMD%2FyEhkhKehM51ig5jNfX5aIcX%2FFOK%2FQ7Yk4%2FwiIWjXYLI4C9jSS1EhsMn1cFnrewSlL2BDhEO3796%2BwL1i%2F%2B7YFGsozde7N2fx5%2B%2Fk2kBz7qpuS%2BXvDD5tQnKm0P%2FCZjZr1kb%2BH%2FULsKn2%2FDN7h%2Ffzh%2FAsV7hkxCUEaV95CFoFFTCmcXazSWqzgYy6Pqm6TZsLIfYEPiwnVoh5V7vi3jI7NgutrHnyJCRVYCgJ4YPDXdrvOOVJCvt3hjTywYATldg%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366846275?_skw=PSA+10&amp;epid=13071758400&amp;hash=item55118fa343:g:2R4AAOSwY2Vnl-JA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0%2BF5C1wHD7uH0ECqleBuqZsEmyQXYqdav1W5t7Wcm70JEeDxftyBKRkrfrokSx%2FhT7puzSMIzJV9sWTveoZK%2BAx8B%2B3Ht7Za40GavP%2FmBC4O48HJAx0BmLcVrBICi7UEetnnZeNpRbUx6gZVNjLIwV93Wf6AXyDIapgWUruZf2OClgRPmUDeZAbqGkYMs3tX8AKtu7oLqpe6gvFuhU0DNwkOfyhZ%2BS4et34caFLNfXw%3D%3D%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366846275?_skw=PSA+10&amp;epid=13071758400&amp;hash=item55118fa343:g:2R4AAOSwY2Vnl-JA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0%2BF5C1wHD7uH0ECqleBuqZsEmyQXYqdav1W5t7Wcm7zfY1IN7EtqxvRAnwJc9IBTeXinlWgeyekGEsFJw%2FkuqNjmnFwpZGh%2B7dDh6jdp%2FRd5wOBZxwD%2BgvR24YbzdkOEtHywplVMWMrf8t59b8u8t1tzC5fR%2B4Z%2BgVbmgx1GPUz7w%2FtN6G53qXp93lqwNxFNjMK5TYkvuVchBrfUsHPHlSJBMxNUnS9iRg4ZLl9Ah8w%3D%3D%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954293920?_skw=PSA+10&amp;epid=23074014733&amp;hash=item57889f44a0:g:vSQAAOSwSEdnl-IC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkPX1eCL4MhT5BHuRmSHn2bFzp9pfVqYXKsdXxWm1G7T7b7NHVRu0vQZRnIydTpI32XcU6DlvYUX5ntzqKMf7A3%2BoBKbgQBR3eXpWMK%2F61o%2BGoebd7G7VMroUp1324whzeypIzjaWaG6%2BOMaR8kkdheDW97yMCmlLkTwznO0kxNtTdsZgerzng77gNWZtBTB6iHJ5J9EVIWYpAY5uQSi6ZBgquqkmv%2BpA%2BveXcCCE7Negp9UUcTaydlzf1tXJsDE7252zSRH%2FYtOkOptMHGg7vE%7Ctkp%3ABk9SR-Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954293920?_skw=PSA+10&amp;epid=23074014733&amp;hash=item57889f44a0:g:vSQAAOSwSEdnl-IC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkPX1eCL4MhT5BHuRmSHn2bFzp9pfVqYXKsdXxWm1G7T7b7NHVRu0vQZRnIydTpI32XcU6DlvYUX5ntzqKMf7A3%2BoBKbgQBR3eXpWMK%2F61o%2BGoebd7G7VMroUp1324whzfq8Jpg4g5cEAal0a5e6B3YNzcU%2BjdEnW%2F8dr7aB5jwbLHYOOv0bkr5kv1pOhAAAWJc181ayUV80TNer0ftdQABEqMvXeqNI8gmMs4J461PsGrZD0z1SZs5kZF2a6FvYSrwlIy4wwNJpE1X8kMlD5kg%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866414100?_skw=PSA+10&amp;hash=item5a4ea3cc14:g:NfwAAOSw8qtnl-Hn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkxnHBZ31eyLkwQ7rM6Fao2eBn7BmXqAHPW6NemuxmFSONQTnDVnv60oCWFWcK7%2Fxyc5M32WUugU9WfpMDmoldewp566zWjqipFD7%2B2QeEopypZvNrXoJswVBUg%2BgqFbVnio6Uv5aRLj9LSV%2B2f%2Fwf2nZTN%2BwPF2YanGI7U2KdcO2fXRGrx7gJtjF0SrCoaB%2FFfg9UVOkfby%2FQXhppAnhnNPOuyZWrU5X5ewwfeSAHkGA%3D%3D%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866414100?_skw=PSA+10&amp;hash=item5a4ea3cc14:g:NfwAAOSw8qtnl-Hn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2tKv0qy40VcmshTIQNu3j%2BnE1geNOrq7MdrvFUkxDq2rZEuse9wX%2FXeEmO9jrvuOSLdPbam9%2BOzbNHpzVpHUJEsSd1RYV0n0aAIhQ6jV6ixAeYNy9MiwkGj30mdfPArnwtRrMoxRtl%2BuOcw%2BZpzAdm%2FI9NBD8hDSe9jph%2BmA5wKhCwGYQFHGCQRdcmaIrQ55eR90u7mIzcJzdEM8YY9q5G4JMlqgS%2BIWH9mvXsNSuN82hbEwRUaqZVztEucd929BSLwjmo8gJMm0orsPeWfPk%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866662654?_skw=PSA+10&amp;epid=19060757706&amp;hash=item5a4ea796fe:g:aHkAAOSwh9Jnl~3v&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmjcUGTjSoZ2ODa36Jw%2FzqxS5v7y9cnKM22V70bMCF9n8bYUguo6HKqcUTK8EqQ7SwlGSgAhsDmHfuybGPzL8EIAR3gIhpKQZXXeHuCFTe65U30xcYtZ6jANo%2BkyXND41RdDHfbTDfKaDJyDxJpbsjepHfmnlT48gubwB1P%2BWoY9o2kWCUKNGBh4k5RLDwguMGY15Q7IUAGPa0yjN%2FN3Yr0rshmlUAmHY8yGu1baK8M%2BA%3D%3D%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866662654?_skw=PSA+10&amp;epid=19060757706&amp;hash=item5a4ea796fe:g:aHkAAOSwh9Jnl~3v&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmjuTV6na3Wyhi9Ci4zqa0Mp5v9Zl0qA0HANCHiBAf4S73C0HC4xMxDfjst3mFMgtK7YkvxB0oh6kkN5V0RTeadJMfPk%2FAPVUTJNwR9oWAskJPEL%2B9%2BxtBoIdyImLK77jRSx3iBlqTy9t7jPslOhvz78tcAy3mA7YC33WGLjgM%2Ff9rAIFBoK3vBxgmwnJaz3ob%2BDgDLLPMVQFEribn3IL9zS6Hz9ePBYsz%2B5iGnbqzFDgxxdfWqZPAMIWrCbJJdb8dglrAsWgUqtuwdyXKCWvDp%7Ctkp%3ABk9SR4qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975510560?_skw=PSA+10&amp;epid=4066266032&amp;hash=item2ddca7c420:g:34sAAOSw-nFnmAC4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnNwNuNjrUG3bp%2BjD53jc%2Bmhw1Gtzf8L9r%2FvDGznwzx%2B3mSU0dhf7gROVlDNRR3N4Ld9U2EMQgG8Dc0vA%2BnZhaYIO1gNABHTKZDIZQtquZnd%2BUfcprqdWzwe0iHEXFVicdIk37qGBr0CTlKpA9QU1DNZ21w6qD9njrFBLan9DcdgHSTvtFsPUQqlkk7FgLFkmAhoTZuNbSv5HGUO7cSZ12pREHcs3TlisKzDHC1%2FWChVjOuze15XCK3WUoW8TAuS9XkhUvhjvgRsw%2F31nwz6g9S%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196975510560?_skw=PSA+10&amp;epid=4066266032&amp;hash=item2ddca7c420:g:34sAAOSw-nFnmAC4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnc6GpYFdjWzntY4gHF2k5vIiFDFvNWyd0QJP458rCm02j%2FX%2FbCNhUSRWvQrIwR4zW3glL1Q7dNEpO%2FD6Xb8i6lBPQosSq%2BySYlaaa8kpQPcWhdQ4FKJnD1OQVQb%2Fnj%2F51NdGFNZ%2Bk0kKd2wcU%2B8Ul1h7UmfwChNNPShT06W59dSuyFYsF%2FCcZokqD1XvFn8JgCbPQBTekbcX4nAn1QgPU602srfAjtMX1tSDFMFn8%2BUw%3D%3D%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866804653?_skw=PSA+10&amp;epid=13074115263&amp;hash=item5a4ea9c1ad:g:hNAAAOSwKi9nmBBN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvdrGTK8ECQr9tr8vNevOjMYGyaDHE8TD4AFkAqlXbTZ%2BBHD4ZCev4dJ8SQiEl3%2BnuGNu%2Fa3%2BqHagA3kiagDkOFyV79srShKxGl51y5vD%2B0cZ1hsJ4J6WrhuhfZFR%2F%2Bdto%2BrRUE9SyqGDsn6JeBEekoyGH1Er224VFydAMF8pai7D8q1%2F3fcKNtq52516eOtBoCKOFWuXYHmx4UenXZO%2FqwJgbLvLePeZkmzX6zPNfzw%3D%3D%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866804653?_skw=PSA+10&amp;epid=13074115263&amp;hash=item5a4ea9c1ad:g:hNAAAOSwKi9nmBBN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvdrGTK8ECQr9tr8vNevOjMYGyaDHE8TD4AFkAqlXbTRT7Ivi4ehh8NQ0sePEYx5QjcpD%2FioiAWeDCmywN6y7C%2FwjrlO6oRpQctDE2dRl8dlrQlJBkqerf3YAj6jGts27jbder1f4y0YLVfvpqECUng%2F3FpE1oEb6s7EyeSVMhXNaTgk%2B%2BhRtqY3pB55cjM72OeECUwtD1mRnv5NM%2FV0jRzCLNL%2Fdfc%2Bk15AzkagNQbw%3D%3D%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362048552?_skw=PSA+10&amp;hash=item5511466e28:g:WdUAAOSwiLlnk-q3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlMzCSoM%2FPgrwxG0LwS6yGiNOjHbDvFMgyovzl7JgLR4U5F75rkrTeaOu9hpMnJYWUFSXAyHKHXYx8pYUthAYoeIxPTB6bPg4GR1nwUSWAw4fAeirkMBnGd15VAbyNG%2BA3a4o3iwIsQeGIcwcggSZFySnRmYuDQh77FNti5x0vARzL9izxU7jH%2F%2BuyPe8oevfRaufKQMGmm%2FQqxfGm7erLtgQjSP1I3Ew7n9q3m0lLeZgpYpQ1lsqEj9pAnul1mpfVik9LNcVt7h3U81RrxFYkF%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365362048552?_skw=PSA+10&amp;hash=item5511466e28:g:WdUAAOSwiLlnk-q3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlMzCSoM%2FPgrwxG0LwS6yGiNOjHbDvFMgyovzl7JgLR4U5F75rkrTeaOu9hpMnJYWUFSXAyHKHXYx8pYUthAYoeIxPTB6bPg4GR1nwUSWAw4fAeirkMBnGd15VAbyNG%2BA04Ypyta6xN7THlaJNRfKZ98xhocfsHwtV5CYwPO%2Fc%2FNtT3Yg3nTUkTPrWrVIHjV%2BM5aIQtxAhHHetvQvLvy0ZuugcWNw4Zv7bSpfNeGeAFZHwiIlTXcEsoWgJhjFwwcvjRUn5nCZiUivFK9Z5EYou8%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176813559878?_skw=PSA+10&amp;epid=19060757910&amp;hash=item292ae8d046:g:FwUAAOSwjARnms-I&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnVs3118sDgoLvxjQwMiZBBzBHNJW1HrKRneAhljoqUh8EtigtziH9o7nvbibiTW6xvmYHd4soyy9xpU68mRMoRaGiM4zn9cGEI5WlfvrSHiLDF8goniZexpU%2F6L9kiWeBH0ROb%2BOslDaZGGcptxiVaAbtj4%2F4yResQlKm4rHp5EHCPz5yeOg2UevsfhHGZdxIP3ddRtlsrJoQPDDprCEPblvg7wMPEDhGfaIZdEQAN2rMiicv4YYzFsHJXNMuN9AOsuVr4HacY5HKziA%2FYvThH%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176813559878?_skw=PSA+10&amp;epid=19060757910&amp;hash=item292ae8d046:g:FwUAAOSwjARnms-I&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnVs3118sDgoLvxjQwMiZBBzBHNJW1HrKRneAhljoqUh8EtigtziH9o7nvbibiTW6xvmYHd4soyy9xpU68mRMoRaGiM4zn9cGEI5WlfvrSHiLDF8goniZexpU%2F6L9kiWeCLJkQTWtrXnfDugLJ1AcfU%2BaNhqhwfdhcIqupiQlwz4S2IVqUH9hcvTdcfSEDbBOaR%2BCZCJbdMqEO8ErXyR1%2FVW9RckB%2BIh%2FT5xxz9%2BMNdd%2FRwAcy9EsCyijhlgiLKc3XkmKXD4D2uNLz6VZUdJPUP%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226558740707?_skw=PSA+10&amp;hash=item34bff408e3:g:sVYAAOSwlY1nkG8d&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlV2uXdfRYXhVdAeU7jqWMn7g22czlsDpV%2BNc%2BOFugdDp2qTKFZbvvX0rBo3vW2s%2BiPsmFCpPYPR7qX0Rrynt1WS0nnHW3B1suGT8UufwTkVldS6FeLQh8SbUyM0iFM%2BfmzzNGDkLXyqRaq2H8dXgTQuQDNJDAwuPXdjPq8Q6ycYzog%2BT%2B6NZmutuUvIWiIN491u6E%2BbzM1eXlY6MA%2B66lFWyf7QDRoehDK--XFjZg1gkbHLuO0rSA4CPAfNAmybGsrReqfy8gtiwk%2BohUxhSjO%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/226558740707?_skw=PSA+10&amp;hash=item34bff408e3:g:sVYAAOSwlY1nkG8d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnCgvJTqhKo4aCLcf9S6GWoau0ba62o6s8zhVbGnPiIWsZ3ONipr4wm1RMGcASOA1YFHVKHkh3JZP587c9QX5LLMIM7Jk72JT6zMe5UxzjF%2BkqIqiV7mXviw%2Ft%2FrH86wc7dfUud2fnupo7hY51xdh57d4qFrKKV%2BgY6yLcgqWNKqmhmc5mC%2F8TVpT0LLCrzgu6SfsktOnsvH7ipCicKxZqvPL8bh5%2F5zoNoQbNesVledw%3D%3D%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186914853945?_skw=PSA+10&amp;epid=27055787654&amp;hash=item2b84fe5439:g:teYAAOSwxctnlw4J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk46g3N2iwtb%2BvEqu%2FzFuU5rhJgFJb2mw6NR9GoWNSRcJWLUOC8WvVEGRDLyPmQ2dSrz5RWAlCKKJBj4O2lQVtJTvdO7b7qbh3zWxCMlW0q1qa4SHbhr9Ml8ps80icqvyKhEu5jBzO3FRIjqfOvNTOzTlrpcWVfxb0wz6Ch9AZ6DiT0K4EVb1TPrD6aOgVxZlrF6oFRf%2BWVWuUhDGjOw7TyFacOs10%2FSFMb5tLLj3oaJhT6m8VXFsF0R7ocSvjJT8KiCYimwWbgwM1oA2ABUdXJ%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186914853945?_skw=PSA+10&amp;epid=27055787654&amp;hash=item2b84fe5439:g:teYAAOSwxctnlw4J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk46g3N2iwtb%2BvEqu%2FzFuU5rhJgFJb2mw6NR9GoWNSRcJWLUOC8WvVEGRDLyPmQ2dSrz5RWAlCKKJBj4O2lQVtJTvdO7b7qbh3zWxCMlW0q1qa4SHbhr9Ml8ps80icqvyJktzDf3sGlbrNUTYrgKLbDVDbyPs5NY%2FawBMK%2BdoVg3vnvYNsEv3wbaMFEfMrpuFWDo6s%2BtYKkY5dbu9biOchQzOMAbDIxbdS8M%2F0jhMhLJ%2B%2Fa9pll44C012jeUCnXLR4x6wktmMAOjjlTAGggTlYl%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405505975711?_skw=PSA+10&amp;epid=27055522631&amp;hash=item5e6a0a259f:g:IO0AAOSwD~hnmEnt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkdCFUwgzlnE6FBi%2FL2N7%2F79aIqVLk4pOIeJLWpAvISb9c9qxqupxqqMkpCKTs6AmbiE9yzAhdtEaC46sKdB3tG0BqMWAuNuT%2BnyT6CX7tqw2KjJB3IN%2FgHr40vfsZZuUz0o1WgpaLWVNHsStMUkkc4T92XfHXI28u%2F8p0mGxh5CJyBFVkqF6PUcQHX18fbiL7CAJTjVOG9iqWvtQJUgGSuZz5RE%2FzBUyZI8w48%2B30qkA%3D%3D%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/405505975711?_skw=PSA+10&amp;epid=27055522631&amp;hash=item5e6a0a259f:g:IO0AAOSwD~hnmEnt&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmlkPDDIO0vnw0BHEiDMvbAgRHG%2Fj1q9F3pkAeghNgJFk6GdEavpg8SUcJj9hmPtRsDr%2BRZwFQKuVSefn6LDtWcWJGKWRwdysbFrM7GwC5Vl3BeaBgdhMsOcevXPJwTBHEjH%2BwibhP0EcEM7ds%2B7FpOmaIVRY9I3VOGRvZGFjOP23uZE1oTURhy8xyLo7r0IV76Q1olF%2BNu5XSJXYGWiLg0cmz9SNw423fw1q1heREQb9BudvKPryyc2LJnVXzW%2FrZOcX--fLoWaTWiHBGDmE%2FR%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362092559?_skw=PSA+10&amp;epid=13055589600&amp;hash=item5511471a0f:g:BzMAAOSwe8Vnk~W6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnk64f%2FlY7CTmrP93aIn7RO9zwNLJr9pD5VmbTtBgZ3oWZE5UPkMLfc9EiH%2B698lIwCmkK2GrweLHRCA%2Bu%2BttjOIdojjYC6bMWFpfimuyNxE9FAKoz3hhOzBoAl32dUkQECcSyV%2B5%2BZl8cRf43FgJkCGsnfg8s%2Bojd%2F1zkX3dQqXLeIqJL1IYz4roBBhSUB%2BBhOQNXQIg3ZeATtSBvziOeONhWWxUPtA50isCIHBwcQqUGTiVn%2BgxeuyAmAxfTH%2B2702o7NqwAcqTpVJiWGSntl%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365362092559?_skw=PSA+10&amp;epid=13055589600&amp;hash=item5511471a0f:g:BzMAAOSwe8Vnk~W6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnGWVIJefGgE9j%2Bj0R7tozQGzuE4ezXdbafQArw47WwQSx9sAj1yC2iaBsFuEURE70zoGGplpkseXfLaPHpdwi7W4zxv%2F9%2B8%2Fe%2BdcCswRLvjmzGtIEvm0NTR1ghZZbMo7c3SR%2BOpGRxH9fu%2F3wJxkvi8T6XxXaB%2BX341pEI%2FRPigrQyAFRq2Lin%2Bwj5MhduSGOj4qOEgKIeiRIm2KOMbvwt0pyzNEC5%2FkXRDldwoBA43Q%3D%3D%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362097911?_skw=PSA+10&amp;epid=2326665044&amp;hash=item5511472ef7:g:L00AAOSwjlFnk~b5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk4h7%2FfOPadg2ipKB3NU5MHWJkys%2Fpgo3gvndRjV9rESQuBkRxXPRae5eoeItnuk%2BUB0WfRjpisMdMH5CqVGVBgopt%2FvuasAQLk5tBC4B3ReRSsImfJxJSbC8y1T6bb5MQjJ2XC98YEotF8q2hdQYq4raZIGgLbTNpAmDvPnhm7RNCdRwp83IxhSh%2BJCysL%2BsV32mQk8quSaTWnv9dwcpRPAFYt67G60lwF1GFDxv2hkhR6wkKrkITvksmSS2Y6y5EJ9BTA%2Fw4ll2Yy5fECbbtf%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365362097911?_skw=PSA+10&amp;epid=2326665044&amp;hash=item5511472ef7:g:L00AAOSwjlFnk~b5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmeNwn4TL9AA6dpjfGfwtgw8acD7h%2FQ%2FyM%2BJTiidKUxzCr4xE9rEQw%2Ba0eUgR3mE%2BuC5W0%2FlnGK3uOSNC%2Fk1Jy2j6gtmfL%2FuZAL5r1SiLY7VKsIf0D4%2BhjB7pimd%2FJ4NUSp8DU1FbQ0lztTliWPZeXVk2E6AlxWVWnHhEVx3DNVDbsq43BgngxAlclayAQxoIsLEbskbS69f1Gel5qz93%2F1GT9Cn4AchrSZEOYk1cNtvg%3D%3D%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958493897?_skw=PSA+10&amp;epid=24055610881&amp;hash=item5788df5ac9:g:5IUAAeSw9VdnmrXD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmhD7T%2BUUZI1mV4qdNdgRB8izFeOukcsOOuu9EFzVoM82eA%2BMFlB84doebyscPrmVVQ1vaFZsOaeTN8IFPrz9UukCDlD5DzQsZ0%2FWSwBKkJ0cNw3cLDzm8YyxjUwerouKh%2FDpepdBQcBfPLcGJUIRy%2F0AeWY7GI96ZFUkBRUNIxaYOLLzEr%2B%2FfcoSOHqjpHv7QdRruL30406f6HfeSGkCpFRhlifc3%2BgVn1kNGuTepbkw%3D%3D%7Ctkp%3ABk9SR-Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958493897?_skw=PSA+10&amp;epid=24055610881&amp;hash=item5788df5ac9:g:5IUAAeSw9VdnmrXD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmhD7T%2BUUZI1mV4qdNdgRB8izFeOukcsOOuu9EFzVoM8y8wYZAWpgrcgr0%2BnCGs1F1gv1hpfqwz4P5Vdpsi4tlDdbuiM29cnisYnQNzVZWMgE8ucEBo4pS71BbdPa3Qfy1YwZRn7TxUCIEhiw7Gnw0Oi0Z5X%2FeVRpkLiCoTUlyL7stkVqDqQYQinDxILUCd9MjDO01bHpwmaG9LgO1f5s9Xc%2BpiGc6cNNvjRRg6KsZzPw%3D%3D%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362019912?_skw=PSA+10&amp;epid=13055589600&amp;hash=item551145fe48:g:g7MAAOSwUNVnk-Um&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk7yq3aW3DqGDa7xO4nKddhUE4flZQBEcdPan%2F7ARpqEy0EgZ43rj18wq3MReQ4dn03MMeZQ%2F71ck%2BgEA5chUovSMjpWZ%2Fm5PlcnQ%2B2%2FuVoQeT44rEKT2iawDOdxw%2B7O9CniWu3y45%2B9NO%2BFYxGAIdegvofVh8sy%2B1WtvadW64ODqqmAIJYFA1tEgL%2FsFVFnnHC5dcT15BoJsCFM%2FQlDULl4gSb8v2BKVnLR6LJB4xiaA%3D%3D%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365362019912?_skw=PSA+10&amp;epid=13055589600&amp;hash=item551145fe48:g:g7MAAOSwUNVnk-Um&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk7yq3aW3DqGDa7xO4nKddhUE4flZQBEcdPan%2F7ARpqE49tYaM8G9KVrPVGxfOPyUUHxL8OsE8zVmrUjUKoAdGtK0cQ1rpB2S3w2Sy9VweEtmlnSSurymY%2FOslq4Fkp1ahNnHEzEPFYmy5T%2BHe5beXu0xIhO1s14p1bS00CBTvB%2BMUsZQAMwLshvN%2FcO%2FrNq0g%2FNxI44S3Zf%2BJuYvbU5EB81stH%2F8Iu%2BfI%2FOZba%2BaWCsA%3D%3D%7Ctkp%3ABk9SR4yf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947566460?_skw=PSA+10&amp;epid=4055566728&amp;hash=item5788389d7c:g:uvwAAOSw8qtnk-nx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnYM3u11ispuuR0BWZnJnqjgOzTnlW5dC0%2F11LQ08g2ZiookfMlKglA2zA1MKsTubdTqTANPdL5Baz8qvkHyct5mGXXiGk%2FrQOJ--%2FdbiIVoBRNz1ET8cwcuAgsoJCYbkY%2BwQewT19wnE4tcSC42UsYXpQM7pW6Knvf8CWwHUopDwYQ0o%2F5QXapcX3xAJsVTnaZAxYA6fbnu8frm%2FCJWkdttShRHio3Gxf8KwHEs%2BiCug%3D%3D%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375947566460?_skw=PSA+10&amp;epid=4055566728&amp;hash=item5788389d7c:g:uvwAAOSw8qtnk-nx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnYM3u11ispuuR0BWZnJnqjgOzTnlW5dC0%2F11LQ08g2ZhIEqmgbnfiZSZk26e7HzjQjOCAqelPYQ8v8efIX%2Fc4fwPWekv9ZOatdMzd7NYIIE7pmtLxy%2F3JHAN0VvxZk%2FebDL41I6n5lWnhOTR4cGrDGNl7sqU2Td47fK7XbW4k7rcl4i43BZrGD3qKVRafHJ9VqOD9F6EylLWEs2Uxt5i4VGCBtMGdIWTpEC2piiYfRaw%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856170630?_skw=PSA+10&amp;epid=28055592634&amp;hash=item5a4e077e86:g:wucAAOSwLbhnk~fx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlt%2Bz8YpmSQB%2FPd%2F5u8JBQbH7Nhjxsu8MgkIBzRUEbC2E9VztbSyth2n%2FbRRGDyXWmvzK%2Fl3Dn7N%2F3gsZhUs4PS%2ByXI8fCHQ%2F8ZHSbOuI2gJRrrd26dssaWSoAWYF9ueVjycbfG4AtN2SZVRY%2BgftFmx6BB2z1Gv%2BvCBWbd%2BMt29%2FdQcY%2ByxyLR%2BhJIhTLRh8nq4o1xZD5v7jx5LByDfd1NmClRqDgvYQ8GmkNlitosvA%3D%3D%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387856170630?_skw=PSA+10&amp;epid=28055592634&amp;hash=item5a4e077e86:g:wucAAOSwLbhnk~fx&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlt%2Bz8YpmSQB%2FPd%2F5u8JBQbH7Nhjxsu8MgkIBzRUEbC2FHgake%2FBmyr77sfyyffvYEO%2BJl0yLhplY4S9w0FwBLrNB1BhxgjS8dxoHfX%2Bmxm0YEfQTgguP2iLFNzD63lmdZblJWmJdvl3vwHd75LfW0BhL1oidH0vUJXc7TeSavBx362SKf1YWP9KI4Kmt%2BMBP7ZZoFVr83knb%2BceH7rVWbhLpjmIlnDMx85qoOOe4qVEA%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176810772560?_skw=PSA+10&amp;epid=20071762191&amp;hash=item292abe4850:g:zX0AAOSwASpnmElZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnI3mcz%2FAK38tNlq%2BcS08ra27Jp7GLOjDA8MwliS0KcDbgoWWJPkpn7rA7WHV6x5rqfqG6qCLBkb4S6ZKvGDGrccSR5Om1W0nd8o0LJ7rBvlU78nZX0U%2BYQhDwj%2BxC3cm298wtBHao6%2Fez1BkVHRVW4ds2emq8AzmrZKwzmgux5z9x3QAiGRuraMEbvGqqsp5VN2Lq1YMEh82Mu%2F8XcVhyTLtBClAJLdTy88yjOwNEyMw%3D%3D%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176810772560?_skw=PSA+10&amp;epid=20071762191&amp;hash=item292abe4850:g:zX0AAOSwASpnmElZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnI3mcz%2FAK38tNlq%2BcS08ra27Jp7GLOjDA8MwliS0KcDWgM%2FRX1rKH3AOMgVifIgAU%2BpklNsww5PzbeqXz3mHoWhL1g9gZTBTgoW0lXYsUEQIS66yCRKlrQ09XZVzFHyiTNUTjyGRxOAxgxqGhqCL5aHBqIsbqBd1hlrCSxEuyKG5f5XSa%2BP9EoJqLGqTlnbOiYTmfCn2LozTwdtdVW5MJU3fyeeiQ6MNAvhW0NhFoF3A%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405505974323?_skw=PSA+10&amp;epid=21070913787&amp;hash=item5e6a0a2033:g:cWkAAOSw3TtnGWvN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnaKN4zLCA6vIKpN%2F1l%2F3HV2ZGFBzbyUfqs9oCuZu2MRX6HQOzcPqZS5%2Fi4b8WwzhmfJhJFukNxVPyWkI1O7jTb5Ty8sPi%2B10sGnQ7oylmkmHeNvAMkMm5E%2F95DMCS9xla%2FPtcnGanfDn0U8uk2gVz1UkPSwlCuyKP2MoALkv%2BIvotbm8R0lM12RrrSLoiUmstp51rFHwNkbk9n%2FvmYBkk6o2lFvSDMWdXneFdIEwz29A%3D%3D%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/405505974323?_skw=PSA+10&amp;epid=21070913787&amp;hash=item5e6a0a2033:g:cWkAAOSw3TtnGWvN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnaKN4zLCA6vIKpN%2F1l%2F3HV2ZGFBzbyUfqs9oCuZu2MRWNS%2Fu866D4ezFmStsMC0Iib83I3uuJh%2BJV0L6F1nEWMjqDeWp5aPvvJ7NqWOGvdTXNgVBAw6SmGemjmIe9keB7obnvzaUYWNZCCVFUMiYQle8yvg8MAps88k8j8rJF%2F7k2kf77Z73nIvw7g74cH39Ns3qfIXv%2Bvwd3DzJ9j%2BbzMrLTadGFOC92ctND%2FBY52AQ%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361955264?_skw=PSA+10&amp;epid=14071112112&amp;hash=item55114501c0:g:r1QAAOSwa5pnk9CN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFbnzRIIWF3iUQfRrbp328l4dbp14bnC%2FHTVtAOL5UuLeWIyUEk1NKxhWyvF75E3CZAzm%2F5McuIp3TgpwLpbv3%2FCzA33EnhI7tB%2F3lkbT93PJkSUZJQri0KJOFBhQBrK0W2Pj%2Fu5AwSjR7ZhbQ40zYjyYaqyfudsFHvBiBbi6AvR6vVX8qbMVmNIqNrzUwAk3Jc2fR6HWvCBJj2OUn%2BlQ2A8O4fiMKWz%2FVraYZLOxsvbif4%2F4yqk1OWUnMnNttU73yO17KTCiDfHRLJWWFGBMq%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365361955264?_skw=PSA+10&amp;epid=14071112112&amp;hash=item55114501c0:g:r1QAAOSwa5pnk9CN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnFbnzRIIWF3iUQfRrbp328l4dbp14bnC%2FHTVtAOL5UuLeWIyUEk1NKxhWyvF75E3CZAzm%2F5McuIp3TgpwLpbv3%2FCzA33EnhI7tB%2F3lkbT93PJkSUZJQri0KJOFBhQBrK30t%2Ffg8oCqR3S%2Bkuv3Kcp5WHgAXE5GsxO3Or9NVLQABguAJNQvvwu8d6--z%2BSxWHppeA6rEncTOMETdfqJznYX3eFDMdJQTFOjcwB6Y7byNEEmtriaC8lcUK3XmgzTvhIf7MC%2FWJZtnbhWB7Zwfo1P%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205260708010?_skw=PSA+10&amp;hash=item2fca7dd8aa:g:wGgAAOSwYpNnnrHS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn--PsPOth993rrgmfOJJKUa65IDKbSBnxlDKxVM6grBerIIu%2F99ghvjN4%2FekpnIK1fRsc%2FeBqVE1wivfrDxGJcocq1Ev5pB25QCXz99Db--MTfMERv%2FeHgJiznfWesuZC4js2qYdgaJIgu93ndGSQjEoeYhBpMFPTzz4LpiKLoU0ZHs9kk1gS6hH91ermkGOmTqHfs845b2Ff2P3nyX%2BxyC1DhaPzMaY5yirFDMrMlOg%3D%3D%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/205260708010?_skw=PSA+10&amp;hash=item2fca7dd8aa:g:wGgAAOSwYpNnnrHS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn--PsPOth993rrgmfOJJKUa65IDKbSBnxlDKxVM6grBd2bwC%2FwntGlSibQjYVQ3fYuwHuyDjC57lm9GV6Athww2%2FAf4p9h0W70uIjoR5V8Qc9zmtWVxR4ByIy00MyiH0vsA4b6ex2q4Ski7EKloiBQ6qap42kAzWcUJvFj5S8hoUb13QlvjXy9EJrAN7%2BzhzK4dwIDakKQRCHRyRLDydDb7xJUhQVoITYZ6I0a7tCEHw%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855700786?_skw=PSA+10&amp;epid=26065178387&amp;hash=item5a4e005332:g:INcAAOSwf6Vnk8ik&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkA%2FWo%2F6VXnt8YPqQ2SZExqBP04i62qfQRWfK8A20Rks6JEyBrPQqkyFYVzUsZnxylCrLOnD1tsWxuipbd8GCt759S3fXcwJ7o%2B0Z7MpWP1kSVcyuJLfnfIXTpL32%2BD%2FaSrHwZWeRD2wJ0w7DMsqWDe%2FhmFd3GGXyoC3QkpqVstDI2KeJmcjb7EjllmQMXifdCeqraCGd9rxW5cGyYY5XDKKtAvTawIUej96dDgBZcgDN2pqLOud0bFVOocbRCTx6n2%2FvGGr4xJroqMY7pHiaPR%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387855700786?_skw=PSA+10&amp;epid=26065178387&amp;hash=item5a4e005332:g:INcAAOSwf6Vnk8ik&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnMnJ%2ByJf1upLJZ30cfEALhDg8%2BLGxEYq7KDUkoi0FYt8L5ZUfKnbcMfXvMl75TYMH61BH7lqZjSg8cshnxkNVch%2F7gwIRoZdTy8JUWSZj1QotnsheiJBINrGOU3kcjYyVGkkjYEO48D%2FUwz6zJ8jECiC74H9dPWswBvb3pRNOMYt45HTNBYcgNz31N7jwmPK6zU%2BMsnaYNFf34NEaWDi8OEQ5HDfHA48WJXVcTwyetYg%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911097387?_skw=PSA+10&amp;epid=16055526346&amp;hash=item2b84c5022b:g:Z2YAAOSwTqZnk83i&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHTCs9NlBw2GT5Dx3M7q9ATIFvwVy4ox3THrncXyivWb%2BvCavMZ54EliK9C8Kt5PT5Ye1FP1P4bL8A4djNH1jisANrkAKlX%2FfBplTz%2Fegc2DalA7z%2B2pu77roo%2FJO%2FBk7QD3DDQSgUk7YCeRtemu%2FrFsju9FcIJmfGaf7ey1vIcbenusDRYvLuM4%2FE6SKO7fvIQvE1ufPUz4M48xQFi6Mo6PKDbVPkri3G9aR5Wy30dOxzKIRsIDmc%2FwrUn6vomLM93%2BuZmnThRCdVN2MJhOfZ%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186911097387?_skw=PSA+10&amp;epid=16055526346&amp;hash=item2b84c5022b:g:Z2YAAOSwTqZnk83i&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHTCs9NlBw2GT5Dx3M7q9ATIFvwVy4ox3THrncXyivWb%2BvCavMZ54EliK9C8Kt5PT5Ye1FP1P4bL8A4djNH1jisANrkAKlX%2FfBplTz%2Fegc2DalA7z%2B2pu77roo%2FJO%2FBk67nOPKAkbaDpicImHhHzTRIkDNRfGnsPyhKNRHXPzEeEjtUMzxl5uNunWf6woyw7NryYZO1xjI8sCncoV52wA%2FJ9rn%2BE7bIdFYEmtwmbna5H%2FquP64pl9KA0xY2v%2FzfMr4KLG0MFAZP25zVBLsg09w%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911097282?_skw=PSA+10&amp;hash=item2b84c501c2:g:zPUAAOSwHrBnk83V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKklwG3qPsRQ6dhzALAgc4%2BReU2hcuuPZpi0OSG7ZLgHnj0unjjQJKYwu5wzly8lC%2Fp5dayb7OciX2wUN9QYwWO74fmO92fMnyRt%2B%2BwUc%2BsKtGwu2cXkATaABs53%2Fs9UjlDI2%2BL0OzRpwZuRkHctMHGDRvrc5DbvOB0pxw1zFCQgqhoyVM3dYYk9RcvWw3nYE0Lk7n3teOv85JGQ6vnVooNniYBordYoHqAIBSCZn8ugFA%3D%3D%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186911097282?_skw=PSA+10&amp;hash=item2b84c501c2:g:zPUAAOSwHrBnk83V&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKklwG3qPsRQ6dhzALAgc4%2BReU2hcuuPZpi0OSG7ZLgHnmteHVMsoeKoXRlMyTkN%2FlhZ8fr%2Bh6AHCf5Eqxs8yhfdoy5uhm9Hlel6wIEkBhIUF58cWGlLGAh7m8I0vlLYqNiwVa17ewAeIr1lpbfWIYNmXc0nkGm%2B8aFIuMDj2120JlAyD%2BFPtullbtR0rkfUo%2BqO84OcIPeNQUJ1rXEitMp9%2Fgdl9VgGyj5MLGBYlJKg2A%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335713608216?_skw=PSA+10&amp;epid=18060330037&amp;hash=item4e2a172218:g:VyMAAOSwE2dnUnLs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAqYZkocoHe6iTBeb89IvNvzCCRPi4Or%2FpuuZRN61rv0iTMd4qTjJSw%2Ftdye1NrEmUoBeXpXNtonheN6H6rauRaVOkErpVGVY23HMqxKuWoaviUrDSs4HQ919jS9q4WMooN%2BdIrX43%2B8N9FRil63v4SAyBuCZ7IE3ccVrgSGwNP1UFlC0Rv%2BsYrdjC%2F%2BwJ8XChGTKDe9X6s3HEkN1CJxliqUkQQ4HtoaGG2w%2FawdlrupQtJtkaeLhPvd66aoPpc3WAVqltM%2BTWKodHcQ7ebcgY%7Ctkp%3ABk9SR-Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/335713608216?_skw=PSA+10&amp;epid=18060330037&amp;hash=item4e2a172218:g:VyMAAOSwE2dnUnLs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmga%2F8rgDZx0QRBj4o17evbfVnFIRwHTxd3EFxiQTfKv5vr%2FQWa483IRtKO8N4S8hJAFlD79Dqezp5CNBGF%2Bd8fDemk7tXa1XDKzA949TH3cyPt%2FbYzbMKQAZCsVKwRb3biHQ%2BoHt%2BXMNR7RvlfcTvyJTSYsTX0s9y2ecx3usHLbWV%2FNnTPAEhcksfV2MgUSVXMBVCtSPrxVn01IjKcU7aX%2FxRPhkaFtuESw3nLfbwflw%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365362115989?_skw=PSA+10&amp;epid=12061284030&amp;hash=item5511477595:g:hzQAAOSwi~Bnk~u7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkIXqaYxP59UxpW4xuyfKtLb9kwWB%2BTI0%2FCwwKWBp8Wx8x4OnmyYNE%2FBgG52F2URVc%2Bf0uXolRLBehsR85OKhuDp5SFlulBZ7gr0DVZ2w65HIsvU2f7FnZHV%2FpN59Y0jKygJ8acGpPnu3WZsiwBI7yMU%2FpeiWHHTyPSy9Tr3K4Cwv60KcKyUb7hbP%2BgCv2NjbuRaPvx2h8wCbuH9UmlwT%2B5W6yY5KIALacPJ2c%2FZZlNpQ%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365362115989?_skw=PSA+10&amp;epid=12061284030&amp;hash=item5511477595:g:hzQAAOSwi~Bnk~u7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkIXqaYxP59UxpW4xuyfKtLb9kwWB%2BTI0%2FCwwKWBp8WxxarbNqTU28RCkw6Bx2JODEQInme4eAsQl9MA%2Fa33evP5WVyHelO%2FYisvgemzS2t9jjY2Y7%2F5YCnKUH6eyUkg5UEkCysMwY9XWHNk08eiLJOjNTyvmAisv0ppxGIaqwZ5Z56tRLI6VNUzt3IfTuFR0JFVRtKvVMIKXieq67fz92e8RdC1IxNjW%2FFjNewC0caCQ%3D%3D%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367016215?_skw=PSA+10&amp;epid=15070313653&amp;hash=item5511923b17:g:KHgAAOSw~XtnmBJY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4t%2B1TXhFRQj7RJ9RuUxIOpFWULRHqYkRezuXxKUw20%2FBOqmwWSpb1AV6frjQcH7sbMVrtc0C8cIbsapKgJo5sTw7Bowad%2BLb3ZyX6BhMUmNNylZdNYNvgRogZFHbDXA%2Fw%2BQx6cqiGwi2lPoo2Md505uXEPMBMUi94MDDYF1wACr4%2FLSxfo%2B%2Fh8%2FOTdT6wSnRX5Y2NNZUvAjPG3Z4TMgNPNP2jEunRSQoDRx6WWFl2TA%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365367016215?_skw=PSA+10&amp;epid=15070313653&amp;hash=item5511923b17:g:KHgAAOSw~XtnmBJY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnIcfHn21b%2FpdHxRIbTJCxMoa849QJLvpSP2Fu5HAbT6hI5Sdbk%2FyzN7v2MK3sO0arB6Z0SP%2B13386t7qBOmoQT3qezNYpJ3xpDTKT0iIgrqvwR297h%2FJYDcddVxJ9VEWei2%2Bq46fL8zYQ5z4e4%2BIzq5I18FajnrtIysaDD3DpQL%2B0TIYKFwUMYZrAph52sXuLo3JLj2d9TxDRR8l6pmxJ%2FMdELCAs9MKaPMUjmc5Mut%2BjDEgqaoLZIvskqmr8qK%2Bc5iIyrD9beFUE%2FQoOxacWD%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947615611?_skw=PSA+10&amp;hash=item5788395d7b:g:FsMAAOSwM51nk~Tn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmKLHUDEolZJUF8tEQUdp4XRU%2BcRoRUVxHjtMSTtQLAGslmjNMyFT%2BTEn0pplVuugmivWxnQjhlZd3n6WikEOzcyuYnMVQJUWB3laybZqCdD%2BA81cNP2dSoXTEsf3rZ0%2Fm1kFQ4YV8PoSaa7JHA2Mi0OFFWhUD4skCL7gELo4XmCZrU3nOhzNxebm2qOAX4K0xfjtT291KkyFrn2tDfAHEGvoW8%2Fxj5Bt1XjmM76NZO5gahU7Io94PU5GSeS%2BhmSgh7L3rmw31b2dE7mO%2F3ZPGn%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375947615611?_skw=PSA+10&amp;hash=item5788395d7b:g:FsMAAOSwM51nk~Tn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmKLHUDEolZJUF8tEQUdp4XRU%2BcRoRUVxHjtMSTtQLAGslmjNMyFT%2BTEn0pplVuugmivWxnQjhlZd3n6WikEOzcyuYnMVQJUWB3laybZqCdD%2BA81cNP2dSoXTEsf3rZ0%2Fnyp4y%2FTkl727vUze2B3qvTwmrBg4yvD7nFkie2EYkvV5xsgAe1kx9a4bA8c5b43ezFtnnwA01gN%2Fk3YvZoEx8WLi7rP5F3yCmIcnbwEzaZEnZhYARfDyJtyo1ztlJ%2FW2lPYHxuJQIv876JZ%2BRSVBOH%7Ctkp%3ABk9SR46f0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954512998?_skw=PSA+10&amp;epid=23061306370&amp;hash=item5788a29c66:g:r0cAAOSwkjdnmBIG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk2i%2BDgHoC5KIsmE8ErMkbtHGtzScG9PgLwmIOZZF%2FCvYXuAV1tqYUEu03ZQ4Two5OjJAji4XcteRjuAL9vbuvdHBnZUhVPgGYAy9t1hlyoxUOC9BR4KvGlBLk9vmSI%2FTgc0h66EKgmcdA25xY230u6QXb2n7W4jd%2FkjLQecEvPKoG2XnVT8X2O%2BZ5gZH7Fb2ojdedZEOP8k00b2D1jL3Bi4i6n7s%2B%2BrxdQ9%2FiPEWV1eYK4u2cLhLtSG6D9oP2V0RICxuOhkFLG5avSTDNVL0Gb%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954512998?_skw=PSA+10&amp;epid=23061306370&amp;hash=item5788a29c66:g:r0cAAOSwkjdnmBIG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8DFpUDHf2mvKsTRCHO7y9en%2FlRot7OyYWSvff6TRmrPuSVdrjnBD5f6KVyA9TGnfUhEmOK3%2Blb7yoUcEdMZSC%2BTp1FUvEcmmO%2Fvbz%2B5n1gflb3wC7rLHZGSdIZDN7wH0Id8Eo5EBepqzBsnRMInadw%2FoML598%2Fa3EUyietAn3HZJ8uBjzIZiPDWHumn%2Fu3jpaf9d4biDEoXFmDhC9KmNjspK%2B4glpJZsWqUKLq9QEcg%3D%3D%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866793996?_skw=PSA+10&amp;epid=25070299092&amp;hash=item5a4ea9980c:g:zVIAAOSw1RpnmA-C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk0Jc0ESzFmoeoOV0vDus%2ByoCmQAyyjNinFB4qhdFsg%2FRx10JgelhHe5A8PHhtBPF7Rpav24Wvmp%2Fzj1eDJcIXQDhNC%2FiHTTi5xZr9Ax3le3YF6X9%2FarZyy6ws%2BqU29EGmiGsKcnXsw5vQlE%2FE1Vg%2B2fqnL%2BvdZOF1EFhvJAk1ky3GsyzjEmr3R34s0Zkut8cwQq0ORzbJchqwUmHBu3hgR4fAPx%2BdBwUc5PtCZ0E0GeA%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387866793996?_skw=PSA+10&amp;epid=25070299092&amp;hash=item5a4ea9980c:g:zVIAAOSw1RpnmA-C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk0Jc0ESzFmoeoOV0vDus%2ByoCmQAyyjNinFB4qhdFsg%2FY68pgd%2BC7eKrx7XXrJuGs2WRAG41s1Mmv50ujXHp%2FR3ozPOJv6GqI8osfzo68XLet00isC7JDoMgD6HHAae49SAQCKsWdYI1Ee3VZxJ7rs1GfUPEXFfdwVCH1dyW3t%2BA77VQPNITSvKvbiKJssUw15nj%2B2pM0230Ae%2B5Zyf8K1La%2FUMS%2BYlKBvpIXx1PyJNsg%3D%3D%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067371108?_skw=PSA+10&amp;epid=4071303607&amp;hash=item4743097464:g:qnAAAOSwmZxnlva7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmqekJpXq4PRZdqE4lSoWnfTgO1M3g03dhdPfPGHNJLsb7KPUOGSMdQOdPfHMdBX1Lp5xnJjv992FWMk%2BVdLlPeRSwW0hNsQP0aeK0ziZ16RJ2graEDYsqh6h6vUSz50Mz1tWsR3lMBMOJAogGGvbUdNAXpTs8B4szFVxL06W89oxnnORhfMnhBh8A7V2vluWQVbwoENWLo8LSFkbvsSauw0kTyGCbViw2HBWffOB6PQ%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067371108?_skw=PSA+10&amp;epid=4071303607&amp;hash=item4743097464:g:qnAAAOSwmZxnlva7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmqekJpXq4PRZdqE4lSoWnfTgO1M3g03dhdPfPGHNJLiGrqVnXlzR3pELEKIU4bS19IZWvnznvlLssFvyDHZkXEarHjaow0HNB5ceDdSX8etNjkovZo3XL9kWidK6IHIT%2Fp95HJ2L4pk7dVnU2LQLS1K7fNeZVE7WplySYldqWPB1a%2F7T9jJxWUUDeNXbqWG%2FUcHiLCOQ1etJIsJ7i1fVBkXOOfkdJETClgVgAWomWhQ%3D%3D%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405369299274?_skw=PSA+10&amp;epid=17055537346&amp;hash=item5e61e4a14a:g:XgwAAOSw02BnPjH~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnoSK0TiA2A0OQcWI0tYof5TtEpmr8v02UqytbvbaMwonlHNF0GWOOZBmxpvRZ5KA3hhIYsyazsBprM7O6TzW8LGuqegBwZECntQuDfvL1%2FMvsBm5T2aMXg58pfv9pHLxF7a%2B3gY%2BY6LRdpdnGFabJNVprpa7XKla2dOfcMHHZUU0QeJiofQVMQOLfuXHIeubXyVVeTisYKf10JHHtQ%2B3MNhotU%2BphzUhikHlYcLnp7WA%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/405369299274?_skw=PSA+10&amp;epid=17055537346&amp;hash=item5e61e4a14a:g:XgwAAOSw02BnPjH~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnoSK0TiA2A0OQcWI0tYof5TtEpmr8v02UqytbvbaMwomtD0Yx3SnrH1eu8PBbylXoz9bL6NawyaYM0uwLOkNQwmdQqCnF1Qm3kYYuXGtmqhBEbLDzLzypujE2cpn7OGpihrE1j8wx9eJDX4gzQQM0t6gEKNynjky3jx9qZBgBASzINuAiH9l3PW0dMZ65SgJXEt68vrSPExKGJP00rfAAy9tnkxpm4np2sAG8MJGoZNA%3D%3D%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326428107582?_skw=PSA+10&amp;hash=item4c00a1a33e:g:zlEAAOSwyhpnoFvM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnYqK3rebR7byz9406I7IxJPmy5%2BI%2FQgUzUarqod5rAm6vt7XldoF%2FQ903UAMLtfX1AZGP8PAzzezx2Tv2A3v9aoygnK6Zn9slL3SejvrVKm8jeG428EUbvvh8hCmCIUP4HhsJ6yck89ylNKRQAJ7jMvyq5uxBFFwLBM5zoHh1FVd4ymDC2rP80LEMZlVN0nL8xCA6Ek4Na251Hg3NQdJ8o0r2BxxbDfw1oe9qngXlTIA%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/326428107582?_skw=PSA+10&amp;hash=item4c00a1a33e:g:zlEAAOSwyhpnoFvM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnYqK3rebR7byz9406I7IxJPmy5%2BI%2FQgUzUarqod5rAm2Kt89EMt1IycDYIw%2B%2B54fKiUNW1Bupp%2Bc1m%2BYgK%2F4LjbXKiLFaIGUu4Ti8vPf7fYu9tg%2Fly1ZRg6443QaKkk8xxwyEXR3g1RlJY2jzI%2FRKNvj597DVSqUFJkKpofXIpjXLevRzO07nKpxkIItKe2tlJsIELsa%2FVcvCEjY1cnmClUGU%2F8qAyblWAmLxpnbMQXQ%3D%3D%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306058597092?_skw=PSA+10&amp;epid=20074007728&amp;hash=item47428392e4:g:K-kAAOSwyJZnkaZl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlHZPgBjeOj5AN5QsR2qLccFR43djtPYm74p29OZF%2FYRgPwhw7yjaFjmMuWKJE0%2FIQq9Vo11jQJhaIOCFm2awHdWEY%2B%2F9ZBfMFzHDrWicWGTGS4lrHuKbG12%2FhTT3%2BEtSQwt1nclIMNo6Xtmq6CrNFoDSYwX3L7hhW%2FIyT4DxB%2FG4qp62RkBC7oRK9SJVToHUh%2Bh%2F3bAAE0BhNZU8a%2FlCdOtyXswiXxIJ1D6d7YrSOQbQ%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306058597092?_skw=PSA+10&amp;epid=20074007728&amp;hash=item47428392e4:g:K-kAAOSwyJZnkaZl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlHZPgBjeOj5AN5QsR2qLccFR43djtPYm74p29OZF%2FYRpAHB2bFQcbLY60MfK7ANa84G%2FC8xFhifJaVkYJnhY9ezio4JmQFFtOfyAvTBhPkOhiwMKVtWluXypNJd7rEQAMP8pb9KDwddl4ATbIN4VeU%2FTIbj1ZfcrkeyWYSXYaCg6%2FKQb0cgK10sIAcAcB5LrFWUbO0tHIi0ZSC8S9XDinXMYaET9TTSO5dkcdPti1reg%3D%3D%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135516289704?_skw=PSA+10&amp;hash=item1f8d667aa8:g:~JMAAOSwQttnlFNZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkSjljXdspEkorM%2FIQBRwQPo%2FftsgpreCrVLLQkKoVq2Io5CSQkC8zWeU4kC3WsKTIIoJC23AIGE87KVUpGyYdBMWGb%2BJNSWdLCSd%2BlgJbweuop6kDMOyUCxYev5Ijmr2ZtTHIxEm%2FV4qnZyRWPtX%2B356h9WxNwRlKQY7B%2BZb%2F5C4d7VkP6tyuAF39SMf1caqSY1tnd8sJAqkZl2eJIR%2BLSZG6yx14kixCT%2F9bEmIAD6%2FnrZ7rAKjnXNtHaeGioaj4WhioxFC3cSBMDJlbLaQY3%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/135516289704?_skw=PSA+10&amp;hash=item1f8d667aa8:g:~JMAAOSwQttnlFNZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkSjljXdspEkorM%2FIQBRwQPo%2FftsgpreCrVLLQkKoVq2Io5CSQkC8zWeU4kC3WsKTIIoJC23AIGE87KVUpGyYdBMWGb%2BJNSWdLCSd%2BlgJbweuop6kDMOyUCxYev5Ijmr2Zw30ciDEwC72Eqm5otdu7GCQLJhSC0JWQe7uB3J3Tor1ldS%2Fb4hYlxgraaxohClvbh4wbW4EHC7VYde%2F%2B%2FwixCP3fauLS3CahAeTiThfuFNNTV0FmRksmA8e6X65Z1QTmXxNEzJH4%2FdRKVG5Cgo2%2Bv%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067203306?_skw=PSA+10&amp;epid=15055532318&amp;hash=item474306e4ea:g:ckIAAOSw9gtnltpj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkeUQG16yjMdFceBwDnyypKQknw%2FhL8AQz4ONb8AnhFMvy%2BB4G6MLR%2FPaAdcmz9fugxssFcaNaH853BADG7n8TB81UA%2FuTgMzedRiLR4fx0CK9a1wdqj8TH96GaH2i696kg9S9%2Bdj%2FahxAtANJ5PJZJykmzHC3zHp1QTswYzYcndPBCTYWyoN327w%2Bt9ak%2F92WguqBS%2FgB34Gj284GJMLekaWiVVaRe3xQr0qZHUHno%2Bw%3D%3D%7Ctkp%3ABk9SR-bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067203306?_skw=PSA+10&amp;epid=15055532318&amp;hash=item474306e4ea:g:ckIAAOSw9gtnltpj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmV1DFRhmbFrI3wQDCNCKsuAME28g4Y9EeJvfv%2F6SLD59fVzVycpjfnXpRbrUkFUiqMNE8zScjiuLij80YGtl0yL9leXvtw5pT2bQHfAOWc9rsw1fzmYV9paK6qb%2B2Mzsv%2BNBoCpcD72%2Bq143uFpEKqx0oxM5K%2Bx6iJ2Mrf29Oqh4p7VLr%2FbWCtsdsTxpMde4zcd4f1cKrzUe%2BzTGSQKeeNDEwX8gcWz75C%2BH9uoEYyRrXhaPJeY9%2FQQO%2BNSxSzd6qOn9aU5I%2BC3ERQkloEHyLk%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316164969029?_skw=PSA+10&amp;epid=23055588208&amp;hash=item499ce69245:g:jdwAAOSwauhnmB1-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkO%2BYJJwgZaIPo6iTjNmb3ZO89ArI%2FVluYryw%2B3qEXULy5qogcBZIhlu9UigBy%2BvXGpPAeslA%2BZVenbJp%2Ffu7tfJnK8%2BZGe0QaWm2fZk0IUAXXiAaUSO6HYGe%2BU8e9ZBxjo0YoQpRZ8cPec8QachMwUKtY3CPouGlu0WZBNhU5u8ZCS%2FDDX94bCu3%2BfJT55RS4OH5Ej8EJphrQ0cxhkq3KQN9F4E3bTLKjkHzmVYyoz1netEr3rFw9MZf5lmxSaDxoEVY11ZYqS%2BQXj%2FfmT4gu6%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/316164969029?_skw=PSA+10&amp;epid=23055588208&amp;hash=item499ce69245:g:jdwAAOSwauhnmB1-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkO%2BYJJwgZaIPo6iTjNmb3ZO89ArI%2FVluYryw%2B3qEXULy5qogcBZIhlu9UigBy%2BvXGpPAeslA%2BZVenbJp%2Ffu7tfJnK8%2BZGe0QaWm2fZk0IUAXXiAaUSO6HYGe%2BU8e9ZBxiA14%2FZ%2FWwo8hLX%2BcRZtTh8ju99jDV0qFaynfSJREnwvOt1V2g4mH%2Bh0yXOEXM9w%2BCqa3wX9r%2BrSNEmTyvG31Ir0w%2FWmKUerKNdZsO0gxhBLo%2BMjHI8DOESoTmZKMmhn9mD%2Fqg2xnBYThD3DTAZVB6J%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196976021448?_skw=PSA+10&amp;epid=3055547388&amp;hash=item2ddcaf8fc8:g:d~oAAOSwjflnmEUw&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmHoM0nySS7JNMTmpExbnlEFbeHy105YuXUGNZa9izJZCkEBZCbTA8qH53T6%2FX5eYFq5Ug%2BLSRBPtPXW%2FWh9PPiLTVi9ufdvQhP2v%2F0f69R2y7FMw%2FNYCRK8WXmvbsSGq7%2BvjMnPx5gvD6vDhnvVinEKVrzDogjalxDbvsLzW3Q0Mz24M5g1%2F7DNnXMc866iuwyqch7uNdlKeLvAbMkpHu8mqeSUYsePYBEFr61CyT26DXRFrIpS1pvIFHyEznTArLaTPDXLlCSODtewXcMwo3k%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196976021448?_skw=PSA+10&amp;epid=3055547388&amp;hash=item2ddcaf8fc8:g:d~oAAOSwjflnmEUw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvXDafBDykpQuTeQ7gMwWX22J1Dvm2qTeQkEXqY735zCylL3qjN%2FqCuLgx55s3KJ2%2BohFWA%2FLVKXtJyT9lN%2FwefwgjLAXZidJRlTPhd%2B67x8hRbsRvkTZ2qZlmnW5cEOBmq2LVMRQzaLqGgLUDyv1wqoTuJye3%2FLl2cWtnbgpbh7Sol0GAiku7LcVthLFWHLW11GaIcAGnM3tnqEpyo4PLVWLISx2GBvvNnv2QwEhAvQ%3D%3D%7Ctkp%3ABk9SR5Cf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316164962582?_skw=PSA+10&amp;epid=15055553990&amp;hash=item499ce67916:g:KuQAAOSwE4RnmByR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlL6guJKDlv9J5ip3bMU22SJqYwcqkxhGyPoRFTn3h9IukV2KR%2FGpazP91MAM5dFRz5U8U1Hii7%2Fw%2F8i5PT7pUQqIFo4hgHa7l58%2BnVkfdHVsA6IkURKvMXzJEmo8fRXdewFtgI5ok%2B%2BarhZ817sRWYiqA2JCPYXhYK9e65H5n3bjQ8EjZWl7ltkzwAEVWMjKSFgl4nkPU%2FGKFDxSpmRpmuTTl0b9lvxQzw0XuZuDtN2YynoAFdcMlpttlZxol0cPaUn9K5Nz33NxruiFKO%2FbhO%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/316164962582?_skw=PSA+10&amp;epid=15055553990&amp;hash=item499ce67916:g:KuQAAOSwE4RnmByR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlL6guJKDlv9J5ip3bMU22SJqYwcqkxhGyPoRFTn3h9IukV2KR%2FGpazP91MAM5dFRz5U8U1Hii7%2Fw%2F8i5PT7pUQqIFo4hgHa7l58%2BnVkfdHVsA6IkURKvMXzJEmo8fRXdcHfFuWxLXWJTM6bP8YtRtt%2B7HBRu%2BELJdNv5LsFdUmmTYZkKAxTFJ0Mo6CcmUzixVilCZyJFstHUbIOUYcenMgOANQyDPyIhNQWoQTano0%2FQ%2FQppYLTv%2Fvnq2jvBUBhiCzyj%2Fwj6%2FIBycT936LgRpZ%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373540?_skw=PSA+10&amp;hash=item40748e0d64:g:23YAAeSw-4dnmB4P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2BKWybI7Y%2F2JFeSXnujCsYWL5sEO0sSLQg6gkT5G%2BYa4LQAZ4wIrHMOWZGHD6Kqz0TJmlQ505l3HVI9g5wdqXX2Qd5ghxn0OcDQK5EIMrVsoN1kQ26WtgdhiYJm6VJp3Tl%2Bqw0sDVViXLDisu4FPIJvb5Pffi%2F071La%2F9dralJQYtuQodknZ8LHBEYEalb8%2BA1tNw5ua9zcknjeL8Xfi03FmZGQXRdYOgo1ML2ark5jw%3D%3D%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833373540?_skw=PSA+10&amp;hash=item40748e0d64:g:23YAAeSw-4dnmB4P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2BKWybI7Y%2F2JFeSXnujCsYWL5sEO0sSLQg6gkT5G%2BYazR5aNzKXoeecFHCJ2pjF7RJoWgUEFcX2vQ%2FN4B%2F41cjGUO5gr2sxJoHxQRoQZjJwRiSCGKk%2BPKpHQS%2BTi5ynTazsV1%2BFDdPw3mjEXlTG%2FXzw9mWsFf7se%2B0tAW6Jse9IZqE6iCz%2BJydZVE29vjk1hvBI64w8kJiAqMJgKArnZMK7Qhp9p8v44Wf66sgRi0qrg%3D%3D%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067382301?_skw=PSA+10&amp;epid=25055550741&amp;hash=item474309a01d:g:iBMAAOSwAmZnlvmY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2FJuBaNCILazqZruoTqV%2F3GqRB5Vf%2FeeQUp%2BIphZW83Lwm8vOgU5qo5ix%2BR8YYRVk1GXagZiTH%2BXgeGmWVx87u00nMwLVaqRLEIc1OhlzJbfMfamrDbhy3c7BNy9Z0%2FkP4q8jZhcoWatIpvcC3HffQf78E78dkRC2kVfJ14XbtXWmn1UJAwaM9gtgLpfeKpNm85RKuegcnKXj%2FiA9rUrV7GF1PI6gH5nay1fVUjrT9Iw%3D%3D%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067382301?_skw=PSA+10&amp;epid=25055550741&amp;hash=item474309a01d:g:iBMAAOSwAmZnlvmY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2FJuBaNCILazqZruoTqV%2F3GqRB5Vf%2FeeQUp%2BIphZW83NDfFZBHPq0J991CwRwLI6YUnFByHQ%2FQi1DPByZOUJSYEqBC6ylwZANdFCjdlZN5yianWUGG5pUP9zRx6ZdCEpPFc7K8Rn%2B7czDT1wfl0euWM%2BRU%2B2AWl7RsDo8M%2BnyNicySH4oRdk147AZ97mn7xKot6CYQk1tTZ66qTIEE18a%2Bqsi79atfEmwmHUlqW3wVFA%3D%3D%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126898668766?_skw=PSA+10&amp;epid=9073753067&amp;hash=item1d8bc004de:g:Yl0AAOSwvCBnklNE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKly7jpFwvX87i87ZZIYmt8lRmARkrqorpPy8Csee4ma2RsEWO9ZEnHPycWNeB5ahvyUE3b3AuhVQhhi8l3%2BJg4OpuYu64W2E5omYWsIZ0H072CPG1Qho%2F22MJyeX7dbN82hlL35Sdjxy%2FzmvcL%2Feo81YdID3ribZvYhjvEAsZ8RL1Zhsy9ZuRIkgNWDqUxyfzGa4KkXyteOEwLXw8fF08kQtRONzeA33V1do26Zi5EPWw%3D%3D%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126898668766?_skw=PSA+10&amp;epid=9073753067&amp;hash=item1d8bc004de:g:Yl0AAOSwvCBnklNE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKly7jpFwvX87i87ZZIYmt8lRmARkrqorpPy8Csee4ma2fbdzhSF6syfEOV4RJrbu%2B3%2BmONF%2Bpkh3iXm3ICYawBbe%2FHawzymzJvloSlvoZBiV%2BxGpXfnQ0%2Bss%2FI%2FvHQGxogM5Grgyj1cIWhKpD%2FXyV6uDBAZLu1DIhS%2BX0seJCEsNcblz%2FwXPhci4U0bJLbHvlnYWzvDaZ7VO2hseHoztbkrOUeSRAVXU0OzuqarStv7MA%3D%3D%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067027903?_skw=PSA+10&amp;epid=22055618137&amp;hash=item47430437bf:g:5KYAAOSw3NdnlsIG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkAiao%2FWVmwSm4W5ex71lULfEwT2pAmiUbMbumL1mh0Oo5J2YCr7U0cVWO6zWD39%2BQQrWld72Sbl9McfXXIHL6k2sm7td%2B0%2BI5kRFZ26FbEOczjIFDRLrUouc0Le7%2FEmgNAMzFJ%2FSB4NjIEAaBSspS8lQHquFD1cZN3gsPps2c9SVz5g5VnX6r9Xir%2FGETG%2FpLmF5lwRnWzzn4XHndR61ubJsbALqLoHUBR8OxF%2Fr91ew%3D%3D%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067027903?_skw=PSA+10&amp;epid=22055618137&amp;hash=item47430437bf:g:5KYAAOSw3NdnlsIG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkAiao%2FWVmwSm4W5ex71lULfEwT2pAmiUbMbumL1mh0OnG%2FCXA4mfAG5bqbmGsFQOx%2BDrW%2BJryoegvAqX3C7mzBrTyjNwMIf3jI4iHn%2Fx44YkegdMSbQqeTxSyI6XuNCK97i2Tm8y%2BBbCDI%2BbmdENGGVdg8V%2FBc2g4Eqw59mZLYu77kvSsxcID%2B1O0FjxWCm3XjX0chzB%2B4MYtvarXPqFqf2aKeuAV16YgBrqj2vEXweA%3D%3D%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373400?_skw=PSA+10&amp;epid=19060328946&amp;hash=item40748e0cd8:g:Z-AAAOSw4dxnmB7D&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAyQIvhlQ53z8uvatP%2BBAcy53z%2B4YhwLcqkBKRSf0Dy%2ByWiZMoXESsi9JzsZaosMU8csZ%2B8dPmlnnMqAXyASzEZ4Fw82s1ZMIrJ2CFiqXJr33VOUSCE2diGmsqp8%2BuAarpM%2F9YOcLVzTatIUwAUJnA0v7VuPpKmEipH7JSBObnzls9XBAwKgf73japQnjOJ35JzXK4qtbf3LX70ZeHVUiC2XNb99xFTubmmzXQWL7nVnDJfg5U7xQj4Qoekjk8kDQk1xE%2BzI3yi0Vat%2FbmgS0a%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833373400?_skw=PSA+10&amp;epid=19060328946&amp;hash=item40748e0cd8:g:Z-AAAOSw4dxnmB7D&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnAyQIvhlQ53z8uvatP%2BBAcy53z%2B4YhwLcqkBKRSf0Dy%2ByWiZMoXESsi9JzsZaosMU8csZ%2B8dPmlnnMqAXyASzEZ4Fw82s1ZMIrJ2CFiqXJr33VOUSCE2diGmsqp8%2BuAaoCTfwWW%2BDIGILdjZonzz0pCoYAxOg9FE5QBpUPcvZfRk0zTa8%2B4JXfB48z5nvBVECzM1ShfW9YBNPOXVKjPXfC70d3grK6%2BxjzhKAiuNuGZb6KHaN3mNcIhos9hTRaI71SkhnnwNTTJVOLn0FFmH%2Bd%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296900866218?_skw=PSA+10&amp;epid=15055577718&amp;hash=item4520abb0aa:g:W6QAAOSwxnlnhEms&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVJWOeWnqm9dwBf8i706m9f1AB%2FkrE6vMAZvr6FZVjXAzylMdPWZOz%2FgwVN%2FeWTSCjxdY0DeFHvYakng9jp7x248LIDOtcbP8UXNvl51m2D6DYg0IU6vKrhUwqxHFrHl2xLbg5uzIo1Sbaw1h8Ci0JKQTp25KHUBwrSW5lUY93Ono59QAp7bwltHHJUFdlYxiea4WnObG%2BEN5SJeJzjxZoqTzs%2BiUdrXJy8RYx6wxYSeAifrj5dYHnVprZr0LaxiGT97bhqOYTNDz1MblXOmS%2B%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/296900866218?_skw=PSA+10&amp;epid=15055577718&amp;hash=item4520abb0aa:g:W6QAAOSwxnlnhEms&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkVJWOeWnqm9dwBf8i706m9f1AB%2FkrE6vMAZvr6FZVjXAzylMdPWZOz%2FgwVN%2FeWTSCjxdY0DeFHvYakng9jp7x248LIDOtcbP8UXNvl51m2D6DYg0IU6vKrhUwqxHFrHl0rpquLlfrt6%2B8xHGzRLPDdVHNE%2FYUrsdmD68iF79ZKOwycjUQelhYx9GR6ODfYzQDqDc3uYPB%2B%2BdUZ%2BeDYnI33CkZCEMO0ncJs6sSRKdQJIr1MH93GfDolDZSGiCSloC7apejzYu9OMNUBCwTfcZJ%2F%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805452375?_skw=PSA+10&amp;hash=item292a6d1a57:g:2L4AAOSwt4pnk~3l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkyWy9quJ%2BZleXJ8LNpAvShIiHJxl6%2BLWRlt5C6vzGzDO17Fz%2BOfNDgBb4LZ0IiF0C%2FxU46%2FdwnlW3qRd2HgMc%2FvvthqgWwooqB7SC8WP9XDukwKZ5OXHrRC76wVjEp9mFovWYzORRkO4%2BsqPYZnFJTsquktuHHRpqj6ynSQuylalo76aCQzV5%2Ff46wTBpqLyeA17mCHKMw452QNoPWkkKQpwYcsSjzAOHctzJb8PSEGw%3D%3D%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805452375?_skw=PSA+10&amp;hash=item292a6d1a57:g:2L4AAOSwt4pnk~3l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkyWy9quJ%2BZleXJ8LNpAvShIiHJxl6%2BLWRlt5C6vzGzDI295B2WFJ2WlaB4Ba5X0%2FGI3NATT0gjeRxK8jGMAQ4syN1KZCzkKagP3ulP5mVN6ZO5sMg1ZxJ2%2BymJQtnXMnOJaW%2B0Pj00xhVKFmoNSyq7%2BT43kxe4VGDIkTMGM43PsO3XNphbNMw3Pxv0hCYA1%2FfrYLmpS5dJnvXTn8EZgHo2poVCYB0vuMn3j%2BOri9AcAg%3D%3D%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387873577790?_skw=PSA+10&amp;epid=26071773663&amp;hash=item5a4f111b3e:g:wGcAAOSwR5Vnmp84&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkL%2FCnK1%2FPNet0eXej8bJDAqvuinZyCtKQxvMHS1trZZiWvgWNnqTSzDFip%2FI%2Bjyso75lURN%2B2eRaf4mT7qEj3cHYZ0ig3VDnxIehseX3CpCi6W%2FTyARvbz2JdvGTuiu4FuObGQl0gIV9pFo5GuanUES4bPpYLTdcZbkXEGqBXx%2F3oXQ9Z5QfdweilB3lFP2g7GF4bl3f9qi%2BPX3K%2B7A6d49PYVpG7g96fNOqsoI3q85ISktg6NR7321pV8yDR5MRxT0n9UCoUsIIXZyl9uwfNG%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387873577790?_skw=PSA+10&amp;epid=26071773663&amp;hash=item5a4f111b3e:g:wGcAAOSwR5Vnmp84&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkL%2FCnK1%2FPNet0eXej8bJDAqvuinZyCtKQxvMHS1trZZiWvgWNnqTSzDFip%2FI%2Bjyso75lURN%2B2eRaf4mT7qEj3cHYZ0ig3VDnxIehseX3CpCi6W%2FTyARvbz2JdvGTuiu4F13l8GG1TSp8uvt5jeqreiPx0VUTh%2Fp6CwYifrMo2kHR7ODStL7HwvMASdyA%2BgpKA4YYQNevEfIMrXutw3sc7Ezqdd4y9eKtezN%2Fh9rzja2f86tseaBSswhrneMu%2BETZonihAJGuzOI61BtDOn1TK%2B%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373541?_skw=PSA+10&amp;epid=20055617881&amp;hash=item40748e0d65:g:~TgAAOSwQL9nmB7t&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmuuGi9JpkWHFSUBrqvIqAL9y20jy48UdIbaHz7yd2VZFxTVl%2B2Bv%2BketWDTCQUSH09t4sGF8ebf8J5jjQbB0SijPEwjB5BIYdrYfFQDnDv3Qht2YuwcUI0gplSjKRLPTePEJ4S6oQSsO3VrbNcrjbGjg4bCQnFh2s2oOFlLpOv5lrmc6UVj7gxhX42Wr9qJr%2BTitXX%2F43S7dA4KUlWlIW7xkMkC3G6TyFgPttePGhOyxhP3Qyr%2Fitvm5Mp3ZOc7ncl9%2BWsprhj1XjKMVQOy%2FFM%7Ctkp%3ABk9SR-jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833373541?_skw=PSA+10&amp;epid=20055617881&amp;hash=item40748e0d65:g:~TgAAOSwQL9nmB7t&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlsK6Y%2F0tjJCGkOTflp4gnjlsgJ%2BVJw9lPH3WBQ%2BxLmCfCjd52G7fwblWACuJwlHvuWVGc1VCIkDnxZ3V2s7aSb9CX5PVo5yHUB2CHfEW%2BPIuGCR84zGLN9YTOtxGGD%2BHqAXGamSyNvCAz12d25Rk9y4iCncTYNeoICpcnmYw%2BKCq6BWp0uBrEu%2FatZeL8VDqx%2FIvJgmM%2BJZla8czdu6e4oRmSQbqREOVcBcyvlLu7%2Bmg%3D%3D%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276829075660?_skw=PSA+10&amp;epid=28055625814&amp;hash=item40744c78cc:g:QuEAAOSwU6Rnk9cJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkHrPZrRuY9j494B9W2uJnr0D2u2JbV8gSgP5tClOwzYUplPL%2BK4p79S0cjt9kITxyF6iF2gecF6DBWXmAqXJQYEnh%2B54w2vAkkDzvjFNsCa0s8mUCjDZXwRUC2FqhsmXEJS1HK5c1nTgma1Vc0nPx8SVpMM%2FWH%2F2%2FWi1Gd7sM0pmH%2BdDStaWcdBKcXSxkvohkv8q%2BivVzBLNmI64XqLT3J9KpboFzsizl5R7%2FrxPXWnyLIZdWroHCojn3pGbQE7JyOgTsFcmnELGKj94EcOpYL%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276829075660?_skw=PSA+10&amp;epid=28055625814&amp;hash=item40744c78cc:g:QuEAAOSwU6Rnk9cJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlIgr6Zv7%2B%2FSoe018Vm34lGU8ezvPbO7mR9hIihAeHH9hRnvvnt7l7Ea6Kqd%2Fs6h2la4oiueEgUZmW1TcaKsEKDk%2FlR0CnYcK7NIhmI1lwwneEyVGieCh2rQNemhbBGoWYOJG03zfvxn5kCZ%2BBjwdjbM56gqZmJd4oj2pWNIgLQPTU3bEllARNtyCbWQ6t4NWC9bqQbfmu83%2FvnviB%2FfjjsV1wbyEkLmFaMkEsTShDQmw%3D%3D%7Ctkp%3ABk9SR5Kf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373569?_skw=PSA+10&amp;epid=16055542004&amp;hash=item40748e0d81:g:1mEAAOSw9nNnmB7S&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnJngNdXZj4aDvXYtRSF4o50sLsoIOS74YXK%2FKlBRyZbT8QPd5MyGNlKr00VU7mbrC%2FhK4vlNzccks0Vq6EJO9xLupbd29dtLq5MOxYlutSZlqhs6VaPvz4%2BwBp1Zw%2BvtRxz2ukGU%2FCKdXxpYx3c9kCDgo0yyst0fZB48SPyi58Wf2hOmy86ZzyFoh4ioXsBR6gMvnBJeEv--y7VN1XFETtalAbFIXb931k5q3%2BHWPGJw%3D%3D%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833373569?_skw=PSA+10&amp;epid=16055542004&amp;hash=item40748e0d81:g:1mEAAOSw9nNnmB7S&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnJngNdXZj4aDvXYtRSF4o50sLsoIOS74YXK%2FKlBRyZbS%2BoxE7LxbuoukjpiyB82%2F0cS1tbYz06OwqvIcTNwA492MnEDrr0l8p0BMEDHUUc%2F3AqmOWbddXk2tHTvnxYfCvyiSvr4cKdO98wWTujpDalNmEQQR4rOIe7a4rqt5Fk2oz%2BnkZHFdT5rXDfZCPr0Sjw5Y321rQCvi8cSJQ0q9UnjcBf9YFxrY81Z%2Bg4VxMXoA%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833373513?_skw=PSA+10&amp;hash=item40748e0d49:g:nfgAAOSwKi9nmB4a&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmMWjeW9wA7X6XJ%2BpiCGOCQxXYRjTBg2tTXXyAbTi9fnMrS7%2BSdYAoPhKVD8X28lm%2BSVUsyBdhBALe%2FAG%2B%2F0c9BD8O%2BoFQ6PsdZac9MEAxNu5%2FiLgoG1Iht3cRtRKskBQz2MNyG8kYkmVoQVaretNQlpUqCPtAXaHZ314OgLJNruKfiaMvDemMa4W2lcyWGigHKrZWoNgx%2F5WVGJE1FXkCkbRtg7BJ6DZr9p%2BFw82w7FABHS9Gl9bv2kcOq3zc7AqPecjL3PM%2B1SRHo6YZXu6oE%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276833373513?_skw=PSA+10&amp;hash=item40748e0d49:g:nfgAAOSwKi9nmB4a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnpTB%2BR5AVZQ64QmPutNhcW20utXO%2FdzgC%2BDgUFopm2K0vtgu%2BqC8lx0c3QjXsudmcmUkZtO5k99%2FU6jMYHuuW79iBxBUf%2FHIfivlicsqDVMR2m1JarhKXnAG87QmV2tig2HF%2FFqFpLYEt3in0skfmi%2BdWlkn%2FFUL5dpMBLJbRTXFXlWCHGUKKH899f7bV6NEjLwCLp0lomxzW%2BiCfUYaNGvOy4x1ootqE1ei9A38RHtg%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387873561243?_skw=PSA+10&amp;epid=13071757789&amp;hash=item5a4f10da9b:g:M2oAAOSwIG5nmp3a&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmFkjv%2FTUwzG0AWjCr%2B2ohcRAmicvS%2BIvl6iB50remJY4gjwB5kHScrzn%2Bpzog%2BdlI7qJtVPdibNgDItuHudC4NiSsWiiwEvvA52SyGYQHppxtpCMVLQIHNY5Ac2T9xYskbSkLx3XXzo5l7Aw%2FDQekT0ASPxi2qHudQTDtV4LrmJT%2FO55xuKlvVhVi%2BJe5Rgcynlmj7HlQaeGpWTjqxnggbhXnl%2FI47rPI3jDQ95cmeMlSlIXrP8nf4QZbrAzT%2BIhabhjcqsAp0YndR21RU7yzJ%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387873561243?_skw=PSA+10&amp;epid=13071757789&amp;hash=item5a4f10da9b:g:M2oAAOSwIG5nmp3a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmqGsmomLMJDM%2FYlSMAeb2viwTKqafNLYPksIdzOonsKQDYoJusOLzNbKyo%2FJ3p8qKNNAt2%2BLmFF9gG0FPfoxuH23oRz2DKqyhlKklSPP1PXHjlaqqTduKrWO0zXMg%2B%2FI%2Bda0n%2FyYbVynIvaIo8BYPAi72t1rtdYlXEFrguDdQ5FRo9nn2EEpI%2BsQJLgehFO2WM55pWguprHUkOuTagXHKlwfUtMZ5EojfaHpvwCfABWA%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405509676940?_skw=PSA+10&amp;epid=7065180360&amp;hash=item5e6a429f8c:g:LaYAAOSwl69nmrhe&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnNW6MnMrx%2F9u4GZ2KoKhiGx3rH0HnQlRJF%2F1kNA95kiiGaDEjenmPhhLUZmR3stvltLvXxVIpVOf%2FQTctVmsvMRvxGgkQDmLhTEzkK4XQ894mFOAgigWchRLUzoQlRCugxBhap64fAE9Wi1SbKwAFZzDEKwqzWIPjnh%2BrU%2BBsHAwRvZFJuoYo7WHwftyTsska5N3tkTirqieAaKsYj89vshQUukYEbz2HlG%2B%2FjM5n4s14N2h3WUSAQ14XiVWeE0UhrDyX75DZfrucNHqXU%2BSf%2B%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/405509676940?_skw=PSA+10&amp;epid=7065180360&amp;hash=item5e6a429f8c:g:LaYAAOSwl69nmrhe&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkbzxQJrfjx02%2F7WnCHe1arrwjSseP3y%2F1C1N9oo73%2BbZc3dTUXXWVeItCVYaNFETTEFLxYs%2BzH%2B0uu0XoAvCnIYy3vHFj8V8GzQs62nx2taLR8FNGVMPD4sK4nhHxkGj27JOhdNEk16h48zOzz2DEzKucnbKzBDNcUHpZcUu8IklyCarQmxMRbA8C3TIWf%2BPcBgDF%2BVKJF00fOgEfjo8yqTKjGV781Tk4G0gxpYmlXtg%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405505931451?_skw=PSA+10&amp;hash=item5e6a0978bb:g:ixcAAOSwYkNnmEDr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnbFC6J4cyk7SEpeyx5Ne8hY45ptzGVnXwDWFyru5eDEcQN9NCDcsRLkAye4kxsxchMEoYlrYhPGNMkcCjauqRCRmiRYIFoTXnYSlkAWJteWSx3XOjkoX%2FsxnbsNmiaNXy7GHODDKltFrMZ7Bkn8LNCC%2BgpRjdcOrDy5CcXC5AYoVToIuwCik81IXJkpBF3%2BwVct0Q8J8CdcVjIPf1nimc2BYOiA%2BtW5pQpO5R%2BR9A1cA%3D%3D%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/405505931451?_skw=PSA+10&amp;hash=item5e6a0978bb:g:ixcAAOSwYkNnmEDr&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnbFC6J4cyk7SEpeyx5Ne8hY45ptzGVnXwDWFyru5eDEUa%2FxI4StIPANYk8AnIJjuadqW%2BRH8JAP7OjYbo6YA%2BOqvZGFoMNtD4RxASxG%2BPFfp348knYOIpMNOmbIOsbChY8tc%2BUKsYLYP3yA7g0H7sIJf%2BRr4Rjiz%2BoJV994lk6fEdWtZRtNOJ1cUbViqcAudpua1T%2BuEtObzGK%2B75h0XDjSQgFPL9L2OGRQHPjVUtfjA%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156495829?_skw=PSA+10&amp;epid=19065172554&amp;hash=item5c3cc467d5:g:ZQgAAOSwy81nmEHt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlhITyRmXUIUf89fjI8RjX2B8S9XPtG3OIfmBGEs50lQScXfpSoIw7G0eQUWFaM34rp9GP%2B2qYIiftnce36m7YB8eCPs28TuNwaq9Vc1qhHl0wYycCEmWYjTwLu6QTT7RFinv%2BzDLtm7ovYipzKnxm0VbLHeeoGX9IDE5%2BATio8REYsR00%2ByOpWB3h52%2FnO%2FwiPko8iW%2F17daYe8Brg0XX3rvO%2BwMhwiZusxuTIjp--WA%3D%3D%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/396156495829?_skw=PSA+10&amp;epid=19065172554&amp;hash=item5c3cc467d5:g:ZQgAAOSwy81nmEHt&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEtrhto%2F00QJGuU0WGfxgBg7ZIGdRqhwQQwjiAI1T0VeGBBPCP4JweQlaOHEEzp6%2Fg2v7jww7fYTp%2Bxy%2BbxHJEN6%2B3Ngab212K3iAw93ZLY2CEOwaeTbsS3OnZz7119ipKNXxQgwsPaoeCkLNm5li63ys%2F0jF9z9yc%2BkQCALRsUJ7epzCf2GB8fBaWJ2kLcUEolAeca6yXp1jtCZtUGlM2DnUK3%2Bcfe2SyUDDYO3XK30T1XR5llZWLjc3bj5wWYre7c2%2Bm2QbvjI1wKRaFndx5%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326414562487?_skw=PSA+10&amp;hash=item4bffd2f4b7:g:bBUAAOSwqhBnkKqS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSMhkB6PePiCB2ynuh%2Bs4CpnqZ4WnmTLFXLMux1QvkXhQ%2BMO9ezniCxmtY0VTy3%2FHy9SjmzjaI2E6IstV2uw0ncyDY8sBE3RCHzAVkhkdAV4DQ%2BjQdMHG8GLWzT6HqNzC0wieAQlG3am1qtRVUyOPTdzAXVIBWugvppAwqdLb9s594zeCL%2FsijAq6UeeINFcJCbsXo%2Bm3yTVkG0K9PFOvgi2dtZ3X3qPji5usQps3CdDYwKZWHP8J4%2FZVnUBLZ%2BgtoOkPFmUTBR%2BHXWltLKB2K%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/326414562487?_skw=PSA+10&amp;hash=item4bffd2f4b7:g:bBUAAOSwqhBnkKqS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSMhkB6PePiCB2ynuh%2Bs4CpnqZ4WnmTLFXLMux1QvkXhQ%2BMO9ezniCxmtY0VTy3%2FHy9SjmzjaI2E6IstV2uw0ncyDY8sBE3RCHzAVkhkdAV4DQ%2BjQdMHG8GLWzT6HqNzAP8uSpUnUXZ3Gju1eMlKKTY0vIRDV9CIFtG7HFYNozSVeZvmNYCd7HLPRCb7hxOch0C34lNAZurlQyu%2F2YGtZZNTcA2D8lSSbOsLD%2B2lgvpHjnnqU6zjpVLA0auF%2Bo3aEiZntX3nQhviIc99CwT5Iw%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405482622125?_skw=PSA+10&amp;epid=16055566421&amp;hash=item5e68a5ccad:g:amsAAOSwePtnia8X&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnXouNfI1mG6bQlSyU1%2FS4Xyd%2FImJqediKB%2FV0WZqX3YYDEDBvREelyIDc5%2FoIfaBT%2Fh%2BqJbl71AIrPhFEr2R%2B4zXuJlWsTkSfwH8UVL0mIc%2F5gpQsBM4DmoLqHs73G6qIOY%2B7ftzc7EfS92v3d8EzXuM3DV8TmaHcpCz0So%2FueXJAHS5j4IWRBccAUHSNfNXlBHn7w990RjwDhPKn%2F7NcAFH0xr%2BCrbxMtxq1oW8MSrQ%3D%3D%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/405482622125?_skw=PSA+10&amp;epid=16055566421&amp;hash=item5e68a5ccad:g:amsAAOSwePtnia8X&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnXouNfI1mG6bQlSyU1%2FS4Xyd%2FImJqediKB%2FV0WZqX3YWLGDKKugo3Gh8exLr%2FtwNIkRls6EJk%2F4DRIz5kw43IOZ2kUahCRsNsAr3FXv6RZJMpRhLE5IOKEzeJqesOThAplMDbnlmMTR5y0k2VTym5UJXFfws%2BeEIE%2FDAPrYw%2B4ATXBD3IIksUor407zDjbvjaWvP18WD6oJExegP6h%2F02hZim9s7sXm3OvOjrV13KZQw%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067372827?_skw=PSA+10&amp;epid=20055573145&amp;hash=item4743097b1b:g:zXIAAOSwIS1nlvgC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn9GJW6BzdTDJcu%2BJiiqnf9Tb910LY3toeSFXLEzpv6cMuOx%2FeG90T2FkPXXimKhclsZUZyJn9iWs7VHjBlRlyIg4oq0QvX%2BHbRLxs7bqiMDV5KF3Yzb1oK%2Fb9FzWXzGJB0csyi%2BaWeORU%2F874XYmRvITBvc87gNMgR1939saUnKQouYaLQ7C%2FJricc3qcvw7%2BtCZu1w5bF8Ysf7Cs9vtmngjkW9I0EdU%2FUz3M3UXXoVQ%3D%3D%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067372827?_skw=PSA+10&amp;epid=20055573145&amp;hash=item4743097b1b:g:zXIAAOSwIS1nlvgC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl2wKbwyS5g9MHvhaNYuPZ30Z9UtS3WyptfVd9TTNViL%2BdTNHSwMGtjpWQpS0cJpIrEV5bcZXPFfxsyyQ1sNmK%2FDP2XveI6lvXPYcvBA1%2BR0Ma%2Fojj5YPu2APac%2F9Q%2FhiH6QTi5hFG%2F0T2GvFZDacyPJ0wL%2FcmSfFaLHkLA01RlpLcwr8wP%2FtIxuZFgQ%2BHmYJ8gn5Mwy8GnAkNEJrcv8i7iKcEQnO6fpKbVQCiUtaP2Xbhrf0HwuSMOeBAgeyXeIIhspGFmD9JshgGd7rJoG%2Fgo%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192542?_skw=PSA+10&amp;epid=25055542900&amp;hash=item292a69235e:g:qKAAAOSwjvdnk83q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5PcWsCpZq1JwCRe62ujy35lDq7gFYK%2FOG1tj3EBlFcqMBndSdSwEWC%2Fw6HmAH%2FxQykfdjD%2B0R5CROCHaZS41uXaa9pTkwbJlL%2BokGA4UtYKX53tqNuyN8wSOV4XwgS21q9wB4ge37eBN409aYqa0EtvQEUSVV9WIpDIZGlJ8n3HVNqcAU8JJ1M7h0NXeeOSHSHyPlSULm3pIA0NDcYS3ipoJ7eJ29TFcEMlbdnPzlIA%3D%3D%7Ctkp%3ABk9SR-rh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192542?_skw=PSA+10&amp;epid=25055542900&amp;hash=item292a69235e:g:qKAAAOSwjvdnk83q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnefBksHWZkgy0P7wiccXfWUAPgqOWo9yb04k81DHINzoomDMaCD9Beh5OLAq1jNI3gtlnIknP0%2Fd9r2Ng4WBFvIjYpV5wY%2Bb4grjXA1bOJBfOoQxU1bAvEqJjOQzIildzUreSny7WOrZcZWUqlG2avKUJb7OCYxEjb0Mp2xmJNrDtYt5%2BHHz3kx5H1mVAJUuY1hq04hFPh2P%2BDP2CQp%2BpZnWROjqDwvCuV4nllBS%2Fod0P5SsZYnsnv9Z%2FgBqwHxdvjM%2BtpLPdTajU8PWQHjg9m%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067028836?_skw=PSA+10&amp;epid=6055567103&amp;hash=item4743043b64:g:RG8AAOSwESRnlsJy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnv6sRIOPce0UQFsxAt2Bh3cjgSQOD8Ph6f8ZEkAmR%2Bcef119aMCDFQdhrCcDXqDvfKquHC1ZbgWTxdqPn95vGzmE6EHFJVxG0lyF0jeZn8mSdfxFDT0FHHSaV3wQ0s4T2h97t%2FSGEWIyKTcIyMf87xmoDeYLyMk8G0krSUku7ulBlNouN%2Bp3ceY89iVKFxb7RCLvlXnZV91XMprIlairx8pLbztQ9mFloEATHV2hmdqEbl3%2FvAiUwygylUiHnhOVcYoSNHNBYMVJKhiVwedcb5%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067028836?_skw=PSA+10&amp;epid=6055567103&amp;hash=item4743043b64:g:RG8AAOSwESRnlsJy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKky8c3UEOYrmyn6ok7Unin3OF6Om%2Fq8XjQUc9k4y6aFspOLE41OXEw%2BKoaXZHW4NRuZU3Y3h1e6COaqKtTjfRvUri7ArIlyclTDnd30c7mhRiSh%2FZqIFwF5i%2FjiHQ0FUQtQgnn8QPRg%2FN5WRPzi7wzCDagLmsW%2BmCfT6A8HAXD5U5DbNrbxOuMOeacNPDoDbxpg6PYfCA00CnGzy4GCzhgDQFZtJVy1Jq%2BOkTIdRr6WfA%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911810847?_skw=PSA+10&amp;epid=18071769731&amp;hash=item2b84cfe51f:g:7bQAAOSw7ZZnc0ZQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnbcE6CvEQPd1Eo2M2TiYPts110PADE7fmlfsGUOP2QLKnrT%2B3JAJkwY7Ho8nH%2F7U%2Fq97g9dvfkR2BKze2NHgGEUgoxztBF0%2FEvp0nXXkGlk1JhjDWuMQfjG0PRlElKPbXl8YUU8PhlcbR6ZCPjGxjjsPrXsbnvi7F0JCFDhqxcr%2BDo1tujoj7F2e7dD%2FFg%2FutQhftrZj3cushIOdLG13%2B2N5qf7jlEQgw2%2BRarDADNLWo9fj4hKgBHvCfpsqnD5e8CfcolvzYnFxF%2FT%2FhSmFBP%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186911810847?_skw=PSA+10&amp;epid=18071769731&amp;hash=item2b84cfe51f:g:7bQAAOSw7ZZnc0ZQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnbcE6CvEQPd1Eo2M2TiYPts110PADE7fmlfsGUOP2QLKnrT%2B3JAJkwY7Ho8nH%2F7U%2Fq97g9dvfkR2BKze2NHgGEUgoxztBF0%2FEvp0nXXkGlk1JhjDWuMQfjG0PRlElKPbV8fKavEUyC3BMFonrmctUxQBJ0CqFtX4Vgw7xfmJ%2Bg6MG6LqKgw41YJAgwd1JzBsSsIpiLuZ1JZo8bk%2FD79VMFSyMFDBaCSL%2F5Nn1EL%2B3MBRcsHSxB%2FvOS02O7VfLGTaLFV83uVaWkHEzEDFBCg%2FMG%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192514?_skw=PSA+10&amp;epid=5055612342&amp;hash=item292a692342:g:jhcAAOSwRHlnk83n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl8jLDFXVPOMP8mzPtrZAlR9P96bQbcIUVWfLH99iGGVwD5kLj2z%2F6TjkzCvRjrToPOv78V7C8o4D78Rkz%2BDX7XyxXRUJ52aFFvXtKPx1t%2BhQO1jPdp2W%2BvpW3QqZdY5CxccF25g9WwNqYiaz3E2CN5XyODwG4D3Xd%2BPHWCm8GbrRrc545%2Fpn0UwFqnwdqaXZYf%2FwCmwET6WHQdtqFaA4uuocDYBkbL70qXZoBM6QRpuQ%3D%3D%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192514?_skw=PSA+10&amp;epid=5055612342&amp;hash=item292a692342:g:jhcAAOSwRHlnk83n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl8jLDFXVPOMP8mzPtrZAlR9P96bQbcIUVWfLH99iGGV%2FhhJKPdMtzJEKoJPL03gzud1L2TFYCFjhzJjikvTo18G%2FS4YJj21IIbG7ZUttdjev9726p7T5Tq1iHBcJKJSUr1jURCUcouL3H%2FzO5BR2B%2BHdal1bKeLSCXIftR82xe2xcsb4L4gidxGl43HCnkbRO7mbz0l9z6Zrd37SViir%2BNyF6PEkaLa%2BIAZ7jtWMZ8NQ%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192435?_skw=PSA+10&amp;epid=27055527961&amp;hash=item292a6922f3:g:a1cAAOSwEKxnk83d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnAxNCywJ%2BZCBRkEfGuJtqKhjYE7XbWREYU1T2zDh0pnxttHv6M65hb7HzH%2FUFZlK1rmDXlDID6psPuhH6Ufv3XrKNevzqaSrmpVgmIMc%2FAvjzU66zYCPhuq89D6iOWZ2RMr4XwvczlD0cKg9365Lt0WRuExsUFYl6JEGzDFNyLe%2BL%2F2JNobBU3NW97eYG0SqKM2G3jU8jcBsq5Z4u79jOQ3zJG5pQTX708kfXguGvDTA%3D%3D%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192435?_skw=PSA+10&amp;epid=27055527961&amp;hash=item292a6922f3:g:a1cAAOSwEKxnk83d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnAxNCywJ%2BZCBRkEfGuJtqKhjYE7XbWREYU1T2zDh0pnxkKeTfSnj7tCbAuC4vlplvVXICRjI1kA%2Bx%2Bb%2Fxyri6gwtyI3bjkg4vNdG6wknpUUPRSvJD0F9CEKsAA7oCs0u1GUG%2BAUkXOALHv3WewQs%2ByYl8HvExecGp8SONiN%2F0hhCuCOiJK0p9PUaE3TFbG%2FOUOMgT0WPUwIaWXZTvehEFi72U0V7dQ6Wb3TOM8DF7iEw%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192406?_skw=PSA+10&amp;epid=17055573973&amp;hash=item292a6922d6:g:~dIAAOSwHYhnk83a&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmbGHfLetpKW1S0SibmO2XPk5j4hl71fY2GzsRtXZ8d6ubC%2BRnIPVGlMzIN0%2Bq0bn2yMFBC607z4LwuINFFgw4cdLpD7MMDDs%2BRRVgoUbdwgLu8eXJGV32C4K2tOQwSJb6b2tRoGdPEDSatA2IUZNc5rs2omcKSGvSwYpG7BdOYPgeAzsi4XFt%2BPg9ym0dWgykaiOmnirjauPGI4qZidZ9zuh0Q2MHHuXzJMzK520yUshVlgH6gmKstsUFctJa2jpqUDFzY3GMFv2Tx3n%2FcSToT%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192406?_skw=PSA+10&amp;epid=17055573973&amp;hash=item292a6922d6:g:~dIAAOSwHYhnk83a&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnVIPwgtjaSGsSWPgspH468ronJ0X0qt2lDG6AVI2AiK9Xhpa8qNJCqjfQV0%2BaZbuY0OQflaeN%2FWa61yhPyYFoANGqkAf8qtDxfjrfmjNAwOjnlyANcN893o10u4NdPT59SKcQJ5xQS3dEMgmSsTslXvOTbwAuaJDPnYDEKf9qqyWq5XlSmPM2tWEI7%2F0OrgVZaYDzFQtSt24hwX7oE%2FGrZhVgkJmRo%2Fl8jMMxjAqR0pQ%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192349?_skw=PSA+10&amp;epid=13055611329&amp;hash=item292a69229d:g:N2MAAOSw-R1nk83R&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkN67zj9nbt2JpyOKJ0AyFqcVy9W685N5rK5qJyXAVMv%2F5rZWK3jK%2FYxy2LsSoM3I%2BJ5HSq87HyCxkcOE4wHwjF5dXes14vu6Bexsm3icpMnHuBPAEbe9XSx2s8bDku5fpzSbTAAaPz1gOT7i7%2ByxVCUqltCsbqUkvTp53rXamE4hw7WUTwwNj%2BiZfzFj6oOOCq5KozUNXuvTZPIeBBry5is5KvVYDo25siFNx3zWXY3SF%2BEQIKZBFrXukZmx352Ii05Yg5dFF4F1Iy0YQM5zny%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192349?_skw=PSA+10&amp;epid=13055611329&amp;hash=item292a69229d:g:N2MAAOSw-R1nk83R&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmvVl46Uiwihrc8jc5HGcojcNPkbsnXYlFVR%2BcFnSiBUD9nv3PKelSWRfDn8%2B1r%2FbWzHhbFIMt5D4pyVDC7ZCAD%2F2dOme%2FvtXUH949yQOvj%2FGzZOf1D4kzGYIZUoYmlL2IUTRa3vU%2BOLUNona1udZ9GAbXt1C%2Fzpj1e9tX7A2dFocw%2F7wDBKfKzg5L8AFBONbODHJfCQy5AHs%2BtNAKptTOmGLgnof2Bq7quKoUItupOYQ%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192317?_skw=PSA+10&amp;epid=9059449529&amp;hash=item292a69227d:g:-poAAOSwqSpnk83N&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5ne8Np%2FtxMgzKes8sQWvwlMse5I%2BEqIXNbGGjazg5xEKlDB6%2BrZzj0gWr1Ik0QE5bAfP3lt1Vjp%2B8qKh%2B8jp%2BKUCj2U9EAVjgndKcSWdWpzWFw5KyxOsTp6y4QtWAE%2FOWaCUA5FBExgPMaOGOW9Q7FoL3vcSretOp%2FZZB5iuztFMGonkA5gS9T%2FruwUsJPJ%2Bj9eyyrD9JELcZtO7cXe%2FSYlTY66IuT616IiYtTKwcPg%3D%3D%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192317?_skw=PSA+10&amp;epid=9059449529&amp;hash=item292a69227d:g:-poAAOSwqSpnk83N&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk5ne8Np%2FtxMgzKes8sQWvwlMse5I%2BEqIXNbGGjazg5xKTkJWKDfmA%2BIDpaWpLSttmoMmEKaNHoYE39ZeTgcXtPg6Oovs5%2BQVLwD4Z8fL54Zx1kkcNsYN30neBt1UJdTCxiZKwercn2coj30SvgztujXlG%2BmBCtfWfRs9ZOvFxJNX5HTZSPrpAfqDNOliBqaveHnPnBwo9g2mAaP%2BdxuU1uCj2BOjjMfHm1lJgmbksxiA%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975952620?_skw=PSA+10&amp;epid=24071756182&amp;hash=item2ddcae82ec:g:CrgAAOSwfnJnlUAF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKka5MfkZ6saGBH8CxJxJEEu6R15WFZULKBjBY0aAggrY1uY4%2BJ9tNEtTAl9iZUer2Jx4CVsrAO0H%2FBCMEYLQmyLDESw7n5XfO34xowyPk26HEIJW0FhkFcxYQB0zM3g2ppkfR49XPIkYfHyrFXytrFQ97e%2ByD9sCwDFjzEo6vhScPBEBOS7OvCDNbfwu1GHf3v6tAI%2BTVpJijUIjPplsZpdUKTKDV1M%2FyyXOT8Mll9YSg%3D%3D%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196975952620?_skw=PSA+10&amp;epid=24071756182&amp;hash=item2ddcae82ec:g:CrgAAOSwfnJnlUAF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKka5MfkZ6saGBH8CxJxJEEu6R15WFZULKBjBY0aAggrY8V4%2BNLXSOVLWSOTES9AOMB3ksu83R4mfCxr1fddItp09EoDIjHlYCX%2FZvTf00RubwsASewzIngMaGU0CIDPgyD9fE9qWAt8FWTO4tzhS2vDiMKBY6qRJwvpNSRvCaJzzfr2fnDrckPhQ7rtvJkWoLM2Rzg7sQNx3MaXmV3FKHlIqiGWSbMHL4yIhp45Q0YQlQ%3D%3D%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975952710?_skw=PSA+10&amp;epid=6071777194&amp;hash=item2ddcae8346:g:QngAAOSwALpnlTGx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSYG19CDeklbvNqxQWLCjiS6AH2URG7fw48%2FaU4sPe9Pi8f%2Bws0jtHqntKVYGn%2BX%2BPmkD3327WHgQ63ErYinvhb0qeaTn0wTbqTQrOXV1vvkKmhv9F9%2F0geG8oRp93L5j1MzKFPnF9f27%2FIIquew7KBtvD2d4FmxQ3Hkp8R80mCwnuukHPwrQvYGPn%2BRTw8DgzGz0etZk8VYT5cYeGT5EqkNRej2gXR9StXXi8cFjFwpA%2BJ86KqFDrmPD0qVz2Acm4gT4lcdWA71TYD4nR8%2B0z%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196975952710?_skw=PSA+10&amp;epid=6071777194&amp;hash=item2ddcae8346:g:QngAAOSwALpnlTGx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSYG19CDeklbvNqxQWLCjiS6AH2URG7fw48%2FaU4sPe9Pi8f%2Bws0jtHqntKVYGn%2BX%2BPmkD3327WHgQ63ErYinvhb0qeaTn0wTbqTQrOXV1vvkKmhv9F9%2F0geG8oRp93L5gvEPH2IC7EKZGkQVbrL2pFu0Rz4fxAOHTp3CSBQQ0d%2FuiuRSCSEKBZk7MJGJGecmvSeeQGf%2FUPvZSEMr6b7%2FUJVF%2FXxRaVBoP2ouxVQS6XlGZCtPnTP5bYo11LYmLxMe7503AOoJ%2Fme2JDWRHwXRGe%7Ctkp%3ABk9SR5Sf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975952615?_skw=PSA+10&amp;epid=15071767434&amp;hash=item2ddcae82e7:g:ys8AAOSwaZNnlTMf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlezrOrVkwWYdddJD0LHOGGdkQcq0dZjSxiJYHMzFs7q7WF8Ici1eyMsplDHpTyYn7HISP0wzJJhy4HWmXuvxHFqA6%2B%2BIjDfXHtwwKlnWR7p7QFbE9kemimubHpP1XfaUNFSAQBfykgWw3O8uTxFikD8IzsSZTLeJu4LwpNOhxZjAMELHWnVY9nmgwTUKUYi4NeINeKs2LZNopcQeepNbOHlxsFfPxMzH2ISFG763ul6w%3D%3D%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196975952615?_skw=PSA+10&amp;epid=15071767434&amp;hash=item2ddcae82e7:g:ys8AAOSwaZNnlTMf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk3olV8SYo%2FzvVPElBJs%2FAe%2Bc7T3lDZ9klJWTiCMbGdTOkdqriT4BVpI53H%2FPoOS%2B%2BMwOfeDvyabbEcRaqo4kme4%2Fd7OJuk5bjDI0CrUa6sRzC0nzsTwcnKfUGWgZ6r2baxRr0IRK0kFPPxcPq8YXfjPNGeTMYjZjkC3xZvjNkhSzo8GUBnZBXf4xHEq1eKL8Ntu7AxWzSNJQuj%2BB7bGQtexMeWVNWUKbOi9Og%2BZWFHL1ItDH6HEWPNj50Pgnbi6qinMeTLpxiimZCMltnYnYQq%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975952619?_skw=PSA+10&amp;hash=item2ddcae82eb:g:xbMAAOSwWzJnlTL7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkMHaks%2FRUgKjenhgWGCopwcMNVz9VrZwB6RDtBjnqHlVASq3F4l1wR0tzgVjxbjhoBpv95SHTUy%2Bv48yQ5V9yx8CRbfPvXzXfUi%2FuNYUlPC7t5oyExbgEvAT8ofj457vyLvgs%2BazBorP2%2FjUNB85aoa01ndkYQrjzfI2KL6RWS0FdAdWVdu%2FU6a4zPpHPznsTIzRoVj38Z1u4ZNHpdyTw%2BtujgVh6jS3bzctLq0qs3Nt2ORB3xTl8bo9jhqa1zbtKDl0e5HosuBW4uIfV5V3H1%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196975952619?_skw=PSA+10&amp;hash=item2ddcae82eb:g:xbMAAOSwWzJnlTL7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnx%2B2lfAiTjRs34zanG4%2BQiU4vcWVAznCeqFL9or2L7ieLpozOnEN6KQQrtmM%2BB3107O7%2Fd574Yb3vwfh6UHTL3fXsgi%2ByxJ2na7f48vLcy21fcorkGlMaAV%2BrwHtK40Xsm0IrwrCJbF5c08e8H7jM%2B7V8DM0Kni9NBTFJsxgYjLBmJP3THaRsU1p%2BFx6%2BD3e68Y9IMB%2B%2F8vzuCb7Sxse16rHHm8djRpaqnyO94aW1EsA%3D%3D%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196975952640?_skw=PSA+10&amp;epid=27071765897&amp;hash=item2ddcae8300:g:u7MAAOSw6g1nlT5l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkFrNVC%2FGrcls3%2FFsukb4CYvKbcFidfv2%2B9F5iYwbohh5nAmA3zEk%2Bx9jUdL6lGYX5G%2BdJ6cizrRp0TgZW4mRyFEzEFpWFXqza8gnuYo%2B2yNAJuBEvGEHLvcSB04rfdjnC2btvi4V%2BbeLThf%2BZ11jeM1aUACk9EtuviJf8SGA2%2F4si21tKyss64IPxU8B92DKtPfPTYAH%2F1LLF27oF7igsr8gYnuM0POjp5xekcOPEiOBJdcD%2B6LpZ%2BLT4x0VspesyQLuRFOSChXY0ra1BURTqP%7Ctkp%3ABk9SR-zh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/196975952640?_skw=PSA+10&amp;epid=27071765897&amp;hash=item2ddcae8300:g:u7MAAOSw6g1nlT5l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkFrNVC%2FGrcls3%2FFsukb4CYvKbcFidfv2%2B9F5iYwbohh5nAmA3zEk%2Bx9jUdL6lGYX5G%2BdJ6cizrRp0TgZW4mRyFEzEFpWFXqza8gnuYo%2B2yNAJuBEvGEHLvcSB04rfdjnD%2BaUm72sJg51m7XhrYJRIo6lAXIjMtPtJ2cFHsByHKcRNDXKmDzyYy1d4K4Uxx5QWzwy18enQleRRQHAF6b6QugZeZQMeovJSzMXSu1J0FSMx%2Fbjtn6OdwhXP%2B5HyjLOTn%2BHUrNRIe0HAtNp8NubHa%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186896175357?_skw=PSA+10&amp;epid=17065173888&amp;hash=item2b83e150fd:g:l4wAAOSwveBniG39&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlre11x8KeZl9Kfkp8hdmlXYR%2Bi5VEI86roIBx6Ymag3zlvBIxDXDxpWw36pBFc1OChcSJv7F%2FE5%2F9PBN3YuLsDl4CBaitZW9bxLtmKZ6EpneMCj2Zi6e1YpOL36Bi4s3DRWOsfbc8A8NGCjAQSdfWf22n65GB7SPedBYLVtM5CRAfgdWJxbnoKWo3rrHGcCX1Q934f37ZwHHRkmd46kwHw6CbKbbF7emTilwR3YxeBmw%3D%3D%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186896175357?_skw=PSA+10&amp;epid=17065173888&amp;hash=item2b83e150fd:g:l4wAAOSwveBniG39&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkHP4tZxGkChgTvrqRTb5umUD5pufvVEt0xffQSkkl6uNuD%2BxvB6rVWnxVjyKyQBrDCjefTiVIYvKPqhZhDrE4yEr5PcEj3BtJe1nrVRWU1Qkze5UlAlME8kbzqKoGv05u1gh6fduq0OrUyhU0Lgdr8ekyIZGWsv5YxAbVbNLso1bCCCXCsFBDXG7QA%2FzAEZL8zV5yfDmRQVOjdl9nAwVVZnDMKvU8hPQ5YipbsQzgumHU2dURXv6OPlESsEmrMGWVyejh%2FW9Cl9YnM0ob8Fn4Z%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192278?_skw=PSA+10&amp;epid=17055542771&amp;hash=item292a692256:g:o1IAAOSw4YVnk83J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl2%2BhwmiDn5W2EUiuWdpEhaM9stiu%2FFPWDIDx7cIOI%2Bp5pZY0SowjFuNMim8ALGDYsw%2FsJ4SNUiLPcDhcNG1W3ZGnCFeh%2BkkJ3p%2FNqYzE3F1Nnw2QK%2FcahyybTHPnlERQVVUVLTm1HAbFQvmnhzEfGxKWbALUyKWxWLWRRWFrEyzlRYGnalF%2F70%2FZ6GTFmYapRHOIwXZH0zqL6a7h8tKluIcFfHkB%2F6fxGq5z7AwBQ1iTq4U5b3ZKjPe%2BkLQ1x%2FZ7L8JQzy7piNvVf5SN%2BBudrI%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192278?_skw=PSA+10&amp;epid=17055542771&amp;hash=item292a692256:g:o1IAAOSw4YVnk83J&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl2%2BhwmiDn5W2EUiuWdpEhaM9stiu%2FFPWDIDx7cIOI%2Bp5pZY0SowjFuNMim8ALGDYsw%2FsJ4SNUiLPcDhcNG1W3ZGnCFeh%2BkkJ3p%2FNqYzE3F1Nnw2QK%2FcahyybTHPnlERQXMtZ3nu7SWHfx3mqnb%2F%2BJekMzaA5vG28CLHBwGTpGb7kLt%2FhS76q2iIq6WqvWEah%2BWRzGtZYBJlVgXnb53eigwfZwBbHCTOctZygJN6nJGqW%2BPXYfrSwuXhgPAZPUd4jVnKhHRKTzHQrecaFipiZZg%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805192230?_skw=PSA+10&amp;epid=27055549632&amp;hash=item292a692226:g:78YAAOSw8V1nk83E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvo%2BdXY27M24cUjymHSa8LHZ%2FBIaI2i8uYdbj2t3de10M4kQvXhHAPl74Da2z%2BaFMagvXsBGSHPjuNxri1lHDycKHSgPuKEepdMKuqDJ6v78pRGkeHrXOn0EoVrlYeFn7lbALfrhnRluX0OVTAWGxWkTYzgYuu6smSWV153iozs75MmXSDG0IsBHqZyx8uLs976pbqqt98dvRO1yprPjxD2APAE71aSUyHpYEWS2sHXQ%3D%3D%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/176805192230?_skw=PSA+10&amp;epid=27055549632&amp;hash=item292a692226:g:78YAAOSw8V1nk83E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlvo%2BdXY27M24cUjymHSa8LHZ%2FBIaI2i8uYdbj2t3de1%2FQjvHANhcPyAjHJpUwDrxHen7HXbxGcXVq2Bjtovrm2iZrar8Z7RW8WxSWkMBcCMblqGfCizzqjBIAHx59NAc0ndZ1QwIc6w13dUnkxkNw849KN%2Bo8ss5DfznEeUZhuiHraAVgfBQwsWr0pONElGO0a9QJOBb6TpTwjEB%2BgiIgWnRZw1SnemOkSmszQLJPVFw%3D%3D%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306066274932?_skw=PSA+10&amp;epid=17065174836&amp;hash=item4742f8ba74:g:PBkAAOSwYJ5nlkrc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmLjM72CHHLO%2BRs2WFH9wTKdD1qdQW9GLqSl3NnpcVKABxwmVPq6FNq9dHbjwZZQMdIn%2FMRh%2BOiVAszeKp7eIZOCoWjhbbx7QymmrYkCD9Vs9O1R9vziZephCN6GUcA5NjPr4jaFgnMsPYG0qqO3fbSzULLxFH44mfv%2F814DS0t9ubGqK17MgAuu7f5jX6sorA2vPVzdyBNNOJxEJlX5ipWXBiNgoEo3V%2FC5IX36vcrfSlk8jmoQ77Dg5pItrvoXbAa5Pz66MKadV0pQA1C4kvy%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306066274932?_skw=PSA+10&amp;epid=17065174836&amp;hash=item4742f8ba74:g:PBkAAOSwYJ5nlkrc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmLjM72CHHLO%2BRs2WFH9wTKdD1qdQW9GLqSl3NnpcVKABxwmVPq6FNq9dHbjwZZQMdIn%2FMRh%2BOiVAszeKp7eIZOCoWjhbbx7QymmrYkCD9Vs9O1R9vziZephCN6GUcA5NiZEduMCLuvF6TajpWoiKNgIr9Q2vMlt6QdTLBTfneVjf2BXGQiqrLHQE5UIN6nT9zCpy73NpD24xS4DnVDWUwyMKRftRESv6ZCr9oxO0xUeJofC6HUzMt0Z1cjOSZff5Mz9AAbwgLl6OetVjPCc3GR%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306023609182?_skw=PSA+10&amp;epid=28055535293&amp;hash=item47406db35e:g:gugAAOSw2EpnfBj6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlhbfEDtPqmcBI7yGgFUB1U%2FzBJQDhrlr7HCix9mIJgLlmSLkd%2BaaOvYICYTTHWpCmhZGk9hLunnyVdrijnxiyMEeqG%2FxdDzPPulX7vOiH0zeLWIuxczij0GEevD2i61CbJp4Eb8oJhakh5T6VixGfEyfMbAmIW3J%2FJoav3ofk3g0mFU3lRuLPwkdqi9QxASBN3OIaLSxiVjmLoLvKq%2BFh%2BuZdJsKOJU9fV2kbO4kzQfA%3D%3D%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306023609182?_skw=PSA+10&amp;epid=28055535293&amp;hash=item47406db35e:g:gugAAOSw2EpnfBj6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRb7fxzpEuOrvp%2Bhc2Q3N6oBSuLXz01NhqzLQDCWHRS1LN9g6BjGKigKC3ZnARe78079hLDZyMuDuTnfJNFRNqSALstbN7qVrefZC1MFUS%2F9Rik%2FQO%2FqzwFLUzvANWi8Yahu7M32v0rqxYnYs1kgt8Vm75e98oyOvXT0zCg9zK7tqclXti19%2FKh8QQ3EGULD4djy46g%2FM9TxpgJ8%2BTctL%2BdqZv%2Bsg9dA%2Fw5pxcX%2BE1UgytB%2BCrtyJlGNQe8Ug4RVojr9nCgxbFe6%2FT9Vu3yEgY%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306058596345?_skw=PSA+10&amp;epid=27074124248&amp;hash=item4742838ff9:g:-NIAAOSwBsFnkaZL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkWsfLJiu9ro6F0JlzzOHar6Z0yKhw3KqMZqB%2B2iuG7o1t8T0b6YgI%2FZlL2B86XxwD%2B86ODujU9682DKx%2FLbeJIrUC4VeuanpvaYk1%2BiWDUkzka%2BUgb53zv%2BnHRPUeFWKjPwPGFHKOzziSEubNZtMaGnB9aZTTEZsXihVbPDx572KpF9xNrJU0RGOsr7lH0caIFAIEAvfzPmcp4XQXZP%2BBhtgSpsgvNk2o3coGx%2FyPaBkLnW%2BEmq9XkntAY00shrRlkrwyuWMD2tdZ0cftC3DmJ%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306058596345?_skw=PSA+10&amp;epid=27074124248&amp;hash=item4742838ff9:g:-NIAAOSwBsFnkaZL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmLo20UDe0v0eI9RIyvt1qRuBVprpMAXGrgS%2FSIWVrb4oishHDNS3oVQPoUWw9%2BkKHQnwYh3v2bczPCiUWFQ5nD%2BhEDHRycSjWhQ8UHKc4dX5NmnQnw5j0TNQSpyq5UuVgn%2BOpWxsxSqBcPIuqjJxW5NqxXHZUd8BfWwEtTqh7Iz0V8MTmBLcUzcFDzDNTrJ9sujQi23R7V5jLrlzis5UHi95tCSsYj40bSo5fpcH%2FECw%3D%3D%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335789769944?_skw=PSA+10&amp;epid=10074015675&amp;hash=item4e2ea144d8:g:3h4AAOSwFipnmt9e&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmUlo1tQIHFs9%2F3dXkqvKK7aU4qwLudw%2BF989RM05y1czYGB6McBHZCsTOQfnd1O1SLvXBPC2BKgNhPEPK2Sr6EiwJQuIFwM2P%2FtrVYT0SVC7ahxUVpBPu7rIl6I31TF970RGio3q6oaWoPf0SZ2OowbtEsIZUZJc0%2BG5OV1EqoKVIEw7nSlmenmYWLo09TsuDfT5pLgoeT5zxzSmJy9SeHQ%2FMbIwAA658pnj45e4IQww%3D%3D%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/335789769944?_skw=PSA+10&amp;epid=10074015675&amp;hash=item4e2ea144d8:g:3h4AAOSwFipnmt9e&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKqx31BvGDq62QgzvmW7TRiP%2F35IOC1EbzBQwSCUg36f7A0lZzFole4YWGez6Sd8VnVEmKac47Io4mkNwmss3rKLSjVA58ja0KywGf6IB0zReuVp41X6zSstOilKfMXV%2BacWDXwtx9qtZbTTFd8ziPAbUEkOZlRL8s5by1X9Y6WbCt6UMV%2Bu3qz46CkibBlAhlSfEFQ8V5lnOImYioCGl%2B2AX1Zawp4X%2BAmPcuFU7zUSRNroWAWA04yLMkwPZAIDMBbatH72aU1AL9tWQAzlrB%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266667940460?_skw=PSA+10&amp;epid=10055603181&amp;hash=item3e16a5da6c:g:6qsAAOSw-NBlyEAj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlj6KxKAF7Vdvc75X%2Fbw2Xrx0%2FmbFNCu7TN%2FxBd6GROZ0aa7c7lSrimFj8enWMWoNFKSun%2B44e0DyBisvvR25FMGSJJ%2Fq2k1JkUrZZEYhYu9Y6jTTZ%2FPQjiKB97EZJXcIX5LhS%2BJcLBuzwcqHvvF6Xr2qNIBkJGg8G47ujuw4PjIfu2y8BuXoU%2FAt5rlyg4eMH2kuvIuRz8KE%2B0a%2BC93bEqlHTUPBxpwW1GYrwrIg5oK1LKrCUbRgP7NC0BgevTXWGwaJwBHLOsyCh1Q%2FrHmLUY%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/266667940460?_skw=PSA+10&amp;epid=10055603181&amp;hash=item3e16a5da6c:g:6qsAAOSw-NBlyEAj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2BMtox6H1v93j26N6e%2Bq%2BOkbnZRKvEb9Y0zsm9O7X71N3bHM7KLqx4XOsFk3gucyQ3a5uopN%2F6iMmpNxaKYH129sDH8Emx2%2FU%2BBqpNIEkwajen8iJiZvyhqEMFOT5Qt4UbFebnjf0N5O8nwBddcBnJ1VzJ9h5rKL8y0T%2FQD8zCKO6LyoEWeNVZHa6yLSNgFZWeIX4ItCiy1DEJXHbKc4fHq8CMyxOqrH5a2VXLcl8Q0w%3D%3D%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067371330?_skw=PSA+10&amp;epid=13066261108&amp;hash=item4743097542:g:XIsAAOSwWdBnlvby&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXWUlVob7%2FrItWWFSdz7pkT1XO10TfD8FxB%2B18Cpi1ngOCZD7WoAQ4IAU%2BuH2w5pegXxjeyLtAMsR5Wv48IEQ8VbQP0CeLSZ4FjL0wz2lrYbgBcs%2B3IpkuvJGSd9Yu2cktlGDPEilXH8g2%2B3v2jEV4uWDX0D4BTsOMNhlAoGs2cES5%2BejfQEcvV8OA7LY97wsPcergIAiZMBy1x9c9j7bjGfOQIRcYsS5WWRbNO3EFSTGI8T4WCg1saIXDM7XpqNQdDQOf%2BrTo8Kz4O8L6JwFR%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067371330?_skw=PSA+10&amp;epid=13066261108&amp;hash=item4743097542:g:XIsAAOSwWdBnlvby&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXWUlVob7%2FrItWWFSdz7pkT1XO10TfD8FxB%2B18Cpi1ngOCZD7WoAQ4IAU%2BuH2w5pegXxjeyLtAMsR5Wv48IEQ8VbQP0CeLSZ4FjL0wz2lrYbgBcs%2B3IpkuvJGSd9Yu2cl0n67IA7pbr5LmIRure6SO9Yl2isujy1q8hGFcL477RCovgsZDKZw%2FVv7qNsfcnabkcgVU9B%2Fm3TPrKmoa4aPrnfpmhOITNZi4vOWXHPMYhbbcfhgr5blNHHt8F99KNbwzSUxjv9GrTYy%2FssTR0bdo%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186890213228?_skw=PSA+10&amp;epid=24070302032&amp;hash=item2b8386576c:g:lZYAAOSw1SpnhFZS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkOtC%2BqIai5mApXTrxiOhyAUBbyMzRPwUnxE4AsNKF4SrlLkW6JtWfc%2FSE43bupxstcfkqCIQkls5dG7038w4E1GDSxT3FoVN5Xb%2FJXV2jG2B%2FBacbz%2ByNQZjaujr5i%2FuWXQxu%2FtTxZanBsNfQ7pKbN0I3GqVAwbXyTBck9bYNtOOxgwryhUhTeWHyoImMUkJN3bc%2FSCIdcTBd0Euj1y%2BwdaqCQJ1EDID5PFybjqVrQatw%2BHKUjDMtmi%2B7Sr4acVC%2BtrSNYApQ%2Bk1WFSDK4wXTN%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186890213228?_skw=PSA+10&amp;epid=24070302032&amp;hash=item2b8386576c:g:lZYAAOSw1SpnhFZS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlE%2FdFiNCMTanQpTcnm7AxGgCMm30OXcKKy3q%2BU0nidyaplI63RQKyh6nKZtqUu%2F1s%2FP5W5JfErrZICWlm7l%2BpLm5otn5tdChHWD%2BeGXNbYs27jvr77T0010fA3d3PD%2FVL82oAz8dPWeK7%2BSVakuItFW%2BSv2OXrl9Nty5Re7TTmdpFWsv2CUiy6dQ4heqxnirghmslpYYj5sj8Ubs3vYgSu8ZSXYdyhusQNQU4bPvZeAg%3D%3D%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126900722789?_skw=PSA+10&amp;epid=7072433934&amp;hash=item1d8bdf5c65:g:cCkAAOSw0DVnk9Hr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk9djQX1CwJmTzOz8Fn2%2BMyw95qK2oN4aPI4jCRCyZ7u91mNp470OdwcAGPSw6AQqtdslx%2FqhsngOumNO7DJhu8HaieIWUltBtg5y6YCXTI33kqdUB3N%2Bp3a%2BCWVpyHi6MRiC1pv%2F4BrZZqMS09uAp%2FSCMKhMY2uzKrADJiYDf7IKR%2Foxg9hFomvu13glyZ9z7LR%2BIM8KvTFfQpNc6dHmtk0cEWLz7X%2FTzO9%2B4tIJ93%2BowTKWKJtmyNTyhCH7ya%2BWsnxsZD3TPhA6TWAnZi4non%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126900722789?_skw=PSA+10&amp;epid=7072433934&amp;hash=item1d8bdf5c65:g:cCkAAOSw0DVnk9Hr&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk9djQX1CwJmTzOz8Fn2%2BMyw95qK2oN4aPI4jCRCyZ7u91mNp470OdwcAGPSw6AQqtdslx%2FqhsngOumNO7DJhu8HaieIWUltBtg5y6YCXTI33kqdUB3N%2Bp3a%2BCWVpyHi6OOpvFYvyLUWUU%2BgaFqRLQfe9oSMqIHIRL3sEmvO66SJsenvuz0QZo218VHdStO3jEAy5YkcXC4nTLiMK884PdCTy6tMthSjNWHi6IHzeqlnw16iAd11bLIe1IbAOCRa6PErW0YBSDeEaDTGDD640T8%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276839521358?_skw=PSA+10&amp;hash=item4074ebdc4e:g:DKoAAOSwbMBnnqrT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlU1dSGUPd6OViPQO8yl%2BDiPWQisy2ian88%2BzmfFtZBFPMHMQglWh1JpTjZ1piojVVmPvGFP%2B8%2BXk5AzRQ8LtXjqLiuMcVf8%2Fg%2BIjT6o47liWcKw9JKp6u8ftNbUbT5kYfRcXPSsMA2I1MLGkztOTc6YW1X2HJpdzmeQUyzi03vvI%2BF%2FPICrEo61mzy%2Fn6FDk%2BnH62hwU1CrNtK5gJZE6KlMwvlNAK1rV2So585%2Fg%2FARQ%3D%3D%7Ctkp%3ABk9SR-7h6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276839521358?_skw=PSA+10&amp;hash=item4074ebdc4e:g:DKoAAOSwbMBnnqrT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlU1dSGUPd6OViPQO8yl%2BDiPWQisy2ian88%2BzmfFtZBFPMqJ7A8NH6dX5xCgE7TEsM%2FM8xFawGkmdF1SjHaVW7SecajyETbxrRGKRsxVbjlg614j2wEehc17zJZaVduVS2qwScoBHAIg7J2zZlASZUxeYqvddopjuKn9tjqmnPJ36%2FbMKsNBYmUrc0JYmSAvU8I75j5nAD%2B%2BzdEdirjDI0jB6Gy2XJHQukJPVb6IXZjEg%3D%3D%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306068605939?_skw=PSA+10&amp;epid=26055553070&amp;hash=item47431c4bf3:g:ShkAAOSwFipnl7Kh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk9NggtzKqfwM3djbykrcomjxOVMgqJSai8WRDAyhKIFdyAbaviHLzlxz%2BwMtQT1u3ZDczUFTOljJ7kSQMICIaVmY4L14kG0v2s8wYmVZVI8tL00g9nRQ5Dt1eFDhePEsUyp42m2qg%2FgLuUB24ag%2Bu%2B9pnM7AaN95EbajixtGRIUvduyq%2Byc2tyGJqurXD%2BwaZQgdGVmc4fqv5QQKKF1dwzaeg%2B%2FSj2%2B3nlGNV7jCgz%2Fw%3D%3D%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306068605939?_skw=PSA+10&amp;epid=26055553070&amp;hash=item47431c4bf3:g:ShkAAOSwFipnl7Kh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmHVed6sRqC7x%2Bvt2w9jAI9wJJ9HgxeSIFrVDwSc5sMQUOHGEgx98WX%2FwQkCyXACLy5LggSKPnm933qtfbZLzrYxTOn5Bv2Gl%2BUUuz4OXWXp0nFJk1qvGjTQkM4ip2HfGlVE%2Fezt0aru8%2BHJgCF4ySbOTBHW1xv8OU%2BIS%2BZ8X4hKV6VVvbMeFN3HF8rpbBBQGuN4DApHZiGN3une8ENZjj%2Fd2PxCPUv3%2FoKsx1RkyQooA8c60PU2ZWdbIjRfCtjjRl4vTQO%2Blfo%2BwQiObHjiHP1%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306067088709?_skw=PSA+10&amp;epid=9058007133&amp;hash=item4743052545:g:wNgAAOSw4E5nlsxq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKloA2ecqZCUKdJyYSO6MmiMFSR0%2FZSkNhobkn5BcGWEu89wSJWDGoCV%2FtomX5%2BC84VEwJp7mQ3SbTZXPLKrEIY4M5NOIUR0aPSybB%2FPeESr1PoQvKTQH1Vu2o0qjrkzoT%2BCCoFYno7Dp%2Fni69S4wMsujfM%2B5fmuiJTHOeYQPkiAIutegACgETt1ZlpJFpDikaTeW1EOxvNae9wSQEUp3varVrA4zAGG1g9ZiI3vogXk1A%3D%3D%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306067088709?_skw=PSA+10&amp;epid=9058007133&amp;hash=item4743052545:g:wNgAAOSw4E5nlsxq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKloA2ecqZCUKdJyYSO6MmiMFSR0%2FZSkNhobkn5BcGWEu69n%2BFskklzOXax9TNTiyr31bThIuwLJKGBvRxkxioTVdtaFzfQyRrk2ueDUL%2FO8sWBXkdSyNkqoxCuKDD3kh4yUTXujT1xKaB79wEFYmj0ASvEMEO1VgI5FfEqA5Spz2P9UZJYf5jjxuAA6o0rCEKrpRp7BEUb7KTH%2FaXpriq5CqtX93jRnE07BYdZ9SA8VyQ%3D%3D%7Ctkp%3ABk9SR5af0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958417077?_skw=PSA+10&amp;epid=25062239046&amp;hash=item5788de2eb5:g:4NQAAeSwnfBnmqgC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkM%2FAl1xBgU2JNFiGctO7d7Cr3oJfT%2FfBhQzSD7HczY7UuyusnFxt3GPc%2FQ7EtJAU1goPrlcKlC7iz5cfFsK4a%2BYoawnS7pFbaVTeCWylZxl2hNp%2Ba7knJdYNo4Ll4AMOFCwzjlit89sWkJTQKlPzVcFEuVLgystbVqqgReQ2qlp9XBevkEI1NER1%2FCnj%2FPlawPQv6JYpKX74AJyyZgLd8DnfJ1G4qmm2njdy1oaio6hA%3D%3D%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958417077?_skw=PSA+10&amp;epid=25062239046&amp;hash=item5788de2eb5:g:4NQAAeSwnfBnmqgC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm3onQsBXfJTLRk%2BAnD6KEjG6OcD1bMUkSN4cX0Ydxtd201eBOlDvcc4Gwskva3P81UPlMwq7IbO9P3H5wZUYBhVuZl3lESwe7%2Flf38oPoXIECkwj3cFbLC1Wf2NGGE1LP9UQ2o%2FlEdzG6pDtkE2Se%2FdOjyyEocBla5hegBzyxvTJj%2FcFI1u7o8tMqrUF1oFMZ7MmbALFJvpL4Vf0Yn4W1%2FYWjHCWniKRm%2F2DS5ZjzEOG0mfKY0%2FIZor5Nq3CvKZLzkd%2BuJQxrYK31zscGOWUEU%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909218400?_skw=PSA+10&amp;hash=item1d8c60fe60:g:xyEAAeSwdtlnmqg0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmBGePzdmotppM9iBgnyJhr%2FngwGwx5GXU%2FvXEACNgPYbGnL3GZNXo7fbed3Ckxp6cWvisOeK8HHGck%2FQ23qG33Cky8L0g%2Fly3twDxVPnRiDziLTAJd5BINK93QOyRmiZhKtHGaXC6AyDmtSvaiBeVTIKYisKNWpNPJgiQc9%2BuyiIEYy056PB%2B7KZyAnNTbWqjBWJdlKlJWJVG7We0I1Ebxiy33WWeaq6yHAul%2FNNBIAqgEuTSbocTEsvlb46jCzW6kek%2FCBr7CIXQxnzQRBvT8%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909218400?_skw=PSA+10&amp;hash=item1d8c60fe60:g:xyEAAeSwdtlnmqg0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmBGePzdmotppM9iBgnyJhr%2FngwGwx5GXU%2FvXEACNgPYbGnL3GZNXo7fbed3Ckxp6cWvisOeK8HHGck%2FQ23qG33Cky8L0g%2Fly3twDxVPnRiDziLTAJd5BINK93QOyRmiZhgjbK9wHvsKl7Hs3FOmNOis8Mzy9k0TNmf6fdujKIH9NYmdIYhNA2vLjuUW99YXYlNxIqS4c%2F71dFXKrO4a0xCKCd30bryJJGbP0PbCTuJ7o6sJgd7nObZ4XFLxS2Lj0pobvfxRP%2BNc6uFDOW8aue8%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276835853444?_skw=PSA+10&amp;epid=13055535104&amp;hash=item4074b3e484:g:hQkAAOSw-hpnmsMO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmAGYIJXW%2B%2FBj9uhXU%2Bk4NQfyCgXQWNtw4GnNSeFlAmhnRLH5m39bsbMSjrh6hNtHy0mqafJ7jJzwBf5rJdNVjFRlG0THBmBWPk7rZRKIQoMTZXDtmjuOx%2B9mawJgv7aNPVMHoS%2FunjHw4SWHZq4hTlA21wHaDV45uO%2FlpnISO289GtynhmPe1K95DD2GdqXtWyRmZchRzv0QGWf7rk5RWa9TZX2%2F89ols%2BclnC6sSBsw%3D%3D%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/276835853444?_skw=PSA+10&amp;epid=13055535104&amp;hash=item4074b3e484:g:hQkAAOSw-hpnmsMO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlknpvHdZC33jE81ELYjbegrr5viFlP%2Bj64MEVD1J3XvkUbvKsZSoG9CohNuEzweCxxKyOBeVnXYjp74EOjbN0g3zBJiFc0XzFCvBOOP5df5fiBVbkskAX5bMyjGuR%2FxKXJj4evMabusSN9FISSeou10rOWwJDcndXndss8Jz3OG2%2FcP3B410txamaZHxzm8cZFkoV9LxyMMfamaOmU0pDwWG2V%2FaTrs6ew4FZvYsih%2Bygnjnoa%2FJ7aFsvxnqAfMrMzLtsGhYHC4w6BI2%2FEv%2Frg%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306062098801?_skw=PSA+10&amp;epid=18060333742&amp;hash=item4742b90171:g:0XIAAOSwTntnk82b&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmLu9G3c3PiFlLVl7mvxWsdzt5bnRc76OSKnprpXSAcCRLBA7qfW3368VFNN8dNX3ivBSVfBNVacGwKp%2BDc8FyOUKRvsLZU7isMQ19sZMHKf724FgJM1ZZevspn0Ph7tQEIFFp0YsMPx2C7A4qiCQEKo6MdL34KLFTH6tqMdnsjF0C0npC6hLJQdm3xWvFbQ06yq%2B6UUObBHt9YHzZyO%2FidiiaqW6p%2BIso3qMR%2F2Jq4R4lhRhQ1f%2F1QAQvCAHh8Rn3umi8ITGw9bURRA%2FgpNpIU%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306062098801?_skw=PSA+10&amp;epid=18060333742&amp;hash=item4742b90171:g:0XIAAOSwTntnk82b&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmLu9G3c3PiFlLVl7mvxWsdzt5bnRc76OSKnprpXSAcCRLBA7qfW3368VFNN8dNX3ivBSVfBNVacGwKp%2BDc8FyOUKRvsLZU7isMQ19sZMHKf724FgJM1ZZevspn0Ph7tQFeSYyvuNDUCnxw6BKHC%2FE3iqlNHiLNCgZ2hzzun37hIw6i4JV9BWQe%2FgpvWnBSQx3IE6Rq0Oi9uYEtucbvGkuJuAC1g5zcpgRfo305JjR2oXAgJU9NVSvNqs4iqkVG8CbGApusYBYYoJpD1C5F%2FND2%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361880436?_skw=PSA+10&amp;epid=7055606591&amp;hash=item551143dd74:g:TmYAAOSwpulnk7-o&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6fG%2F2OQYUqRF2UgbxYL3sXwh4dOH0SB2dExxuJp0kefEFtq0zrEGGgaFMe3yX7%2FsYXwRdRJQ0TXpt8oTiVFXGSfG%2FGp3Uy791jqt66PdHmlhqHUN63G1dZyJp71iYDbQlctLYvPLbi0e8yMaGNkLmRCOzAdHceEzTFthFMAWEetspp%2FJG7tXdvwC%2BdRYyYkWZuinnNyAHcEU1rnNlgdlyMs3fThQsZDMpHnB7bRCJeDXwDlJh4qCOOUGZagysrARaVpnlAaCcDbPCtMY7jN%2F2%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365361880436?_skw=PSA+10&amp;epid=7055606591&amp;hash=item551143dd74:g:TmYAAOSwpulnk7-o&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlg0euL11YaBuV9Vc6SOfvT78STU2rwh8mF%2Fd72wlNj56q1Iv3LJf4ErRCpoN%2Fdwdd%2FFquLhQanHrf0qNuqlUEQ45v87wJbqwXToRLB4O2o3Hj7hrLKYotUusJGUxP1TNo1OLXpeNU80%2FolRhy3w4NyU3BNQfG6TxZQe6f%2BJQ5FptZfJ9T7Cxgwhzg6hLbeaisqcMTNYUBszyWAL2cy38xDK9UyhOFFqDd0XHN39vLCHg%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361881594?_skw=PSA+10&amp;hash=item551143e1fa:g:XqsAAOSwx7Rnk7~3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlLO5N7pqO3FPScm3DUWXCjaDtSuPkSTLZPumLPlD7adCONmsPnFUhlpjqruvccKgDlvR03Q8dMuFT1XQukDQA4UcfaLoEepw1PeLuCjIC%2FBIDHg1in%2B8us5irrS%2FIVKzyCU2joAvpYvJMnlayZBnrULAoAMloWjvOKLfptdS8fAnhvkYpbA6xP2xi1uJXcjze9A1QtrCJNmNezYIEu640RTi8dH1SnYeZnEI4UwE3b2Q%3D%3D%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365361881594?_skw=PSA+10&amp;hash=item551143e1fa:g:XqsAAOSwx7Rnk7~3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlLO5N7pqO3FPScm3DUWXCjaDtSuPkSTLZPumLPlD7adLSv%2Bpw9LfP3sKs3OCZHD1AeOD%2FXh2GgeZ9puq%2FIDrRXFCF6VuK08ej4VRPY4z9HDSqV8mPNamV9yy3TkZeDPlyvnAfcEfU%2FCnz%2BQVngVX64z%2F7Jis5CBZsbtSAHFBrfBRzTPGsCRghdZlB3jmFZ9C558gL%2Fn4DM2ZGpRmRO8G2NpEIxHgvF4mBqE9z0eMe9pw%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366530781?_skw=PSA+10&amp;epid=7062932923&amp;hash=item55118ad2dd:g:aiwAAOSwRklnl5Vk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlPyEQ8oSYSkgOgUMAN6%2F8VhyxR5OCkvnBhqQbNSX5bBkmuohyPBJq82u2TKRG0BcSI87YowQEke%2FCzu1hdwlgs%2FQ0kLVhu5TV%2FpDB7w6Uh4vutUdXx8pYioZOgUvLxseV0guBZSTamBXPj%2BZR8QWknOp9t2rQlL3R4Sz4dm70r5GrYM%2F6pRDcRc7mEPL0Ca7c1zEW7fTeIyMLUv7H7v%2B6mJMdTxRVTp29bEwCkBiy2ECn1Kuf0IeLMeOEa1BvHzz0h9zhGMyE6gXBlpsnpS%2FZZ%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366530781?_skw=PSA+10&amp;epid=7062932923&amp;hash=item55118ad2dd:g:aiwAAOSwRklnl5Vk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn6Kge1O5gAzC4yY5KTRKqquKc5eGIHGU8SbSpcd408YX7WVf45yNqRkRPVgH%2BAE%2FBCVT5qP5zjdGkHbUsvsHvtB%2BqaH%2BZ4Dm6vY926DTaS04w6%2FBOj0tNWYM5R9%2FaFJP0y8s%2BkWmzvQjNWMityoMv4%2F7AifR2KAqp0mRkEwBF2NKAxxBUHwAhMtaU2IE%2Bd5Xgf3fJmId1X9QWAiG%2FWShvOX1wRJX2nTuaxfIj39dfxpw%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366961502?_skw=PSA+10&amp;hash=item551191655e:g:BagAAOSweSVnmAA~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkXi0RiTj%2FE5nMzZ26%2BYrC0aeJJnJ3JL7GaoL4bxF5SQQEjUlZ1o8mRTeKXzm68S7nwnYN%2FkJ4KXDLgsZWIBG1VH4At5aApyUYHAnGc8RsEAXXhsAfrA3%2Fz%2Fm8zCGHNbxLcJ0Eazn6S04rFuOTVMbiR5Sgp9RKYy5bYBp4J6YURtoVCU7g8gOyxzE4nQEhI6D42U6Mh1LvjGR%2Fg3pckAkaMXBiTo%2FJaTf7s%2FPnTnzmonQ%3D%3D%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365366961502?_skw=PSA+10&amp;hash=item551191655e:g:BagAAOSweSVnmAA~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvT20Jql6LHAMXjk7U2eu%2B3qCOxaTYXj9iDBTdJPyZ19dTOclDAmZAzEhbmB5F2xIOkoKAna7PifYIA5%2BPTauFmS7n9OmuskrEDbD4da0v38U9dKgBYqPKtTBpdeIY0E9B%2B7dWSE0BjzQ4%2FCn9f1bNS9ZIq37hyXJFd5Z2f9%2BT%2FlbPOdtZ%2FX74b%2FRprn5qEtJfULIrW4OdjXL%2BwuaBklUjRFJgjhMAKF%2FWwvdI7yhiNhOY7Pw%2B0RJLKylULXZVk4vNG4tVMhBSlao2lNIGQi36%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947387070?_skw=PSA+10&amp;epid=8055605778&amp;hash=item578835e0be:g:XkwAAOSwmChnk7~Q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnu%2FS6jBaiIrDbQ6hNpZtXuH6zurnuzKOH3Fv6G2iNNW58CUjjDxXfS8z0IqI1zx%2BgN0v4DkTZ43Gqi0%2BjKT60JcwOoXRF--kYWWzF%2FuM%2FeuLaDnBvxOx1EChDxbkKA0mciTaZlZnZ6xtrXRFjCVBPNWC0%2BK%2BDM8EaEmzzGamJ6znwsaQyIhXCdcq%2F31Vqmd7fv9DC7jYstOW1v%2BPwUQYtBxFoW4b5Q9WQ1fzjadIM0knMgQO8Ddoyik0jhranXtQtPxb9O92uWFuD7pO3QyTC1%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375947387070?_skw=PSA+10&amp;epid=8055605778&amp;hash=item578835e0be:g:XkwAAOSwmChnk7~Q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnu%2FS6jBaiIrDbQ6hNpZtXuH6zurnuzKOH3Fv6G2iNNW58CUjjDxXfS8z0IqI1zx%2BgN0v4DkTZ43Gqi0%2BjKT60JcwOoXRF--kYWWzF%2FuM%2FeuLaDnBvxOx1EChDxbkKA0mcpeoII5tIA%2BFcRd%2FjouBNdqmGppAzVtWbYOuRkxySZaYMrSUXSG%2Bqyfi4eOGP0pDO%2BCaA8EfLjO9qPBgfPXkd4ADScqJWUE4MDFXKP4SRUZ9L1SY9SK5336idh6SMU3vHdJZdo7Q6TmZ8QizbWqwej%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947395681?_skw=PSA+10&amp;epid=21055556942&amp;hash=item5788360261:g:rMgAAOSw2HNnk8D~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlcfgWFEGkQbxHtT4z5MQfRJRMvvDIgaGjSxcgSpd7fogR%2BjzoTQCL16nU7xZQbh9baOPXkHd9XhNFKc%2Fv0DBB853dXqmWRqtwyxWOaTAQN4hatKeQIEF9Z%2FA4pz6mLo9PHbICYNRCj5gBQnc%2FjVmTMCmvJlJIyyVL%2Fe9kvLSgICPMMF1LpO9zI%2FlPK%2Ff3KKVIkZBqDPfuGAN%2B0aUYpyuivRLLapDnVf9g2nAi4zuAVbtzoK00db7Ld5FXeQFtCq88Shgy6V4srJNvCCbQl98J%2B%7Ctkp%3ABk9SR_Dh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375947395681?_skw=PSA+10&amp;epid=21055556942&amp;hash=item5788360261:g:rMgAAOSw2HNnk8D~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnYdUyZxLeYD%2FkLsxVPmqVz2A1VJ6CQ5fwfiJ7e3SOJEL0HxnIys%2BWUupQ7nxrjJlk7B9Cj6oitONzDBDGA34umUJsg448PzStMjInxXZX5aJ3IP%2BBzm9UYjHFzvWzao5z9DxO%2FDWa5STggiZsaaxb1mekK4GhtpoYm%2B4OBO08aZkzoHl%2B3BQWeiu%2BHX%2BQdUWT%2BPmqVrEcn1X8pkQ1VDTpyh6i8sxEO3ilSuJ1gMMueHg%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947399022?_skw=PSA+10&amp;epid=3068753370&amp;hash=item5788360f6e:g:~AYAAOSwdQZnk8HU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn0Epl%2BfzVDeOr9DWprYJC2yauqfe2RUAQB9RI9pFFr9QdpjwSCsK6NgtqFvby3xypb5HUyk8d5Qi5cN5wqUGfQgQj8BgIwf89qxUBNNdIs9%2FVAVIbi0YAq2SkPRuDSihmzhNuXKqTzYpZwZtFTshq%2BvQJh21nt%2BSj2Q4B%2B3Asg5VbYeM4JSpGtSrecNAEguqeXcJJQpCWbzJw42oLwYCw8ZDFZJCnXZnhMQGMmstOpow%3D%3D%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375947399022?_skw=PSA+10&amp;epid=3068753370&amp;hash=item5788360f6e:g:~AYAAOSwdQZnk8HU&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn0Epl%2BfzVDeOr9DWprYJC2yauqfe2RUAQB9RI9pFFr9RE0%2BkGjgtycQdcMiXhe7zicTDvuPKfdE5xhg%2B126jzD1x7vVHt%2BownvVJC9MaeMwrKwDUQitu4CVE2NADVJwhrkV38RGZoQUPzx9tsNnxBrmrkuRaS8W%2Fv1O%2F6uedPnsGtBiPLrbOH7o6uk3XN0nmDjBukgZADSHCJ8fUlRPT6aWmPpcD011V7yGiTM2LVl%2Bw%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375947400194?_skw=PSA+10&amp;hash=item5788361402:g:3s0AAOSw8V1nk8Is&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnQG38sF2fwvb7Xcokfny9IgowM3bOY6s0n%2F3xN8r7m5TaTaJcEyKhNkgMBHr8pwKba%2BmSa1KCrDZYrkWdE%2BXTrABnqSz9oU2%2B5%2BryNlw5sQfVcfuNqzzSIXZZChZn2FaWYJGegWuXdBwYp0gPh12ysU1YhDa3F9Kxo1vN%2FnI4UMysv9H%2FHq9uIvLruJ2X69q9SJQjc%2F7YBRxBY%2FTOXdgtztWgeanO9fKtuLBGryPiiow%3D%3D%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375947400194?_skw=PSA+10&amp;hash=item5788361402:g:3s0AAOSw8V1nk8Is&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnQG38sF2fwvb7Xcokfny9IgowM3bOY6s0n%2F3xN8r7m5WyfkYWzKprYc3r8qgCpXL3MH7HMPwOrFTeAGynlNpc20Y9Y%2B2pnnbvuZlsdL8FeCmnzDlneW3sut6fl9e1NGaXYQVLXPU3qyN%2BVAOrvaPrjd4ZfB%2FMqZ3pZWE50tdG4eT9FOLhrxP4m%2B87pnOQjbf2YL2PPSVgtict1C1ftlbOKB%2FNwGzdlfkVUC3ubt6Umdw%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855599694?_skw=PSA+10&amp;hash=item5a4dfec84e:g:~xsAAOSw9eZnk8Ah&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlcxhv5WuFOLp27Xf26E6vs2AOHAJBz2x82ziTL9dv7i%2Bj1i7B9Sdp20aflTMAbg9cEID6SJk%2FIi%2F9O%2F4VofxGYCiOOF6v5Z0XgUzO9Vzi6YHAJ%2Bg0raMhzk6lGRrt4BuC7BfiGtlPVdEBWwiWsRIQmnyJpYbZ2ipvDImJaZLziIqmEOopdwdyD%2FOZJgS649KZgkdpC%2Bldyb2ArAmyH0LgThtclNAsvSH%2BjkInDAAEMiw%3D%3D%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387855599694?_skw=PSA+10&amp;hash=item5a4dfec84e:g:~xsAAOSw9eZnk8Ah&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm6DXdtkMmjIz1Kj647wzjq9NZ2eIcuH6cfIfizU3VMd72x%2BxhEo851Bl5qbRL%2Fc%2BJDJeDStCIbSHGzDGX195X86attTe1VPxhEJeuCjjjrGWjaFxZNm8NvCXWuyVWi9Z1yuRuqWOmogdn7rB171u5B4Fiu3rtSYnabBJwpsZ2A307Wn4eKhs%2FdCA2vsauXvbCX1haBQresVNvab9iIxwa%2FrXhI6LPk5M607vRX0ZDTa42Epp%2FKNPOT7wNe3HxLf%2Fr37RSLwKSClE24z3l55PyD%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855611473?_skw=PSA+10&amp;epid=28055539086&amp;hash=item5a4dfef651:g:sS8AAOSwsvVnk8FI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnLpGBKSml%2FRknVbxrXjM0wdHsqmKiQX6%2FjKH6UNgnTjVhfwhnxo5nBS1kV0I1pahHt557Q2zty7cjF6vug9xye65fbteyCauo1nMTpIoUe1R0t31zsaR6hRCEfwpGwRL%2FwBh7PTQ1StjDsBiIgAFTJ64bEpu%2BD8WQ3wUPeSKnQm9LmPFyDuuB3TNaR5Dui5bbrQzS683D1UDAtPV3RL4TStqCLOMq3sn%2F3SiTXEQNa%2Bg%3D%3D%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387855611473?_skw=PSA+10&amp;epid=28055539086&amp;hash=item5a4dfef651:g:sS8AAOSwsvVnk8FI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnx1E3gFUhnyL1ZhT9Q9PeXsFDIYRwM9pltEqFRzAEn%2BKovgwzUB4WKrQTwttuLEct4iowSVBlntmm94WChCazMCVx4mNiQBtZ5XRaBJAhBaa9WP%2BzSI5HXhu%2BE2Lcr2l%2FvouhlQDbDPpylAetClYMVuNR%2BwcgQmDTT3AoRQ4buiTICKYbEnh%2BrQZ6BV2OcvzYwwgUHSjrt%2BcF4V0YOUoLdE9f2gdKlXm6KhVQGGZA%2BqRlzkgD0Ks9Qzi11RnNBAtYFHYKnJ4A7POQNmX2NBs7w%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7527,7 +7527,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387855621032?_skw=PSA+10&amp;epid=17055601086&amp;hash=item5a4dff1ba8:g:YGoAAOSwiktnk8IJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkO1en4glTqshQQSG1HJZcy3q1EMkNi34OXyC6TQZA19WXlCwfUy6d0CAyI%2BcZssOkyPqG3nIHxkmufzHTZeyk1d9kHSeLKSGQ5AnBo95YtOanZpjFS26rAEirjRwxVRlKv0Bo7As%2FALxfvgtxwYSDxwUfgKEl%2BBPCUjPYWxXoFxQ1Q%2FzpUF2RiRDiNPd2mGXF1abkk09jees%2BaJFeug93HkXPExTdzC%2Fv8MGElwYL9lJdSeq9J3JzMmOdXYwzC9xFaZ%2FbZkOn8%2Fpzou632lNDH%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/387855621032?_skw=PSA+10&amp;epid=17055601086&amp;hash=item5a4dff1ba8:g:YGoAAOSwiktnk8IJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkO1en4glTqshQQSG1HJZcy3q1EMkNi34OXyC6TQZA19WXlCwfUy6d0CAyI%2BcZssOkyPqG3nIHxkmufzHTZeyk1d9kHSeLKSGQ5AnBo95YtOanZpjFS26rAEirjRwxVRlInYohEsIjc7VDDlm6iuEVFNsPvdxQYgFVUOVup%2BcwEHfJ1exeCGJxc6dg6s3%2B3lHLpvmD94WJ3jPITUkU5zoa424rhiCeBLz4%2F05zb0z%2F2JL6HJie6HavmbEF7CBBe00hRCAGc2%2BsIyhvIIMQsC%2Fp6%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306058596117?_skw=PSA+10&amp;epid=6073921250&amp;hash=item4742838f15:g:Xz0AAOSwiQZnkaYi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmmtszQIzJ87w5FsH0EGLTxZjJqWlEtDhqcmq5NhjyAAWYonyET9IUDNC9uvrVgazyy5CZCNQmO9IWeMonruhK9lqaJYxZCQ0%2FAowDbf6ARKpYZfXseaBAH9AAdDtEKa4WGqqSbeVr4zTH9uoBxpL2jR2rwz7GaY6P0ebOhz9GVQ3xERzkZQ0%2FxCU1uJmw8H1VI%2BaVCO6L%2FpFJyLJOIe6cMdBE4dWDm5mrIeZ%2F9b0X2FQ%3D%3D%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306058596117?_skw=PSA+10&amp;epid=6073921250&amp;hash=item4742838f15:g:Xz0AAOSwiQZnkaYi&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlYgZw3m8oKtWeLdzvrbb2MamY%2BK%2FLhCxwCTq1494X3LzIVo9zLikOUQ8cHLOv957Cpak0JaLeopM1JOglWXqLsy0RmXl5OHv9m8lAsAA3uUu2J3kgiePfPQ8LR%2B2Vl0w4J96R%2BURxUS0ylQ3MpRW6IrnSpKixWCzdBqM%2BvIubM31hSAeA3%2BciI4Df7WmLf224YP1lyBAwWsLkX1H2l9dO6QwWHznpXraEyF6iNdoUBCB39I%2Fob0qQRGyoT4Lv%2BHaIAyZpdObXhVVRktZ16W%2Fw5%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256781548227?_skw=PSA+10&amp;epid=23062934986&amp;hash=item3bc95f7ac3:g:BmgAAOSw~ldnhIYz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmsCu0crHTe1rNZk7rYjMa13qLofBqpRyDQ3i6PcBFadgE%2F3%2BsplJwwhZHh1p9sBVGPqdu0SlAlIfbiahOkjZTsCUhwzEsytwUlkoOi%2FyVnJNDmrii2NOsSynpleMN6FuT%2BI8L3ji01YzgeINEtOGQLiAx%2FszE1RenmhPdYTtFw6lzOpaNNkQhBbXcUYf%2BAdR5o8Ms7AGB6xGAriL1R%2B%2FGou3iRzyorwKjg%2BTZDcR84iQ%3D%3D%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/256781548227?_skw=PSA+10&amp;epid=23062934986&amp;hash=item3bc95f7ac3:g:BmgAAOSw~ldnhIYz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmsCu0crHTe1rNZk7rYjMa13qLofBqpRyDQ3i6PcBFadgUicyhYClDn6fl9tsYxBezVktSHLABz3NI5cnpXGppnTbt5RIWrf7qsQNyguOtL%2FA4hkbvCbrhWPVC4OPXz307DhXzlT5KxAHKulEak6Of7mBkiwyoQ8waM5kT8Eq0OKOKP89trfEIERLaGtmKFmEN8Bh%2B%2BLmZ87j3t3SCXEcg0g6E971pfnfIUO416iocpOA%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335778121354?_skw=PSA+10&amp;epid=18065171845&amp;hash=item4e2def868a:g:7yAAAOSwhD5njsDo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkJd8iEOQwrQWRQCkaZBPSxzlmolN3CxrxGzz9NG2Wmr9n99WSHDMfs3Mq2TYPogBB8Z8cX5HOFoz7yH0XBBxMdsyNbkZpOQybcQ1pzZZpwfm%2BdwkDYfEn13gz8gKkkQpsFITxTRIcF4HIbSqHbtBwSm3%2BLO0iv9XXEMjbQ0Dnflc%2BgSQ8KMn%2F0ValNrwU4ff5JkjSIpiQriKFfoLiUlVU0Fn80szwzS1nWffPmH%2Fwt5dwpBwzT1FIXPlUf8ABA6SB9G%2FxupG16WNREk2wWYucP%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/335778121354?_skw=PSA+10&amp;epid=18065171845&amp;hash=item4e2def868a:g:7yAAAOSwhD5njsDo&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkF050SNFBn9E8Et1QTgNpv06mt9HNRnwJVJptqX4Dg5eRhXk3j5hfBz4OJwEOwn1%2Fx62%2FVuW%2B2a4CKU6SF5uCgJzyI91t7IF8eCoCfF1V26fs5VbUk1MXckOPgKcTtxYtEeuup2zvgDGHIhKBCSAow4ZA%2BEinZ9XYa5GqKfBrrMaEoXmaCGmaMiN6HXBhT5DEEEU9SKkxTKsqY%2F23OO%2FyM7W%2BHPMj6kz61faN8m%2FhaPw%3D%3D%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958488236?_skw=PSA+10&amp;hash=item5788df44ac:g:4ucAAeSwmB5nmrVM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnZIXFcreEN94QxI5b9oKwX1UBhWozu2wyPfX5BHWy41c2WumdrO%2FdOTBineAqsVjV1usjTTQ8lo4ROdEboEfPJC96AcdQ1iikCN2gjDg3Ly3upt7ZQtcqAjzjmH8PUjglKrHLq9wOqR8v1dyAGLfbTmn0Uu6P8fbCUXea7ix3K7e1vuDupkzdJxqHLDs74j7Mvgjg3r5WWYfHLoHdkpqDs0aa7W9UbvpLQcz2IREYosQ%3D%3D%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958488236?_skw=PSA+10&amp;hash=item5788df44ac:g:4ucAAeSwmB5nmrVM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKliVB465%2BXgeVWXde0%2BN6Wv%2FB1R1WyY6a%2BCYln%2Bvl1e2UucdcA9PQYh0USX3g2Uh0BIaDNjwnqMrjPnaPPra1UPPdHNnanpkvCkGOdBLVbQu3pRK6MSq6hnaaFiIc9niv%2BRIqewAMRd4rJLFG4y5D3cCqGzg2BIjPzkU5Xofw7g%2B1UF3UUi3LYbJCz87g%2B4D4F2q8LjLdJYfUPHtuuxd--nSuXi7kmXRBuFrQRIQnuO8zix6lddY%2FJUeNabqngUqNOiBHhTM3Lq6ySbobo1xP29%7Ctkp%3ABk9SR5if0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156664015556?_skw=PSA+10&amp;epid=26074128295&amp;hash=item2479e72ac4:g:ZVIAAOSwe8ZnnBk-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlv%2Fi%2FxCHePC%2BagTvcuBv53srg0grH1r3JPTHiNzawFyII4sRiVVowkjpNxkT%2BcbKqzp2uuGGmEBXpZbwiRwgtHC%2FiLGRPH%2FbK3Tf0yh1VNIAyxHHSGIUMLWpvjZOb999P1t%2BT%2BAsQxTe%2FdJaiZkiJMET0O93NI0AD9lHNfby3SO5IM0%2B5Fwk0sEYQ8D8t72ibsLUqzR7b2toYs2vUgYf0pG89aGeadCz1xXx6eDkHxBJW%2BGKK133e3P%2FP72dw3UibJvw%2FfVo1NjOhusaKuVGSG%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/156664015556?_skw=PSA+10&amp;epid=26074128295&amp;hash=item2479e72ac4:g:ZVIAAOSwe8ZnnBk-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlr2SDOXMnPnaxaSMqcTm6ATf1Vs2HLpQ9RwxW8dS14QAvTxz9MQL3tlHhABWAK4X1GdTQKI92oPUfPhZNHXX2A70j2%2BoWj5St8wxXvs3sBTTfkCQJattDCAIr2z6taiy9gYgFugAH3VWZTIz8mCrJRn%2FIIWELFNHqbrU0zgGKZNIpI%2BV3AxfurLgkvGwDeU0oWDVTloE%2BhxIVad0Ji0XDYvS7VNqVUW8sHbvbuEDe6og%3D%3D%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958488234?_skw=PSA+10&amp;epid=3055699939&amp;hash=item5788df44aa:g:BckAAeSw8dlnmrVN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmECzFgwwli4atzKzf3b95fcjBr5xb%2FY9Sz2zXjyktnh%2BGWSF8XLYKiXT8%2FMYPTI9pd8i0PO%2Bc7l%2Fmm4E2ks3wrriiLTtDM1aESTNxk7H431TzUU8N5XWDVJPvRr3dVhH3GuhmAz6JFwOJ5ydQjel2LVdvy86A1OQtrW4Ei4Ah7n5AHj8FroDsdTkpdzx6Fr%2BH6ljMZbqWbdN5RZc3TxUKu0JDWoLmPFuHoMm3kxy0qTflEAE98twul0UVpp8y62iieTA9CTABeswf6CJEqO04b%7Ctkp%3ABk9SR_Lh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958488234?_skw=PSA+10&amp;epid=3055699939&amp;hash=item5788df44aa:g:BckAAeSw8dlnmrVN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmjr5Rk0CnHA3Ay6pHbxgtZA98cJsWexnaXzjbHkejHxmGoCrzSrnihsVkkW9qy0KEpcgYeU%2BDCJS%2BFLsmnUVutO3%2BHvrPhj9bpFul8GWVeFLFdaUC9DZ3kAUOqWztPkVWlWGQltJWW9jRI%2BHUFklrhc62XI6H0yUB3JqYcJo%2FrCTMjnfINFGmd%2BNAud4V5uJTQuaHyuYy%2FWHkQyPHzLZppFII0Bhyy2ASmO1R3m7KK2w%3D%3D%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306081871708?_skw=PSA+10&amp;epid=2326576854&amp;hash=item4743e6b75c:g:LvkAAOSwiv5nnkSq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmzfxEMOKbK4XpjumAFbQdO7lMnsF%2Bqytb7IRIWRbRUfvEVisUD7Q32aKpvXUXURZbblakH4PpOxnUtXc4XaCwO5mHMegL975QNd7bV9tJPYjsCjov65qxVudhl0Z1rJnJpBm5vrznBhQO5VM7%2BeR%2B5wNc5X%2F41T5UXwdZfhkDwZRWl5zknItO%2Bu0vfh2AiMwqLD6YqktNjhsdP5q1cfYBmJSzhRqcYN43NVjg3orEgmYDD8UyTvjRR%2Fl0u%2FqKttZOPmzcATj2VAUF6OLYY1Wtn%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306081871708?_skw=PSA+10&amp;epid=2326576854&amp;hash=item4743e6b75c:g:LvkAAOSwiv5nnkSq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmzfxEMOKbK4XpjumAFbQdO7lMnsF%2Bqytb7IRIWRbRUfvEVisUD7Q32aKpvXUXURZbblakH4PpOxnUtXc4XaCwO5mHMegL975QNd7bV9tJPYjsCjov65qxVudhl0Z1rJnKGblIpM%2FNUAsye7BG61dDLYD9qWE7AeNN4ThM0anwGYbMf7N9XxrplEkUwVQJTl7FnHZgWBn9H4Vf8QJ%2FjM%2BhFCX%2FT%2BnWr2m40URtnMGLVEGjBiMiOx%2BYTlzRizLojdHT%2FWZDcQyhdRHEFsKt1uK44%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958487863?_skw=PSA+10&amp;epid=4059000848&amp;hash=item5788df4337:g:54MAAeSwVPBnmrU3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKldB5Km7evEHJe0Z%2Bj8GYm4sVhLSivqHouGCLPh1CGGtSONVRzdB12m9OQI%2BpqgvgPUoRVW6PHsRHVCG3vLY6iPXKC3hDJ9c8wHq%2ButfiyCkZv80pasqzHjMVFbIk97rapiIpz7Eaet27CFJh4l4hLmOnzSnCf0FJ878rCRIu5nLi4tVImbE5A%2FCgmw377d9KfqXYYYJPQ%2BUIpgmOQ%2FrsmH3sglc4i2MdwNX4yANL5SvxWoxri4ZtxCpS3KlsbvIinVz6shyOC9msvrRUcTGtwP%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958487863?_skw=PSA+10&amp;epid=4059000848&amp;hash=item5788df4337:g:54MAAeSwVPBnmrU3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm9uKpt2W1w2jkc4mHuz1Wm%2FmNMzyleJa14nwoWx1vYDu1sA%2B3McSdsTKUd83kUnJnaqilKacTwK4nxLr7uAJ3hGFu1SzfcE2e0RL18S4zWAFhADYTZaB0p9bwaJQbDCDgk4nq4mYKE4Pj4w%2BpI8AskBCUJUzKZ4RkHf99GOq3olz05K3u2evmd5582%2BEx0OJEWj18mixxD%2Bvk8mEm6Ix4gEQdG1csi8w5omYMWvEqZlw%3D%3D%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365295387544?_skw=PSA+10&amp;hash=item550d4d4398:g:xUQAAOSw33VnlXtA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmRozBBg%2Fm7juVd5h0Og1xE1RASiD1Mapcd06AhrZq5wir3sZrEPGqtrByymcvhxjmEv3YjAdlAQ4RgsWMcHoS75KFaBqB6WAnxPOSlgD7gX3Z87xAjaeRdIo%2BbFL904SAqKZap0Roo5x1fjtWUj%2BbrwTjJ4D1mrZ3vrVyFbLK78L6S1rwRQLuXfMMpLaYa4L0Cl8NH3CWP67FLx9SVDvxwDj90KVHuHOn5Rler00hXYQ%3D%3D%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/365295387544?_skw=PSA+10&amp;hash=item550d4d4398:g:xUQAAOSw33VnlXtA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn7p%2BO1K537UmuPwyt9Wr6ccCPpwEqVI%2BrpXV9DTsHWJQqoBYrTxgE00TPwBb0vUfJEFGTCRvJccXuCeADFasbAitRDJ71bloO%2BY%2Fw9FTqJyKSl8t%2BN8xQ81Jdqr%2Bd0%2B4654z4rZvLtIT94W0Z1aVGEVdzCTRw1Sn160IzNZ1YQDwKH8LIDvMqD%2Fm5OaD0QY009%2B9Qoe5f%2BlM%2BN2t1%2FPHI%2BH8sVf0iksvbyR5cxrAco3GMkWbjfLVNCB%2B9M3k%2BOeHLVz2N3WaO4Zve16L%2F%2Bg6G7%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375952599989?_skw=PSA+10&amp;hash=item5788856bb5:g:mfAAAOSwk25nZIBJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnJoQRIgzBdwfxExRYbBDgTMx2inmGl%2BjByh839YCsDpNlO8dpmFr1QvQNHrCatOrcntA7kE8RTS6RVZmwZ1DobrdpTp7%2BmrTs39IbfskCvqwbLfqnpEx2k8Lq6Rz3v4vr1n8r%2FtQg8t0wtCgKjQvxOcPyX43EVpVqfejA4EZImMEpOVOyKb7WsRckIlJO488lZzSFXIIJH1ojQ23MpBdEU3qUadwKy%2BPsKzypf%2FO6XCotPD667vhA%2By8HOaORuZpVT1q4a3AVKrHKaextCHyYI%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375952599989?_skw=PSA+10&amp;hash=item5788856bb5:g:mfAAAOSwk25nZIBJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnJoQRIgzBdwfxExRYbBDgTMx2inmGl%2BjByh839YCsDpNlO8dpmFr1QvQNHrCatOrcntA7kE8RTS6RVZmwZ1DobrdpTp7%2BmrTs39IbfskCvqwbLfqnpEx2k8Lq6Rz3v4vpfWqoIcuShuzHFrdPD4OobRE867OPZ52b0ErDYdvL6xvBWPYF%2F0CELrIbZKp7sDxF0qsGMzinz6Dw%2BgS9ZDSVAWR2sNUZC7f1WY80CBfgferENWhxM8w4uKiY7ncn%2Fv9r89QtuDisWmI2VrbtYh2lo%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954698048?_skw=PSA+10&amp;epid=11073746992&amp;hash=item5788a56f40:g:DVUAAOSwW4FnmC0p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXOuaMzHqhQtjUc2pyhfC3u8ytSCusI%2FUAaCztw2ZA8u4TkRHZECjv16EV3BRvaAmlUewNmXobOyXjcnpqWqu%2BTq1CQp6S706Ea0x%2BBm051DWKkxP%2BnBWs0ptmf0t5E8nRd1rNLXQoRcgFlZM4evEmwYliLnoIMPMenqqP3F6Tew7J7p%2Bi9iGkJps3cCPg3Hid1SNAUQT12vJkit%2BvaB1EfxNRWeT6Q82ExXmRjujnQTm7ofz7IqR%2Br%2FBMX%2BmwbOzjzvR9MWOyIRPyJnl2oPy6%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375954698048?_skw=PSA+10&amp;epid=11073746992&amp;hash=item5788a56f40:g:DVUAAOSwW4FnmC0p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXOuaMzHqhQtjUc2pyhfC3u8ytSCusI%2FUAaCztw2ZA8u4TkRHZECjv16EV3BRvaAmlUewNmXobOyXjcnpqWqu%2BTq1CQp6S706Ea0x%2BBm051DWKkxP%2BnBWs0ptmf0t5E8ktCfVs2u%2BOPzPkMurrBoq5EVRqt6w6F5o7sP%2F4uFGsLo3d1Jy%2FsO8fRpRg%2BFPH8BmtSoZTl%2BemKpkxp0M%2FJ36I5BqID4g97wdT1Ld6DwIWFdHcN%2FH4U%2Bm9ANEPdpjRm6jiiMB8FecWssu9P%2Fx7N7Si%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958412709?_skw=PSA+10&amp;epid=21065177875&amp;hash=item5788de1da5:g:yMkAAeSwo8Vnmqds&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlKOmPA4HMItIlxFKT2HqsHwcy5cGWD6kaZQrKgoUMv67VjcPaC%2BUb7OKPMQhvUF%2BI9oNl%2Bsi5kqCNa16IBYQ8Xi1nJZCRctK2%2FDIMEJk0CneTxaE4q8Q8oZpfAjoXDeGbPCZDg1dHmHpviT0wDUHFl36g0YatvAUCIEqtlbW3CMhFi1zpoOMUuQXb6FCEcwUWk5FB8w%2BUFR3kTZIFrnmKni2M78zuNq3t97t0XpMqyTQ%3D%3D%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958412709?_skw=PSA+10&amp;epid=21065177875&amp;hash=item5788de1da5:g:yMkAAeSwo8Vnmqds&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlKOmPA4HMItIlxFKT2HqsHwcy5cGWD6kaZQrKgoUMv67vIrQmzvcXtqetw78XiAJ3iIVQGo9gjw4gHL%2BWUj1H1Gok%2FCRUcqCEAtnl62pQxt4w%2FdBgk935vJos5rHZdCSYSb%2BxGpfbVeohxFpgaDkiFvWJkVhmr%2FfcDlATW47QFPzHitoRkDKVic710XSwFyKIWQMZi4T50o3UP9nTeBx8kDO0vLJesHv69ktewEiqpMw%3D%3D%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958412695?_skw=PSA+10&amp;epid=10055526070&amp;hash=item5788de1d97:g:xBMAAeSwmO5nmqcT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmskh%2BeDd1alAx%2FR%2FbDiLXsRVdpldA9cMsiK8IeRVhgt1gJD6TfuC780q6v8icNGElwkbPoIgDtnXFis80Ct%2BJDowrHYEXkgZI8a1NLJLmc3psfF%2B0fCkRBB9f1di15j8ZaUDzfWFRDnV7McmgTdz1O3dqsYQ7iiDhbIMJTEbbwebJisxpzxR1FFrltsfy%2FWjkBMpGZ94uaMrFkwzHW%2FP6%2BUC6c9epluaOWNs92qB20GA%3D%3D%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958412695?_skw=PSA+10&amp;epid=10055526070&amp;hash=item5788de1d97:g:xBMAAeSwmO5nmqcT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmskh%2BeDd1alAx%2FR%2FbDiLXsRVdpldA9cMsiK8IeRVhgtwYsO7H34RYfY%2Fld6K9mP87ARoAOjNcfw99g4zAbQt8dTFMLYew2TejtF7bhfuQZxyPWYBcj5fRAb%2FI9uOt975VvmnSjTPEUccdmsFobjfGSR%2BdM856O7bLzm--ZraIs3o7A6CERHj78szj%2BlT7yTcnz3Et7fmWWV4XoXlxou1Gfssx%2BDPjpQFAVV5MW8d6tuA%3D%3D%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135522410994?_skw=PSA+10&amp;epid=18055695519&amp;hash=item1f8dc3e1f2:g:IVUAAOSwKi9nmQmL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1%2FPvp4x%2Fmgg4%2BJmi1EQFjLBBrZ3MiU%2FHb%2FMFDRhkXxYqdOKmtLhoprMNkANOKgfG9wlp9acYCXhvYRKFZ6nCb8Yzpn8Y0S%2F6GIlIEpE3Hr%2F4o3My6ZSHStj9HJwLI1ibE6C3YxNrJ5dwKQK7jvIrux%2F%2BORh9cgqyejMcaJq6BPnMpwrB7GbjyDk3fesdFp7K%2Fcw67FuEpeFV4kvQVd%2Bi2WBDYbSExfr9gKc4nAsaoXw%3D%3D%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/135522410994?_skw=PSA+10&amp;epid=18055695519&amp;hash=item1f8dc3e1f2:g:IVUAAOSwKi9nmQmL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkvArkYqHj3ontrJMC93vRBEudqUVAeeeVkVQwdDxmsXvhqjgAv%2BwfrDHwZGV%2FvWtv%2BlLYRZkcSXCYjtN8sfsMJHDuMeH%2FEdStJvl8m6HkgH%2FHc57ie%2FEqFkDAdgg0suX1Md83FMKquHRkOIFQOllU6Vx5ntiQJaCgC5h%2Bv3iSX5rrQ9oKIiMW%2Fhxuy1CQMTSNp8GwNxNFc7n3SQIdzCZAbK49nQ%2BKV4sZjEBIdQEAbz5q0Kwxvz4toDkzleh8bTRUnCrzh8f%2B7cLbNAwIJW4T%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296981696493?_skw=PSA+10&amp;epid=23055533920&amp;hash=item45257d0fed:g:ypoAAOSw-v1nn~B-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkA4eWUKIyZ58LDg5WplePkpSZLz2PVDXtLh106UYcfBwJUtnMr%2BNQ4IGi7yngpm3%2B1oS9aRxxrva6YONakdaDkROjf%2FZmiZi0zR7lsds6JjjB1m7ws75oanjLAcDBkei3twfoIjDwi58kHeyFnoQNRKc4ILetaz7wc01%2BIdf5hOH3Pjbsrql4M5RTWmsHFDJ1K%2FbxqNkl%2FN9qfHY69w%2BqJGSP5tpT3dIpIb8PWsO4gww%3D%3D%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/296981696493?_skw=PSA+10&amp;epid=23055533920&amp;hash=item45257d0fed:g:ypoAAOSw-v1nn~B-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkA4eWUKIyZ58LDg5WplePkpSZLz2PVDXtLh106UYcfB%2FKdrn9b42RcvMYoEg1qTtRV0inO8VW5GxGjvcfdHl33KC86hijHm8CLv3Zv1oa6642UGGnyOcQjTLPqed4mNPdcjAw%2Bh4GikvmWfvLZoekzXzO%2FueTeQ%2BdKSkLQAMzYHIrCUmSAyLedUNXXruGYbJV8ttaJgPdUa8QsrGu8LVwHJ09eGrcYtjTznDaCLI0ivw%3D%3D%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116458045760?_skw=PSA+10&amp;epid=7073132202&amp;hash=item1b1d70c140:g:HlkAAOSwuhJnlnlE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnK1myHfgNVXUoVJ7zoebqdN4JllIgMmgKty5%2Bqnftx9TaJD%2BIxnK55owjhrVjTYFs3vIG0D9mPvJ9SpAPVPFpGkVbXpkkYoJTJh2C8AeljI3DHWWnmEKgcIvht21Wt%2BfyPoruS9Pb%2BajA%2FCPee8qlVWRRtvguSAJWwNiJO6pNfwFjN3N8DUBwwO1brN5o%2FLPrrjOa0bQeXrEZ013kmM2JWy%2B4XRVmiLvavLRQlXl2uGz%2FsLCnHBL7bFT9RAwKUT3syNHbgz0gM%2Fs%2FX7JA5DA6h%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/116458045760?_skw=PSA+10&amp;epid=7073132202&amp;hash=item1b1d70c140:g:HlkAAOSwuhJnlnlE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnK1myHfgNVXUoVJ7zoebqdN4JllIgMmgKty5%2Bqnftx9TaJD%2BIxnK55owjhrVjTYFs3vIG0D9mPvJ9SpAPVPFpGkVbXpkkYoJTJh2C8AeljI3DHWWnmEKgcIvht21Wt%2BfykHeFczD62Mbf35%2B1T3UzaQKvQniebnnbthrEkOUujrPJxLIv5b5rP6zrIUu4KFhemEOZyQQL17WFX401FzQikA9EXuTgAe3AQhOOwJuvd1Zxx4G0OKQ%2FYspDSgnbndqJ%2ByWILCKwXLsjXqz97Ep0g%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909212386?_skw=PSA+10&amp;epid=7055616451&amp;hash=item1d8c60e6e2:g:vA4AAeSwWcZnmqa2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSuCb2eC%2BsjpXBp3PHTqcoOLaxca6Bq%2FTuwQz57N5AJwIabGrJCbWiqB4p0yfNA2KTP4st2n71Iq2IozLDAZs5D9RSXeqy6YtLDjGvMHNsNbGSlgL8Lex7zcj%2FtjLHlvFmFZioMXoGR3YilqgBzUmHPN3THVeRXPUkvZfuG%2FlE%2BuJFNm5nLmtG8hsC9n3hG5J9R%2FBNvBonMvLTtHJYg6WVUff8HglSNO3AaT7cY4I58%2FxzKrRVSKrwDlXCUu4N5udS%2Bl8fLDTfDjWJGQJw4JKa%7Ctkp%3ABk9SR_Th6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909212386?_skw=PSA+10&amp;epid=7055616451&amp;hash=item1d8c60e6e2:g:vA4AAeSwWcZnmqa2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlSuCb2eC%2BsjpXBp3PHTqcoOLaxca6Bq%2FTuwQz57N5AJwIabGrJCbWiqB4p0yfNA2KTP4st2n71Iq2IozLDAZs5D9RSXeqy6YtLDjGvMHNsNbGSlgL8Lex7zcj%2FtjLHlvExNKySGhSyn7DJuLDBYuXy8wHAPXr7e6605FYF6BM%2Bq0KkH6g9AnGBOEP3pdAqMNXQuneRbYuQkQm7I%2FU7q20dIhhjwogWUhJdLF%2F0yOjYLP1sRS4ovQZ67ZUOxAEidRqmkHuRark0Nq8OjCdNKb0p%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958408684?_skw=PSA+10&amp;epid=15055545406&amp;hash=item5788de0dec:g:xR8AAeSwaRRnmqcj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnCBvU0CoWoMGV4ZnbqodWZChHSvGXQY3z17kEQOnSQ2q13f09jbpEr6p94QCcJNTkX9cdsdSLujG3iXc7uzO8Xok4yvt988U1QLHabzLSxFJ89Nf3dQRR%2B36MKOk2pzei%2BvlT7VjFpMp0jNlb0N%2ByluPs2fDvzzpDNrtR%2BDN4%2F7Qp17QE1HAJhKGI7roGPXIutw1LEfy9xrWtbc4cS99JF%2FadJQazaVKEVSSwbuK2TOcmTGuQ2EmZs7s9yOc9Fg5qU0KR%2FX%2FNfIeksN6lnHz06%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958408684?_skw=PSA+10&amp;epid=15055545406&amp;hash=item5788de0dec:g:xR8AAeSwaRRnmqcj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnCBvU0CoWoMGV4ZnbqodWZChHSvGXQY3z17kEQOnSQ2q13f09jbpEr6p94QCcJNTkX9cdsdSLujG3iXc7uzO8Xok4yvt988U1QLHabzLSxFJ89Nf3dQRR%2B36MKOk2pzegcrjTuLUVgQQgsSx6z%2FqiZEAEuShR2nRMGtPlWDMKQ9QPHGPnVtlc6A2wH32d58uY3t%2Fx7gu7O%2Bvisbbh834kh0VOSrBKyMW1VxyTo6Xo6J0wf2%2FXe2ikydM83kJdTged9wTvApSwiCKFBAekso1pU%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958403503?_skw=PSA+10&amp;hash=item5788ddf9af:g:vgoAAeSw0qhnmqcy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlFW2zaC%2FuG9pqrZmg5fPS9FbrPn%2B%2BzkSy2y1MlxP6xvVwuD66K%2BiPia%2B7kkpXzKocs5gtc7ohXbIhmkUWz4Ey7eFPRqC16%2B0FgaizzvQem%2FHLAz7BBL24BuPkjwBP6URwFiBrRfmZhEsCxxXXHX8guOnyAxF%2FNctMdmQ2rOwIZw%2B2tWKnAXUo4ZsNLc6eUl%2BJMAipSRpx87FbErtQnSO0UUBpMjp7Mg5LxPywTE7pT9M1ntfSJZbxjduvnXB7htA02xsl8qEw9I%2BBENX8LT0eg%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958403503?_skw=PSA+10&amp;hash=item5788ddf9af:g:vgoAAeSw0qhnmqcy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlFW2zaC%2FuG9pqrZmg5fPS9FbrPn%2B%2BzkSy2y1MlxP6xvVwuD66K%2BiPia%2B7kkpXzKocs5gtc7ohXbIhmkUWz4Ey7eFPRqC16%2B0FgaizzvQem%2FHLAz7BBL24BuPkjwBP6URy7YvV9EZaObKFgUCtfbu92jp6w4O03wYbk%2FFJbc1AzpO7jsRiocxRU6JZvM8%2F1nukrJZWpFm23xW%2ByMloGqy32No9d6K4b5aqS34NJPcUQo%2Fp4kpYHAI9ge3mwjIe0twRMa18pQdXTk%2FF4bZoMiLEv%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909210712?_skw=PSA+10&amp;epid=19071764403&amp;hash=item1d8c60e058:g:0lkAAeSwmPpnmqY5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmfnWWLUyTkcVDKf8ksR%2BBU3rlZAT0Ev3U47utQuqireyIRmtUSAMW19P6NY%2FiBRbw6YtyrBQOmqOrYBZhUE0bXGFTYLDmPeiKKX0nWJb4B%2BBzNFfpe9rb%2FSDEujFEXv3CwSS1MRcAAnRPZwGd9qjm0%2BSDAGWGMR9VPgDjCO5ND%2FTOxCtgn7%2F%2BcAWeMgwPUr9UJeT74OC%2FbDm3HG%2BOwSxTLIefI4qDMULS1dy8ElZCuw%3D%3D%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909210712?_skw=PSA+10&amp;epid=19071764403&amp;hash=item1d8c60e058:g:0lkAAeSwmPpnmqY5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmfnWWLUyTkcVDKf8ksR%2BBU3rlZAT0Ev3U47utQuqirUuK0KByIYuw35ma4x%2FzPeOBpX91STEx0THJM7RWwAYiV8QEBxnRM2ddDfseyxcrU%2FpzrEbJdqGMXqoUnFUDPE%2FLkB8vfV6hWzocpC4Qxyp4mvGrtFTUDrHosZKLGq3p0S1ROU0VYW0DH%2Bsv3DSklz8NvIPazzlKNQdDxxXTTA0uZzwiD9nAXLbp%2Ff8GV6Ks2g%3D%3D%7Ctkp%3ABk9SR5qf0paaZQ</t>
         </is>
       </c>
     </row>
@@ -8305,13 +8305,25 @@
           <t>Football</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Donruss Optic</t>
+        </is>
+      </c>
       <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Saquon Barkley</t>
+        </is>
+      </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$301.00</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8321,7 +8333,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909210407?_skw=PSA+10&amp;hash=item1d8c60df27:g:4YEAAeSwL9VnmqZF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkqYkHiuQefYsPLUfUDlN0c9OCBmOJPkXys3iAZsvmboXlFzb0Ndm4s7V%2B4OjATeTa9isDfzi64f%2Bq3QmGkXy4eTw9OlCa%2FdF8GLtXecnwiII7hvknAvzb1eLEwEmw9snCh1rgtKoCZmNontLEh9a36sx6xKchku7DEXPGfukAkyQEjuU1Mx2ujT%2FrJZNf3ShtmJJSirJpF4oa8l9us2hD8hpnm7mBQ3eEZCXJnb9abuQ%3D%3D%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909209445?_skw=PSA+10&amp;epid=3073602438&amp;hash=item1d8c60db65:g:wdUAAeSwWVhnmqYo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnbrjqY3psYZGJAeR1TjBzlxPo0305O6po2maFFs8IumRIeAPuql%2BFk7qQLDp4rtL%2FFX8uBmAP7RDeawMpf1CY%2BpngsGMsLLjWYD3fX3VzDjfIsG92w15Kf7LEd3UcFHeMuxBppzQF67I%2FPifs%2FQDPopFN4YFK5w442E%2BhiBbQJr47xB6E23dIqX3Qt9FDqunJk%2B3JpOSo%2FcUFBMvnf7eijm4CaXRySBPwB8YTTCX%2Bw2ZECgKz50ov3UhCNHWGw6j4xJyEDvwNHVh7rFzY5xyjv%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8333,23 +8345,27 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Aqua Prizm</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Saquon Barkley</t>
+          <t>C. J. Stroud</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>$301.00</t>
+          <t>$355.00</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8359,7 +8375,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909209445?_skw=PSA+10&amp;epid=3073602438&amp;hash=item1d8c60db65:g:wdUAAeSwWVhnmqYo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnbrjqY3psYZGJAeR1TjBzlxPo0305O6po2maFFs8IumRIeAPuql%2BFk7qQLDp4rtL%2FFX8uBmAP7RDeawMpf1CY%2BpngsGMsLLjWYD3fX3VzDjfIsG92w15Kf7LEd3UcFHeOM6Z%2FcCGAkHy8QBWRbUpph9zXF7Jsf7thl33uevcV5BACXn0QLCiy4Xms%2BAFc4wINoDDabcyGub2kJjl9zXvNZMPthIqa1aErYzIBy4Yo4D0xxmo0L%2B7dev2Ozjg2A2sxRRzZPy2CPqPRIRSk%2BWbYI%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/186915892333?_skw=PSA+10&amp;epid=4070311377&amp;hash=item2b850e2c6d:g:2-gAAOSwvZNnl~fg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmO72vnnT5xP5MGec6ETWIZdwAmpDHzqZ8%2FFgUqPiQ69Qel%2BerPxJUVZoPC25HE26i2JXM0MSKMZTsAYY5gSjqYuKApSwZL%2B2TgAb03TuPQpvCuVZviJXkXYAX8WfMHKaDhljowK2uFksSoLF776lQT28RlpOHf0ADkzLNUQa5TDKwuEUUqjOM7Q1QUcsG%2BRQO2WhelSka82zF6phYCiUlBPkXdJh4v4UPezGvifm7s6g%3D%3D%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8371,27 +8387,27 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Aqua Prizm</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>C. J. Stroud</t>
+          <t>Myles Garrett</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>$355.00</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8401,7 +8417,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186915892333?_skw=PSA+10&amp;epid=4070311377&amp;hash=item2b850e2c6d:g:2-gAAOSwvZNnl~fg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkwgb7wbvThD2i6%2FZWWCfsVq87pGpDqbfYs9Ow8F47hJXeWWPTsDXghIYjf9LgekGwfhu9gluAIN2%2BHKpCb%2FQYHYKK6GRJL0y9ZAVXTdmCBZss51ZUQRQlR9Vld21ALZHR77%2FZgd87DVWH1dywfNtJRkJfWb3DKCb0OP8tdwt%2F1F7bxOHYdZUf5%2BvbWvHkbvZjyg40PuCytfNJiELgMNKLUcu79rIUjVb%2Fj27HwOO%2BcCrxyYeOkut1a8osLxdidNK3TKGXXTanTz1gXIwEC2D09%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/267144643036?_skw=PSA+10&amp;epid=2326652289&amp;hash=item3e330fc1dc:g:hFsAAOSwXshnoQ2H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkLMrXAc21V8%2FUfCbL1332rdDjR3%2BABnfyUEbBrO9BZPZI4htswhZms%2BnWXomMYdNMMZIyanRDR0UTTPzqQ%2Ftdzxjg3hklp7May7D%2BokuyEruv2Fny%2FI5Ish%2BLC4T%2F04oAhlsety%2Fqcxuf2I72w04o%2FRSpQea85b41Xj9y65f%2FEdUlUIkC5jVq0v0AoQeUWVHc8BUBJrrrVEJw%2BBbc4t7Hfjr8dlRFo1Jmtn9F2B6uD1l2o%2BR8ruiXBUZQaIR8YBMgLMo0fWwB4OnF1%2BQzdxHkQ%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8413,27 +8429,23 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Optic</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Myles Garrett</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$320.00</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -8443,7 +8455,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267144643036?_skw=PSA+10&amp;epid=2326652289&amp;hash=item3e330fc1dc:g:hFsAAOSwXshnoQ2H&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkLMrXAc21V8%2FUfCbL1332rdDjR3%2BABnfyUEbBrO9BZPZI4htswhZms%2BnWXomMYdNMMZIyanRDR0UTTPzqQ%2Ftdzxjg3hklp7May7D%2BokuyEruv2Fny%2FI5Ish%2BLC4T%2F04oCISq3OF86RiTW3FvJBaQgWOpCiOIrFuYaPlykIFvUS4DFZcU97ED3WWdfbOPWlWb8lRCHNyGH93VkgCkBwjBg5%2FpA9pgOeJ5aApreG5J2XuaeR%2B%2FEs7cfgfj477wkzUx7hrcT0Nx1NyMSfEZSzj7IQ%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/405511343583?_skw=PSA+10&amp;epid=5070318161&amp;hash=item5e6a5c0ddf:g:LyAAAOSwbP1nm~KY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk15%2FJf%2FDWEomOyoz%2F0yPWAUp6Cwv7AZKecmNVt2ZzEsH2IQiEl%2FQxOuZEjfds%2F71%2BeWI%2BaCUtR7h5ejbqEZk09arTVQPnLOHfLdxj1mQ2XuziURa%2F4kXkuzE3v4nJuX9unD9DRSQryn1yvODo7g6W5faHjRWHZiXhgjau8%2B1J0dVo5Cj2%2BbyCYSAoTOQsgX2WzOCiP5J%2Bd1VW1xyNRuOhbI8S%2FQqCK2YQv%2FHKQCn7pCQ%3D%3D%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8455,23 +8467,23 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Optic</t>
-        </is>
-      </c>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Quentin Johnston</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>$320.00</t>
+          <t>$335.00</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8481,7 +8493,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405511343583?_skw=PSA+10&amp;epid=5070318161&amp;hash=item5e6a5c0ddf:g:LyAAAOSwbP1nm~KY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkkek%2FuZbuB5kpi%2Fhjjy4KJaM3ChmIUYjDqmxM3Bjb5sqL%2FJAcw%2BwtE5BB2Jg0N1MDXWLL9%2FR5pUziwjgW4LNudbyTHmjPhx6PAXfAzuoT5RCKsysWIRz1yR2v2SWXIgbsnpMLhU%2BSFv5L3dpIylD6W56nlGQUKjaKAI70RCY%2FEYjqUoKqThLY6I2SAUKAYLdfTA7BwcwHPwtQA8d1LuBwdwPX9XKswUup9gX7pDIyGecv4fH9Yg5GZb%2F6xTZe16O75OzxBzbyCMleXYiswdQQr%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958397654?_skw=PSA+10&amp;epid=18070313782&amp;hash=item5788dde2d6:g:RA8AAeSwZz1nmqZc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmbO1ntQwB6pCXTFnpeP%2Bbpv6PhYKtJcRi%2FKVKX52u09Z%2Bad%2F%2B85NB7DhQ4htR%2BMjX3A3aZVQwH7C4MBkrgg6nkh0%2Fu0jx2jhQyW5keQ6R609%2FnwuoQ%2BcpXBYYE3dLJjHrCACKsWmnCPueLKQiqgLEZJ9mgRfcgjtCfkyrAZPlXHaE5LW5VhpxJQfeFyxt3TRVNus3iOMAo%2BMTvi2W032Elmztm5Lqt79MW%2Fl4X3RsnOQ%3D%3D%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8501,15 +8513,19 @@
           <t>Panini Donruss Optic</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Fire Prizm</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Quentin Johnston</t>
+          <t>C. J. Stroud</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>$335.00</t>
+          <t>$274.79</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8519,7 +8535,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958397654?_skw=PSA+10&amp;epid=18070313782&amp;hash=item5788dde2d6:g:RA8AAeSwZz1nmqZc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKzkI05C6zT1epz%2B7yHCpgGRreeCmH9%2BbNFdf3QE4EfbkGtsf9Yg2TLI5cyeHxgGIJCGaCIB4r7gavVLmALy2F8%2Fi9qtU%2BvoFjJSWF2caFPNRKAGBZ3lyVWwTyIrLKfYQlOX1bUCEuoPE2ojkJ%2FDKmxcFfen68fWeHgxJ4V0sa1h4g2VBRyxDb%2Bs7jkOuhmHxh1sQA1nV4NkSIMdQ4VZRR2ZaPlG3u5mJVyQtLRDq%2FfiiS1SNSS6ilk9unGYeSkx0aFuLtW%2BHrnFUNMCS3RJ7s%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909202666?_skw=PSA+10&amp;epid=18068519490&amp;hash=item1d8c60c0ea:g:2hEAAeSwZmFnmqWQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnIWF7W4pEIbBuOwJvRqa7a3PFwnwhxIuXSDMlLow7XLw%2BqamuJuZQp%2BWzYGJVD%2FjnX9d3W9fyfFg1Rt7wpj029LiRP4HaV1FUjVTtYrLS0dBgg3NASM7mbcc9zvizVqN9F04ItR3REF7ud%2BmdrVOS4VhG5pCK7OBOGPHjwCvrLlpKF%2FcOT0aro0kaaU40HzLBPfeo7VbTny%2FTpJ5BW6ba8vMutwmEDTUarEu6iYCG5Tw%3D%3D%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8529,29 +8545,13 @@
           <t>Football</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Fire Prizm</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>C. J. Stroud</t>
-        </is>
-      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>$274.79</t>
+          <t>$260.00</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909202666?_skw=PSA+10&amp;epid=18068519490&amp;hash=item1d8c60c0ea:g:2hEAAeSwZmFnmqWQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnIWF7W4pEIbBuOwJvRqa7a3PFwnwhxIuXSDMlLow7XL5veCp6btuZGAbO641jliNmMS79WYrHQEg6BCgfdWDTqVjlOHgR7vIwk%2B9W5LAX51d8uZLfk%2BVIVooTokICtrBxQClM8hmRtTQeIVtSjtpXROeR%2B0Dq9KXMtkzPv6T5F6%2FQlMl4mbWC4UwHvOa0rqFRqzRfu5kK4By0oWu6kQxWoBsWdf0u3rMcBS%2F4j0lPJfg%3D%3D%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/126909202667?_skw=PSA+10&amp;hash=item1d8c60c0eb:g:0wIAAeSwLGdnmqXB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2FpeX2o6CNPkzvUMtGtRweQUsiDYSsPXu9k%2BcrMoeez9s%2BpfYgePXmw3RZynZCiKEi0zR1PzRwt1lRa8QIFCR7cpyOyZXGwWO2lhiVH88%2Fa9JzzJGYZFN0KrykOumFjMh0Q339avQm9iksWDJUlrqhJIxQLNjQoRL2I6hYsLLoMtvm9gEKRx3hL%2Bd%2F1tfe05HzcwZB5Whyc7zSXFSiGxJCNNXDGK8GVJ9rrvLnkNOWeA%3D%3D%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8571,13 +8571,29 @@
           <t>Football</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Panini Prizm Draft Picks</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Silver Prizm</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>C. J. Stroud</t>
+        </is>
+      </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>$260.00</t>
+          <t>$635.00</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8587,7 +8603,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126909202667?_skw=PSA+10&amp;hash=item1d8c60c0eb:g:0wIAAeSwLGdnmqXB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2FpeX2o6CNPkzvUMtGtRweQUsiDYSsPXu9k%2BcrMoeezw16G2Hmx0UlIGwvxD%2FDdD35YcSz41LxjqFb6gt07C4u60vFO5S8%2BwB3%2BSJjNAetplwr1AoqYD3Pi8Ubdnb3pu8omktOxamxTaklgF0knR2PrVMI5xs6Qae6QF6STphLbMrUPKAqXHuWQW0oQfE5nIu9Vt7NJOWX8G53hQTfVJ2NxOGQxWo1GHSbRLilOK746g%3D%3D%7Ctkp%3ABk9SR_bh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/375958395952?_skw=PSA+10&amp;epid=11062483940&amp;hash=item5788dddc30:g:1c0AAeSwGdtnmqVt&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmMUKt%2Fudu8qV6teXnp%2BwEO%2FtMLu7OPgOAdQGFbLBoDuj3Mbr%2Bh%2F1bubP2cQBuHzt3zPmxn1LnOFvyjzTK1T%2BWKuNhfN7EZtnfxNRErnZICR3LqhcJhiKo8MikXmBk9hViKHQC0641Y0uvPzZMTRpgvaR6OTH%2Bu3ERq8cqhrnx4jM1Mses5IPEQSngVw8Md9qhnKwbqOC1j7JNmJunM9gB%2FDwfvZoDp%2B9m5XdWH%2FPSaPthtEY966J6umFsU%2BpNENKqfZKYTBgIwwK5DxMGkNY4l%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8599,27 +8615,23 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Panini Prizm Draft Picks</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Silver Prizm</t>
-        </is>
-      </c>
+          <t>PANINI DONRUSS OPTIC</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>C. J. Stroud</t>
+          <t>PATRICK MAHOMES II</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>$635.00</t>
+          <t>$1,499.00</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8629,7 +8641,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958395952?_skw=PSA+10&amp;epid=11062483940&amp;hash=item5788dddc30:g:1c0AAeSwGdtnmqVt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0YKWHjRAFzsoYkMe3WHNvqfjz4lnwUkQgpnJZDlxyJwGcTxZudA3TjJlPqJXBhX%2F%2BwUHvMEUxtYL%2Bzjhrtwb20Zm25sRzeAMEI8%2Baim7PMghMuz3VLxI0Bn3MkW0Ht5AdZGcf8Tx3W43%2FAy%2Bqva3dE1yEqgJMQJRVMBVg3WCI7PlF3mDU4wql7ueiTel%2BzxBMJ2070ZFnbK4bTZVjHU%2FoNfCDaGhhh228kalkDDaB5Q%3D%3D%7Ctkp%3ABk9SR_jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/305992914556?_skw=PSA+10&amp;epid=11055588761&amp;hash=item473e99567c:g:CQoAAOSwRzBnaTFs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn6cq01ccGw9uK4QyaDR0hPnk6bqk5NFDVwNa1dHCFZukwntmtvUTeuPLPvPr7FievkYunuJTd92VpD8AzgopjarRcC3FgQYdrmuMan2PMyxAvJPzp%2F9UcQTf6Y%2FuL0iUA%2Btaxhl%2F1FtUHM6eghECZilwzsRtStIH0dnmQKu9JOb3JjuytyLaEKEddMcBUuQObqOZkMRa81TS7as9UoEhuQU67vZYM5VgKWU23n23dbOTsUsFeO0DhrPXdeME5TPS%2B3fQZWVRBiLLqxUcBb1kL5%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8658,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>PANINI DONRUSS OPTIC</t>
+          <t>PANINI DONRUSS ROOKIE GRIDIRON KINGS</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -8657,7 +8669,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>$1,499.00</t>
+          <t>$436.25</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8667,7 +8679,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305992914556?_skw=PSA+10&amp;epid=11055588761&amp;hash=item473e99567c:g:CQoAAOSwRzBnaTFs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFMpMnGEFgHHpDfToIWgAJLzp9%2B9WYGC1HfPQXgjVd1VaH0%2FjV6%2FCdJtxb9BxnheszuH1VPWJd7eIcDesUi51NoMDx6xj3WllvZjJnwcoJ1Xdt6Plha2TVLaaVZ1euG83Gmf1Y3BOWXKHDwgWq1oH8tmLnIsH7L0yJ6FsEMunEuQLYI9dPqERFUSUfj7AJ8dVvcfgsWPU2T8TS0VVm4lAk3MgXxVZY2eIRvrYCa6kPvA%3D%3D%7Ctkp%3ABk9SR_jh6ZKaZQ</t>
+          <t>https://www.ebay.com/itm/306069679118?_skw=PSA+10&amp;epid=25055784348&amp;hash=item47432cac0e:g:MqwAAOSwDQlnmGKh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlPESWBmGdIYmGAugDf%2BN7cugA49Bsl7JT1kh366HVjC53lZEF80UjPYXz70ZSo2gC5lcluPIRTf9%2FzhD8EmQff0vnEcZg0oAM2UT3aOBiC%2BB9QckIzlkFAyz5R0RidXt1FwDPJG2Axyeykta%2B84ixSN6Cg20Ds5qwBTDx5sOrlRN3QtX8bw7uLRXW%2B5vNcQ7JMlzh%2BzrWMwUh%2FtuiPidM4FSp1speWsze2a9q5bJuytA%3D%3D%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8679,23 +8691,23 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>PANINI DONRUSS ROOKIE GRIDIRON KINGS</t>
+          <t>TOPPS COMPOSITE ROOKIE GREEN SURGE GEM</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>PATRICK MAHOMES II</t>
+          <t>CJ STROUD</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>$436.25</t>
+          <t>$305.69</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8705,7 +8717,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306069679118?_skw=PSA+10&amp;epid=25055784348&amp;hash=item47432cac0e:g:MqwAAOSwDQlnmGKh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlPESWBmGdIYmGAugDf%2BN7cugA49Bsl7JT1kh366HVjC3rHYdBthdN82VctNUWpDAPaLzWDv6mugBEtQc21JT14UQ%2BkHFGifvqdAGJKhc%2FVb%2BtZvsmC5PMnRyFqE0FSQEbSUlC1K1FLAhH5jBNpu3nTCJ058oTFzIXmIF7J0mh2tmMqRIqRX%2BNII1DOnl1Z23QTSgQyUZk2DuiO1jao%2B4Y4UmDZVzC0yayUh65LoWRyug%3D%3D%7Ctkp%3ABk9SR9Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/276833396073?_skw=PSA+10&amp;hash=item40748e6569:g:xzAAAOSwLMZnmCVL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkWFLJV1V8xhTQXtJm0GEbyR%2BHKPEtn9Kba77O43kUyYY2Wa%2FK057kCBm3KYyarXI9faEnkjls4msJAQ8nbLCJ1YJCQzdehmuCxS6vLecB%2Fwh%2FXw7BTynV2H2D4pE7qug%2BC2Jh90PdNs2pwSComJxbl6xUcbaEyynVWyoBmwe6wZLObPCBDWQq3x4Ct7Uhag8hRAGw75%2Bnzs0NQX4hb4YX5D9qC%2FheO8WIHAmCR18U5aA%3D%3D%7Ctkp%3ABk9SR5zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8717,23 +8729,27 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TOPPS COMPOSITE ROOKIE GREEN SURGE GEM</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>CJ STROUD</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>$305.69</t>
+          <t>$160.00</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8743,7 +8759,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276833396073?_skw=PSA+10&amp;hash=item40748e6569:g:xzAAAOSwLMZnmCVL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkWFLJV1V8xhTQXtJm0GEbyR%2BHKPEtn9Kba77O43kUyYQcYAQtzMhY%2Fp70XNkNaGeWQWM2jW1pO%2BQ5ludA4sUSiybln9YrgsbKaAfOGvwKGtz%2FoCAIHunHzRdacs%2BGJlRwPbpev3GbRuOzdEFBlN%2BRs4e98xmUo%2BElAhx0CdvadnZxaDjJQGOKRZ8RJe54R9KPYMcuG5N%2FLsgyExbLxk%2FyxQI3UQFu61qWX8zbIiZWd%2FQ%3D%3D%7Ctkp%3ABk9SR9Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/396156299556?_skw=PSA+10&amp;hash=item5c3cc16924:g:lt4AAOSwMAVnmCnc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlnJG%2BXmCVbjDF9luukdEqwfrfj6xEAJkE9dX26j1B35ijV2jfpuGc49VcoOQaDC08b%2F2PsAmrgbHQqdjvaoqsfdoaCPe1u%2B3iR6zNJrvtt8U9FF2%2B23bmGE3XPzgfBNAjHwMLtkEwXpdPVVJbg25YiqstUCc4eWiTu52yWTqXXUqKcNGpQc5SY0Wb41OmPT2Y23ftoO2E1MKtKyXpIaOsMgRp7YJbBM2KdvgAZgHTOTw%3D%3D%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8771,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8765,17 +8781,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Red Wave Prizm</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Anthony Richardson</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>$160.00</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8785,7 +8801,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156299556?_skw=PSA+10&amp;hash=item5c3cc16924:g:lt4AAOSwMAVnmCnc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlnJG%2BXmCVbjDF9luukdEqwfrfj6xEAJkE9dX26j1B35giEHbjOu0IQayAo2%2BwO%2FxBe8nNQBc2cnnB6y5y2st41gcqtvdKYEZkbDDIQmj7101XQVw6wpMYx55JPczUEdGbWPpJ59SXgN%2Fn7UGWIwCBLK%2BvHbNQkocR4VAbHiqgZtISZ0y3XRCUudVfTCjCEeaJKYS80ybFQP9Q8e0R2ANQwMSy%2BiyE3xrbxh27yGDJUCw%3D%3D%7Ctkp%3ABk9SR9Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176813557413?_skw=PSA+10&amp;epid=28065180334&amp;hash=item292ae8c6a5:g:Gh8AAOSwjXxnms68&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl66pwZDUS8%2FGOKcX%2FgJHt1fEaMaBY8h%2FCjT4xI2VxRP6S0TLDCvmR6dOfORbIY%2BV1b--A00XKLZhoP5ruoGJ%2B8nqWIoKt3E1%2FUHNx7WWXfTnf3MubZag--WNaVklCVgpwD1oxaIANhc3hrYnkfBHV8htsMmOL64XRrBqHD1VJ041h6qOk%2FE3MFB4GiXt73prBJiWYQVaHBumeqYIdUPtJUjO38dwXC2LEem4J6MyoTWw%3D%3D%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8797,27 +8813,23 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Red Wave Prizm</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Anthony Richardson</t>
+          <t>Trey McBride</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$275.00</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8827,7 +8839,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176813557413?_skw=PSA+10&amp;epid=28065180334&amp;hash=item292ae8c6a5:g:Gh8AAOSwjXxnms68&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl66pwZDUS8%2FGOKcX%2FgJHt1fEaMaBY8h%2FCjT4xI2VxRP6Ol6UztH%2BZ%2Fhbpg09e1v1JOs%2FcfOnMMQqsHyzV7q%2FWvRaH3eGua6j5PQcYR4bmGgn3LmshX65dSQ3zJsuIuGEYlUXnRq6iWOGfQwYRZrynUdpQcyA%2F7dRSS2M4rJAg9G71IIkjaHUmQIPt1v62I6WzSIsjDCU2vhkX0OGQbmhCUv%2BkVu2tkfX%2FfGKOxK0%2F25g%3D%3D%7Ctkp%3ABk9SR9Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/267144819648?_skw=PSA+10&amp;epid=23060942525&amp;hash=item3e331273c0:g:CF8AAOSwHMtnoTnk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkyQD6rNJ1vAbTywzXI%2FSNlI31dDenZbZnOaFZelc50k0DiOcHJoHrZMsnC9dIJgJx%2FzItSOfYckbUElh6yTCl28P8TiMyKUreLiGmAyzeZV%2FiidQj5sgETortI0nC%2BUeRccxPbcNOOakX2c4TvUXdAZafypBgu3mUrJmfyR9PKvqfRaZ9g%2B%2BzYImMfp40hSSrW2O8GexzU5U8PTKkOmDDC%2BXSvysn%2BvDF5foGaUFfXwBSozrNmN4W3ZtUMT7OIGNvPF8c0chIiVZoGf%2Bn6IdB%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8839,23 +8851,27 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>Select</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Trey McBride</t>
+          <t>Nico Collins</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>$275.00</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8865,7 +8881,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267144819648?_skw=PSA+10&amp;epid=23060942525&amp;hash=item3e331273c0:g:CF8AAOSwHMtnoTnk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkyQD6rNJ1vAbTywzXI%2FSNlI31dDenZbZnOaFZelc50k0DiOcHJoHrZMsnC9dIJgJx%2FzItSOfYckbUElh6yTCl28P8TiMyKUreLiGmAyzeZV%2FiidQj5sgETortI0nC%2BUePquy%2BvVBZ3O%2FFd4kkggA8PtrN%2B1UxdTRh467yvLqmOeafVDFU6modClXg6qdB6UmWV44wJgfQpRRBezgPv8gyxtifKi7sd2hRM4Sin3jhgBjaPkTvxaCwYDTPPTXZzP--%2FiQC71lhUamzSrwZ0%2BjH%7Ctkp%3ABk9SR9Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/326288833019?_skw=PSA+10&amp;epid=10056195845&amp;hash=item4bf85479fb:g:RL0AAOSwgupm-vaw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmo9gfLv6ttaoD%2BsuQFrZGqN2e%2B3XI%2FzodsED26LrxUFuVBLhbxRYgaSoHh4Vyg%2B4bFNgIBJY6wyB3yfIePk0WBrckZL7rF0uGw5lNRG6wcAr3D8SwUQ%2BtLuAC0LQeH7A6Ak4KEKp0cWrieykjRiR5reK2zJv4RuGGaQ7V6ceNk4SrLEMjPC%2FECByzCl81dfl49HlSzQYiPAUSpFRN4B9l22uHtWa7f2CRMfXz407%2Bl7Q%3D%3D%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8877,27 +8893,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Select</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Optic Preview Red Pandora Prizm</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Nico Collins</t>
+          <t>Brock Bowers</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$219.99</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8907,7 +8923,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326288833019?_skw=PSA+10&amp;epid=10056195845&amp;hash=item4bf85479fb:g:RL0AAOSwgupm-vaw&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmo9gfLv6ttaoD%2BsuQFrZGqN2e%2B3XI%2FzodsED26LrxUFkqkzDcpvtt8GyiT26cV3zpo39YcAh0zZJmc9B7jXGQlkqyBPP9GM7Rqhuu30KJ%2BNqnZBaDzkUqqnFlbeNGXai7R6oRibFlZ62j9C0JBKbDbJ5FNnS6toLsBY1UnOUR3eZPqSAywT%2FjK8gXjIJwoDij4BXbf4Wt2V86jInZqs4pLF7GQPET9dhc4BcSaW8DZkQ%3D%3D%7Ctkp%3ABk9SR9Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296982333198?_skw=PSA+10&amp;epid=27073124008&amp;hash=item452586c70e:g:Md0AAOSwKzlnoFz6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKleRHXQMoGD4r--FiJ%2FhMjdoPcYqPWNPgvsCrc%2BnXyW4U%2F4ND3PBMHx5VClwIHs0i36VfSmMozj2jb42C%2Bm58IxreVM4HcnHvqHfaKl05yqWwBIOYyQ3ofi%2FqIWdys8w1lES7DuRKVAEPOdlxK7hcWxcNHqgvROydtU8z871a94%2FGmcV1ehkUuImAqa5bO4IfvpckFuexKGOISiDlLSB3v5JTV7cmlc54KJGPDZNGjoZAMuCHFJ795oS4hWl%2BuxQwq3C%2FZxT2eTxSQhuYOVH6Dg%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8919,27 +8935,27 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Panini Absolute</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Optic Preview Red Pandora Prizm</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Brock Bowers</t>
+          <t>Jonathan Taylor</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>$219.99</t>
+          <t>$217.50</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8949,7 +8965,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296982333198?_skw=PSA+10&amp;epid=27073124008&amp;hash=item452586c70e:g:Md0AAOSwKzlnoFz6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkjp%2BwMzOp27itHpLDleVKhctek4x2kroskAkaQ3H65EoqiB%2F2rky9hdOASWpqXOJD7RgxG3S1UzyQIkSjatzwI3Rlz3xFHTPLOMRj9JIPoQv1qnNoQk2DUN33YKSuOvMjPPrzyx4tLGG4n1vlDHn--dWTVkDAp9wHWzMvzTHiJ4Lg8X3gUhh564acfDY%2B6CQ%2BXifSZWeFB7gZ5%2FCsj6Aboe6E%2FcInWy%2F3JUH2gEW%2FH2A%3D%3D%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/116459209645?_skw=PSA+10&amp;hash=item1b1d8283ad:g:nQMAAOSwC21niHFl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4rT21bmbkiWYr2Olc2qAQkJVKTmK9RHWXAxdiibXltNRiVY%2F2WhmgLZSPFQ1cKcRzWu02YCsxOzY4bgrB%2Fwqg%2FK2Y9mrFF4sFmVAvRRnQzp3n%2FGMlnOQhrF0xdirgYZeW0rWa8%2BKoSmb7ggTmfCvN%2FsF1vvsSnPyQTB3Bpdvi31V60j5hLauehxcJxTsputdkLATo3GKUj%2F5wjReMWaD%2FByVGk29cnTJnFA1s%2B1c0ng%3D%3D%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -8961,27 +8977,23 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Panini Absolute</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
+          <t>Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jonathan Taylor</t>
+          <t>Patrick Mahomes II</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>$217.50</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8991,7 +9003,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116459209645?_skw=PSA+10&amp;hash=item1b1d8283ad:g:nQMAAOSwC21niHFl&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4rT21bmbkiWYr2Olc2qAQkJVKTmK9RHWXAxdiibXltCHExm2gp01Rt7FBB%2Bgv87B%2B4yZ4CfrHev6Ej9fDwx%2FaipYVNnhYAB0fFydPj45B4ufsHvAeaeDrwdaXIQmYICG8j4AE27MF4QYZ5X8QAicsasEcYuw%2FFsD4nLcbTraTxj50EtZTMHTSr%2BcqG%2Fcrc1ma0qpnMd9C9F2fbTnQFyv6XqHU8RGXXOvsqKz%2BI9zKpA%3D%3D%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296962897010?_skw=PSA+10&amp;epid=6059324216&amp;hash=item45245e3472:g:QL0AAOSwcNFm5y1U&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnh6p%2Fn7Ara%2BSm7G8OpTEhbJ8cc2MxrebVRebG5QGDKDomYiTUtw2Jt34%2FmlKbNmd42B3s7%2F7BHFYqb8%2BuES4r%2ByPJIOzGVfYKBUQvUuymSHiabtKkXXC2FdFSLRhuRybt%2BbvPEfOhTr1k4YccILumoN39%2B%2F8%2BQ09U5MheHsFp7J2N71%2FvOgozspRGQ4PjwhNT4ePVaNV2nukJIAxj%2BMV1t3T7gPjM0sB3WtSvjwZNJsWi6dyabMcwOI%2BKAQDWrmQSPXnCyFi35ZgGerdB447Sl%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9003,23 +9015,27 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>Panini Donruss</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Optic Preview Red Pandora Prizm</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Patrick Mahomes II</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$485.00</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9029,7 +9045,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296962897010?_skw=PSA+10&amp;epid=6059324216&amp;hash=item45245e3472:g:QL0AAOSwcNFm5y1U&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlyppV%2BEgopZU9%2Bd9Tb1sSRb5SNHuFuXGH9Y28PL5A12G33iW9OOy6Pyqjlphzuz6iWo3e%2B%2F6SnnPOTkNrJwkr7smNCdoFKKztrrVCMTneYM%2FiJeNmNIxwK4bITztH1%2BoUc5e1rc9gjEJOcZ9y2XXX%2BgghI8C8C3vDV6kft4J9Ret0XUzGSThv3QhyIxmHKFaoQ9dogsOQgdX%2Fg8Zj60BGLgCRYzeXSE%2BwcfyPxn6mG2w%3D%3D%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/156659065406?_skw=PSA+10&amp;epid=7073132276&amp;hash=item24799ba23e:g:k~kAAOSwzrdnmCXp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQ59BTS0slqctqCqV4CKkL4ngDz2Od1uqsTiGFEni9KPOq1xWQhtL%2FjdWjnSfZlRJNmqym0FwfdZ6q%2FXs40XZzN6PLYC2TjTapxJWucPRVD5aR4v4ep1DCZ0EHUdZgWLRF%2BosFCcLBNR6CtNpYddE9q6jGLZd--z4LAADmwVBkiW6bjik1BkuPLeumJAOgSM6LRe2JVOM9aaXiZxjuTXhTCaLVKy9FWhnqpMGnwyN49Ughwr6QpeoXvMPEXLYCu35Rtvq5yXAF%2FI64Z27EfleP%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9046,22 +9062,22 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Bowman University Chrome Sapphire Edition</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Optic Preview Red Pandora Prizm</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Luther Burden</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>$485.00</t>
+          <t>$505.00</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9071,7 +9087,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156659065406?_skw=PSA+10&amp;epid=7073132276&amp;hash=item24799ba23e:g:k~kAAOSwzrdnmCXp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkhdtq3zb9zkPv35K9s15fBtn%2FzhfA%2BYRId1XTFWxl58OwYnWNSy4OpPBZ8ivisXKcvEyDHZ5bzhRp%2FDAM0TjRo51wZI%2B0aNpMFaBbl51CrNSJ2mql3t%2BqBIpSw4SvqKjUdQKZa7sSQQx4Pjr5Rgddm%2Bs1d%2FVu1cmTl0A%2Fx4zBsgqhkLZXQ9OHV%2FTTcdcqQsXkijzcqg1gkAoiTahwX%2FalQtUXyeM1zmw4PcH8oe7iJUQ%3D%3D%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/396149415531?_skw=PSA+10&amp;epid=12074251826&amp;hash=item5c3c585e6b:g:3ekAAOSw2DpnhwrY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlPQvazFWoPgsmlfohZ2NSVwxCDmygF6nvP86Jt78eX4IwGapfJiYIu5aRGVD0FjncGiQs4IXtGOTdLSbmyzRBBJJfi7Sl5TWa2V2MWe7A3roUQyjdpfquoNaEAUAIo3SAX4uwG9IlP8d3T2aSxxAcC1B1WDFTUTE6mrVR2sKYlTvtXdvyuWg%2F6vWEnSDDjAMnecqkDy4o6UhQgBb83YiZXJIptDalObTp30ITo6TImSg%3D%3D%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9083,27 +9099,23 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Bowman University Chrome Sapphire Edition</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
+          <t>Panini Phoenix</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Luther Burden</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>$505.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9113,7 +9125,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396149415531?_skw=PSA+10&amp;epid=12074251826&amp;hash=item5c3c585e6b:g:3ekAAOSw2DpnhwrY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkFjW6eOvYcUgHbxXF9VUi1SgaB5znVKxPLBANA8BfAPC6rPLk7wXLU5eD3myxAIUZA9izHI4R3bTuU8x1NW0g3wVd%2FMh4KvUyLNwhWl%2F0WW4KurWixfZUfnMcaWn4MfsqsLWRWJuK9Rw5r2HjXsSARKB8hXlzLqMlUQdE%2B5HctXgGS0ymlY0XDpfOaII0XEXUWlGbnSvPlCpziZls8irR5k6WDaodDQl575wMon%2F1gTc%2BVLAOP%2BLmZ68sLonxsUJLe64OtlGs2XdmtzHyvqlsd%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/267130856278?_skw=PSA+10&amp;epid=27055575057&amp;hash=item3e323d6356:g:xOAAAOSwpndnjZln&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnW6xCXOJ365rMXguwEauHG8zemkcQ6o2CtcOYvBXtVeoGtRZXtkyrsYZ3LCYYj9aFXU1LbLqOltwNFd%2BIgfLs59FVCA4R3%2BDoTao6rcP7reOK18O5xo6UifMyH%2Ftr5p6FpIAxZ6fU2XTiVOvI%2FScswyCwgwREqtGa0GZELdJK4ziAeMsdGtzJvgbtD1%2B0uV2cfG30UkiSWRA84Z14zsbGynuu%2B0D9Rv7olRlHAWnquhJ%2Fleu43T6AMj3eJOOnWe9VEUl3w6OfS3OkwYtXZu0hd%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9125,23 +9137,27 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Panini Phoenix</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>Bowman University Chrome</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Refractor Autograph</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Cameron Ward, Cam Ward</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$339.95</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9151,7 +9167,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267130856278?_skw=PSA+10&amp;epid=27055575057&amp;hash=item3e323d6356:g:xOAAAOSwpndnjZln&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnW6xCXOJ365rMXguwEauHG8zemkcQ6o2CtcOYvBXtVeoGtRZXtkyrsYZ3LCYYj9aFXU1LbLqOltwNFd%2BIgfLs59FVCA4R3%2BDoTao6rcP7reOK18O5xo6UifMyH%2Ftr5p6FC61JFpyzEoVGbab1alLQGk4AzDkr3Rf8SR2LcHjSIHuV9d%2Fx35JrQ963WdBnpUbjqG9eaAUp49V13sOXDGKTo2lGCzsoq59AqeXYIxuYbCAVoeOGbXRroXqkiV2lMxXGM59HXS6%2FmOxNUEHrk3YZl%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/365366706201?_skw=PSA+10&amp;epid=21058789020&amp;hash=item55118d8019:g:AioAAOSwi8tnl8Ap&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkRIMrQ%2B0k7HC1N%2FkQL4M0b5fv3yW28a2OiDwv7%2BG7vapzV%2BEQOwyY2Uv2hSg1nM8JJf2Bxv11skYkEJN%2F7ZOGJzXiezxjWDTFNelsz4Rvxw7n0m%2FVQsujtR4nxI7xP1DRZeROAow4yJb3jmckxoe0cJFz%2Fo44tXL80Rs3MiKagrxsHGdOujOU1EoWjTRRPgbL6OCpLyX02tauSyNCJJff5NQ9xtXK88g0PDuiiNy%2B8t5GE8R6uT%2FWlSgzB9eYti9J72KEkW8mW063dQbyI4slH%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9163,27 +9179,27 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Bowman University Chrome</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Refractor Autograph</t>
+          <t>Holo Silver</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Cameron Ward, Cam Ward</t>
+          <t>Myles Garrett</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>$339.95</t>
+          <t>$170.00</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9193,7 +9209,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366706201?_skw=PSA+10&amp;epid=21058789020&amp;hash=item55118d8019:g:AioAAOSwi8tnl8Ap&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkRIMrQ%2B0k7HC1N%2FkQL4M0b5fv3yW28a2OiDwv7%2BG7vapzV%2BEQOwyY2Uv2hSg1nM8JJf2Bxv11skYkEJN%2F7ZOGJzXiezxjWDTFNelsz4Rvxw7n0m%2FVQsujtR4nxI7xP1DTiUTQu3mtwP0c3egWUG5CU8EkhxrEzJeIAkBokF9lO%2FbX%2FaKelTRQ6CJRbQu%2FK0QxiqCl8tMC1x5Cs5QLgCmsfDjDhrC7IKqrh09GmIAVUgd3tke9%2BE0HT2apGeF1IlHm9WX35G%2FT3xwL%2FXiK1MsFY%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/316176697743?_skw=PSA+10&amp;epid=2326652289&amp;hash=item499d99898f:g:Z~oAAOSw~AlnnnNp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7nysi2FEcdDMOvnrt1ViZFNaPKNRCCMJkVSwPvt6J8Is0xtPz%2FtSKPKaxhzap3TXiWUZrE3gc3l2xozvUSHKjHU35Gpmyd8IHnc6xW2pS0Kt10cjVAKCWb7ulzdw0mj2UKyIM%2FmLwbCG47HZdWCNKGKG8PyItI5KlNPBorOlJFaHlIBoMnNKWkRL2dfvQph4LAiSDDVChtxnm4fOqPjjq6Ym8kXt%2FpzpFk%2Fn98cqvNQ%3D%3D%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9205,27 +9221,27 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Chronicles</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Holo Silver</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Myles Garrett</t>
+          <t>Justin Fields</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>$170.00</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9235,7 +9251,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316176697743?_skw=PSA+10&amp;epid=2326652289&amp;hash=item499d99898f:g:Z~oAAOSw~AlnnnNp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7nysi2FEcdDMOvnrt1ViZFNaPKNRCCMJkVSwPvt6J8Git8g62ZT4Wf4QBu1wLFr6XD%2F7CUhrLjzpDXl5PUz0Gi5hO9PtqYRSLrSuii39Hxjky4tUmVDEJj4wLS7I8BK3xv8Efj6bsPcpMssBiftJojNg6VZ%2FMfuOkIvtpjfhr%2B7Fc8sGpeUzTDupfZS6EZ0MV%2B1aUqOy%2BIgqd%2BMmcXxBqJP1w7r9yZpIpcWXxyjQ0lA%3D%3D%7Ctkp%3ABk9SR9Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/256797979960?_skw=PSA+10&amp;epid=23055701680&amp;hash=item3bca5a3538:g:0BAAAOSw-Xxmln4~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlrAvgLe%2FiJDyJGxAD5YlUM04JsgdawL90Ymt%2BXfkwB46RPdxEbZwSfjTbqRT%2B%2BiL1bIZvqJeQIH%2BR9LSaw2ah3fgMY2l4P4q98MpfNfEe4dhLkKUd8TbGkRcZOEj4pBuMWC%2F0nfJW0VdK0inxLbaiENSuelIXPEbA9sJtVIggQ3Wob55hM%2B7b8RP4QH%2FmX5HNOv5jvlRB7RMIkm03PuAAXAHEPp9oI6iVlgNneZ%2FzkgwUqChrHCa0Q7JjQ5s%2F7NF8HuL0Poj9v828iW9GcBn2e%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9247,27 +9263,27 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Panini Chronicles</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Green Mosaic Prizm</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Justin Fields</t>
+          <t>Brock Bowers</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$156.50</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9277,7 +9293,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256797979960?_skw=PSA+10&amp;epid=23055701680&amp;hash=item3bca5a3538:g:0BAAAOSw-Xxmln4~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmL1glBfSu9%2Fkz57sOvoYcbAYGuoGbmAvjATuYoJdh9rBwriqNcfg%2FsXJyNQC33lR7pCHHTS%2BmjWXRGObpGFLafcvEj6J5wRqTBFZW99tK4OU2QDmwvS2Ktxllj5Oaitlig8gxVl42G20Ow0exxnWJhL%2Bb2VgFAAw6fKCdwdIaq%2B5IPtl8mqh7eydw7V5pf4ZSjg7KKghkOkFjk4woR%2Bpytujkig6FKE%2BGUxdcpm7V4hw%3D%3D%7Ctkp%3ABk9SR9anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/335789649014?_skw=PSA+10&amp;epid=20073423325&amp;hash=item4e2e9f6c76:g:iSIAAOSwzkVnmr2T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8X6hnP%2FTYDKeor9JFjp691K%2Bl1wfIF8FtraAVM5Q0d8YOqhwfOulV4d1BRvNr7ROZy7kOQZOpvCWvg8UOUtDn8jxoRXVrIffcPSj%2FoY5mxKynwZw3zO4LFelZkrhu0aieODMQ%2BZPMuqe0kDf4IFerzKYw9BlUH7DQJE%2B7vqiKsn96Abzqx6BnU8iOaN3Ut89UdfR9kB10xwzsHlqFCEi8iddqJUGniexGuLImSREvXJw0xDM523xFHUOa4y5kuw94JqNVLn%2FyrWGBEsYClhxo%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9294,22 +9310,22 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Green Mosaic Prizm</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Brock Bowers</t>
+          <t>LADD McCONKEY</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>$156.50</t>
+          <t>$499.00</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9319,7 +9335,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335789649014?_skw=PSA+10&amp;epid=20073423325&amp;hash=item4e2e9f6c76:g:iSIAAOSwzkVnmr2T&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl6qLsdRwLp%2BQby%2BMyxeDNVkfmZsUsDIl5kyxQP%2BvSQYIPmW1IrczJ%2FO7lMff2EujrVtbiP3TtLBHG%2FMXrkY4Mqqdanbo0BWZ4A0eYYZ1qyjWp1Xlnfi9PcoXckCBUWanEe9hWauSRl7GFCXZbRcoDOiFLoc5oKQMOanrO5EwZ%2Fc01MEvSAYoOvSFZGxEVz0C%2BXODUowhi2mbt30E%2BzJbkI7wYMKg%2BMhJf1xkX2dzUupg%3D%3D%7Ctkp%3ABk9SR9anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/356519563288?_skw=PSA+10&amp;epid=26074128542&amp;hash=item530238d018:g:FG8AAOSw17Rnm9v3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmAmThECzjmYdZb9RtUzEzWX9oenDbM%2FfiFu8xR7O%2BGm%2BCgLF8MP27k4RRJfzA%2BxfFDo8ZheWdN%2B2ca75uexLzSIy%2FQuTxUL5j8L4flOI2GWg9cbUG%2FU6XI1UqezDygFhNahtP%2FYvV6VD7OdjvX8BWmS7O%2F2ZglCJlOwJuCiiuh6FkuAvNYQdXLVzr%2BG1xVs0uhddOKzIEoFXFdCnD35LMXoCnUSgghwpmv5ZUBlkZ9Q%3D%3D%7Ctkp%3ABk9SR57L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9331,27 +9347,23 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Optic</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>LADD McCONKEY</t>
+          <t>Puka Nacua</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>$499.00</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9361,7 +9373,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356519563288?_skw=PSA+10&amp;epid=26074128542&amp;hash=item530238d018:g:FG8AAOSw17Rnm9v3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmAmThECzjmYdZb9RtUzEzWX9oenDbM%2FfiFu8xR7O%2BGvo7Wk%2FAAmCswYW1vfOOE4qJFsqReMJIXofv4m8Eje4e5T5mcgUDKA%2F7bj5DNK37m%2F17tLKMGOE9uFU9HJ7fF6u%2BRbCOFO8TqeKtegllVnHicWagM0Z333iSOYVWwnnSLKj5rXryEghArSOl%2Fltif6Zy9aqDUiARX9qZYICvR%2BZZjaxXQjS9IEbqddkE%2FdP0EQ%3D%3D%7Ctkp%3ABk9SR9anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296772599413?_skw=PSA+10&amp;epid=5070317311&amp;hash=item4519067e75:g:KUUAAOSwZL9nGoEu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkcm0SG96BtqU47arFJK3ByKxBn1ZgD%2BixWo8RtiV6ZTPbHxu%2BcxIEJRPK9owJqLYaT0iD59L%2F3--IgPtyKQ4OSsE1DmT8vay%2FC6zOFHgB%2FM4S5GJ8uKaOMGYhBTvRb1IMbdfuPES0ZRoIw44X0o7kxO5IYD7QAvrOs1LJ%2BOq%2BwUdVzDh3gIlpRQNkWVh%2BK3mAU7fpiMrjLypwukahlJ04dgv%2FBa2%2FOn6ngMPvL1KsQJQ%3D%3D%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9373,23 +9385,27 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr"/>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Optic</t>
+          <t>Purple Prizm</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Puka Nacua</t>
+          <t>Jerry Jeudy</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -9399,7 +9415,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296772599413?_skw=PSA+10&amp;epid=5070317311&amp;hash=item4519067e75:g:KUUAAOSwZL9nGoEu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnRjaYvMdhfgZhUH%2FtWehkbxdlrYGXmA5cmUY1IhqE8WJnhHgXYeRF2l1qRFO0fEUUBZLgdbi9RnzkHho2zu0TaF7GucA%2FTSXuf5DLdstUXDJOJ8uUAJlpk3ILlN9Czyj5F1cveQpTFqCMYZBTrk5h%2FBJSG5hb6%2BpLJ%2F3zAOyARt2fAP73lk1SKoe2srV%2FTJosoPb2RY5qlr9ClnWLKZK42vsqfFAoFCeMWWAb6%2F85%2FgRyfTe4JrA38aql9sXrr%2FJH6srpVCvohzm45cAuZguKE%7Ctkp%3ABk9SR9anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/395336768305?_skw=PSA+10&amp;epid=20055626907&amp;hash=item5c0be85b31:g:1EIAAOSw6YJmGsJ~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0unpv9TzjW19qFAz9Yy8dk9qkJxxY8V2kPUO3L2d%2BT9ygCdlZaTFAyyLAPCb00fORRQ9AiJ3MpmWb9U922iZ%2F9q8nCr2udXepieOrtJyADG2jE906bnPDR8WbecN6AFjOXWE5ekGC8Oz99xRyvPyjnOZmYnCU9vXTXhawLvVBCG%2FhqFVNrtVJJcRgIiaIro%2BTWLDsxZ%2BE31qwwKNVzV5G5xTR3ITCY6pLtd%2BbB%2Ft9Yw%3D%3D%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9416,22 +9432,22 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Purple Prizm</t>
+          <t>Purple Shock Prizm</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Jerry Jeudy</t>
+          <t>Joe Burrow</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$223.50</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9441,7 +9457,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395336768305?_skw=PSA+10&amp;epid=20055626907&amp;hash=item5c0be85b31:g:1EIAAOSw6YJmGsJ~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm0unpv9TzjW19qFAz9Yy8dk9qkJxxY8V2kPUO3L2d%2BT2RG0bWekA%2FRrDI0Qc8Y4vtlxYFGeRbMi65kX%2FtPThvVdRtOX0wa%2FZ5%2BP2P9sYIw2WBslpPMKcx%2BDKPTs5Ezd7HeRIjZmBYCkmhMbmfstt65f05Gdcq0h4bPhUxXBSwT6nsE0prIzv6pxCYudnOGkA9rlLcD6sBMZWvQFrZs7R6VsXYs0aRtJejAc6BF49gMrg%3D%3D%7Ctkp%3ABk9SR9anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/387866935753?_skw=PSA+10&amp;epid=9055522622&amp;hash=item5a4eabc1c9:g:6AQAAOSwQYBnmBwp&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkpbRQ1HeWdULMrEHtzAJisyWXqpkG2O7p1kBGL5ycqSCJnVyE8c78NsXcMrfDxphEiE2zD9whC%2BgXHax9YZevkIn0jBF2Ea%2F31vwtTnu1U9Xa0o6uVF50cARGcMFlhswY5YH5JfVMjU8GMTeveoIhwobE0KpK8KjbkxKS7TfQQykb8LiIyqK9Hp9j7InttO9kPgilGT9Vi4270bAz8C5OGq8S2ii65s12xFOJQW%2BTlag%3D%3D%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9453,27 +9469,23 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Purple Shock Prizm</t>
-        </is>
-      </c>
+          <t>Panini Donruss</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Joe Burrow</t>
+          <t>Josh Jacobs</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>$223.50</t>
+          <t>$375.00</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9483,7 +9495,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866935753?_skw=PSA+10&amp;epid=9055522622&amp;hash=item5a4eabc1c9:g:6AQAAOSwQYBnmBwp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlMO%2Fr8sPWnrHx7pah4tVivm99sGqmpkrpoi1FNdH%2BOQ%2F9VfmeKrPp1n5sgLnyRqI6dvvriX6QfXdT25QNTAENJb4lwGAWHQPCQmgp715dk7EvH7cPJXm5pXMT2osdj2503bO%2FqoPI1%2BNjdCUYfTX5ONx1nWWQJvIPE6X17%2BKOxKH1gqlMLflyz2Fbx0%2FxeURzvw0oh7VQVm%2FCLXFhMV31%2F1N5KOOvsoJ8VglZJUr7S6Dahf8ljdEQHLwE5BuZFU4vYnoQGjJkB%2BfKaMkSNH8zU%7Ctkp%3ABk9SR9anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/306073350328?_skw=PSA+10&amp;epid=11067175726&amp;hash=item474364b0b8:g:K-cAAOSwv8lniqsh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn5qlg%2B68kYsaVsT%2FxOFhCMHp2tfraCfrnLNOLBeEfWAtDQ7fNrYS9tAE9E9K6XTUUSmNSEVMgrOdJXaHPVxRvlP0GFtjvbkQHLGbqT8Q6MkwJ89mcQyDHhOjopC4iUYGFiHd7TKN7EdwASNUsxy1rOR%2BG%2F3bLTAeEqPS0UdY3CVPd80NZUYgS7rrbsGxYk2swDUs8%2FOxzLCBI6Fo4yTdzYAdPlmO8HHTVpin0cLhI4%2Bg%3D%3D%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9498,20 +9510,20 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Panini Donruss</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Josh Jacobs</t>
+          <t>Patrick Mahomes II</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>$375.00</t>
+          <t>$540.00</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -9521,7 +9533,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306073350328?_skw=PSA+10&amp;epid=11067175726&amp;hash=item474364b0b8:g:K-cAAOSwv8lniqsh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn5qlg%2B68kYsaVsT%2FxOFhCMHp2tfraCfrnLNOLBeEfWAvILY9385Cwa2GXVxY4KK8prpYVaVfmNRie0CcLlmgy%2BzYUlgrvNW1ztmyupMy4ahLMTLAyzIoXy87zvSRUSlAM8krwAhdVd%2BYlOsk7%2BXOsvbxz0oMxOUiCN%2FWzirEae2U%2BWhMV66W%2FfaHHrBnh2tygJnXckNe0VhDHavlu8P--F1QcCb9KqpZV6StR8psveMQ%3D%3D%7Ctkp%3ABk9SR9inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/196967969579?_skw=PSA+10&amp;hash=item2ddc34b32b:g:jmAAAOSwjflnlCPM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnuvdd7LaYIV4jNwgbdg6tskASVUlri3I1hBbqYrOhIkxXeOM1SFaGta84g--PHofEVtOWPlJ5W5eMzl8%2BPLEjLxQ1pSUTFB8ktfil%2F1jKbLNJAx7KX6A0HlQ5G%2FDCNP2sY3%2BB%2By3yXbbNYvc8jJDLuvv%2F0Rkt%2BoqCRApvYGG2Pz7tjm5kEAhmeQzMFe53PpvmmhgfviJXhb1p5SP07LGi4t%2F6wtBCkllhVo%2BZzfOwT6imkRlQPvQBkZyY4HNeFn8Ldq4Z4z19BZV0M5sS%2BnqvQ%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9533,23 +9545,27 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr"/>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Disco Prizm</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Patrick Mahomes II</t>
+          <t>Tee Higgins</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>$540.00</t>
+          <t>$155.00</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9559,7 +9575,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196967969579?_skw=PSA+10&amp;hash=item2ddc34b32b:g:jmAAAOSwjflnlCPM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnuvdd7LaYIV4jNwgbdg6tskASVUlri3I1hBbqYrOhIkxXeOM1SFaGta84g--PHofEVtOWPlJ5W5eMzl8%2BPLEjLxQ1pSUTFB8ktfil%2F1jKbLNJAx7KX6A0HlQ5G%2FDCNP2vw%2B%2BOTIPGDTR2zj9M9p8WNMcM1x6bTvHSyWIl1wagqM2fHcaiBUzp3cMOUTbjc0NBcCC3Y9ay706rkGcd41WFJEAl1AIKUgam0LppaUNjbeTbtzQEtEz1TA6JVjKbaF7weU1i2HSJUc7vXsUTCPKTZ%7Ctkp%3ABk9SR9inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/134671593936?_skw=PSA+10&amp;hash=item1f5b0d71d0:g:s58AAOSwSRNkxXYg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk3Ne9rxJdZ9n6tMzp8KrzkMGbrUgwtDmiEFnjsXZa3q6hM3%2FMB2n3247lnmIIOdOD7S209Hktn1mRH9LZ%2B00hzznFWqqo5QMamHFYWqwh7NJtkkDGFNi1RG74qQyJJwK27RLDhGTqjI3xAncexYAKb95Br1X4071k%2Bji6yz4S6jRmcztO0N%2FtsRdif%2BfYwm91A6RukHgW1e%2B57xjwi4CrJWpJRf0l5VPJtsw35BQSUqlub7uVDJMdif7%2B8L6mLzSFUhxncK7Ss9pA2xvbSrfz9%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9571,27 +9587,27 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Topps - [Base]</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Disco Prizm</t>
+          <t>[None]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Tee Higgins</t>
+          <t>Jahri Evans</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>$155.00</t>
+          <t>$203.60</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9601,7 +9617,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/134671593936?_skw=PSA+10&amp;hash=item1f5b0d71d0:g:s58AAOSwSRNkxXYg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlrx9sm352qokVjOKCWd5w3rdScs6aSXp3j7fI%2BPhCdLwrWusD%2FlbDLOmaecFm7MTOAFZ0EzAzznDPhaWQWeKyZSxk0kgKqlT8QcmgErrYGPQnGeZszeN2GSeQd9IRLm5Rdyk3RW8YDWzRWQBhQnAi0suHnaGk%2B%2BJiN1qpuY0cQhW7KL0SPJQvcstKmbOat1IAWrfqakKULS%2ByQc8wIyAEtrB7Y1sRX4wgdl7mAIE4kUw%3D%3D%7Ctkp%3ABk9SR9inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/256770902477?_skw=PSA+10&amp;epid=11055523558&amp;hash=item3bc8bd09cd:g:qTsAAOSwhTZnd0R4&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnN6B6pMCslI45Jehu7qikFAQl0Daix1Vz1iIzmLAqkdsRQiM8o7qKkB5ReZ%2FMzQB0l0yHXny2tP64NnAwrsk6SmhUCWdheKPrJN6ApoJNlqYShYSybKvepb1V0BnuFBjOySWHLAOr7xulfh00STYYtlZNSJVSuAbYNlSl2vwb5YKrSR4TV%2BySsWWkpmJ%2FDfReSGW777%2F4zlmaw2wGiAikxITERz%2Byp6tax33RMt0oi0g%3D%3D%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9613,27 +9629,15 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Topps - [Base]</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>[None]</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Jahri Evans</t>
-        </is>
-      </c>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>$203.60</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9643,7 +9647,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256770902477?_skw=PSA+10&amp;epid=11055523558&amp;hash=item3bc8bd09cd:g:qTsAAOSwhTZnd0R4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlF5GiJF%2Fm9ejIW05tQyxI5edFTH0ukVK3%2Fiq47HW9ZBGWpdxWJrQCvuj8Jx4pj1PtSJKzRCP%2B7rG5J7hIEBjER2ijRPk3jp9%2B6M7nxll5t%2FdXST009mTKNte03Rbqq79l7IG3zJmPTHQN%2FOEcg4bdoNAfVppfpHqQE6vJhQNuLMB7pChGXTizBnMgi3OP2hp%2Fix5bUUZ6%2FQ5NxWIDel0CvdEaopYasFMxYqeG9aWGNJq1IRCEOG2vSf3qkbj8bTJQ2FuDOBEA3%2FWLm0og3PvZF%7Ctkp%3ABk9SR9inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/166931904354?_skw=PSA+10&amp;epid=6055618943&amp;hash=item26ddeab762:g:mwYAAOSw0SNmx4nO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmzj7mrNbx0LoV8cn6SISXl4kcsKAELRLpr%2BrOgrsE4JsCP6yu4KAl8nDcgh1jUPK%2Bxw7ZElkqvjX%2F9GGSokfAv1vP6egRsuq54TANvwQlc69KhUb9etsE4%2BLtgUAIironW%2F76MMrXKNHfHHwK%2BNGHTGvW1H494MayYCgoD%2BnouQRcb5rN3SrFXgcy2KqwMvBoz2vS3zjIbl5qJBnwz3EBCBfMPGkcGUFuF1J%2FvNZR%2Few%3D%3D%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9655,15 +9659,27 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Silver Prizms</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Patrick Willis</t>
+        </is>
+      </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$279.00</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9673,7 +9689,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166931904354?_skw=PSA+10&amp;epid=6055618943&amp;hash=item26ddeab762:g:mwYAAOSw0SNmx4nO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmzj7mrNbx0LoV8cn6SISXl4kcsKAELRLpr%2BrOgrsE4JhFYIjAlbDvHoTEviM%2BmR46tA1yaiwADAFZQZX%2B6H6DqfrCqg0ZDTb13P7sqIx87cphWL%2FSBg8CXkSQlBo5QD5mmIWgbco8Hs6yJ98nV%2FUa%2BiM1%2BZ1Jm0BNBDYhxY6bg1QNTo3ZKakYGtBKo9UuH%2F70dn%2BEVSxfVod5SZEFlNLWQgP0yDCReAgkcVGyIscaSow%3D%3D%7Ctkp%3ABk9SR9inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/167247507614?_skw=PSA+10&amp;epid=21065176200&amp;hash=item26f0ba709e:g:EKkAAOSwNKBngxS~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmaPxhlo70oblZ92Lbl6pXPJm56m6SnybTdUaDr%2BxKFL4uufgb7uXK91CRklGmXcA6Kn0SF4aJqyElONyyOzsVwbV58ZsBHeYp%2FHwEAEogba7JntrEKw%2F0%2FN%2BVIwhbkTqvBo64deEa0H%2BZIxgS%2BV4daNJ87K0ixSDdRnz0cqrCjcw3AsDEtgdFLMjqJ7YaHxySqmD0nywspt%2FGizjJa%2BGOZDGhtAXXmoQ%2Fc%2FbBF380QovSQVZIELiaBQdJHNrJKmXMBEcph%2BwJlGoom3Ig9Tuj4%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9685,27 +9701,23 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Silver Prizms</t>
-        </is>
-      </c>
+          <t>Panini Rookies &amp; Stars</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Patrick Willis</t>
+          <t>Patrick Mahomes II</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>$279.00</t>
+          <t>$599.00</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9715,7 +9727,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167247507614?_skw=PSA+10&amp;epid=21065176200&amp;hash=item26f0ba709e:g:EKkAAOSwNKBngxS~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmaPxhlo70oblZ92Lbl6pXPJm56m6SnybTdUaDr%2BxKFL4uufgb7uXK91CRklGmXcA6Kn0SF4aJqyElONyyOzsVwbV58ZsBHeYp%2FHwEAEogba7JntrEKw%2F0%2FN%2BVIwhbkTqvh6xf%2FO7V7g1Lcl5j5wBLUt8pSAzNGy0C%2FTlLGWr%2FHwFsuZU%2FTF9MXGEL3mb9UvG4oMuZ5Vh9FB3zqDy%2BO%2FUvihyFo1%2FH55lKuaqu%2FF1z37mGJzMeuHgQAxjT4KoCSFgAkfRMCRWC4sCKL9zv0NYym%7Ctkp%3ABk9SR9inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/286299777668?_skw=PSA+10&amp;epid=23055544025&amp;hash=item42a8cbea84:g:mEIAAOSwTVRnoSgc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkGGkNd1KvlQYLCEWakqoEALmc6vIzq3ht7KBOlNHJpYmu25xDa9U7tpPhe%2FV8hoNfaQXXiwGUBUjU4NFodifg9uBVUrYocXeFXcVOzj6EnWydLOp%2BgTWLwoLh3%2BT439eotW2lXFXNsT7s372kcLGqR1CACv8DARjukZ8hZWeuXhUugQZiFKj1AQj35fpI5RsIMyZs9%2Bt1n8pvGb9g64fdP6GlrMzfCxQK6f8WV0%2FT7lw%3D%3D%7Ctkp%3ABk9SR6DL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9727,23 +9739,23 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Panini Rookies &amp; Stars</t>
+          <t>Panini</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Patrick Mahomes II</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>$599.00</t>
+          <t>$550.00</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9753,7 +9765,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286299777668?_skw=PSA+10&amp;epid=23055544025&amp;hash=item42a8cbea84:g:mEIAAOSwTVRnoSgc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHTRyG2Wx2HIxadzZLf0cBzc3tcX%2FVrlr%2Biq3TknbduOPwSVJwA395hRvZEm2zMZzrpFNi0UV0eIux2mt0np8waD3y8qk4cYKSBayQoVAw6puqOS3%2BBsNKEpHDYlAIRse60qRcHUDL2vSBrZsu1JmpUTvTXapcGjeQOsx4dF3dGAwD41QBJmbKjEm%2BB7CtMypQyjG01xVYUD1i0vk5c2mVOOzpmz0RhQHp57iOca27%2Bo0zn%2B%2FTu5zJvQ5UO6%2Bd8pWyiVlvIdhc2%2Ffm6FPOTi6Y%7Ctkp%3ABk9SR9inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/375820136956?_skw=PSA+10&amp;epid=4065674104&amp;hash=item5780a031fc:g:fmsAAOSwlmdmtDYZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmkZWqsu8d5edzNgUVPYbQW11wQ4lcPfiDWKvHSQYlOqmrmDjdpkLgN6qLHYSoG8DRfG0MjUAfzxfB3yMWjCI5B3PkSBnEnDLieoi5WGLHf%2FB4cWEd0090UFexoDSZx9cXw2G8Rww%2FHOSuOdTbkeBl%2BvkENx8ZuFTMU9Dhnkk2OTkvl7ODYoheWGTH6rYoimYlp%2BORpMAaXwqHR2Y%2BLbGYuQbR66OD76I6ZG8M1DyHfRg%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9765,23 +9777,23 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Panini</t>
+          <t>Topps</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>John Elway</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>$550.00</t>
+          <t>$211.50</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9791,7 +9803,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375820136956?_skw=PSA+10&amp;epid=4065674104&amp;hash=item5780a031fc:g:fmsAAOSwlmdmtDYZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmkZWqsu8d5edzNgUVPYbQW11wQ4lcPfiDWKvHSQYlOqqNPDG830pGnHztCDrxeCdr9Qh0e26FD1TeMfSgYVgek3tqRw5qF6XkkMywBX3Dbi2mFAJgzXFqAGw3ztRv2ohGDbY2s1GLbpmJlVJdlPunuO52lP1txV%2FQiReuKCr9FYDTsf00TKwTYFYcCpBmeaW5NbRx%2By2bfSbwG1wMllPkM72ZbU295uB1TbIw5LjjJ9A%3D%3D%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176801116833?_skw=PSA+10&amp;epid=16055584985&amp;hash=item292a2af2a1:g:EycAAOSwTqtnkBN3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn5FprLI5HkCwlEwaRFRdCB6ckGFr1Ihrta2I9LXyBCdhkhIoRJ2L3qi5BuyDdEcYMBUvGejF54JWXUqPYPUVUZOs8B2wKBjxVk8qoXcM3i75FAW3%2F2hdbFshGXbR241bujJ7nyx94t5M4NmOcQLw2CcBYBUnhhm9%2FKpUXZud7lcniQ9PA16AWgOW7mCuwFFVmCIgvz9YntaQ46EWYim6WbEJo42Vzq5RnESBBX46oyHw%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9803,23 +9815,27 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Topps</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Optic</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>John Elway</t>
+          <t>Alvin Kamara</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>$211.50</t>
+          <t>$445.00</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9829,7 +9845,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176801116833?_skw=PSA+10&amp;epid=16055584985&amp;hash=item292a2af2a1:g:EycAAOSwTqtnkBN3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn5FprLI5HkCwlEwaRFRdCB6ckGFr1Ihrta2I9LXyBCdufIgumKvFekYa%2BDoBhraMJT0VNyElBMxpDRVFAPswF1gGHMO7WBGvMMgnprQo6BVW10IzRcSn2MP0ZJFFnKZQiCfYlX%2BTM%2BvuslEXcrsUKCsz3wKv9BUo6kTAwA23ckcgZdpyUk5Xdw04IZay35k0uvOwrFZGqV4nZBb6A56JPsjXsgYsVwzpi34sjoLWZpdw%3D%3D%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/267144763552?_skw=PSA+10&amp;epid=15055697325&amp;hash=item3e331198a0:g:XjMAAOSwwLFnoS~z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKla%2BXP31PjPTZsDwc74xSTGFjB1GOPjg94BqbWKibGDj38M8%2B%2FVPZ24WkiEhqZ6ryb71QXZX%2Bqb7YddFeki8TCdgQ9TRMdC%2FyWwJGoX5j5Q3LwbYh7WP3JdrZuu5XzOQ9XWvWIpAjgqzgAWlNCOgpqR6PHIcaVxYX7NMX%2FNS68cKYyJgHU1td0XIKNm2uv9xukfWXdJunsqH9%2FkrihSLIbp8BVdPPDQrqcyyTaZpdTMXzwXO91dGAdGozOqcYvxYUCGu6143%2F2iV1nRU%2FwHRqIj%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9841,27 +9857,23 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Optic</t>
-        </is>
-      </c>
+          <t>Panini Phoenix</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Alvin Kamara</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>$445.00</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9871,7 +9883,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267144763552?_skw=PSA+10&amp;epid=15055697325&amp;hash=item3e331198a0:g:XjMAAOSwwLFnoS~z&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkMWteFTqfyC9cgivt3UBzaX0iVAK3Go1GqCY6ZGYH889WMr%2FTgz4N5RT2BG8YY9QU8VtvQweKXQK4rNRR1lClClBKCygxKtQQo7b2WXbxQ6FtktN3FBORDsdLhbt1g820hlRMixTHdV8exAfhnnzfvKC66WHcLmG%2F2CO8Si%2Fs0%2BMokYlbECbsBATrGdmm%2BSFeZh7%2Bl9M8%2BZZwsHXLdjka90IOGUp%2BIUFrPYrI14f9SlQ%3D%3D%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176762319090?_skw=PSA+10&amp;hash=item2927daf0f2:g:-mkAAOSw40lncIWq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkRgyMBY9XevdUyvRBiZ4yNVTBBoqhUWSDZvnCnBLcNle0ezLeiFiAAhnijFs1GyrVB0Bs8SQLPRybgm05fIFhcM%2Bx86LN1qR20bfei638Fij5kNiK2v4Jwcd2fWZm3lYLdhcCATY9fQghxxvJKutbVsE9OdD0j4m61P2SrT51V0XCBkzy9VuMVKAUqomgCrb9IdnNaa4CahNd%2Biu%2BuqF3NCC3ZrfGFAo5iR7QjGThmkQ%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9881,25 +9893,13 @@
           <t>Football</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Panini Phoenix</t>
-        </is>
-      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Justin Jefferson</t>
-        </is>
-      </c>
+      <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176762319090?_skw=PSA+10&amp;hash=item2927daf0f2:g:-mkAAOSw40lncIWq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkRgyMBY9XevdUyvRBiZ4yNVTBBoqhUWSDZvnCnBLcNlZlB0CZsBzWHSYCsVqumzXAbUDbFqyJj%2BHw5tUSo%2BeUH19tF1GVwxv4zyVZiqcIB%2FaieV41U3v34VgO%2B0%2BpnEX30f5fOBA60owUojv4pCc1QsChVp1icPlQIeVVZ%2B9BuZsWBZVAJZ80mpbWxoMziS50OJZn475XYQe5VcySyBoVIuAuUXJN9%2BRH14ByjFaemlg%3D%3D%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/196572683013?_skw=PSA+10&amp;epid=13060917655&amp;hash=item2dc4a51b05:g:rYEAAOSwRUhmxU0l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlTlppDnUoiTfbPF3%2FPrEARrtuPfeItiW%2FXzibSWNvAtcnAQjvtXXGtSbc0XpFwnU8Wn0zRu1anT3gh5ddtwXhNGxpfthIGb5%2FZcnnnkP%2FO3zUI5Gb%2BNckqU2GkAiyIQDBCxqOXFUInnJsTVDoE%2F5p205KHGCAdeIKLkCzViOsskZq9Xiaz4FT8ORcf%2BqP5Tqk4UuF6UHewk1B6YlHE1VC3xJYhEXN20x9jPSmaNR3PuzA0OTHCM5Yj4%2FMbcxvTy6rFZCzUTWHkN2%2BJF190CHFX%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9919,13 +9919,29 @@
           <t>Football</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Bowman University Best Gunslingers &amp; Bandits</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Gnslngr Bndt Au Gold Geo</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Caleb Williams</t>
+        </is>
+      </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9935,7 +9951,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196572683013?_skw=PSA+10&amp;epid=13060917655&amp;hash=item2dc4a51b05:g:rYEAAOSwRUhmxU0l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlTlppDnUoiTfbPF3%2FPrEARrtuPfeItiW%2FXzibSWNvAtcnAQjvtXXGtSbc0XpFwnU8Wn0zRu1anT3gh5ddtwXhNGxpfthIGb5%2FZcnnnkP%2FO3zUI5Gb%2BNckqU2GkAiyIQDAsiTk9yDoAaBg1OeQWrh8DXv1F3nkVcsMLtxT9Ix7mEXOKmDWThR%2FheeFI%2FM7IUrQ3Y7R1fz2fcUKVmtKj9EhPlTn2quSQ%2BspgSIhjn%2BoFfIbcTE7raaCYlVIpY0HbvKMLZrPABlpiLvlqzRJXXUqM%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/387311925837?_skw=PSA+10&amp;epid=18065172351&amp;hash=item5a2d96fa4d:g:ZwsAAOSwpJFmw9Ht&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKncueovhgr4MZ93b3wn2K1xT1QcpUoWb90sVg5FMO3Z92dNJrZMy%2B5DJPZKdNCBaDEC7UzVYwFbLVrJlNGVKThtadcgwAq0hqHH%2FBNMshdwaM2ZTNtsuZSk9s8Wz3pyvrm5QHHKBYPeMQIceZGe%2Fw0HdUgw%2F1E8qkD3ylOdpWzpHY9LRkseJuJT3oGL%2BPKUhC3JIB55tovwogbu8eyzP%2BHDP6v7Y5u%2FJjWff1q022CUkQ%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9947,27 +9963,23 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Bowman University Best Gunslingers &amp; Bandits</t>
-        </is>
-      </c>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Gnslngr Bndt Au Gold Geo</t>
+          <t>Mosaic</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Caleb Williams</t>
+          <t>Heath Miller</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9977,7 +9989,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387311925837?_skw=PSA+10&amp;epid=18065172351&amp;hash=item5a2d96fa4d:g:ZwsAAOSwpJFmw9Ht&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvay80xsPRdg%2BEAt9eR8TVo6xvEQDlnaWNK9IMiqML2RKJruzr0VD--nUib0Jcx5yHvrg8rPr%2Ftr9fLMn1StJJPPRfj3vnmWtqv8xz4DAgNIxnCERA29iKaqRnY9l2JUqmYBZ4AKQxDFhJeQOL2V8sdTqN%2B%2FDskPmfVHNrjwHCWnaXmYWbn2ycpWqRMzcw2dygv007S0wHU4ZRi5u%2Fr8JpHviwOnTQQdx4r16YBxTSyyHl9zCPAmwCQ5JE0zvIgWRxWigJZgCmbFZQTlBhKJXF%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/404318519924?_skw=PSA+10&amp;epid=19055576056&amp;hash=item5e23430274:g:MvYAAOSwq09ke9zu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgX24ImLKJY5CfBA4FnHP7xfUvB%2Fj2xY4nYKpLtmCuPXg7c9U899UWDZ73ZGJl1twSUstcQlyVe2PQlU3G4PtGc6Hlv2ReUX96%2BGuH2%2FphfVuqij6y%2BstS8EPFvRHwDfpuownD9Q3owUN8emnFlVXncx4YTBSF3%2F4eh2VVVhtJf%2BZXolLzo3Hb6fv0jthBEqNbbbcOLRsk%2F4%2B6e9V4Uxhiy02jC0ekwS1segHp3KzZtpQRa3gQGHoZ8x40ribK7Ed2W2o73lKqpu2ZUcMCsLmf%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -9989,23 +10001,23 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Mosaic</t>
-        </is>
-      </c>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Panini</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Heath Miller</t>
+          <t>Patrick Mahomes II</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10015,7 +10027,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404318519924?_skw=PSA+10&amp;epid=19055576056&amp;hash=item5e23430274:g:MvYAAOSwq09ke9zu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlRKOAIuEiM%2Bngp%2BObE32W%2BqfEZSIAFMb3rHPzA8mOJNrt4H7C1Or0xMm017zj6YMRr4zT768uTlUhnCdLG2lsZIrZ6TwrnmLT1xOftnvzO%2Fs6I0AhfIFPDELPLEDU6sCyf6ADW8SSOz%2BAX9pYmYlRR2%2FyOBEbg%2B%2BRYNr1zzFud56g6V2po1MCNsMvGhBVzvYK9NKom%2FQqi5JuS%2ByWQ3rUyP6V2eNCS747rjTC5S5zViQ%3D%3D%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/266825261672?_skw=PSA+10&amp;epid=18055552549&amp;hash=item3e20066268:g:ofsAAOSw3Y1mTofz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnjSFngd2W1z6ZdURllRS9KtXB1Cll73EetbfBuGpwZYf8Lu34nsmiuiMZmOOESFHxC62nUEBsujzSrNFNMcHKJepp1n8OKJIUREGKXSckC7MK6YtqWmwYXsEc1J%2Fvttxljn1OKoo7fVjoLPZcZjsG6w%2BV3OGU5ayRzv%2Fj25jgO8llvV1IHbakTOImMgLPSKl1bfS%2FCJkRPB9w1%2FlapQpB15RapwMdeDOq5zs3s%2Fe0WEg%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10027,23 +10039,23 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Panini</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Patrick Mahomes II</t>
+          <t>Eli Manning</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$174.99</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10053,7 +10065,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266825261672?_skw=PSA+10&amp;epid=18055552549&amp;hash=item3e20066268:g:ofsAAOSw3Y1mTofz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnjSFngd2W1z6ZdURllRS9KtXB1Cll73EetbfBuGpwZYVwtT2vXcC3C6%2B1Hug6Nimo83Gb%2FP9xJPXt%2FQ6kl1lxgv9WXYA2tY5Tx7nUSJxEKUiFZoTCfA%2BnndNmO450n2LxDH%2BscEG8puwX5iJnkHI3wFcX269Hn%2F05pE938fyhXZOEatCBptyYEH7zbt2tlUSDO6niR8ttbaLk7P3cr2c8UZGyPzTtqRDPlj1zazRRIpg%3D%3D%7Ctkp%3ABk9SR9qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/204975887376?_skw=PSA+10&amp;epid=18055549206&amp;hash=item2fb983d410:g:U-AAAOSwAExm2KwZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn8m8Dxi3nOmU8Ajn9WInAG2SP5MlJ7bqC%2B%2B5EfCAJCqzBs2WMItTC1a3B8ooHFRuO7%2BvaaEoirSc%2BGIsNv8JS%2B7LsLBx6XmifysjOlLZ%2BIh48O2QnEg8M1r4PnEYfPBPaTAy3qnB3T%2BfBu7M6FnV5NfTqYMwhFXyt5OdKZz3Qx9Tw0AWFeG5aZtdrApQEq%2BjygTBR9L8Osnksr4gA4Rzu5oofvjmj9UPVJGQL7D6gu88lscPG82H7%2BFwCQ1x3dOisiAJM4Qv9o0K7jVSOqnsTh%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10070,7 +10082,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Topps</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -10081,7 +10093,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>$174.99</t>
+          <t>$179.99</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10091,7 +10103,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204975887376?_skw=PSA+10&amp;epid=18055549206&amp;hash=item2fb983d410:g:U-AAAOSwAExm2KwZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4Fq7eXneIewDjuxCAQ1Qu6LOX5i98gXL%2F2o6oA66fdDq5UgRiSJ8QU%2FSt044EyjcVzRg762uoOhqngWjFHOrgR4icxaoWqPKRoyljmHCR60NAjB4ONQxMPFa7Y%2BTJ%2Bi3GC7uJQn9LCgxIkK6ZSGC%2Bdp5L4LpDqMLKxGVO3BGt4V1MKf72fKsBELHq5JqVT0V8JthWQAfGruLYWAfrKC0dyJgSIRpcPkCDIaB1FJ7KAQ%3D%3D%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/356392847110?_skw=PSA+10&amp;epid=8055611796&amp;hash=item52faab4706:g:tkcAAOSwOJtmOfij&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmxYWys4GyFZsD%2F4QU%2BnFDekDDs706ADg9NWP8YnjiIxSzA8VjL3weEQheyzxZuFp%2BDe5Gd5rbN6%2BbNivBzFY%2FW2uQtjbeHWHHkyBxXVY4XSPXK60xHv8MUg47qyUHnbghV6x95ux4ERtZTUG8zSiI0uWLjBoukJ3wh9s%2BBhQHhS6YZk7KMhO6fkrsCav2XkGLqxKbEa6iGuSmkEM87z2N8VYOxmQClHHf8I18m0oImBQ%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10103,23 +10115,23 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Panini Zenith</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Eli Manning</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>$179.99</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10129,7 +10141,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356392847110?_skw=PSA+10&amp;epid=8055611796&amp;hash=item52faab4706:g:tkcAAOSwOJtmOfij&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkXaXuuvMiBv9ojBhPO2T14Pah5rjD3hby2kw2XPK%2B4N19DWL8V70nymHuxtCw2rO3CdVGRH16KvySVj8%2FKbc7VMwbaA%2FSG1JfhkKjSHZqeXXunYIN8%2FH0HwsTQHLdVc%2FeiLSOlpDZ7zcMUsWsyQJ1uuz1FCFlY1u3tSMg1kgN25pWkUOmGQfoX0S0jN8ZlVWpmIniFEXmrnYM5aE%2FQ74YXurPBfnsFSMgtKcL7horFpabt2JQTb43Ysa08sjDwQgYmCVDB3VdSALXyrT841M8%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/235939076006?_skw=PSA+10&amp;epid=12066514700&amp;hash=item36ef1097a6:g:XiMAAOSwEAdni9yn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnSZ9a6aL3xGaW4EWMTn5ox3OCXRAeIUyf3wKaoT3%2FFFP4dZawKQSasxiQOI74rfcmOZoc%2FZcwlAvdU39jCivhMOUgf%2BVFrKPZzDWb5eh3y4nw5v4FZ6sIpHCohmo6ktJ8F%2FPfV4MQCkHj1dLJ%2B10GyauAa6ip%2FMnwfj9U28GBqYnETBjw4IAxcrW%2F1WquC8I26MH%2BtdCXzd25p9f0rzweVxD9a6L7iUehLZKmE%2FXwTkw%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10141,23 +10153,19 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Panini Zenith</t>
-        </is>
-      </c>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Julian Edelman</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$269.00</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10167,7 +10175,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235939076006?_skw=PSA+10&amp;epid=12066514700&amp;hash=item36ef1097a6:g:XiMAAOSwEAdni9yn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSDa1JCu7pPR5pHNDk2eNul8IQ16zO1rveaJpf7I6gXKjXTBwW9Y4S6TrqlYs4z%2BXqWeKEj%2FiPvOGxdHn19IOGEskbU2OQXqreWIWSHFraM%2BbVPs7zJaw%2FrXatMwl5Jug0yF9e%2FBiVl00BjE70LPtK5sNsumKHQCJhIA%2BLBSuSKpLztd7aAMOtu1CcdoknpYXTdMoREspSt2M%2Bz9%2F1Fdsfz2O3f%2Fl3fiUCaEpLUF7ep7auhQOEgzrLjATERXHZXytYCBGtrbd77QexGcV5mZ7o%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176132092952?_skw=PSA+10&amp;epid=8055612362&amp;hash=item29024a7418:g:KUsAAOSwjOBli0iv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlqfKW7Ng0rwhU9x%2B9wgIGNxwmJT8wfpdxJlGpYBbgOGOFTkuwuFAyyXHPBlWQwCyOHKrOyquZ3z3pFO6z8y7JTPHC2f89GBWKXU0brWdM78LmmFonpS1rHWoK2jsNtt8ZMUvFzzsNjy4FVHZf%2BgixLiW4epE3nqAIbXly6p8NaQSNx%2F8s9gu8MURoiHCcCkGuTfQBBEXVWAMD4o6KPBkaJ6%2F6tIGoHd2eQCuo%2Bo%2BFd2d4XVta%2BC3YG9KtXeXQwL5JjlrMpG6eMncWsFsB9Fz8K%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10179,19 +10187,27 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Julian Edelman</t>
+          <t>Bryce Young</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>$269.00</t>
+          <t>$230.00</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10201,7 +10217,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176132092952?_skw=PSA+10&amp;epid=8055612362&amp;hash=item29024a7418:g:KUsAAOSwjOBli0iv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlqfKW7Ng0rwhU9x%2B9wgIGNxwmJT8wfpdxJlGpYBbgOGOFTkuwuFAyyXHPBlWQwCyOHKrOyquZ3z3pFO6z8y7JTPHC2f89GBWKXU0brWdM78LmmFonpS1rHWoK2jsNtt8buk29ra22ISYEKJJxPRe48JiDB729oBJDp%2BE%2FgLdI0T4z9ns6yfaDbd3bkebnbBYKMqManUr55BFHt6KpM45Nf2TY1Hu2SME%2F1rxERPAqMf8uRYbjlOxoiRRUNJYP3uOngSTwcNKcE8CCFyq%2B1btAk%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/186670572674?_skw=PSA+10&amp;epid=8068514558&amp;hash=item2b766ee482:g:IQ0AAOSwQi5m2NqM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnhamZp7hDE2%2FLN%2FMspxot46aosY50KxPJOGbjcpZBlXMxf85DEzrXJpZoC%2BFrW3UIm8wrLF2rw5uMa%2B9tGl2Dcf0ssT20zNPKxYWelpYhyjJD1VyWwVriQCUNf2wBtmuUPGg%2FTT5rqQV7pgqP0Xn%2FhH%2B3vzvNvxZy0NDJj7U7XfGj%2BiMVFFnBXmQT7Af6eSqu4vWAMh6Caod%2BmufYnDBslndV5i0jmrFvFXPSlIK%2BR%2FA%3D%3D%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10213,27 +10229,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Stars</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bryce Young</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>$230.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10243,7 +10259,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186670572674?_skw=PSA+10&amp;epid=8068514558&amp;hash=item2b766ee482:g:IQ0AAOSwQi5m2NqM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnhamZp7hDE2%2FLN%2FMspxot46aosY50KxPJOGbjcpZBlXN1qm0f%2BXAMLjJ3U43aZGrayVdShwb%2FAqYBr2%2BYoIHvVHDBTxhi0oYQIx2E99v3nMvA6fhyZXjG6EDXm8AtF3hhNZpMeBOwWNqjLg8kmDvfQLgFAs9gVXcNtyhBUeF4Dx6h7ah6Tf7YnpNrDXXS3f6hdeBOm2kZMV4xK4bPhFPtd%2BUs22ZzK22PCRk7aZ0UAHA%3D%3D%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176810471318?_skw=PSA+10&amp;epid=23055547748&amp;hash=item292ab9af96:g:nAwAAOSwuf5nl~Zg&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkk8sHiHJhGNY5JJEzw4EkjkHMjglJiHlekumpUH6FYwLG38RgnJ95OxqX1mLwEpMrX6SxoyeZ9Un0%2BJIxRTXXlpYAKJqHmIN60JI0SBpiDdHOfVF%2FYeGIXCTX84g9W21pfsJYEK1Q3sM08asGAcCNMGcHjCIYOWmKHlzFA9MBPDJR76TE8lfsZtMFoVaUpXl%2F7gF%2FXFLKcO7cb65bbwuJhSyKUHIbjB6xLy4B5YrZf8ZsTfJsaaBK8HfxUQ%2Bwi2RAzV8jJ6npYmSyXTRHC8MKs%7Ctkp%3ABk9SR6LL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10255,27 +10271,23 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Silver Prizm</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Trey Lance</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$245.50</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10285,7 +10297,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176810471318?_skw=PSA+10&amp;epid=23055547748&amp;hash=item292ab9af96:g:nAwAAOSwuf5nl~Zg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmhI5lNWzoX%2BuJi2oFzsdKRzPGq112oATKLbR1O5R3J2MImmNPts4fKAVONVg7tAVvCp3LagyFyWSKyR3SRUtrZIQo997bCMEdJbbBFpEXJGPSOAXnkmeUnz9Xsl98JWdFiEspaVNgugcd3kU%2Bv%2F0ghnAhpPe6NeXlqOgdcgrWg%2F7iiYBj%2BVe3WAA%2BPBYHb7CaTJk04VCe6aDzAtJhZzq0CVMHoKYucsl7Cr%2Btd6UrIKA%3D%3D%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/375961682100?_skw=PSA+10&amp;epid=2326743551&amp;hash=item57891000b4:g:1vUAAOSw5q1nnT86&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlsg%2Flxv1XfrIwJFlyio0E6NQ9N%2FjkO1oFnQP4dEP%2B70U3T%2Fk%2FjKVTVOBJ6SNxs3mrvODeBv9mQ%2FxwkPxrx9HgLuSLEeBAOGuPwRf2JHSqK22LfHNciiSYkX%2FfCVh%2F7EDqgoiQsopEpUaZEBqq%2FHpCBviLL8zE7QUDvdqul%2BYEOG%2BdmlRqtr1k1sI2ReM8l8zm9sdpuCOIYqv2D4x7bjKyTHyc2atuI84u%2F3M%2BaPm3KRw%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10297,23 +10309,23 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Chronicles</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Trey Lance</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>$245.50</t>
+          <t>$289.99</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -10323,7 +10335,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375961682100?_skw=PSA+10&amp;epid=2326743551&amp;hash=item57891000b4:g:1vUAAOSw5q1nnT86&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlsg%2Flxv1XfrIwJFlyio0E6NQ9N%2FjkO1oFnQP4dEP%2B70W%2BTllGFH5ausAljsLpOf3ZQZRKNKAINdL3O3H5HRHNBidioYcLVrZT3wo7lxZTOhosiPgWwddfL32XoSsxpknOIxtqHlXhfV95DBC3X%2Fut9UbPleyyiScjPkFGpbdfQI8fi4CQIQyZ3t8T9bjO2UOI%2F8TJFt3h%2Fp4vCNMPX9zqLfK14tS6G6JMXwri2PMkqiw%3D%3D%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/387852956184?_skw=PSA+10&amp;epid=21055621556&amp;hash=item5a4dd67218:g:5B0AAOSwSQhnkqSY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmZ9DVYJ%2Fz0tYQNgz9k9zN1Whl3c8%2BqAtRI2%2FB%2FLuSZfW1JT9OcV%2Bnqlp%2BIa0wvsk2J3Fv8o%2FERDHr5l%2BNuQ5ttP0mjZ5CLTrJ%2BfiqE9zwVTJSZuLCwaOSDqzvKi4F9v%2B8P6GN%2BZI63JCac12vkRj8a%2Fm4rdS3DZor7Kn7YzPDfLOrPlJfiiXuMG1QTrAQ%2FtSLJy--QY%2FRkxf0QGXmN%2FPnp91E41gorm4Nm4vaRAa4LSy1z4m5dSMesKotC%2FcRYoaG%2BdhyhLMsb0turSjS5nEEN%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10340,18 +10352,18 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Panini Chronicles</t>
+          <t>Certified</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Tua Tagovailoa</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>$289.99</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10361,7 +10373,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387852956184?_skw=PSA+10&amp;epid=21055621556&amp;hash=item5a4dd67218:g:5B0AAOSwSQhnkqSY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkNGvaQSB82p%2Fh0Hqemje%2FUQUGjQIAOBp1LWjVKvlweNJvlaJ%2BiDrqsBTq3hpaJFs1ArTmbmNJDHwxsJ0RcuDRZCtjK6Y48rsQxYiSD42INlUm923pR9nBr8hZ%2FWL1Q8ePmXxc%2FhRz4K3EfwEbemzkZAGd%2FcBsLR5sxnWkFFbPgqjdFCxGFgNdW%2BCM0CoSrY3rLk3tbNeADTBQo1H6vJipmZkQoGSeXkFU5xjapF6XjzA%3D%3D%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/125698995925?_skw=PSA+10&amp;epid=9055790992&amp;hash=item1d443e76d5:g:EpsAAOSw231jtGri&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk3K5THgIbsqDC579Z9%2FbCsjAbd8mh6Q%2B%2BZ8Myn1w%2Fbt96nH%2BMkYgl9%2FdgfY%2BCdqSW3hubWmNLi%2BBSVDhjnnm3UQYoWluWk5QufcMW9t0Q8Cb%2FG6At6WbnlkkZk8jOdi8eFlHMZwBfXY96V86GYqOVBiZbnbi8THkuJ%2FH1AfzEaF3ii1WyobN5TihWs1i4gjwIDMag5t%2FQeSKN%2Bm7E%2BD50Rn2QVxYDOdOFboVciuKGYUg%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10373,23 +10385,27 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Certified</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr"/>
+          <t>Bowman Chrome University</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Orange Refractor</t>
+        </is>
+      </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Tua Tagovailoa</t>
+          <t>Cameron Ward, Cam Ward, Dillon Gabriel, Garrett Nussmeier, Nico Iamaleava, Ryan Williams, Ashton Jeanty, CJ Baxter, DJ Lagway, Ollie Gordon II, Tez Johnson</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -10399,7 +10415,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/125698995925?_skw=PSA+10&amp;epid=9055790992&amp;hash=item1d443e76d5:g:EpsAAOSw231jtGri&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk3K5THgIbsqDC579Z9%2FbCsjAbd8mh6Q%2B%2BZ8Myn1w%2Fbt8W9Ovx3tFeq9mdyakiAB2WXtuBMk2QPczZgJnWXzmdx2UIv%2Fkwt3%2FAoxS80jQHKda2tjClLMTGtQw16AHozeDQ%2FpWNtK8k30T8oMuu6HXuiSPeDLh7wba5lpayZbzAnOm6f3kH3S3mpNHUCd4DkRdLULNpnpbC2H5mtraVy9RDmZcD5GOQil8PF9U6a2810Bg%3D%3D%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/135529470428?_skw=PSA+10&amp;hash=item1f8e2f99dc:g:bSUAAOSwWaJnntVG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmktGgp6uwdspxM%2B8iNTWzYVMjKtMfELBKm1T9z8u0CM9523%2F5L6%2FKYTn1oT%2FQbfmt7nZOar8GLv74NQSDi1PCUTOJZ9ZtuIgC8BHQUjxKjrT%2BKCLAdSt3eGb8X0gtL%2B0ysdDIuBm4h2qY1YBgKQ9cXNvfB3ZfWLllaxkaQQUQ42mUNOBa3ZedKDZX6gbhSUiIFaaHuuYesKbG66euk%2B8ROq7qwWfuoUd8wdCEwPDvwQQ%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10411,27 +10427,27 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Bowman Chrome University</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Orange Refractor</t>
+          <t>Prizm</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Cameron Ward, Cam Ward, Dillon Gabriel, Garrett Nussmeier, Nico Iamaleava, Ryan Williams, Ashton Jeanty, CJ Baxter, DJ Lagway, Ollie Gordon II, Tez Johnson</t>
+          <t>Jahmyr Gibbs</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -10441,7 +10457,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135529470428?_skw=PSA+10&amp;hash=item1f8e2f99dc:g:bSUAAOSwWaJnntVG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmoKlJQoJl0d60GuSWF1Txjlodgw86302nmvOe7mscE2Z75btsRVhH6RMaBDNd5--JB0oUl6EPVYGWcY4MPMv5jfbQ6%2BPfRJ0GAncxiC3uCBEOJb6ltVmFQ4kNEP8zTtgFgp0nRkSAGleBFUSXUI15Z5WGme0JTVj3giJS9fa0rFn4VoViAMS1DcyHKfiyozBWRCjG1mlfWhMSr5QFtkQR977KrY4rTyETy%2BPpZeHE6F8k7h64yHAwOG4jn63KN9on3rDIWGe--EzqOHWUlWHRz%7Ctkp%3ABk9SR9ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/267140820649?_skw=PSA+10&amp;epid=7071775220&amp;hash=item3e32d56ea9:g:R-QAAOSw5OJnnDEN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnpQVFBsOHgQ7P8WGQWclIjn%2Fsrv2V83r4aUYi6pPJZ0rPLcpDkfezIkQm5OK5d07C8tqOj4lHNLvjd8TzxcFVYW5XMSFUn%2Bbfmz6SpUWDRa1S1%2B39TDjYIqCjF3Mnr7BmOfTfwVvxPYQA2vQpEbxvHGo6rsHO1f1ZocbzNdvgYpzmKN3gjWZet5bSIXXRFQArVkVky%2BKrJ8Tef4knubOJjsLiqz65P%2Fkzcj4udnxva9Q%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10453,27 +10469,23 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Panini Select</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Prizm</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs</t>
+          <t>Jaylen Waddle</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$625.00</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10483,7 +10495,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267140820649?_skw=PSA+10&amp;epid=7071775220&amp;hash=item3e32d56ea9:g:R-QAAOSw5OJnnDEN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnpQVFBsOHgQ7P8WGQWclIjn%2Fsrv2V83r4aUYi6pPJZ0omrH6bCzJP9rYpjtPnosnXeUPBvEOp5d%2BbTFnwGxwZq93W42ggdos0HyhHRu2qlfw4%2Fzbw6r1kDieFQl4KsKO2paqLNK77MlMBoeJ7S6T0JI%2Bw5YfhD6dpHh08U%2FWjqiU6Iur4e25umIeCXN%2FN3RvY9IGCIPItb106%2BQxluYroOY2BUxurQ1HRVP8L2pySCKg%3D%3D%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/365371686210?_skw=PSA+10&amp;epid=9055688955&amp;hash=item5511d97d42:g:LYQAAOSw91NnnCRa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmUhxO0M0vAzqqQFf8JMsWqRkzjAvhnd%2Br3UqirOCQGda%2BwKWicQaux0TomXeX%2FjjSLrGc%2BOQG%2B7ONw10EalZXJvLdkgBweaa5%2BhJn1xukU%2FFWbSz0BLQ779JZ2HEYnS8ZXzJdh3o9rHuP%2Fd8zJsRsHYhHApXezB03KCTwzAgfs%2FgcnpWsvLp9mx5Xx%2FQ%2FQ50LQefGg7ihRuAW2ASeVdH2edTNODMDRlhlXPHhkURtDQfUfdvqI2GscYxKclv0j0VsM1avxwI%2BRgtksLGfyCcd%2F%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10495,23 +10507,27 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr"/>
+          <t>Panini Donruss</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Downtown!</t>
+        </is>
+      </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Jaylen Waddle</t>
+          <t>Jahmyr Gibbs</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$950.00</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -10521,7 +10537,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365371686210?_skw=PSA+10&amp;epid=9055688955&amp;hash=item5511d97d42:g:LYQAAOSw91NnnCRa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmUhxO0M0vAzqqQFf8JMsWqRkzjAvhnd%2Br3UqirOCQGda%2BwKWicQaux0TomXeX%2FjjSLrGc%2BOQG%2B7ONw10EalZXJvLdkgBweaa5%2BhJn1xukU%2FFWbSz0BLQ779JZ2HEYnS8aKVVg59xLDLhv3hgEzw6DoUkCVA6H0xmJN4%2FBq2av2j8wF%2Fz481%2F9N41XFQXuRyAc10EmB6pM3iAJLKykex2odl4Z241MLgWjVoE8cm8s1oFYxxV1wMl4%2Bvsv5jMzn3K8IZNKTT217JylQWaPmKk%2Bf%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/226570920025?_skw=PSA+10&amp;epid=25067193042&amp;hash=item34c0ade059:g:FycAAOSwIG5nmdZy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnxKkF46lTiPGdtVidHCUgDFx%2BQvYsk2qbn104tirz%2BhAHhB9QmEal3170zxlI8FEq5sigmO%2BcLEXr59p0Phbv6OCkWqc06DYHmS6KgutMNGGElsrDg81PR%2BOv3MClAos4I5T30gArsRo7Gaezf1SalzVjAq0WCqx68uCfZUra2SrZ27LfgpgNJb1SPEPUZEZ1TfjVJhw9K5%2B277mSFb0rIgn5ApunC78bk1vHd9cFRJA%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10533,27 +10549,27 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Panini Chronicles</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Downtown!</t>
+          <t>Red Prizm Signatures</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs</t>
+          <t>DeVonta Smith</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>$950.00</t>
+          <t>$165.00</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -10563,7 +10579,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226570920025?_skw=PSA+10&amp;epid=25067193042&amp;hash=item34c0ade059:g:FycAAOSwIG5nmdZy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn6xTiNCpoZY11uw%2FnkWbisIwUCUGQeS7YyzJAcRPaoCJsoiaogqDlg7yyq7Xu2jUptfJdXCre5TQrdZXCftTdxzMSgfl12L830aQO0mwlHQqerKW2lyeHmAnF2znWVPik7ZwJEURzZfj0fTgKfsIiBD5yBnoNdp1JXSNjjflZ1SIr9K3pR4iwlFhXlTn%2F8Ag5XbZNC%2F6f4qcJGVDg0aGY9RiNnFqgqtUtg%2FR97UrD0eGZRWWJsPKmcOqKFW8xr4%2B5AmfhemWOOTuj4y9RqLSWO%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296959045113?_skw=PSA+10&amp;epid=22055694275&amp;hash=item4524236df9:g:2XQAAOSwsvVnkZvA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnmnQGqXacpCvHaX8mocIFFcQHJo8O%2ByFMAtCpxIOCD08lWXmafjV8E5gxzm4HFW9wvomVOcCva24z0DLOk2T98y56cUxiwvSd9e6heGwWWMPelIkpuy7DlD5Gj%2B6MgT9AA10thdpu7pQSlfT5YEySegj%2FO34fgNNU3THAQqL3QXUxGlz2uZTfGzoj1rvrXfj5mL7xiYkgm%2Fzs5v9ayp%2BDpGuNTazduThW8iFevQNnZ8A%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10575,27 +10591,23 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Panini Chronicles</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Red Prizm Signatures</t>
-        </is>
-      </c>
+          <t>Panini Contenders</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>DeVonta Smith</t>
+          <t>Terry McLaurin</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>$165.00</t>
+          <t>$224.99</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -10605,7 +10617,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296959045113?_skw=PSA+10&amp;epid=22055694275&amp;hash=item4524236df9:g:2XQAAOSwsvVnkZvA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm9MbhXQVXAoSOiXH86fMDREcPrgInL9zhOiqNimgSlmajnZS1oQfT6EIL0h%2BXw5BpclLyy%2BabQVgyrO4XaJaDAS9TkEFseTdT%2FSdz3nJoUS2dtV7mIXwUoU%2Bat1TqiHZ%2BhFWejMuAzQVB9V%2FaySNYa2obxrwTUc2xc0NFPT8%2FpDDhcMpHJuX0hBpH7uGn5iAC48T%2FCDM9rtjtkHRnqkiHAiaCvgjUzS3giuwCJPggZB%2Bg5vdfiY1i3bNP6PtKnvi6oSWhEFAFM%2BM205chegz9n%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176789619516?_skw=PSA+10&amp;hash=item29297b833c:g:dCAAAOSwb7pnhe5Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlY%2F3MatemVrr34uOJnXh7dLMKpdl3P4L9yRW3UkRlkmvAeAGNEXqX6zBYK4EE57xbLW2sdIAFhBAFO%2FwczB1cvxdAgHCsjVFdkjrWYMs%2FdIAl2TnqWN%2BHIxOMLMKYnD0ZeZdjch9e4Xl6AKmVq0VJlLLXQiQysqkCbpee%2BtXUR8AeLBFKRDwmjpHpwulnqJkVGO%2F2youdJMgq3Wq46OflK0%2BcyoK90%2By0qC8Up9jzq%2BWJa%2F4cX3BvCjWFrUBrbQVuGqzCrZgoHM1qMTxTvy1tL%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10617,23 +10629,27 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Panini Contenders</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr"/>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Optic</t>
+        </is>
+      </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Terry McLaurin</t>
+          <t>Joe Burrow</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>$224.99</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -10643,7 +10659,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176789619516?_skw=PSA+10&amp;hash=item29297b833c:g:dCAAAOSwb7pnhe5Z&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlY%2F3MatemVrr34uOJnXh7dLMKpdl3P4L9yRW3UkRlkmvAeAGNEXqX6zBYK4EE57xbLW2sdIAFhBAFO%2FwczB1cvxdAgHCsjVFdkjrWYMs%2FdIAl2TnqWN%2BHIxOMLMKYnD0adkhpeAiq7zhLlXDJMus0xnjBb5V6A9xrleKLUi66yjRaL87rPd0EUrXun%2BmzpIDtMhXdXjX5Zr3Q4%2FMQ5z81j%2BRep3PjEiolnIIBYyEzclEm0m5GnHkDx1lTQR%2FW6MFbclaITMwfYuk%2F%2B6XaIxgIU%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/405457465739?_skw=PSA+10&amp;epid=8055602146&amp;hash=item5e6725f18b:g:LRsAAOSwxVNneatQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmuWT9B1rase8VF%2B6be0Llfh6e9lNexxCvYPYWUxLqyhew96xRobnPCk706KhXLHQDsPQHm91iSZ9uPhyOCsprtxnlnsp21XyZNXSLXb5xzZLFIQ28nlYUY8LRoWtlTDTmMZ6gDqAyoAnuDhYiFTeY%2F2FsrwZbTyMSm73tba8BJ2XumjuMiZ3CVYBZ%2BfYc0hQw7bwXGy7n6k2dteWP5CFc%2FjuQg8fGMTREDzHLBsrSV1w%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10655,27 +10671,23 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Optic</t>
-        </is>
-      </c>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Joe Burrow</t>
+          <t>Jack Youngblood</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -10685,7 +10697,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405457465739?_skw=PSA+10&amp;epid=8055602146&amp;hash=item5e6725f18b:g:LRsAAOSwxVNneatQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmuWT9B1rase8VF%2B6be0Llfh6e9lNexxCvYPYWUxLqyhQ8u1XVF2MHTEfaXe%2BIPKqlzGQiB9mvnUioMg6r0bRvM48buxwyhxPQZOH51I%2FXlT%2FT0QqtEhe0xL0LQGUP15rxVKg0bDxOaOkwQB4o9aUEWwOxV82T2hsj19kHyFOUcY4su1PBgGmk7BBkf1p2v6VuVHuek4tXpaExAW8y0yCuOzk62H8VsLYjmbiOtBNofiA%3D%3D%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/255333788279?_skw=PSA+10&amp;epid=3055620541&amp;hash=item3b73146a77:g:IK4AAOSwLslh4xT0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnU7id6hS60D2KwwB5059KFilclXx1oEr8pi3ByC%2F9PKnEZNPtopse7lImm%2BekqkkuKsnfbDv8AvpcW3bLh%2BCZcsjpBKUjW%2Flxajr2YKE60BdCIQXKktAmL7%2FAPnV8SQ2V3eaNYS1mmjeIKfvtYXVI1ggdrdKcbV1tRni8WkNMJOgMfO6WNDN%2F5ygvdSE6V1lidbuFLsW0I48vh8O90RkBzB58pf4MrWt9iKHW3h1UORg%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10697,23 +10709,23 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Jack Youngblood</t>
+          <t>DK Metcalf</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$510.00</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10723,7 +10735,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255333788279?_skw=PSA+10&amp;epid=3055620541&amp;hash=item3b73146a77:g:IK4AAOSwLslh4xT0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmUchMoyewEWnF%2FidXXwmR3ASN2PA%2BIj%2FetaoVPPHkaXthixCBCm4F2XT0VYBZqLcV5kd49i%2FPw1cryYLBNWrQ0FvHI5OjCZJsVA0ecbuHyT33mbQRtflTMT1B0evmC9VUDhPtfFsuwFXirxD0jhF0JDLnjZ%2BNxXRFrkbzzy3OFEGCBPjSNeBBosEJGRxHN9RhNvwbndOtoNaXtT89I6xKzztmwCYoKVLpHcHarJhxZC6ktASPTvjBDNO1JqnCsOdWs6X8UQeAYo711ef09fCwQ%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/256798738397?_skw=PSA+10&amp;epid=18070314719&amp;hash=item3bca65c7dd:g:UGoAAOSwRAVnmpLA&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl0gBmGnX7p455e666Gz28aXGBxKbQSRA4CmCkvy%2BK4S2EgcFY6xaB6oGP%2F9uhGaTMmT5Wtj6yXShfVn9MgnBQZ%2BL9ILUL3MMpN025%2F8U3DC7OqqwGmTbS9H3eLvvLMlWLk1423u%2BchfO5ip3Gdsg6C9sO9SVRcAiWyeV1lp90eW1wFT2ybOKMA3mwHcSEV%2Fhw5lzhNB55YQnxECrK6NSF1bKI6XNeZK3RNf%2BqhoPMAWg%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10740,18 +10752,18 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini National Convention</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>$510.00</t>
+          <t>$227.50</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10761,7 +10773,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256798738397?_skw=PSA+10&amp;epid=18070314719&amp;hash=item3bca65c7dd:g:UGoAAOSwRAVnmpLA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm5Iyl8PwhON6u3BrfM48D9RPDcPh4YxOlEDac1wW7hbnqrk6ZmZa1V4rgu8pG4v8VIHMqotoroFdUdvQZcakH5WOddDSpXNI6kksVKNqsXu3QFxzgaqjHSDBT8UBddaKJWLv23Smrgxg4G0UPph3mEaePg3W64uWVCwgh8baGd%2BeBgTuNPbai2aTykPbaN%2BXH1jAkYjcwqSX3Gt3KwqoIfQf1J3V50%2FDXLuUpjoErSJqs4yVlYQAKLmO7M%2B0dr9a3ITsxRc%2BTaI4FRbuLghTrV%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/387872801837?_skw=PSA+10&amp;epid=12062134817&amp;hash=item5a4f05442d:g:szEAAOSwxQZnmpLv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmzCSF5NKVHRlIHrbV20lrnN%2BfOb4IK7Btnf5XQG6x%2FHiVG7kwkdvb0blf4WGQW%2BWDpLYQTHhFFlmk%2FTcbl28dmoWsGdR16DrcrKPsXBwYqdO%2BKwjE1hM4m3uUYbh2oq%2FfWqKoiclDYVL5LdKSvAy0NYPEu%2FQyW8dF5IkftEZtIozROGQiE7o1HSPpzQ5m8qZQgAoXYRHeUEzMiPiqhfUGM43pebn1%2FVKlDsrrQRyppnw%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10773,23 +10785,27 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Panini National Convention</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
+          <t>PANINI DONRUSS</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>BLUE PRESS PROOF</t>
+        </is>
+      </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>JOSH ALLEN</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>$227.50</t>
+          <t>$499.99</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -10799,7 +10815,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387872801837?_skw=PSA+10&amp;epid=12062134817&amp;hash=item5a4f05442d:g:szEAAOSwxQZnmpLv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmAD0gFsNcQ5TKh7UEQF5EnsQSRprEmjGep5jx33bOdaVVK9SuROzKN2SFC3Z%2BJY8f8iobAxkWlIxcmXYI4RzqyjOiUwR3djb%2B%2FIOLDJHMiOttC%2Fgm9TPRv089bPg2jgMdQpVYWh6fjAnHf1xqzdncI9eZ9FT0WtuW1FrJ0NSqqB1EkGzsa0d5mv3DCHyuI3Eb3Ycwefyojjld5e1vRWwmmjHLGGF8o48Kkv7WggUBNdsr7Slg%2BethJTIACqkSrqxjR66PqHiZhocMY%2BsEUM9nP%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/306075472832?_skw=PSA+10&amp;epid=15055577111&amp;hash=item47438513c0:g:qY4AAOSwlb5nm8Of&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnKITE0mvPst3YExs1l3WztvBoQ%2F8ckN6N3cDatlGNOMJ1k0MVngXolSGKg60VDutAkv%2F1kZncpUkAoE3%2FAv67zdaZywzkzNuDjcKWEWjBIwpBPCmpSZcm3j9TxXDdL9UBAbmaEPl2Dz4SHbgclxS2bRDU%2F%2Bmg4gIEVs0C%2BzUNVPZgd9DRUDghLT4oKWDrYhVm0RZW3Yx7TqdRCMgXEE%2BH6zmK2nYKjqzBEjBZ2msGL%2BK7FIm1LVhfenAjOcmwFEIXXYHmDtDwnN1L7Dcf50wuE%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10811,27 +10827,27 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>PANINI DONRUSS</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>BLUE PRESS PROOF</t>
+          <t>Insert</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>JOSH ALLEN</t>
+          <t>Dan Marino</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>$499.99</t>
+          <t>$319.99</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -10841,7 +10857,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306075472832?_skw=PSA+10&amp;epid=15055577111&amp;hash=item47438513c0:g:qY4AAOSwlb5nm8Of&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmWzI4EWdIGzAgXejVkNiXwW3eclXi6L3DL5UKsyFepgRirsWrq%2BTOKWRGxaVK3W9V57JloLIPnrmon10yxAL98Dz4lZpq%2F9%2Fg2ed0t15blWVZIlUo4LmY2fLjntJN6OURe3pGG5pnMsQAqdmYbWmrY271uH%2BjqWh3fhuMHbZGVazI6JxKQdxsYMiKtFK6YzvAZmFmK2u%2BlkQQ2oesIvWrlRZwLCJwh3yaSGGh4IDoP1w%3D%3D%7Ctkp%3ABk9SR96nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/314473822749?_skw=PSA+10&amp;hash=item493819ba1d:g:rgQAAOSwOMtkF0zt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlciuZMUCUR3rp3%2FEBCdlzlYV24KZ3Lc9hvil1ON6FGlVkaFn4gx%2FyeoAbM8%2BHHEZ2NjCVBp1HEzrq%2FSx1%2FhM9ga2bCtcv3TBCpIg2x5VF%2F6SN4gS3Zv83SwGzYMoADNBG8Y4BiPsFFpYChX5ePWzrHIrnvyqsI8zYrV%2BD9xVebYDlhTH7c2uvHPB5b8kmYnlcIhaTVHscamldPdCSyxCPKfaoOVW65uQ%2FchfVsLDwitA%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10853,27 +10869,27 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Bowman</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Insert</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Dan Marino</t>
+          <t>Bo Nix</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>$319.99</t>
+          <t>$399.00</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -10883,7 +10899,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/314473822749?_skw=PSA+10&amp;hash=item493819ba1d:g:rgQAAOSwOMtkF0zt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlciuZMUCUR3rp3%2FEBCdlzlYV24KZ3Lc9hvil1ON6FGlWXa4Y5jsfoX5dXdZwBYwz7eFjLX0UsHZubfOfH44SIWHPRHcsZLFIrmLk5HZIlIuuVv4H9mXiOFdOoKfnKJt0RbBynJXVWcGzT3khb4GTMJqKK4PsImrQ6UXgRAFzj6XG30suJOWAz7yQlIRrH5P4WJTlWPiFAMb8l9ovIB%2Btk33gGQW31ajIaaLlScmRpBjA%3D%3D%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/396042203239?_skw=PSA+10&amp;epid=20065173273&amp;hash=item5c35f47067:g:Pn0AAOSwutJnaDPI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkdb1KmP4jbm4nyFl5nRCVsWeXr%2FzlDdYtxqAmCyhqRabqOt%2B7EJhu%2FfC%2FzUOittXu0Zzh0Wpz4IiGZgtICkmFz3tU0j3tz9dvdHjmhmt2OSIZJdanKR6arAhglIGOf8tLSj1AyvYQaXR5DaGYQhfcQ%2BGRr%2FzfhuVyLQb7GEiAy54w%2BU0%2F98CpqA%2B2weGUq60furtOm%2FSehbdBNtHEOEHibOrtG%2B24INYGXyJk3sQbaxfg5cxUmK7OCKBuGuAezf23o32n4JxFGpRAaFaiC%2BhGB%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10900,22 +10916,22 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bowman</t>
+          <t>Panini Zenith</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Gold Vinyl</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Bo Nix</t>
+          <t>Jordan Love</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>$399.00</t>
+          <t>$600.00</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10925,7 +10941,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396042203239?_skw=PSA+10&amp;epid=20065173273&amp;hash=item5c35f47067:g:Pn0AAOSwutJnaDPI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkdb1KmP4jbm4nyFl5nRCVsWeXr%2FzlDdYtxqAmCyhqRabqOt%2B7EJhu%2FfC%2FzUOittXu0Zzh0Wpz4IiGZgtICkmFz3tU0j3tz9dvdHjmhmt2OSIZJdanKR6arAhglIGOf8tI9giHVfgXm%2Bir0AaSPsBxEtnh5wWH%2BeF0EKwuLeDqiIK3WPxf1ppOOYRqJrC%2Bp4uaOZQNVdreAUy%2Bzd5IPSdX7sMepd3tLPrxYzSOQrjk5it3Ho8LsZN7GuILKJfoDGbPxnxcNB8S6J7SC4wai1fQG%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/405470476830?_skw=PSA+10&amp;hash=item5e67ec7a1e:g:g0AAAOSwsrpngbj6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmNJw943aMylaD2FmZsyVOARS1hMVnAL4Y9Wyq9nMd%2Be%2B1Q%2BsNnsKqLP1oX9rDJx99lhAyKoUCvFo%2FQDdvA1rUjtpYZ%2BJUum0DtZap6PNHMWIL3XLxLIpajtNAU2if16vW5p38uI6ulrGdKhqA5pIzFJM%2BUdh8VNDttNC7W2gN3nsqlzeMl9qxNSd3AvqsJ1wMXECgdVIb%2BwGdeDiBZRlw3fWwHsE1MXfsmFTgilSGNA%3D%3D%7Ctkp%3ABk9SR6TL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10937,27 +10953,27 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Panini Zenith</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Gold Vinyl</t>
+          <t>Downtown</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jordan Love</t>
+          <t>Jameson Williams</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>$600.00</t>
+          <t>$499.00</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10967,7 +10983,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405470476830?_skw=PSA+10&amp;hash=item5e67ec7a1e:g:g0AAAOSwsrpngbj6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl5qsTNMc06xGoYJKvHTwZoY9dY8L4uWn00UZ7fTkIB%2B4bIcbGVTBxBKNXfLFLM%2BMEwxDiC5l3K%2FRwXUPFFyohdOoTiHR7ksKYikRAspK%2FcJY3%2B%2FUZTaFgz8G3IXPly3rAr5jrN4rDG7xsqGB%2FNXHSvtBGa7x6n5x0ePGYgB5%2FFFtMis9Prp51oDtQRfvNz21r%2Bu7Vrt2W3mAtOup4mrUxULQjBLllZ5cpJ8pMlojMjGb81mgphcVywKqICMmRuNLsW%2Bx--fEBgVAnghbxBe4fY%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/186927144213?_skw=PSA+10&amp;epid=28060936073&amp;hash=item2b85b9dd15:g:xO4AAOSwvV5noR9h&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlCeRR5f%2FrkrdNuOs%2FMY2PJxZcZafk74tUJsK8zk7x9hc1n%2B2p9BfLGOl6Z21pIn44h%2F0%2By914xHnHVcBCWKr6VJvQD%2Bd5LdbTOKbWDinNVGasRrrZtaPXaxxRhQ1MHY%2BS%2BP5LMEfGjipndl7o5fRrhlejIc2%2Bsn%2BYvGOdJDqAk5r9l3BTJT%2BIaPU3AS%2F988tGYXrrMK%2Fua%2FikkaMHxgetrsDkExLCcaMQdIRk6V6B6A7R5KuCofDIwYsUyG3E6kx095VmYYj0B5afFwiHjywzD%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -10979,27 +10995,27 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Bowman's Best</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Downtown</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Jameson Williams</t>
+          <t>Terrell Davis</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>$499.00</t>
+          <t>$450.00</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11009,7 +11025,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186927144213?_skw=PSA+10&amp;epid=28060936073&amp;hash=item2b85b9dd15:g:xO4AAOSwvV5noR9h&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlCeRR5f%2FrkrdNuOs%2FMY2PJxZcZafk74tUJsK8zk7x9hc1n%2B2p9BfLGOl6Z21pIn44h%2F0%2By914xHnHVcBCWKr6VJvQD%2Bd5LdbTOKbWDinNVGasRrrZtaPXaxxRhQ1MHY%2BSBs1sWFvVpohEoe8mpMXhx5aXC1Xco1zR%2FU84%2FGhYXsBHsBeXMjMKdIiXSyuiFVHrbEU8WHwY%2FNl85Y7pPn0Vui0Nx61U9ZB6xQNIATEdNm85kAzHPpC1TeOMaX8mNKPk41RaTeMWLuMw3tPfmnpwU%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/387748404234?_skw=PSA+10&amp;epid=7055567707&amp;hash=item5a479b1c0a:g:oSEAAOSwa45nZaU8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmwT6%2FAMbg2Wa4pfFloAxt1%2BUBT4Nlo36RbBRsIufKjOP17oDdc09Se0JphgK3bbq0WNY4fFpi4IHjyaJfU%2F6wT0tYrkxMaqCrVDg%2FCES2cYINOocMYiqI%2Bu5Clgxr%2Bv%2BtI1qMiMMpgYmfbLkLYK7cakF0MoUPsCusVJ1G4EOvSJEbT2bI4lyCoNvaplsy%2F9MtbVaoiNLcIiveVSu23rwtaPfob9fDUXPZcHfCxhJUp6vRIA89ylcRKCku0CUs2f4k40flh3S5KtwR5U9jgyZEw%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11021,27 +11037,27 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Bowman's Best</t>
+          <t>Donruss Optic</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Optic</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Terrell Davis</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>$450.00</t>
+          <t>$1,000.00</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11051,7 +11067,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387748404234?_skw=PSA+10&amp;epid=7055567707&amp;hash=item5a479b1c0a:g:oSEAAOSwa45nZaU8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmwT6%2FAMbg2Wa4pfFloAxt1%2BUBT4Nlo36RbBRsIufKjOP17oDdc09Se0JphgK3bbq0WNY4fFpi4IHjyaJfU%2F6wT0tYrkxMaqCrVDg%2FCES2cYINOocMYiqI%2Bu5Clgxr%2Bv%2BvIHO%2BNh6lJJNRDC7D0CbQYVj4UxoutsC1LAQQNF%2BQFyyKu6dqtB7YtP4lgwhtNUoepTQ4G9VCDEh5xHYRHEaMrhz5t55OCiRMFZKe4LvSa8B1QutA%2BsAcTISLZApb%2FqMMuqpSJuv%2FYXfTIxBwQ86zD%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296983186832?_skw=PSA+10&amp;epid=2341357024&amp;hash=item452593cd90:g:x7MAAOSwNXNnoPJ5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkYJHrgHtdtVQ4I65h9gtqAUNXr6Bh%2B6MuUu%2Bcu1MAvptpJ4dHJziCzEMZPmF3mq9m%2FIsDndwRAde7pEDGQBHu3xJPIBz5fGsIih6AISYSGK2SJupI0LzPzjCgbItxgy7spl28h18vyQX%2FPvbOEGVw7%2ByRPp%2BhgmjOqP18o%2F3a0O5L1QFR1zU4uF9xQ0Ogfvbx43DMdFp%2Bi3g1Rt3WXBqlD6OirGztWC9pJbRbUPZeF694wlH0CEAhiFIp9orRKM%2FMm8%2FH1Src2%2FImxwQEUqVaA%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11068,22 +11084,22 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
+          <t>Leaf Signature Series</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Optic</t>
+          <t>Street Art</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Jerome Bettis</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>$1,000.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11093,7 +11109,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296983186832?_skw=PSA+10&amp;epid=2341357024&amp;hash=item452593cd90:g:x7MAAOSwNXNnoPJ5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlb8BysMUEj3G70efF3W3tSxv7TeGSpDhdBmOf45YM8OJxWTREVOwAOqIul%2BiXwvUbuU8DhiY0aDuvpeopxQDmoQhQgqNfnAG%2BbBQwhb8rmAiLX8DrUpz%2FErh8Pvo6aQrlPLWgp%2FX9kO55AbpzjycGEas%2BwiWTBRbI3ommYQwP4SGpPRVTxeFV99vykjzXdISrhg3oc5VQUKkdUvsQQC%2F%2B%2F1m1S2qAcBqMhVDi1d5TFOw%3D%3D%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/365374413110?_skw=PSA+10&amp;epid=4065545498&amp;hash=item5512031936:g:Vt4AAOSwvBBnc3hW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmZM9nOzvVmVDnZOfyBo1aocRXjLgnMnocidT2T892R1RQqoPHzDH7KJWKFhAJnPBjItB1Bk0lxY7Eol5EED4eofSDhHZgPNP1P3g9eEFQ3LtKCkx65ZSIYZZVsn%2FZxezKTSbsbE5iRxxb%2FYzfMHgEbksqGViimXHduMVd2u5%2Fc9i0lpOQuwAOWK47iCIeZahS76tjN%2BrVFF%2FMLTbbqM7J7A%2FzlRYiKaF2VArGISmyFng%3D%3D%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11105,27 +11121,27 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Leaf Signature Series</t>
+          <t>Leaf Metal</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Street Art</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Jerome Bettis</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$249.00</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11135,7 +11151,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365374413110?_skw=PSA+10&amp;epid=4065545498&amp;hash=item5512031936:g:Vt4AAOSwvBBnc3hW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKktBzgrRkEtMH7oiHgI9UvKweXA5j0tEtKF78noXkeAl9yzY02bMccPY%2Fc2LRBRh8EHiiF%2FnIhIj46hlDYnEz7wkcpKc1yjA8nYofcwHIhbSsewkfoJyGAASByb9cRoE%2FZF8iwl3Djo0MNRUK3RMU8SNgvxYhKrMH8r63g335GEj%2Bby%2BrHVl7ZyBJ44kVzMwyK60sSkFodrAPz0P7SjjD90pUA030%2BcP9B5B3LddgBRTq6jLuUrCzFChDSnK3aanQ5vEWU2tKymPot9sHJuEYni%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/167289178302?_skw=PSA+10&amp;hash=item26f33648be:g:FrkAAOSwzrdnnt1Q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKles5VZJITByWPdcK5iBwaplj2HftwOP3YqR8k%2B3tUIMzECoifM83UaFvdQj%2Bn6eTI96O9DtJc6Kn2Vz8zfN%2FG1OyTYI7ftiBLtEbZI3k5AfNVSGFVlb53cEcSXB7LLEiOfdwiDybheVTgtvvKVYzLEDzLMHvf6XaiUT%2BwXtXw2iBODbgqcSLb1AT59Sux6T1NhgOUDS9WBUv8weV7XmkY1OgeCptK3R63hhCD%2BU%2FN4Fg%3D%3D%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11147,27 +11163,27 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Leaf Metal</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Metal</t>
+          <t>Mosaic</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>$249.00</t>
+          <t>$485.00</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11177,7 +11193,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167289178302?_skw=PSA+10&amp;hash=item26f33648be:g:FrkAAOSwzrdnnt1Q&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlRLiWRBA8yKjzhZ5EUbRGJ8pzDFlWQVfx2P42yl%2FpixtpVZYC7C%2FfD8%2FSEdyBcYsDQMQedm6KGWgVyQute%2FyqTIozdqyBTN4brYuwait4a9xw7%2FVkWcxPofE1%2Brt3AqIYEDrpXiBEdDKE76zUzk%2FLrJlaN%2F5e5HvNfRqyPmS%2FSlcAoJZ%2FZbRsVpnn%2BXJvlw7F%2FJ4J4Ctvg2UqVBt1CmJtxig7ycrDqBksI5Nm3LwoZNbClpl%2FTbCVLaKWLutuaHuefKbyIQqGjf3lisqbEAvcN%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296979931760?_skw=PSA+10&amp;hash=item4525622270:g:28YAAOSwicRnnrON&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnsx2IC1%2BZ8CFCW7b%2BL6VtOkMy2JRZuOZeFlFxJ1CqNE686OZlSxmxP08gv%2BPIwdD6LxG4mqE1EoGnRL5PJrfG7w52yufdqePOoAwEV5YvTVXuINYUTcqMcIwZBqOLc4YdxXgIn%2BvBdOo5G7zv16DyVE4gVB3sSv%2BQG2K3Mpxft6LpJ8LNNaYG--XJLsFqUBoG9o7Yz6X2b8kLXkeWtclyRC8StFiYsrVSy2OvPUCLKwVaRwYFWInMzp8NWc3P8m1%2FF4aX6Oz9Noc6Dx%2BXOmJq8%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11189,27 +11205,23 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Mosaic</t>
+          <t>Optic</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>$485.00</t>
+          <t>$850.00</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11219,7 +11231,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296979931760?_skw=PSA+10&amp;hash=item4525622270:g:28YAAOSwicRnnrON&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnsx2IC1%2BZ8CFCW7b%2BL6VtOkMy2JRZuOZeFlFxJ1CqNE686OZlSxmxP08gv%2BPIwdD6LxG4mqE1EoGnRL5PJrfG7w52yufdqePOoAwEV5YvTVXuINYUTcqMcIwZBqOLc4YdIWUQ3xDK9FpublErero9cuLJ%2B3Nu%2BeL2%2FrR3q5CylbqHg%2Bgya%2FNuBiNQpERv64mXXkfveurKFJ89NQP8mrq77lN67HUhqofdg7d6yZdxOSbcgxN0ZvrX5OpaNPW4gPs8vYdqH35PInHiMSfvRgO2f%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/167289143849?_skw=PSA+10&amp;epid=6061305637&amp;hash=item26f335c229:g:VvoAAOSwJTFnntbk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk5OsbY3Sy9JcUsIO7CnBH%2FiBnM7HR0peYiVPFYseBMx1cCVJ6OwHYYpZQugAxomKmI7hF4sDgdNjYNdJ0sPD9rrDBcAoJd3hmrpz78DRGf5WuIs97oPLKsZkWQ3blnb3WH4gFMryBYdqVU4uzApV1ndoIoNb3kp648GwhE9YVOBBoPuNqj2w1BZaT1qn%2BHtWWEJPMl5qGsKB9agyJ5BWQjXNjbJxH0trOogxufHM35alP6cO8iP1mFa%2BNwhGZXZL9NJq%2BhkyKvQ90V7MfTegCe%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11231,23 +11243,27 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr"/>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Panini Select</t>
+        </is>
+      </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Optic</t>
+          <t>Tie-Dye Prizm Die-Cut</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Drake London</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>$850.00</t>
+          <t>$162.50</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11257,7 +11273,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167289143849?_skw=PSA+10&amp;epid=6061305637&amp;hash=item26f335c229:g:VvoAAOSwJTFnntbk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6yVNuG58KjXnel2bi%2F5YWerqjogJpBgp2ifPlZkhKI%2FdoT1CaCONDhA8UZ9cJXfkfPq0JoG8DW1eGIWteY17D%2FYSsJMHOPWGQjGMO9aLuY6g6KSCOVPN451PxZCkzttE5vfV9VV%2FBXHQ6Ym7yk1vH6fl2GSXEEa--519VxOn0QoLoM3a5kJPUJ0FtQx46SRq9hr24ggGvk2fEAtxQqdIg%2FdlKaDLsSQ0qtsVdGEd7Hw%3D%3D%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/326420444660?_skw=PSA+10&amp;epid=13061290996&amp;hash=item4c002cb5f4:g:x08AAOSwE4Rnl9ww&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm6s3vi3R7N1qjUh7ZFghWZewLToGyMCu0YXffSdKFH9dTOzpIS0W1SW5%2BebDnPbB6AEMbuBpwKJ9shiWxHm2zHBiuMpI0TZ%2BIrgul%2FTE085YbsgTiDYWIS4%2FKKQyf5W8B4veTevJ1%2BMa3vfxkG55BHEYv29x1BYO7wiROgJRcojQNXsTjyUhxqKydH3oPjFuEHt%2B4MU27cn7b0eLwmL%2B%2FaCK4s71guE8ozlrF8cMytz0%2BJqS%2FOFq9rdDXYTKPPNTnFKDiTX2LQ1iUo9tVU6p6J%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11269,27 +11285,27 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Tie-Dye Prizm Die-Cut</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Drake London</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>$162.50</t>
+          <t>$535.00</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -11299,7 +11315,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326420444660?_skw=PSA+10&amp;epid=13061290996&amp;hash=item4c002cb5f4:g:x08AAOSwE4Rnl9ww&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmG9YNf4mXmnFMCiCjpqv7%2BNcf2%2FgHOmcdF0UQNpK8tpGmTPAzTFEO83J%2BEkKoq9NgRJ6b7j4KEFCo%2BD5oge9LmrBvg3EV6LquMTJuLfmKD00qMhkTVMPpLwR893WoPXrxJWF8%2BIxegA2hMcN5fAYAe8%2BW9R3xfVoyJAoVXqandixhtH33tEvwO2gtC2zmtPobNTUmJAbJnV4ekyQZh%2FA2QBR5pYiwnarLMFt0teJ4oaw%3D%3D%7Ctkp%3ABk9SR-Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/256796805900?_skw=PSA+10&amp;epid=23055547748&amp;hash=item3bca484b0c:g:YJ4AAOSwiGZnl9rT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlw7GbOHheFFb%2F3hUX2fB%2F4FZaKBeVp8UYdZsRmM5gI3JiOKjDMZJKXDXNzbsWKJf%2F%2B%2BGJE43gl2T8%2FwkP%2Fk10sajUTrmqOL%2Fh98RGlVZiGoQRaOejh82RjfPiUuPSi7HkiIkdSZ2YYhTpaHzcaj2ud6%2B9owfpNIp7sVsutrwjxOFNnnnMNHBL3Jwhfimiwyro4gdMZWt0aC7dqjc3hnVqS1w7iE26dMffhdtzWYPoEutqKUNSVpUux3CZIN5T8Tc8L7OaE3FT4wvxrFUbyV0uN%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11311,27 +11327,27 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>DONRUSS OPTIC FOOTBALL RATED ROOKIE</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Rated Rookie</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>$535.00</t>
+          <t>$224.99</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -11341,7 +11357,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256796805900?_skw=PSA+10&amp;epid=23055547748&amp;hash=item3bca484b0c:g:YJ4AAOSwiGZnl9rT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlw7GbOHheFFb%2F3hUX2fB%2F4FZaKBeVp8UYdZsRmM5gI3JiOKjDMZJKXDXNzbsWKJf%2F%2B%2BGJE43gl2T8%2FwkP%2Fk10sajUTrmqOL%2Fh98RGlVZiGoQRaOejh82RjfPiUuPSi7HmdfBHmRalQDe9zel8ZSbeMUu42vRiKGZRyvJDh26mhERh53lXMUQF%2FwoqKk8sj7Yilp5eqL7oyuVpNfEQ0%2FoO%2BUGh0Navnf3bAIEugqkMmBqzQc0Urh7DWOW%2BHIEMOzuwaUoGPpbE1fXkk2ww6gVMO%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176818285769?_skw=PSA+10&amp;hash=item292b30ecc9:g:XyIAAOSwtDdnnsTG&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl96jYXqu0vmYT6Gp1tqC93N4xcEDj1wpcbn9%2FKiuu1zSx81TYzgONCrDInu275O9q5UtbMeKkmIzhKYaT0o%2FVL10VIcNtOuPFlylOROniDX7RT92krJiML5E63l2Asb7wKykU0Y9ra5wg9D0cXER%2Foc%2F4gaslF5XYqVV8QHKD6jj5CXu5Kw93jU3JdCoafpShmdLjwJmdbn6T2xtWwisHhqRTqGec4GTrs3dTi%2F60CH2%2Fk4zrmd6usEZnkh9jgxyomiMM2cfPwkuvqttckvSZw%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11353,27 +11369,27 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DONRUSS OPTIC FOOTBALL RATED ROOKIE</t>
+          <t>Leaf Metal Draft</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Rated Rookie</t>
+          <t>Red Rainbow</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Nico Collins</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>$224.99</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -11383,36 +11399,20 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176818285769?_skw=PSA+10&amp;hash=item292b30ecc9:g:XyIAAOSwtDdnnsTG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1DqQpRouXo8AxUl15mopsdSCOyhDPcg%2Fi%2FR67Lag07lGjIniJyXHlh91VZvNyFEHJ4IKKPlJjYZjlJSVtOzuE8nnf%2Fr6wGPevaah6%2BcGEe1VoLc14LR2DrfLenEFCvFaAPAFmOvgsz3PClfsPvQg5v0GBsw4FhOAX%2FdtJam691pl0wyw1mRrXvEIZdhlWbi9WLNCid842uQcxLBcahexByPzCn6QFjFY5d5hdVq7N%2Fg%3D%3D%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/396155880212?_skw=PSA+10&amp;epid=7055559992&amp;hash=item5c3cbb0314:g:0zoAAOSwNLtnhWW8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkW0vVzOwzfleJS%2Bv%2FTPi6ZJbJZGPqWjo9yCApBELWaDsu%2FQ27Glk3UA39vSuvTlSX4FVcVQOHtH5yvu1%2Fsxgx2KwUDqXLlebOs0Xa9xEZrPyF67M%2FICxo1LSYYi8Xbd9cNpN1OwFYhelvAXocdtxv83w%2FpbiJoitkDStfhfBYNRvhFRiMQTco4LuTQ8Vy2nh2gbOdJk6wnEp4ScOpaOORrW39l01fUyXNWVO5kbWzkzctRQOOkeSZQb3ZpvSf5J8WgInmxpSsTMtnKNSkhfcT5%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Leaf Metal Draft</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Red Rainbow</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Nico Collins</t>
-        </is>
-      </c>
+          <t>Baseball, Basketball, Football</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
           <t>$150.00</t>
@@ -11425,23 +11425,39 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396155880212?_skw=PSA+10&amp;epid=7055559992&amp;hash=item5c3cbb0314:g:0zoAAOSwNLtnhWW8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmFmvEUx%2BKM7oLOwNES9jxffLK1JuXyAQcG0bBALyLjsVGFYy%2BeuDSwc1wza%2F2tyznRqfg7qVgri0asZNea9AIOqoxfhEz%2F98M5m4p6ASRD6DMVqcKGgD16dj49RYFMxWn0T4GJM8lgVmRt9PpOJFDNG%2BcIR5pZXC%2Fna357kKP5%2B3RBurbN1Wsy6LKP6FBSJ9fi4atN1ZeSfhYD%2F5Vvl38WE2Ny9Ve8vlgiVaXAVY45tg%3D%3D%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/205264004328?_skw=PSA+10&amp;epid=10055890576&amp;hash=item2fcab024e8:g:yJUAAOSw2FNniowd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnD63g0tNh8c8XiZ1gv4sDgSM%2BRcmd3pVeRuYbHxHBXBwJa7EmqUYdHwX6r%2FfzWOYnysniLS%2B2bJ1FAEbHdkOzAUpBHUZ8JYcsqGoztJ8TU7MAAWzyReR81Yssf8dYVoqSoKstCpfq6F15ptrGOa9q4MBfPdNRPl5sSzGawz6ISjcepobbKOGc4HKEBQiwXpmSB65zai7wnos0dOPFTOmxRqIK%2FPSY%2Br%2FcJkZSoSRNn6DFpV4nF%2BErCGdZ8QyjGiECy3DOfM7%2FGGjJ09rnABqEH%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Baseball, Basketball, Football</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr"/>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
-      <c r="E285" t="inlineStr"/>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Hyper Prizm</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Patrick Mahomes</t>
+        </is>
+      </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$341.99</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -11451,7 +11467,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205264004328?_skw=PSA+10&amp;epid=10055890576&amp;hash=item2fcab024e8:g:yJUAAOSw2FNniowd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnD63g0tNh8c8XiZ1gv4sDgSM%2BRcmd3pVeRuYbHxHBXBwJa7EmqUYdHwX6r%2FfzWOYnysniLS%2B2bJ1FAEbHdkOzAUpBHUZ8JYcsqGoztJ8TU7MAAWzyReR81Yssf8dYVoqSpOXmzkGKMTHg1HRNn0d8QkCoPxa43t8S9fbR15Klpl2XNIMDADe8MRnlapD%2FuRLQfrxFpbQwHuTTEm33nHJFP2qWUCX2AkAejFzxY%2Fic3rGVHmskgn88J2cZkDVflQ9Ovf0oqmdFbnE3Uh52nEI5Z%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296863782460?_skw=PSA+10&amp;epid=23055627311&amp;hash=item451e75d63c:g:fQMAAOSwypRnU6PO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkpe8Dnf7vDSV%2BKD9botkK%2F9Lt6%2FAg0z199MZUpaNmeuw91FaevBOH13vS%2Fjp5fABSdMYBcZfPjz8sWdhi0Rly415f9j2NXSyZZas%2FSIrDWOsrzVmJqgFjd5Su1z6JoKPGF1kspso9H9GrfaqqNc7xMyLSvGNfFPEFitlSbrXAGo%2B4j91xHYYebIAL2rTop9dPqED6b3wN7jTUbaA3qfkoXHuI2B%2FDkQV9bWlSoAQKqFuTkupTgELbkmzyW%2BWEdMxRN%2BVW%2FTnPaCheHpt8JhVaJ%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11463,27 +11479,27 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Rookies &amp; Stars</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Hyper Prizm</t>
+          <t>True Blue</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Patrick Mahomes</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>$341.99</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -11493,39 +11509,23 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296863782460?_skw=PSA+10&amp;epid=23055627311&amp;hash=item451e75d63c:g:fQMAAOSwypRnU6PO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2B4Gd9ZrRtPnigY6XBVqucpBD%2Fe2VCsi1xXXDwaYIG1n54S1SBqxn31%2F5XolYIXkK9EgNOcggYQVq%2F51BbFcM1f%2B7lyOvaHpHoVU%2FTIbsrOL6Bxl4NZo4y%2Bltb9OyLaGZFtRaZ%2Fh%2Bv4cyL2EbjmVkVGelr2qJwmTi1nCaxxeljFFrzxybM9UgLNUcngdCBrUjciI4hnZMLoVqA6DOH6rTbvW%2FOeGTwNN4kPnkZOVFk1w%3D%3D%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/235912558906?_skw=PSA+10&amp;epid=27055563313&amp;hash=item36ed7bf93a:g:WYkAAOSwuBdnhSh3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk3Z5qHEnL7efmo6RXvcPjcqNrd%2B4vuCHoffnuePW43mubxFRzDjIWdWSoTOUMfUG3puvHQJcdRHyb8r7yUKhlmG7SdBnNgVfwQyRQYhXlueZwd7gjUYtCEdSi%2Fr4gVwJBnRpvtKuuOu9v2RTZc37jEXbDUgkr773vPoGJfeRykTqtYjAY8Wl3PAmUYrxhxhigMy2isO8q2bAWdp1jscrDMpeFBjffcHzTtkgGghvD9YvEPmE5prpuasm1Fs6N%2Fb8XU3qKEEwN0DAHQx3tdCDZ%2F%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Panini Rookies &amp; Stars</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>True Blue</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>Christian McCaffrey</t>
-        </is>
-      </c>
+          <t>Basketball, Baseball, Ice Hockey, Football</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$295.00</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -11535,23 +11535,35 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235912558906?_skw=PSA+10&amp;epid=27055563313&amp;hash=item36ed7bf93a:g:WYkAAOSwuBdnhSh3&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkzCnnnmwq7n%2FZAS0eWY80PXN%2BkKfCakW5I0YvSn0LTLdvJLewbUqy9dIsm5CJLKG1QrZziFrzR9nxXCfh4bg3kbYQjVEoXxomWArVY7c5rJuWsi%2F2%2FokeGGKBtmhUXajd2YetekUxII83FeRtrwtgJuiMB7bHAVp0TLhNtpWxDTchvjiQ0Mc7In2BagSws%2FYVoarNX3ZCL6xmFwvF%2B31CwPQb0hrEKGyAA%2FHUaLkyTMg%3D%3D%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnuyI2ZglHeBl%2BLaUEtFjHiNGPK0qTVrYdP4btjA23woz2c1Qutl5%2BqXhi72YrO94rrApgwbpclciM0%2B%2B2fuL13XDTnj9dD77CqQoH84wviXjAEsWQUbwNPioSKK7NTQdf4TJcDM%2BHDQPPS7GFVjPMWZBjl%2FzuvshCTAQBgHpsYKbf6cBbJovh0fMn58CB6Cl5JSbP4MD619PpeP5h56KYrAC83LASUsBb6unl5Z2becg%3D%3D%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Basketball, Baseball, Ice Hockey, Football</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr"/>
-      <c r="C288" t="inlineStr"/>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
       <c r="D288" t="inlineStr"/>
-      <c r="E288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Patrick Mahomes, Patrick Mahomes II</t>
+        </is>
+      </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>$295.00</t>
+          <t>$799.99</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -11561,7 +11573,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnuyI2ZglHeBl%2BLaUEtFjHiNGPK0qTVrYdP4btjA23wozjLNLciWAQRblm%2B6HSRvrumhSGix9ufR9VlNID4X%2FA3CgQMR%2B%2BrWl9AB9mWIPBH4JjDk6ql1gRvbQfIfctVjb66Ak0eFbbxQj%2FDh9jl58c7sanGKOD2PqGbBpftje62fJNfoTqgp4gXQwgGe9z2Ylji7Dx3R8m4BR8DU5Usl4GS%2FxuLh1sVbeSke%2FqWz5uxxw%3D%3D%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/226572492485?_skw=PSA+10&amp;hash=item34c0c5dec5:g:Q8UAAOSwhflnmu7j&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk7gmIlJ6aumjoa8Oqtb%2Brtrzhjymdstqdrbo7Kdqxj%2FvhdkylxFY4bBNltLGfn07rmCHy58jgKRCFk3Qo8%2FlfT2gJphD81D6m2flR9Mk00N5RMeXY3DXNQS0Wey%2FIc%2FXLlXCwgBkQPhJ871jyMUyd%2B9iB0tejo26ELTKCucM4t3%2B73jlKvyiM8cZAkTPh8pFGXLjD4Q%2F6O%2BdExWCmdraaI1iDNwrrugwKuInPpoy5AYw%3D%3D%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11581,15 +11593,19 @@
           <t>Panini Prizm</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr"/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Silver Prizm</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Patrick Mahomes, Patrick Mahomes II</t>
+          <t>Myles Garrett</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>$799.99</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -11599,7 +11615,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226572492485?_skw=PSA+10&amp;hash=item34c0c5dec5:g:Q8UAAOSwhflnmu7j&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk7gmIlJ6aumjoa8Oqtb%2Brtrzhjymdstqdrbo7Kdqxj%2FqhuPWQ3MDlgWEuZ%2FUQFKhi32ANpcGynhhRYAKrfESfSueIdHQngnQQueJQ4K%2BQ8d6w6JUgVqOvZ3QGddEAjC%2F6COewMtHUaSzHx34aCTpOuE%2BccF7%2FlOodAjh621XWdcHnqVfnsMfVrohJP2m446zHA358HY2oOGW98aLDYPboymIJ9iZBX4kIBeYP2OGOWMA%3D%3D%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/267144553473?_skw=PSA+10&amp;epid=2326652289&amp;hash=item3e330e6401:g:MHMAAOSw7~1noPg9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYKyNwbzLX31yrZphJpLAATmQpf1%2FGzLPcjc1m%2FDbHYszumFMJ%2FncwcFr0MsPNxz38xOz7RyreE%2BwS0P%2F4Yi9cRvtp%2Fjpz3lLrob3ppL%2F3cJ93hlF6qPb6gYS%2F6ElsPfjNcYSicOlGvBGnQxz8p0dzMHi%2FfTa3rOBHJfYgRNvxXVGLc5iltM8OceIHgau9bydEb78UWQiSjZcl32PJC3Fao4i3Rc2kkZW4%2F4ywYZaYwWWL258Ks1DCF%2Fut7gXXTEspUHLsNMamhFJXj%2BQeSU%2Bh%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11611,27 +11627,23 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Silver Prizm</t>
-        </is>
-      </c>
+          <t>Upper Deck Ultimate Collection</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Myles Garrett</t>
+          <t>Tom Brady</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -11641,7 +11653,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267144553473?_skw=PSA+10&amp;epid=2326652289&amp;hash=item3e330e6401:g:MHMAAOSw7~1noPg9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYKyNwbzLX31yrZphJpLAATmQpf1%2FGzLPcjc1m%2FDbHYszumFMJ%2FncwcFr0MsPNxz38xOz7RyreE%2BwS0P%2F4Yi9cRvtp%2Fjpz3lLrob3ppL%2F3cJ93hlF6qPb6gYS%2F6ElsPfiqqS%2FxmG0lnRL%2BpFjz6LRJC2lIVo58mHCKihLeD4dC8oVju06DMTF3VQR9nnCCZMDAE2nEZH9b7Cl18QH9h%2F460w91Gf131iwKeJJ7Iun1PPiy5%2BDtpROiEwjdIPF3bpXp%2BgagwyW6xI3w2CmSuHf5%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/405519224800?_skw=PSA+10&amp;epid=9055580444&amp;hash=item5e6ad44fe0:g:FDsAAOSwTOZly1X8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlMR%2FeR0HNLwarjGoQ9sDAkZyLzR0aZdnTfW6Qi1Ko8P0T8a1CxLuedFEww9I5a5O2iCclt6g3%2F7%2F3eOHHnXQ0GgGS13A90CtCxulDmz%2BoO5NP3HgUkmngA9cKKFPVER38u%2FHzY2RZeMKeM%2Br%2FRtIwH%2FGor7N9rr2vR%2BpJcDwmvXLFjJdz5XDlFXxKXF%2B%2BE4Cj9MAYY7u0QeZFzwrf1lXg8%2Fsx1CgVDDKqepvARd%2BWkcQ%3D%3D%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11653,23 +11665,27 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Upper Deck Ultimate Collection</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
+          <t>Topps Composite</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Refractor</t>
+        </is>
+      </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Tom Brady</t>
+          <t>Bryce Young</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$151.77</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -11679,7 +11695,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405519224800?_skw=PSA+10&amp;epid=9055580444&amp;hash=item5e6ad44fe0:g:FDsAAOSwTOZly1X8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlK7rViJsOhGnS0d0%2FNmz3Z3rqX4UjoDc7pk%2F3cm3U7dochJublJPNIFD59eRsgogKmBPPjlWKI9tgBj3R9fbc2Z%2BfrdBIFtX4aItcjkFYRK3hvg64oEq3PxfzBlzG%2FVtvzNZux9%2ByED7rFEICok4EyA87fFvbJFB6EiTH2FW1Fm6N5yQhZRyCwTHynwhtXWdRODlGyc7LngAMY86skDinmtXMvv%2FQvaLvKXUSiEQ54yk5hnRh8SmarWUGG16t4WGeg8TCLvqXaBWav5VdtxIf%2F%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/156658664040?_skw=PSA+10&amp;epid=7071132581&amp;hash=item2479958268:g:lPIAAOSwviFnl84N&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlEMn1Xd3vZByhHu6ib%2FIROev%2BR2%2F4yqqXg9xiJ6Ro0wdPnh8HKe4mlxAt%2F74LRayZaG4Ig40FCRNY1BAO0ZqQ3aqqotuSnxSL0rhIOBorHVqNWRs8GDsoa1pUtytm1pjNLDy4Q5XIaRzG2vx%2FlFLYzh%2BgfZXyeNAcLOtvk%2FF8w%2BtLUQUSFpHo2Bl5xwml5XA6Y%2BKefPq4iutfVY1%2B0UlnITSfQ2Uy64GFC%2Bjl1DIhXrsGqWV0JIsIMwkbktBlc6zF7VnSJf%2FcUTraafaxYkwY7%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11691,27 +11707,27 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Topps Composite</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Orange Ice</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Bryce Young</t>
+          <t>Brock Purdy</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>$151.77</t>
+          <t>$284.95</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -11721,7 +11737,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156658664040?_skw=PSA+10&amp;epid=7071132581&amp;hash=item2479958268:g:lPIAAOSwviFnl84N&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkvufmNqXSx0CUBU5wEjgqHFBy%2FFVHhRYv9wblNJEBZXPiK6ZaPF7gYTK1E5Lk8oQNfT762Zx7SxIpHBxhdR%2FItGLDliUFOvDZPLbBFDZQl96iN%2BowAY7enLJQ9%2FF%2BWF5ofdtfttMw%2FtDbHU2m70tZd4K98VsDeEDE69CIfmKkvIzi075oUUMLSS%2FHu8KtAma7KajzMqpfGeUgF03VRsQh9bXn2SjIkMCH6mC9XLVJfsA%3D%3D%7Ctkp%3ABk9SR-Knl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176719180564?_skw=PSA+10&amp;epid=19059460009&amp;hash=item292548b314:g:Qk0AAOSwkhdnUJix&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkZusX4Dh1aj9VWef%2Bh%2BEtCkm5topWkjTmw2aNw6NmyJwp4zsbIFvRMjaDaigxflMEHRrnmu45aVs71FhPUQQcVIuXQUQy9PrPMhCWe7Eiv8bWtkxg9FSn%2FUdDGUr9BlPRiIV9Ck87gdbLr6DSJsWTtWfmhgnJ5vptcDcMBXJXClCzNzBlA6K3bK4pb6pzsFXiybgMEcWH4EytUvEeY26NwtZaeGP3jcT%2BpB9l0S8aR5QM1tiaW9Plw6YCELSd0OPji4MaK1KuRQyYIV8HdMywn%7Ctkp%3ABk9SR6bL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11733,7 +11749,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11743,17 +11759,17 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Orange Ice</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Brock Purdy</t>
+          <t>Patrick Mahomes II</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>$284.95</t>
+          <t>$795.99</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11763,7 +11779,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176719180564?_skw=PSA+10&amp;epid=19059460009&amp;hash=item292548b314:g:Qk0AAOSwkhdnUJix&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkZusX4Dh1aj9VWef%2Bh%2BEtCkm5topWkjTmw2aNw6NmyJwp4zsbIFvRMjaDaigxflMEHRrnmu45aVs71FhPUQQcVIuXQUQy9PrPMhCWe7Eiv8bWtkxg9FSn%2FUdDGUr9BlPSJnla8APNow0RKbMpmbEprW7mrePGHYArBTrsFkCoNgxAbLNFb0r0zOCKWawK%2FexzFGWu8p5mwSM7Cz8R7%2BZ1R3m50lFr5CZSegXYzzNg666%2FpiGzU8rXROQhhEGNUaPU%2BhU14gbIuqmqiIGsdvO4G%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/335793444461?_skw=PSA+10&amp;epid=4055786583&amp;hash=item4e2ed9566d:g:sp8AAOSwD~VnnnOj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlXI%2F5SjokRE%2BHprAZiomiQ2Kr9i6Pc4RFunFtAAtuEGcWD62yck%2B9QBvvjSunLY2vAMEA%2BAuHvozzIXMa8W9WQzzeNhgJUQm5%2Fn5kPe%2BjxpUifdMEBNRwzQ2kmVWkILnugiutMNjmhSQBVSeR5hWM8KiMd%2FB%2B8VssLYy2P%2BcBNhn2ijFkfSAn23kyGKg14ne6twcHGSwC9DRVcmbJULsdxi8Cuc9baaoYIqLPbmKHlgw%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11775,27 +11791,23 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
+          <t>Panini Donruss</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Patrick Mahomes II</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>$795.99</t>
+          <t>$213.50</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -11805,7 +11817,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335793444461?_skw=PSA+10&amp;epid=4055786583&amp;hash=item4e2ed9566d:g:sp8AAOSwD~VnnnOj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKn0Tm%2FJ8cfMByMl48Cw3ZVFoD80Apm3E%2FJbRpN5odZCWwKnQ%2BnnNceNYT6LPWJe1aEmPW4EYFUR1CwP5f4U28Pz7F%2BRnCO4Kq0OI%2Bz098RUG1AI2jf6OZ%2FBI446%2BL3gIuCrgoAQmEQx0heALpMwUJjbz2H1Pk7Ec7FHzwMWEIxnoOhakCPfBO9EYGycyeXerEkekgRC3F7uT2Fz5oOUqy55cZCnnVUTZR%2FG%2FDokJwrIZZSb3GIdGOBee4CTDldn1fvlnH7U%2BRxgMajB4kYj5pCh%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/167278652885?_skw=PSA+10&amp;epid=16055566421&amp;hash=item26f295add5:g:LUUAAOSwlb5nl8m~&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnGWxFplOgMQguGnu27tzxtpez2BEXXFr--3h8PAR6AHPCgYp5kJq7eGx4S2vrKg9YRrF0NcTdsPOyMJXeaTsGkV3mhL0VmZXzAEErdeqasUSRFJzlCWur12sYwcJ72x2pg9zOgsE9vm5TnHbtrdb%2FZDRP9CG3vpcSJjY7K5SRJ2B71mbzAy4qJmP8AepLFl5LpRpi6bkJmYJ0vWA0WfuA9CJ6IjFhDLoRZG2T8A2tLz8C75%2F3G4rvXlQclJ9VujwidNEVmOWYSigVX0mp5tnEu%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11817,23 +11829,27 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t>Panini Select</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>White Prizm</t>
+        </is>
+      </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>C. J. Stroud</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>$213.50</t>
+          <t>$336.11</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -11843,7 +11859,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167278652885?_skw=PSA+10&amp;epid=16055566421&amp;hash=item26f295add5:g:LUUAAOSwlb5nl8m~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnRYYmbVplwK2xhH39eA8mq3jSxE6cNA8UqSswIsuePwzuV77xkFGAKwrKPA6Z2J0ScjaYr7acTSS959qr5jYSMoNF9CW1RjQU8hTmb18YHE%2BBmutCezKK13R9IcMk7GfvHA56UKFCQiyt9C%2Fn38WdaJvRxCzluldrLGLdYa3FGLvXPWbxcidMRA8FbFazg0ne3uXT09SJr5stZa50m9R4aDGNISfa5x8hwZLl809w0yA%3D%3D%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/116458954952?_skw=PSA+10&amp;epid=25071754355&amp;hash=item1b1d7ea0c8:g:9IAAAOSwTVlnl8ZB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmFKU8G%2BgFbOxm8a2oAB9u6OinCmACdnNnpR%2BhRyKbD%2FAmFdvW6caKG8z6VxxpTGKWUuztF9Giz%2FlRvZGVTu%2FkLrwSr%2F7NnvzJFjEPUKSq9v9S3EdRftwNZHQby7K3y9vA%2BgwgOOIbz%2F7eDbv5fV7HwA%2FXYzszXCkSxUIKo%2BbQkO8p7vyffUOnx3Vl7tqMIVF5uw%2BRwsxEirkMtSDCBGUNhwXUgoHDmAD%2BrGFlS%2FNxmUg%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11855,27 +11871,27 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Topps Chrome Mini</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>White Prizm</t>
+          <t>Camo</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>C. J. Stroud</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>$336.11</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -11885,7 +11901,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116458954952?_skw=PSA+10&amp;epid=25071754355&amp;hash=item1b1d7ea0c8:g:9IAAAOSwTVlnl8ZB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkpQYkYXfa0bdtvugpzFKU11aYff1uMo8c7Qu6ET3%2BD3dh5XnIR97VfwuooZkQh%2B8YEltvO0nT5D%2FWRU3%2Fgc4eDFMq9cllRYmTYxdIESnH5IxKqrYnLpNmv3zEQVPA2IH4EjsGiLJiWu4zF9uRxv%2FRbyE4vzwJO33ffEXcb5LuzCedXBr5bBDHjwSitK%2FsR0GNOh9D4g0BfvnRbiYZqhwseKJsx5kaxdivKAnH%2FfWDJzCWxylTlhAZR1Fp6YDmH6l950%2BVThVR8UR43EU9LO3sU%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/334973032587?_skw=PSA+10&amp;epid=21055535584&amp;hash=item4dfdf2d88b:g:jE0AAOSwzDVkylkA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm8O28u8UR5I6zHOgv4O8nEE4dUW1HMM5of%2BrYnxUFtKsqlaZNStDfah2uRAzbCPjA%2F4w2wx7DrvsJNzXEbXlfZ67BUZvhC2fS0yd0VdFWPxW3ZUq261N7KQXvHmO%2F0kwn45ELgFxlHwTruvpKULP3EuG1PnVFdMhWEuMNxoIhqStqO8VcdqwIeStyArTeylRLc9sB5uylfVRcOtQ%2Fw8HS%2FJI1XnB4Feiu9TgpFKNxpzYVP8Ou92IeGtFTevRuTOGZhwCCXK%2BeQ8c%2FdZlK%2FLObx%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11897,27 +11913,27 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Topps Chrome Mini</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Camo</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$229.99</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -11927,7 +11943,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/334973032587?_skw=PSA+10&amp;epid=21055535584&amp;hash=item4dfdf2d88b:g:jE0AAOSwzDVkylkA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm8O28u8UR5I6zHOgv4O8nEE4dUW1HMM5of%2BrYnxUFtKsqlaZNStDfah2uRAzbCPjA%2F4w2wx7DrvsJNzXEbXlfZ67BUZvhC2fS0yd0VdFWPxW3ZUq261N7KQXvHmO%2F0kwkD0ZG1yzUVXnkcjjyJxXvAdq7DM09v8cqYsbnTJPpUWpIYwmYaxRK7tLdQ%2F9LLd6o3EfERyusVQJCCiamLBZiLRBA4DOm3pSMpXVI6HjmIt7czm2np%2BhOOQUfe2w1P%2B8oF8c6TEXTfiAyCPGPK5QAf%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/396170093610?_skw=PSA+10&amp;epid=10055532947&amp;hash=item5c3d93e42a:g:9eoAAOSwa5pnoCf9&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlXLC1nI5ECLVKMWzsJn%2FsE2Y76Hha3An2c6U53%2FnOxrnDud7fX8P35f14QzYs98FOI6ijkrkSDydub4ljMp%2BOIciAY3NPK3gKNpqRj3zkBAww09nkfXs67ljJcm4zhzw56qy6DgcHcvu914Nys4d9Qf9zhN35KiSUNUxoBSsO%2FcmOc6IxyRjORlumFkQiMu5xiIJ7idRoED%2Fzuuvhi8r3O34mh8po8olf%2BlOx%2FvlHeAPBJMM1siFAsHf1nYrRP%2FGK7gRxqHtea7WPRsQfMDYPW%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11939,27 +11955,23 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
+          <t>Topps Now</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>$229.99</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -11969,7 +11981,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396170093610?_skw=PSA+10&amp;epid=10055532947&amp;hash=item5c3d93e42a:g:9eoAAOSwa5pnoCf9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKklowNhNT3ynZ88XWwz7zTWhCySk0Ubo5yiMpd7%2BvfnuiK1nqubVB6JTB1bbwcUYhBic8y4n4mlynb6g2x%2BMM0g9InJLsctDafKTuUprVzJO52a3wv9QUALhZN9713jd%2FZYS4stzaOSgQNmCxnA5CZJf2Opx%2FG8cyN8Vqqd6fW%2BebzYWIAThPyOtfbaIAsskp0FTmHBsdq3VocWP%2F949L8TKolObTdgY%2FdbgCN%2FWEPsIA%3D%3D%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/316171581941?_skw=PSA+10&amp;epid=10074615973&amp;hash=item499d4b79f5:g:Nc4AAOSwzwFnm7jj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmX5NPX1fR4YXvClcOQ%2BkxzHlsqHlA82HgGDdk17RDbvye2hYLPp1LgWarzoi6JZzkVr9C2%2FY4BSXDrD1jXtfK0AiTRPyGdINU8Db8P%2Bv6mSY22CCtZjseEkXu%2BhcBGFMp7EFqnR6uIZDiWJ6G%2FOkbiGJBtTFJO04SlxvfCPnV7n%2FHB5i%2FBvibm2n98gCJbNcSRT%2BVXLhPxEA6uyp3W3%2FaOhjiJ3s9P56%2BolS4iEWD6w%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -11986,18 +11998,22 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Topps Now</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
+          <t>Panini Mosaic Football</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>White Mosaic</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Jared Verse</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12007,7 +12023,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316171581941?_skw=PSA+10&amp;epid=10074615973&amp;hash=item499d4b79f5:g:Nc4AAOSwzwFnm7jj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlmX5NPX1fR4YXvClcOQ%2BkxzHlsqHlA82HgGDdk17RDbqb22CJLquHZ9KThnzQ2iE9slKP2x2WgxoO0Y8wyk3%2BHn%2FNsTZrweKDuYcwyelLl2ge2IG8gfYRFwgoKn8%2FPEcMS1xmjmXNL62A4arfRHoWojH6lwP2ihnuycOXVaR0iFlWN7tHkpQRsOlPebmyXBL2bPzFR56MkKHZFY6%2FobvF5o5qVxYBu1tpti1WBdJ%2FfWA%3D%3D%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/235939846281?_skw=PSA+10&amp;hash=item36ef1c5889:g:STMAAOSw-YVnnx5T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkk%2BBuDyYTLn0%2F68W4EfVpSLlcDdYd7A4MJ8fW44cNBIGD0Uk0zz1YTz%2BAkABCR%2ByqkZiIHzeLeXeoZgTECokta4WPHuLTWq5uew7HzI9QYfLvSf1FP6QK2lPIf9COTCU0%2BOukxAZmymzw10YHsF8KpYhPFijisEncNHeJuPQkEM%2Fe0wuiOWVtnv239GugnOKDdKhINDIY29N3hxpUUebLNYjS0312hH1io%2F5yuiyvYtVhXXj8FY1b6WMiICBOb2XPisuoqwF82a3TEEc7uU3z%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12019,27 +12035,27 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Panini Mosaic Football</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>White Mosaic</t>
+          <t>Honeycomb Prizm</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Jared Verse</t>
+          <t>Brock Purdy</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>$400.00</t>
+          <t>$224.50</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12049,7 +12065,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235939846281?_skw=PSA+10&amp;hash=item36ef1c5889:g:STMAAOSw-YVnnx5T&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkk%2BBuDyYTLn0%2F68W4EfVpSLlcDdYd7A4MJ8fW44cNBIGD0Uk0zz1YTz%2BAkABCR%2ByqkZiIHzeLeXeoZgTECokta4WPHuLTWq5uew7HzI9QYfLvSf1FP6QK2lPIf9COTCUzO05BSvwZg1LYJHXkf9zIuFnUGsuwmSXzgaNGRKmXxiNUgkO%2Fsi4ciFKan3ZHJ7w88wdrhkqwmCRFcdBbBKa9ofq%2F5JMZniiwvAQcJLZVRSgMaMJzfK6o4K6hewzSa%2FGv5vAEhMUrPzeuFBYQzZ2L%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/356500848807?_skw=PSA+10&amp;epid=26062932511&amp;hash=item53011b40a7:g:OYwAAOSwWhJnkB0P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlJOWgdJrrlu4a9Ck2jk68KCmRsCq69L6Rd2ghbq9szqvKvDL4kiJcwvd5fjZvdEMybLxkVftv3NLTjS%2FZKUzMdKK2x876Sm3CuXaxkUMwtWwwwiwvwOFY4%2B1OGOyLwAfsBjXHcJ0EHFXQKH1zXHaZK9WtQYVBP1usu72rgYADk7DRU21reByaEjtDloVbMNPlKYlbDeMRI6l70PxhNXSEukj8yCxMYwALZt1EHIZGIDA%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12066,22 +12082,22 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
+          <t>Panini Instant</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Honeycomb Prizm</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Brock Purdy</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>$224.50</t>
+          <t>$750.00</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -12091,7 +12107,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356500848807?_skw=PSA+10&amp;epid=26062932511&amp;hash=item53011b40a7:g:OYwAAOSwWhJnkB0P&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlJOWgdJrrlu4a9Ck2jk68KCmRsCq69L6Rd2ghbq9szqi96TSAnVCMdGMA%2BHv7Pw8MB6j1F%2Fl07WRKjiPnSyTU7JesTBdxY%2BboqZ1Pf%2BniTgZtxUrmveQBwNgUHJDCIayIKxp9y3nOlaMYMRBS55GkzUKd22EZTMSrF4u2OkZC58DV2355tODnNzzGGlErOp0Rl8c2Aw3%2Fyvg5%2BP1WSIHVQzHe%2Bhv1qt%2FY32umeNq7YtQ%3D%3D%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/145937532290?_skw=PSA+10&amp;hash=item21fa8e0582:g:8PcAAOSwVmpms82Q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4dopXpgNS26w1MpvI%2BrlxeIUAIJj3vACgGzNHEOYcVp3bE9sfy3WbsA47ruQfNKXNQceC2Xf3tM7vHCiLAue7kJ5O3dy6iPx9gNC1p8Rs79V%2BhXhSmZ00N%2BOF2%2BNusSEcnpzKUJEdh1aAsEfQ0L6iWsbpT%2B5HEPcZNhLwCtPye14Jye%2BXzpXLfhDUUp%2Ffaw%2BKKacYSnBjAFa21wVe36wDXuR3R94jh%2BLhyqOw3Mc19w%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12103,27 +12119,27 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Panini Instant</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Red Pandora</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>J.J. McCarthy</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -12133,7 +12149,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/145937532290?_skw=PSA+10&amp;hash=item21fa8e0582:g:8PcAAOSwVmpms82Q&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4dopXpgNS26w1MpvI%2BrlxeIUAIJj3vACgGzNHEOYcVmv058bICNVS2CJo1GmYLmvvB0b%2Ft6MHxwot%2FB776cwSM3WpxiQhz5ZfnwG6kkgbE9mxHrOAFUb5EVtflATXOCFEz5gGhx%2FGPmYhtv0vtxTESatoGeqYMfWt5xcXOlAPyrCx0tG4wHIW9R57ktmesouxGRKFAujdO3046jhFLT2PyPucHsmg13HdVqZ2qJ5xcw%3D%3D%7Ctkp%3ABk9SR-Snl5OaZQ</t>
+          <t>https://www.ebay.com/itm/226563543297?_skw=PSA+10&amp;epid=3073121636&amp;hash=item34c03d5101:g:EyQAAOSwqSpnk-TT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkWMhwIPXG5AV1FdyQAUnGHxwNvu%2B%2FoTE35idh77B261qEYpbEHC9AAuXa0XYU%2Fr02UMoM1R508oadRZi2lDA6r6ENcPPs%2BsPVOuwxgTSfFoaQIyabj8d2TNeAc1IbYPfLMVCOjQNe0kpQWdNXzhzhpqciPFgd7FXbzIWSTw224iflRoM1C9hWNm9J1fIpBMONVg%2Fme9LfSniz%2BeFPmdszthrdLVFLw7IQ7KKpNJpvzwJsfwwHcfwfgGiV1ZjPbHnlf2S7VeWhfaN1YIrgJ%2FbPd%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12145,27 +12161,27 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Red Pandora</t>
+          <t>Checkerboard</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>J.J. McCarthy</t>
+          <t>Bryce Young</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$419.99</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -12175,7 +12191,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226563543297?_skw=PSA+10&amp;epid=3073121636&amp;hash=item34c03d5101:g:EyQAAOSwqSpnk-TT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnUVXrOyik5VLW40kUswu0AluauU%2B7MHECZjG6twN8SjoarEwxJC1B8XwoebEEOL9nX0WsRYl0AjHdNh0jD1NgdjH%2BP2xKraEtpiUuqX0lKPwyjIxzez7JekjKnCgvR%2Bcw2%2BsKBqRKuvstsOMjjk32Rcww4rF84BNWNJIM%2BWD64sneQ9cvoaZYVf66Y2wFsbE3znI28xN8MabV2oFpz%2BGGjmqdQKdj61Ukzcavo8gBaEQ%3D%3D%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/326384069971?_skw=PSA+10&amp;epid=26065178387&amp;hash=item4bfe01ad53:g:RqYAAOSwg2BnbPlO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnhefw0vj7jKrwfUUQX%2BzEM4vd7sC18XOEGK5a7n3WBPbwajmHHOgMRAIbeN9gYBVNd%2BEl0LBOE7zephAp%2Bgs54nn2e6wAev1ChraWLLkZ2QeKgIGNM4ZoWTlllyZ6PtX6jyklpQUVsS7ymMwFSd3a0L%2BZyeLpoYZyQvUmZlMx8QnK0iciUjrADQMGE4aAu1P1xXXx7vOtS29exmKeJvXJE%2FgPAS3TgSu5TalGi1AwT1w%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12187,27 +12203,27 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Checkerboard</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Bryce Young</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>$419.99</t>
+          <t>$479.00</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -12217,7 +12233,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326384069971?_skw=PSA+10&amp;epid=26065178387&amp;hash=item4bfe01ad53:g:RqYAAOSwg2BnbPlO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnhefw0vj7jKrwfUUQX%2BzEM4vd7sC18XOEGK5a7n3WBPfSSXFXeUoFgy1WlJi9WqLBHp0ufg4067Ah%2BbCUUrZIOCty6XjsqjHOf6eZZCX%2FIbvyd1Jc6Pr0kiCL9n3QV%2Fk63KpmmASXyvwFuINAG%2BGvPiaMtCk7HjG1IAnqvAx1uDbJ5xtplZLyPme4PEUm2vFnQm2X%2FIHrJsA98HFHM4p1crSLfZRxd3H6WTI%2BCJxiDnw%3D%3D%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296387815212?_skw=PSA+10&amp;epid=28055603413&amp;hash=item450217272c:g:6MQAAOSw78tmJ8uj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkAcF9kCClckhFu09Q4oHv4EkBKkdPGZ06Zp2jSjC6Ia5FyqtxL7dk45m9PwPhHQ6DbC3AzmxG%2F2lL2raG45pW7VUYXb6hnszGO03bzL%2Bravvo6aefzgrfKkkf8ENSW8nUdeWM8NDl3%2FeNFznT2vXpibm6jb99A6qBaOcZtWmqqAEcigGHSCBiUrLaN9fzs6jQFVj2yHXP6RBMJ02CcX3JImgGumUDWwD%2FYQNTdREVu4Qqdd%2BfCG%2FJt8i68YjLYGoCjZG13iAvX%2F%2BGv3yP5n%2FmB%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12229,12 +12245,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Finest</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -12244,12 +12260,12 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Emmitt Smith</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>$479.00</t>
+          <t>$319.95</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -12259,7 +12275,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296387815212?_skw=PSA+10&amp;epid=28055603413&amp;hash=item450217272c:g:6MQAAOSw78tmJ8uj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQqYtD5WTcOrgY05tXXFPKat7poB6XoQ11QgWhfIKYIz6NIOL5%2BGgPypeMusx2WkR6glOpCCgNyioT%2Bb7yG%2F01YofP2sRODpLrqSkWv6TW3qwCTu7w%2FWfQBPSz5AQYdKY9%2B62STHKxtIV7%2BVEuR92SjCtEbk8m01tEXJoml4iOAQUs1E95yf9j0GefvWhLY8Huh4RnCZW5894d3in76%2Bj79dWF%2FR43xNriw3UtdnMU%2Fw%3D%3D%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/276711900219?_skw=PSA+10&amp;epid=6055598530&amp;hash=item406d50843b:g:kmYAAOSwMX1nJR03&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlidwFuzZErjCeEDxET3WC%2BE%2FojUsqGn8M1S23BKiVj9jX2yjp2L8Rnq9jLTHdhOYOZ3oIRBL6D1rqdrjiEmo1q6o3gGnnWV1PW0KhJ6oTPal6Gh7kfXsQn8nCRXzAEQw%2B9lgq2wLfFFT0T7oWO7LlOjFqgeaf3gmPqglMD21X9HVtRx0ySm6bgJdi1syV4JpUCzakQW5YuSdn7ucJA%2BPiBYja9WW94IGY9PKIfTxd5WX7e9cSAxeNk67fuvhJsQSC7XH4W0bHR4qX%2B%2Bo2CWoUH%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12271,27 +12287,27 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Topps Finest</t>
+          <t>Panini Mosaic</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>White Sparkle Prizm</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Emmitt Smith</t>
+          <t>Justin Herbert</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>$319.95</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -12301,7 +12317,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276711900219?_skw=PSA+10&amp;epid=6055598530&amp;hash=item406d50843b:g:kmYAAOSwMX1nJR03&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlidwFuzZErjCeEDxET3WC%2BE%2FojUsqGn8M1S23BKiVj9jX2yjp2L8Rnq9jLTHdhOYOZ3oIRBL6D1rqdrjiEmo1q6o3gGnnWV1PW0KhJ6oTPal6Gh7kfXsQn8nCRXzAEQw%2FMSaCXPC2vs12Y7x%2BGg1M9nvqS6bt5V9FtukOEqfZV1%2Fmw4exllaS32xRQ%2BqHjhUGWxjR47sNZqCAPsYK5ByPGHbTLeVUGYAYFu61XsB8tG5bth%2FEtxzNL3U9OykWDr%2FeRFbX%2BqjKuV529tufQc6ey%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/235939412933?_skw=PSA+10&amp;epid=14062917036&amp;hash=item36ef15bbc5:g:Jo4AAOSw9nNnnrJy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmmNSpFG6wTRm1hrDyAKdrZbTvFHYZwfJuL8iFTvkCiTRHQdDd%2Fo003NZQ06Aj%2FISFMYfVUdfO4Jr%2B2T2s0GqMAP%2FHh96Z5cBw%2BQCXDypbP4TrMwyEdqLvKE3i5cDrSEWAIuFWLWNucocRq9D6pCiWlkuW%2F7mVYwkrQ%2F4ZqsOBnyd1T%2B8Qjxi1AieFFdVgmBOvJDMjX0cxByzkwNGa7fUi52jY8bLOsUiyNo%2BYhxnH0%2FG%2BHgRByG8a%2FBfwxa8pi8xxNCpWhnPYkWnt02neWqji8%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12313,27 +12329,23 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>White Sparkle Prizm</t>
-        </is>
-      </c>
+          <t>SPx</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Justin Herbert</t>
+          <t>Julian Edelman</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -12343,7 +12355,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235939412933?_skw=PSA+10&amp;epid=14062917036&amp;hash=item36ef15bbc5:g:Jo4AAOSw9nNnnrJy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmmNSpFG6wTRm1hrDyAKdrZbTvFHYZwfJuL8iFTvkCiTRHQdDd%2Fo003NZQ06Aj%2FISFMYfVUdfO4Jr%2B2T2s0GqMAP%2FHh96Z5cBw%2BQCXDypbP4TrMwyEdqLvKE3i5cDrSEWBm3hFFuxbuL%2B0vCZ1N%2BftL2%2FBn8mIwvycVtS9VqRIqurWg452dtagC2TT%2B0q6e9uBO2QDU%2FqsqmxfCpEEwuQMqQguJ8txMAEdSwslhEEywJ0I9uofmclKMymhnWfurmKiuD4gnAq7%2F08R75Nixq1Zr%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/313932677498?_skw=PSA+10&amp;epid=19055588418&amp;hash=item4917d8817a:g:UAYAAOSwG-diQKaW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQ8mcu940Vsz%2Fp5t93g9Kb41lIj6a7bsWHhhb1CqNsFz%2FDcNUynujGvLcYF1DlfdlDHqUgqN%2BlAPKp5NaVrWnbsGOMptM6MDvb4FNLuxUFktzmT6iVH5xBXI%2BKB411quLjFWxbAyQg040LyhZYySpG%2Fy0dkgvN9rXrklkeDXyZSfNENSeOqQXY5SCJYIiFZvqklt2uKGkjol1oyE%2FexftRbUiA%2F4MWlcqHq46aZSzzJg%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12355,23 +12367,23 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>SPx</t>
+          <t>Pinnacle</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Julian Edelman</t>
+          <t>Jerry Rice</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -12381,7 +12393,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/313932677498?_skw=PSA+10&amp;epid=19055588418&amp;hash=item4917d8817a:g:UAYAAOSwG-diQKaW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlQ8mcu940Vsz%2Fp5t93g9Kb41lIj6a7bsWHhhb1CqNsF1P%2BsXRmOQv4A5Ue0ZOVbt8CbdhaoJu0HQ1p1hv8hbVyPJIYv5VclH3ItyfAJm57SR3SFBkIPG8FzqPdRonBxvgE%2B3hJ9sWc3SXFptVxISO2URwRK4dGc6Qp0ki11JJuitntE59Z8AeG3pJwIK7UCHj%2FbXIrCvGpe1xbPz0pqnUq37Uboo0RW7Oyg9MRy7kmlA%3D%3D%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/226568147664?_skw=PSA+10&amp;hash=item34c08392d0:g:1aQAAOSwEv9nPlH0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlDZ66AwiQ4zYpsbMBeJwbyBAg51CiLcvvymD%2BpKw6EplfZTI63L1fjW1U4nuxfrSxLSV8vkrooA1efhYmPvGNtm9haKWoGc4UxGwA5YyKUM7IhU%2BZo8fRPoXu4bnx%2B9ydVG27%2FCHPw5Ar14rzHfBo%2B4sD3ojfxSeIIY6mSNIteVmCiWI55eajOrMDrE6jYfR35HS%2BJ7TQO2JsUFOWVPJi6OfAAvcceixCMrQqwXPJp3U8NL8wxgQ%2BDb4vVao6Catpg9T67PdBc4AX4aVvKsuQU%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12393,23 +12405,27 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Pinnacle</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Silver Prizm</t>
+        </is>
+      </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Jerry Rice</t>
+          <t>Bryce Young</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$157.50</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -12419,7 +12435,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226568147664?_skw=PSA+10&amp;hash=item34c08392d0:g:1aQAAOSwEv9nPlH0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlDZ66AwiQ4zYpsbMBeJwbyBAg51CiLcvvymD%2BpKw6EplfZTI63L1fjW1U4nuxfrSxLSV8vkrooA1efhYmPvGNtm9haKWoGc4UxGwA5YyKUM7IhU%2BZo8fRPoXu4bnx%2B9ydkIS7%2FMquLjuLxlnXxfYIr4pIRQtCtZWcQ0d4LLjLOthACFavhts9hWBvINwVLmAY6kTiKxSdYPEP8Tkmplu0dzqlisbkKBC4D3kxI%2BCy%2BrlDv9Am3GVfEN0e8nQY%2BzIGFVktc62obX65L8VS1VI6f%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/167278538142?_skw=PSA+10&amp;epid=10065180857&amp;hash=item26f293ed9e:g:cAcAAOSwYBVnl7wj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnr0p62N8m95vlk4qwa73CAYPm2ioUI7fOPluwQjgbil%2FFK%2BRHfSRuLlCz97sOCWF1NOa3X0nlf2JUh0gMoEM%2BW5YF3Te9stp0h7YQHG7b6kA9Uld80BTKHvl9lIBbS3XZo1F1%2F3AdyZUS3o7CVC3gHa9GujC3XQiEJxeICPt8swwykpRRAqTcYPAIn6SoY90H7a0nV7zxsAMeaeViptqcv8Up%2BCBLaHHKJqeynwe%2Fd5A%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12431,27 +12447,23 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Silver Prizm</t>
-        </is>
-      </c>
+          <t>Topps</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Bryce Young</t>
+          <t>Joe Namath</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>$157.50</t>
+          <t>$9,999.99</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -12461,7 +12473,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167278538142?_skw=PSA+10&amp;epid=10065180857&amp;hash=item26f293ed9e:g:cAcAAOSwYBVnl7wj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnr0p62N8m95vlk4qwa73CAYPm2ioUI7fOPluwQjgbil%2B3ru4aGDkdGzTXqvjVNIIFUfV5xY51Jq5LcswhF65zCaNoCPjwHKp4muphosSq311LDs81P%2FMeqIKv%2BSsOz%2BYtPwcKGl6%2BJ7RTedOm2G2zy2II0tChifxeI98Cezf3WPN%2F%2BQG6U5WRZxZHRDje6iPHL8v0pC1a0pyEtz3Hlxcq1UPzFTiZkURszmAr0blPlyw%3D%3D%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296977820548?_skw=PSA+10&amp;epid=20055602566&amp;hash=item452541eb84:g:5UMAAOSwc4RnnTId&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmD9%2B%2BogvVYWZQD4U%2FDZH5pJcLj8TvlBSPtRq0JrIAiVrNu5fQEdHs%2FGPUB1riSYk8Nf%2BwoxPs8jTBvR8AJyoCz%2BKHrUY8ezLpkHsJvBtALK81DWLEHOPOLgPJbwldhRCRowys7ITxBuqXFO9c%2F%2Bf8z%2BY4aLqQWvVjI06f73QYv3vtG7o4wcCCq%2F0LsnZCRPAGRhbJin6PZQspRnX8oc63a1LNcvGPZ7IICoHcKu2pgxAC5M70GsJLEuCL%2FiTM33TGqmPgA1k%2FK8O%2BZFcQKqiBu%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12473,23 +12485,23 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Topps</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Joe Namath</t>
+          <t>Myles Garrett</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>$9,999.99</t>
+          <t>$164.99</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -12499,7 +12511,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296977820548?_skw=PSA+10&amp;epid=20055602566&amp;hash=item452541eb84:g:5UMAAOSwc4RnnTId&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmD9%2B%2BogvVYWZQD4U%2FDZH5pJcLj8TvlBSPtRq0JrIAiVrNu5fQEdHs%2FGPUB1riSYk8Nf%2BwoxPs8jTBvR8AJyoCz%2BKHrUY8ezLpkHsJvBtALK81DWLEHOPOLgPJbwldhRCQXnDhJ9Y%2B2d3CNOsx11W3d3%2FT5N5ExGq3prfinlLyTbtGZddyZqvN6Jegl9vreejDo%2BqO0%2F%2BYpalRrT39W75C224dyY7HPCeY0Bi2k6hap6JIaNkYSSvCqT1utpOUjzWZDH8%2B7Pz3CIlcD6JBBmYkZ%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/135504779244?_skw=PSA+10&amp;epid=2326652289&amp;hash=item1f8cb6d7ec:g:Vc8AAOSwRLRni7tH&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKle1Rzy%2BGgMmxiOpbzlCZgp2QPsQt0OGGTDI%2F1hRVH5e%2BVkJWdf06SMEzyuORaE1mFClnVrqBwd8uREIYyR8l5i6zWLCodRxTXfTRwoxHMjn7%2FQAa9a%2F6hwEfdiHTiOjrrRzmfRN3Vdv9EpAavi5gGBjWg0sNshAc95kr1Td1Uoz3WfKo5izyLWg80AJ2hxuESWvdX6ZIeeYjr9cxdBdChsAcQ8bwtEta40Q%2FAegVTDS%2F6N3IsnD8xA6ecUU0QtaEQk%2BaAiH1UaoZ2Sl1LLM7V3%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12511,23 +12523,23 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Skybox Premium</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Myles Garrett</t>
+          <t>Randy Moss</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>$164.99</t>
+          <t>$284.84</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -12537,35 +12549,31 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135504779244?_skw=PSA+10&amp;epid=2326652289&amp;hash=item1f8cb6d7ec:g:Vc8AAOSwRLRni7tH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlx5vTaj97dreZYayJyF53poJ9teLX%2BHzXKQHawJ8DZw3fvw2orFqBe4CL%2FipSoPqnLiLceL3MvsHDiapYKkObaHJu5R6uVYxLW5d3TSlDPgNbPFMrfCnlAj0uHAn3Y48qZEgWVVI01thsHPhAsDEVS11%2B2hPwgTAjguDpLDldVqJNjnLUJ029eM6R38UnJVsdBWbggUv7s%2B6QnLFnAffmmmg%2BtxnWyPwF9FWmW0m9u3Q%3D%3D%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/175284047615?_skw=PSA+10&amp;epid=5055591405&amp;hash=item28cfbe4eff:g:VzUAAOSwPNJigs1d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkR2NVkLsy4ZOhGZo1%2FxpopBhkhpCxAyyUSavqsmr78HGUDQJ1PKLg63UvArGaQZIbC3s7Wt78Uhioc4Q9WOfjafmQacVaoTp%2BlpjOgdlWuhESHPa8gcHoJXfD7l64ObtSnEp1G%2B0kO7qqWFgxkdQCKeArGN4b6r0u0%2BC9W75wEXF8gWVwhlsI5kuvx8ZK%2FIJiYt1lxdVhpzVZ5VHmkNFqjtRz82gqvzaFTYBIZcnk2Xg%3D%3D%7Ctkp%3ABk9SR6jL_paaZQ</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Football</t>
+          <t>football</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Skybox Premium</t>
+          <t>Kelloggs</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Randy Moss</t>
-        </is>
-      </c>
+      <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>$284.84</t>
+          <t>$271.77</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -12575,31 +12583,39 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/175284047615?_skw=PSA+10&amp;epid=5055591405&amp;hash=item28cfbe4eff:g:VzUAAOSwPNJigs1d&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkR2NVkLsy4ZOhGZo1%2FxpopBhkhpCxAyyUSavqsmr78HIgL6%2Fd1hKKArJsgi7TQy80Ue%2F%2BFdSXaBPznV7lveMQxZ2yh0O86s5JVTOwfimdwYthOQgrPScEG%2F69C0g9VJBllo7vf3gGD%2Flnr4NR%2F5jAenqmG69aWptJ2TJYBuQcRgMmi7OQlb%2BuVKytJdpRu3Q7apMJUtHZbUy6R3ZKq91%2FQNU7fK%2FPlPK6CIdpxbibF6g%3D%3D%7Ctkp%3ABk9SR-anl5OaZQ</t>
+          <t>https://www.ebay.com/itm/256801082842?_skw=PSA+10&amp;epid=21059317174&amp;hash=item3bca898dda:g:YLAAAOSwmLFnnbqu&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlNRkJ8QjXe2ORtMY0khTxyn5jyeuUly7st%2FUurDgAgmpArFSlSeaIj6ZeED5oC8SdvkJZo2yi7O8s1JOrJCsx%2BW%2FnXw%2FV5uN%2B6trPbPxa%2Fm9bKbh3h%2FNTGkrTKnB6duUKL%2FqWoGPV462I9wqRCVE7fmyD4hlXjGBIs3vwTm1QqMjfkXSWursCq5UTqskW%2FDp1r60rMuNNjuRUwQk07gVuLQcrMjavRCwqTw4fNh7PAWYuL058dzD9TtGsxzoCm7efmkFvQdOBmQtNUxK60VIA%2B%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>football</t>
+          <t>Football</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Kelloggs</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr"/>
-      <c r="E314" t="inlineStr"/>
+          <t>Panini Luminance</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Gold Autographs</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Micah Parsons</t>
+        </is>
+      </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>$271.77</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -12609,7 +12625,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256801082842?_skw=PSA+10&amp;epid=21059317174&amp;hash=item3bca898dda:g:YLAAAOSwmLFnnbqu&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk6ve28ca57jL110LXyU8RMCZeSFZ8uJ%2B%2FbQpGKVjUt0F0AnTyhRQuaGof14cz0Gi0xtu3u9Dsxb09L4O8gEiU7V9b3YkkKBd%2BUu0fGxFbFzuHW5BKMvsaRa2mwY3azWXynA54baDfbmxi0iAeqeZKk0vHbkX53%2FtXADPckd9GGta6R4NGZOLxE8N3bfGozfBVViUli8C41icLg8XARgdhEujBR0HRMvHb6KYs7fU18cA%3D%3D%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/256794471106?_skw=PSA+10&amp;epid=13055601400&amp;hash=item3bca24aac2:g:WBAAAOSwsJxl3~U3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk3yHVzKdDMy--dNv%2BKF3%2FnX%2BuTzqzWH57YfkB%2BvkeikKBmI5MyiZ7vGPohiaVTVnaFEIvZXRgWmauuL5YZ4K5Q5VtVbpxhpL203JI4AhXA0s2sXtwatZebfUh3PxgAImSETsWKRbEHn1SH15nYdABznLnzldyIJhLMI7Ibjr8v0M9lNMgJdfgh0ael0k%2Fx7nPR9%2FPukjvJM2JzX60VmAuFeUgbZ7ulqWsSjh3fSlY54VDxVD%2BaVyq%2F7vE3EpuXeXHbv%2FEBIEMBtf6ahmT%2Fv1gd%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12621,27 +12637,27 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Panini Luminance</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Gold Autographs</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Micah Parsons</t>
+          <t>Myles Garrett</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -12651,7 +12667,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256794471106?_skw=PSA+10&amp;epid=13055601400&amp;hash=item3bca24aac2:g:WBAAAOSwsJxl3~U3&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk3yHVzKdDMy--dNv%2BKF3%2FnX%2BuTzqzWH57YfkB%2BvkeikKBmI5MyiZ7vGPohiaVTVnaFEIvZXRgWmauuL5YZ4K5Q5VtVbpxhpL203JI4AhXA0s2sXtwatZebfUh3PxgAImS9LiLwthYWfSzFiNH7HsousRIiHO%2F9waHh4ancJ5AdMYI9rRh4RtpeAC%2BgEoTjNwtaV02O9kyZc9TjqLoRgl6%2B0LYQi79sbaUqm%2B9ka%2Bds4xmuyueghDvue854gR5h%2BDFfmwr5QWUGBSJe5A60OBIP%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/267126324047?_skw=PSA+10&amp;epid=2326652289&amp;hash=item3e31f83b4f:g:~6cAAOSwGeRniGUy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSvtE5aedwuzYwamrHHk0s3wkfzQhJM5KEJlGVi7HwyyPkZFqNtNx9P%2FWO8IBPsgyPBdZNZUybmzLz0dJfik3tcDPdBTFk8zJcmfoNhvJd%2FCWS0ZLg3lcknwPlHGVyd2ftoLI1pp%2FbcIrQSND4rautT5LNez6Gu9%2Bd%2Fz8KlXl33nlGfjIbvfb8vynXAfo4eTi97yF4dNPlaE5Q2X%2BHLqxWvlY6DPrY%2FkGZJkNtedffAJSaKQNftrdYRNvCbsOvMPyZMG6gJk%2Bqfla6oKbBEdJ2%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12668,12 +12684,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Donruss</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Jersey Number</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12683,7 +12699,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$450.00</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -12693,7 +12709,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267126324047?_skw=PSA+10&amp;epid=2326652289&amp;hash=item3e31f83b4f:g:~6cAAOSwGeRniGUy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnHTC81w4htg6yTZMR3mX1gB%2F9CN33Eu6WSgjeyWtnHY0jrnpYceJ10lrOMdC%2BSaZsxEtGO42CS9W%2BpL4kFyUY3ppx5egWAAsxQgGc%2BmLVFqy63ONuvH6i%2FQSVF3Z4yLIKFIIkhO0EFDKkxj34UzOoDsv0W9Syw9StyaMm%2FIjcQ%2BlPN3Yhc83rOclrgHZlyGgiqMM713plcrQJK6lqWOsbJfa8FYCDg1DYI8AB6cEItdg%3D%3D%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/167243448042?_skw=PSA+10&amp;epid=20055522764&amp;hash=item26f07c7eea:g:MdUAAOSwtFRngD82&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmzvp%2B9fFz9TU%2Bqd5willLQE4V8grUWJKN13mzA6gyQApxdN2KMSiDNKiUFDyRsgJU6k00cXR%2BJ5Y5AKF8L%2FlUhmsUfFP5B4sfQljKoeefK6xCwsZo4C8eyGfmLzuUvcyjy4h07lP7IKvEbeI8W5bxIOB0oKDYOWfvwgssXQf38VyJVtYsd%2B9xSwOMUX8N8MfC2KDGWFECVPg2HnQMd7yE7EpX2YSq2C5NMaUXF41lX7A%3D%3D%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12705,27 +12721,27 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Donruss</t>
+          <t>Panini Donruss Optic</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Jersey Number</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Myles Garrett</t>
+          <t>Jayden Reed</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>$450.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -12735,7 +12751,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167243448042?_skw=PSA+10&amp;epid=20055522764&amp;hash=item26f07c7eea:g:MdUAAOSwtFRngD82&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKllIiadC8TzNrYkcvFEzDFIBPEH47jzDVbcmIzSrkAdUIDyc%2Fw8yJiq5XWdjF33ZVTc5HWpEBLrAYckjiOjvXTma52Fb6JaO5qU13lHoe4jthVbldS5t4SiRVUF6TqBqhfqFdKr2ip9xTIDvgyBe5ZroQTySTQtF%2BTnCSTSP63iUVqFWswgYd9rvkeQd5EPUJjdmSL6Um0QbHFWoH7TKaMayUnZUZJuzLUNM4je4C5exZ49McehJ%2Fe9pfei%2BSyUNvo5SkFdMlEOqBDjpl1KAsrT%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/226579082074?_skw=PSA+10&amp;epid=12070298562&amp;hash=item34c12a6b5a:g:SjkAAOSwXrBnoAzh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlQCuzTc4WjSGNQ%2BxRsHdWX9IDh%2BMpLBtfwWnGBa0iGD5lp5kZf2MjLQ2Ad8YXmeFzAEl2%2BsCW3NQMzw%2FcYA3OMm8TfuMRMPyjiL06vx018cIzgObxuhAZZEYF%2BszJ8M0wSi41MUuGiVGxiGnXRMKAsxlcABPgBuPwI7QkPJNSW8IfCWLMVBwbxfao5Kf2XJhX%2B202qOurnbpz6roM7RwZOJji%2FXkp5ixHPoltbm1LB7J9QPwi7XN5cPF0ljF2BlLwQZ1XFY%2B37IHNw6YzNMJTc%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12747,27 +12763,23 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
+          <t>TOPPS</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Jayden Reed</t>
+          <t>JIM KELLY</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -12777,7 +12789,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226579082074?_skw=PSA+10&amp;epid=12070298562&amp;hash=item34c12a6b5a:g:SjkAAOSwXrBnoAzh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlQCuzTc4WjSGNQ%2BxRsHdWX9IDh%2BMpLBtfwWnGBa0iGD5lp5kZf2MjLQ2Ad8YXmeFzAEl2%2BsCW3NQMzw%2FcYA3OMm8TfuMRMPyjiL06vx018cIzgObxuhAZZEYF%2BszJ8M0zUXFyDpABqNrhzua8gYhGqu4TGULGGlr5zmRppgV8l8q77eoLFTOEzptdYbxsgT8thuxF2dajhcGZ4aUW8zuYmlqtmfZ3nTDjEKkNbjyH%2BVECnuMDl%2FGw6oK9WiRhSxQL5qF7slkHAQ6v4cc%2B2HL%2BG%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/306063674006?_skw=PSA+10&amp;epid=6055557615&amp;hash=item4742d10a96:g:40gAAOSwEP5nlNtq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmB%2BKuhEBiO4Ps5A9mhksC2SOTirTOS2%2BXnwXcKxotk65qEx%2FzyhCfY8YNM%2BrwalioVy7T6Yar7wNhDUg5cJ2J1EU%2BcrScwAaRRv89mqurtB5icDTQvdKVUdrU9OG572Gk64mQzQWxPf%2BhRx2RWbYM2X7F3GvrEYVwm4pzt6S8tjwKwDPYHglKXqrxXYQGk7wOK9bETki6qGKrt3gmfz7bSxZxmkYwJqOY4THdtbEY13y7lDd4xuTF%2BEVR0FcF3FJ8RIeZt2KtYZeNQB7MelPAU%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12789,23 +12801,23 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>TOPPS</t>
+          <t>Upper Deck</t>
         </is>
       </c>
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr">
         <is>
-          <t>JIM KELLY</t>
+          <t>Brian Urlacher</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$795.00</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -12815,7 +12827,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306063674006?_skw=PSA+10&amp;epid=6055557615&amp;hash=item4742d10a96:g:40gAAOSwEP5nlNtq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmB%2BKuhEBiO4Ps5A9mhksC2SOTirTOS2%2BXnwXcKxotk65qEx%2FzyhCfY8YNM%2BrwalioVy7T6Yar7wNhDUg5cJ2J1EU%2BcrScwAaRRv89mqurtB5icDTQvdKVUdrU9OG572GksbwP4%2FNkgfZuFZcSaz46miZ9UIapv859YVLmmdcsbgjgdPrRzPgHiimHDCu1etnwrpO5DBdNgT0Ctl%2FwByuG1f3jg4EyH4XHP1jJjf281tKBkTfN3hb7lY4Uq1Rvx4SG5CCTWXRZD7AKM5XSQ4ktu%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/305938187500?_skw=PSA+10&amp;epid=11055557479&amp;hash=item473b5644ec:g:-igAAOSw2VlnR9rB&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYUeIlarWwiUx6fXkGYae%2BzSw1dOwER9jTQWBrzyldOzcX4v2XymLdL4bmfBJqWLM6vo6cqD%2BVV4KhBQyIlTf2wVA968xQSv9gLD%2BeZR6O3OV7K2l5xj3OsPLlLvh9ueVRk9Q4mcd5xXpGUNMnEzqCsZmIiWPP7msqR3Ma4AihmqNkBmy4iIJd1DSc6AtOPAcxmkSrqjpBU834NrOXTZEnl40pzCNKMarCJ1pOustPog%3D%3D%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12827,23 +12839,27 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>Panini Prizm</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Pink Prizm</t>
+        </is>
+      </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Brian Urlacher</t>
+          <t>Saquon Barkley</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>$795.00</t>
+          <t>$675.00</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -12853,7 +12869,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305938187500?_skw=PSA+10&amp;epid=11055557479&amp;hash=item473b5644ec:g:-igAAOSw2VlnR9rB&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQje5i7o80sueyf6j%2BpQI0%2B6rHtqr3gHnxKPnBvSD3BvPfkqgOlylsdsqfdU7efvrGCHSr%2BxS3BaP9bJW3ay5p94wpw8pqbGbHBojUJ98AhBPAAtbNPrlWZ23kcgEo6yGpPGpeFgX%2Ftxu%2B0zMEFZdaFTY6WlQV1C8Fg7teNnvPqqosn0OMn%2FxFYIqtNsl8BW1r%2BkA4uCaHnmvXi8fwR0ttKpJq4cw3z9PDRHAijwuErDPINmYX7yPw6AfqGimVGS%2FH0tQ%2BB99Pi98cr%2F5T7iK%2F%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/146352057616?_skw=PSA+10&amp;epid=26055561158&amp;hash=item2213432d10:g:BL0AAOSwaGJnlYaT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkNlBQNTBC3a2mTPLmrmfACdDxgFzh78t8Aa1DqZthDYxKln%2B7CLVt%2FpaRP9H9xGEs3B4m2Lc33pZ27yZtg5sOepCg0WvfECtOFOkhrhLbfVxQBmgWhq5X6QkLnKKjOquSoDGRnPbHKrrXQZGegzKpZN73ok0OrX8S2hZ0ACuJhowwGuwkA8AEDPYaR%2FVeJoyZrH5OjFr%2B1WRp2Uya8Us4yyXPFuMvbVgTM1bzb%2FnmMnA%3D%3D%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12865,27 +12881,27 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Status</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Pink Prizm</t>
+          <t>Micro</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Saquon Barkley</t>
+          <t>Luka Dončić</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>$675.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -12895,7 +12911,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146352057616?_skw=PSA+10&amp;epid=26055561158&amp;hash=item2213432d10:g:BL0AAOSwaGJnlYaT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKldmIdXfMVfdS%2FRYycGux877THhG7ySBFFUcakz52rdIb285Ztd2y%2FagecAYW2IjoitCxGY1q3ifzS6yued%2F6PsNamTE6tDqu4KDYQ7etEgZww1c1KiMHN5y6t%2FaUU8qA6KFxSvzIT1%2B5jLKBgGWdmCkmciIHG7vuVZx8jQQKVuh7ETx7I0oANuN9ntBzE27ElZAz8sGYsPFYWVQnDp%2Fr1ovaJcssfT8oXrQKnJ%2FAnqfvIEso%2BflaXtNQ5mvgxziimYUdUXD8kDygIvrcoZ4ODP%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/266847743823?_skw=PSA+10&amp;hash=item3e215d6f4f:g:ZfwAAOSwEolmYf93&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8d9mqbH8ZTRmew43TMkU4Fl2y2P2VhjfShD%2F8qpDYRLrDlIT48wQALZxcaDK74AfYAPhwmjJaSTGibrckCIoevwBJFsWZH0%2FmAuVQTZJEvpltomKwC00LXnBjR%2BMD%2Fn6x92JH0M57TU20YOEQi7gJYRZj1W0JexX9j4aeA7MXlVkR3QM2qK4sTjW1Y4D0szfWGbpUD3U8AhNFfT%2F%2BODp6HMrA%2FGxvG4cxwJ48PWIl7g%3D%3D%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12907,27 +12923,27 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Panini Status</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Red White &amp; Blue Prizm</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Luka Dončić</t>
+          <t>Myles Garrett</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -12937,7 +12953,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/266847743823?_skw=PSA+10&amp;hash=item3e215d6f4f:g:ZfwAAOSwEolmYf93&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8d9mqbH8ZTRmew43TMkU4Fl2y2P2VhjfShD%2F8qpDYRPivpOyrFne6MVhxUlk%2FzgoKnWDb5BQ%2B9rNzrH%2FoAC9gSpDSNYfhP3YKfi%2FkpGkzQaASgrM8JR79ttdQ%2B%2FDhueZdfuaW8x8iZJ%2FGfj%2BMQSiqZGO2ZxAv5HGFugMkN8Tq1SXmC1ILd1WrlUEnB5z2nqD175iWFVIeoawN%2FFD2fsCTZROwL3XzxsYGkfh4w7I1Vg%3D%3D%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/396162666066?_skw=PSA+10&amp;epid=8055592894&amp;hash=item5c3d228e52:g:7mQAAOSwm8Jnm8bO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkT4hGhddWwETgiraGNSnE9M53ClGgzq8hnsu%2BMh0DHgH6quTXgu7L8RUFa1wiOQU6RodB0KiySphaG%2BOuvhiYWjtppGe1xtEnv38LoI0%2FJfha7UqHmLDUWVt0iSW4rWFyyLo2n70MiZp6HdwbvJfVHa1kIxzXigrvGCwiokT7J0MRKLahngtra18VL%2BTgyZtZ7KExpxI2scKfA%2FWy%2FrFp4vwk1eSCs5viqycI%2BG0lj5OmAkfZ8WwGcUzLD4czwrh061G9wNgWgq%2BVXsVO%2F1Tqb%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12949,27 +12965,27 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Clearly Donruss</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Red White &amp; Blue Prizm</t>
+          <t>Clearly</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Myles Garrett</t>
+          <t>Puka Nacua</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>$650.00</t>
+          <t>$152.78</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -12979,7 +12995,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396162666066?_skw=PSA+10&amp;epid=8055592894&amp;hash=item5c3d228e52:g:7mQAAOSwm8Jnm8bO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmee4mwLnlo%2BOPkcXCFD3HQvopTddyI4fKD%2BF3tsprYDcl4safC%2BwmAYBT%2BgZK%2BfUS1yd208uvSBukugRgWYnxd7UpP4GNtDCBu8%2BKR5%2BWBqOwE3pQJmjgC%2FHVMoYazbX7kQwgWkG0N8foOqT0VYKwwll%2FZW8WuzioguEqQl1yu1grcaGmxGnu3K5Gsov%2Fj1wB5%2Fy6elZ7B7%2Bu%2FKdaypfnjjXxho9tDOupZ%2B0dwHNVqtQ%3D%3D%7Ctkp%3ABk9SR-inl5OaZQ</t>
+          <t>https://www.ebay.com/itm/375957994063?_skw=PSA+10&amp;hash=item5788d7ba4f:g:l1UAAOSwHNxnmkwk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkS%2BwQJbzjfU2HlVylTam3jgLf9ObKfgragxhbiWYbesSuZb1JRQG9euI4UoGzeEH8jtPXv5sjKCZsyhNcHQeRvDzkSik8lCO1BwFg1N6N2rQ1N2fouIGb5ZzMU9%2Bx3lgUNYM7KGFkUqo505QY%2BQR%2BmxDauO1PNgdsY%2FoJMPKeFZ3eB01BnCgJG5eukdgXbDoeF3gLQsJAHDZunqIGPBcaz%2FaRNpjA3QffbJioU0EYTRg%3D%3D%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -12991,27 +13007,27 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Panini Clearly Donruss</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Clearly</t>
+          <t>Blue Disco Prizm</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Puka Nacua</t>
+          <t>Jordan Love</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>$152.78</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -13021,7 +13037,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375957994063?_skw=PSA+10&amp;hash=item5788d7ba4f:g:l1UAAOSwHNxnmkwk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkS%2BwQJbzjfU2HlVylTam3jgLf9ObKfgragxhbiWYbescxfjPrGqJd%2FM%2BR%2BS8iiVwMi8%2F6W%2FuVNnpwSnUuNGM0cKEVKZ2AnH47zPo2Zan9%2BmhoFCaPaNcfeXMmDhfDY%2BdCBqAJJJ09Gk393O%2FK3K0oGnGsOr0k9k0dantWzFeOdJZHjbIZx6FVkp5PPTzGM7Mdg2fPLGAonePayX0rHkPXdMN7fUD9ZDRC057UL%2BOPutA%3D%3D%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/306072597394?_skw=PSA+10&amp;epid=23055608541&amp;hash=item4743593392:g:rvUAAOSwDWtnXLKv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkW%2Fz5Xk5aBmGdGPOAbdqVrZ3DZ01GWsDg%2BWvoRil2XL6qE6oz9CaLLA1g%2BvFtJ6ItoLe67hQfL81lY6itE%2FhU11AcnE0rJ%2BlC%2BNFWnaIydQv96X%2B66BY9mIRbfjNhCFsmuMzP4jwrKA3lDg7vzkN6N5WrKQ1W425g7IhFibT0IJZkZZli3EB2hfZGFY%2FXHvTvbEdraOO%2Ffs1Xo2RMcTh%2F9xEp0hyzbUTXXRJyLOK5CQQ%3D%3D%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13033,27 +13049,27 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Upper Deck</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Blue Disco Prizm</t>
+          <t>Rookie Limited</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jordan Love</t>
+          <t>Aaron Rodgers</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$399.00</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -13063,7 +13079,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306072597394?_skw=PSA+10&amp;epid=23055608541&amp;hash=item4743593392:g:rvUAAOSwDWtnXLKv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlUzBI%2Bg4DO%2FOPbF1ukmNBmRkMIV36K4VL2fo1riMcVkvt86%2BIDdMuOL3C5NGQ%2BYixX2MhMrWfyg4vJyXA7JBEZIFW4lyLmi9JLVy40B5QJjfKRcNl9W8xztez0a4Ya%2FXuP28uHHAfr0rZAfkWfgxMNt51zhEUzPK6ZE0p0cCi4ocH1cHJ2teBH0Fu2Mbo0z732CSpDMfb7F54aDnffKmNuLAPsXqjtkzdxPb%2FqTCzZY0HQ%2BOTZrL4bpKe9NLb7khG8qpFcQXyf7hePW4to3TNk%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/204868668553?_skw=PSA+10&amp;epid=14055603106&amp;hash=item2fb31fcc89:g:Ub8AAOSw6Flmhbng&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnZkNghU77roev9EKDK9czsBwdHTc3qoS0%2B5d9DEBJZJFZerDbnlqs2qU%2F4T5qR8xi%2BprHccbDCq27bWq10F9ln8Kx68vy7Wx0XBm3CRAOQQ9DuXjj%2ByVmHFBhXA6e6ydkpwR3M33yveAK24E0gYKA2if5p1l7W89EhhYamfvd5DLQx2EH9tKCWa6kbY4MioYcmtDL1JqCPsdoXfaoUVKrmrTJ%2BkdzrH%2FD02RJmjy7Cyg%3D%3D%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13075,27 +13091,23 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>Upper Deck</t>
-        </is>
-      </c>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Rookie Limited</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Aaron Rodgers</t>
+          <t>Patrick Mahomes II</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>$399.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -13105,7 +13117,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204868668553?_skw=PSA+10&amp;epid=14055603106&amp;hash=item2fb31fcc89:g:Ub8AAOSw6Flmhbng&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmnqGX7VbTAhoR%2FsIezooFCg%2Fforibnlvpxu8a9qnfxMMO88PpvCJCSwxKKa4iL0otbVU4g0cX2Ewzok%2FuQP0ZRCB%2FmC27FlPmNCA%2Bp2yi5t4HuZf7CpRjiTVwrjFRho%2BosrMkSV1lT0PGGZ0umsJ3KDKGZQc83CWBekjuKGQNuLHJ5wj%2BtIKDYXIKNTDESctrMdTNvMEoQq1x%2FT1evZRWdKlqcgCihYqeLWAr6u7EDAHPbgeYPMtv8jCs5Q%2F9%2BQshmDo6BqpgPd2VbVbUksbdn%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/135509280729?_skw=PSA+10&amp;epid=17065550994&amp;hash=item1f8cfb87d9:g:p9wAAOSwJztm21jU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCilfoNGZxnJ1XWE7Tydy2QIwOF%2Bd%2FFTSt9sXkTOy7z549TpnHl0%2BZPUXlMnZq0J52hS0L2y4kmDyBmFS2LSUz%2F0c99ABNHowt%2BJw05goOgusHQsDtQjoXlHmkW9SsLIePIDDvt25jqodAAa%2BG%2FA4TGoNsPUNWcVkT4euAhuKR2P9zLPB5WpL5CKTngi5AxKP6yXbH0IsvAxeD381lhAkSAQ9Fnhd2NBo%2BWJhxRgStPUz0DjA9RuDGdiTKheEm7LBeiWS6IOco5AfTOUUj%2BuNS%7Ctkp%3ABk9SR6rL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13117,23 +13129,27 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
+          <t>2022-23</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Bowman University Best</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red Lava Refractor</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Patrick Mahomes II</t>
+          <t>J.J. McCarthy, JJ McCarthy</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -13143,7 +13159,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135509280729?_skw=PSA+10&amp;epid=17065550994&amp;hash=item1f8cfb87d9:g:p9wAAOSwJztm21jU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkCilfoNGZxnJ1XWE7Tydy2QIwOF%2Bd%2FFTSt9sXkTOy7z549TpnHl0%2BZPUXlMnZq0J52hS0L2y4kmDyBmFS2LSUz%2F0c99ABNHowt%2BJw05goOgusHQsDtQjoXlHmkW9SsLIeXV%2BIH3rJfdbOLFINpOe2RnPbnEOuzVu3Yzk3icUQD10Loqtrp0%2BbX9yTOM%2FHdeaXTH7WjnBp7zwVQjIYyYwz0A%2FeHMkp2raG%2FNTUnEkSMDldlXMg4C6xrchK1YLb4nqdeScRvnQ01O8WU5xDq%2Fydy%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/145948799480?_skw=PSA+10&amp;epid=13060315530&amp;hash=item21fb39f1f8:g:2B8AAOSw9DVmuv1v&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlwF4IAWSPBsyzhEl7GFjzO1t%2FrUlGKWHbYu2IHOYTnVaL%2FQp30YiuN6CtU5sDOB1U6WdjslaikKDFgBwOcS1qXW4FksZxbd335Zknnx2aMLqz74ZcWe6ptJPnvK9ZopTPon26qsh3WvLA2vazHb8H6TzStf0GD5y3alvya3W9IAEvqh7HVv5LcqRRP%2FK8nRNOCRb2M8skieE9vn728vwPmmcMWbgmIA%2BuzYY%2BgE1bnUVYY47zG83lU5DtvNG2Zm%2BksdweUoN3tmFBlgs5J94Ff%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13155,22 +13171,22 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Bowman University Best</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Red Lava Refractor</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>J.J. McCarthy, JJ McCarthy</t>
+          <t>Calvin Johnson</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -13185,7 +13201,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/145948799480?_skw=PSA+10&amp;epid=13060315530&amp;hash=item21fb39f1f8:g:2B8AAOSw9DVmuv1v&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlwF4IAWSPBsyzhEl7GFjzO1t%2FrUlGKWHbYu2IHOYTnVaL%2FQp30YiuN6CtU5sDOB1U6WdjslaikKDFgBwOcS1qXW4FksZxbd335Zknnx2aMLqz74ZcWe6ptJPnvK9ZopTMKKPzzIDoftbyWbm7opMZf8B5sWfnso%2BO3IAoVEJ%2FSrsZTN9nzdag2um9293amkKp8JhItUTjqhEN2djy7Q0M%2Bypehsqn107lxmjV%2F6tGnfiLRsBBTVPo0RN6S%2BZHs66I5o4FdcuoJ6%2B7rQuN0ssDH%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/156669407799?_skw=PSA+10&amp;epid=7055800541&amp;hash=item247a397237:g:8NIAAOSwSR1nn~wz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn2178MWi6tA5OFoSRBP%2FxgLLn7Zycm4QQ2IzaaKZYCv34SRiHyRHLog%2FvgT5hQ4RFA7lqslvYk0kidDxzEdOobbmb7Fe6aVWJXwFKniB7cjW6dH9VedXw8G7Kq8tLcqhbPJr0Cn9eXI92aT4tysjjdfdAZID7JdxpIw0JJSbADGcGtK4udVPVXPAFPQ4Isq0%2BszGIKYM5DG1ZsGM0YPfQeiY8Hky5QcGm7%2B%2FpZRXjYKw%3D%3D%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13197,27 +13213,27 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Prizm</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Calvin Johnson</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$599.99</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -13227,7 +13243,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156669407799?_skw=PSA+10&amp;epid=7055800541&amp;hash=item247a397237:g:8NIAAOSwSR1nn~wz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnfUtGM9k3w%2BQHdbzdAHTltQL3Wo%2FzXIZEs2SPj4uispShcNdBpakFG5wpZFCOnzJBNmpPfGIBozwHavF88f%2B2esgWwMbxZdF6MURbUlQM754gkg2JBfbnv0s9a2UHCQ1j8XKdzXkhz4qwvJ04xRNRJVXfwAAXednLXcTQ7vzNbFWbRYhNdatlGzLli3jEHyaGc2GZO4HD4J93vJI3FoCGPX9pBdCiI4LqFhA4mTQyLRVA6RntasfzlhgtVEwCuA1NZpuFQr6FWa8iUjV81J9JI%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/286287798220?_skw=PSA+10&amp;epid=8074121690&amp;hash=item42a8151fcc:g:iwwAAOSwG5RnmAEm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlK95ZzD5D1qzDQCZ4qfHQXhTKb%2Buw7147WLur27PYOGr1g8CZ77jdVCWbWD--AB8PuG0Gk3s4T%2BsZIQNYyPCX6RnFRKbBObGchSqT5p4YPQ%2F5%2FQ6QxnmGngKPGcZzIvws%2BN7HwVpWqzbtiaUd29pyAmVhJN4eBaE1jOeGm7DLp8Go2AF%2FwebssL%2FTG59%2BFE%2BMhRpLRcpqF%2FC0YXS52Vbpc7k7To4NRggPv6HadmS%2FWOQ%3D%3D%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13239,27 +13255,27 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Prizm</t>
+          <t>Holo</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Aaron Donald, Aidan Hutchinson, Baker Mayfield, Chris Olave, Garrett Wilson, Sauce Gardner, Joe Montana, Breece Hall, Brock Purdy</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>$599.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -13269,7 +13285,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286287798220?_skw=PSA+10&amp;epid=8074121690&amp;hash=item42a8151fcc:g:iwwAAOSwG5RnmAEm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlK95ZzD5D1qzDQCZ4qfHQXhTKb%2Buw7147WLur27PYOGitnLUSuKj2GmyHh25qAUiwGx3AgD%2FopdYIwrnQeNCkMeRX948nPHeiZU%2B8WdCaMukp--Mr7M0cDVssJPHhpgVL8thPerrHTHCHEmkMGg35PkVrX88P6AZnOF5Cirrj597bDnnULjMGZOy4ZIqxJQN3VgxP4L11iH%2FHcIUfBdbx4mFZFwsbt5Mfy5UQ8ghlppQ%3D%3D%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/375500432306?_skw=PSA+10&amp;hash=item576d91e3b2:g:hk8AAOSwRV1mdzyM&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl0OPpb%2FPnycwOdh%2FKCpa%2FkRVPZOMgx2eThanPN5YfGY2syE4J1RU7RcgdFJp%2FQiRkhTtMU4yFIlNja41gejxUzTnsDKBPjPsZzMFZ1p17aRwbXssjgCxuAPRyVLeLypcxlnvWDiNeicc%2Bdir5R9ikI24DPmAQhtb%2BWxycjwPlxxDBK%2Fk3kINUyMNiineisPNUyBGrxOXoxPeN0bktLhTkgKSSRVPxh51DVIQcTypLz3w%3D%3D%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13281,27 +13297,23 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>Holo</t>
-        </is>
-      </c>
+          <t>Flair Showcase</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Aaron Donald, Aidan Hutchinson, Baker Mayfield, Chris Olave, Garrett Wilson, Sauce Gardner, Joe Montana, Breece Hall, Brock Purdy</t>
+          <t>Emmit Smith</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$800.00</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -13311,7 +13323,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375500432306?_skw=PSA+10&amp;hash=item576d91e3b2:g:hk8AAOSwRV1mdzyM&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkvQXkWtWENhF8UloeP%2B0YK9qvJXrdGdD2FH5fpehRyBfpE61MEAvnGdmy2T1TPGiP11%2B6Rr2zYvNKeGfZw5VyeHRjqKMdJ%2BRlCLb36KNsngwyPAgampvlvCwMD%2BzWZRODtqS6oA%2BEGYoN5VtCODqXupbzjOvuNfaJScvBpMnN6Lvg6m8EOlSPOmgmwnsJY6JrIGUFVGSOqEGm0IRo7kcQd1iscuQjSavhs%2BvIDyNc%2Bimj9Hl7TohG321wXwu8%2BcwKe7O520ClzAcKBQvaVFDu5%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/315347095623?_skw=PSA+10&amp;epid=27055548809&amp;hash=item496c26d047:g:4WAAAOSwM7VmOSy1&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSuW8k1jHmFgoUnchhVUnMKIEI82Va2Sn6Sh--9yhXufA21wpKdutmOBGNJZSsQMhuu36ajm6xmdU14CDL7FHZBn5wtoVRZr1hBQsLRCzO43gxjjj1ApMMSq283pBbXhcR0r9X84wumL7FmnYZt7hGFsGTjf%2BwdEG7%2BKREe1%2FYfWmDeAcuhOIVojk8aLvm3yACIu90MJgUYw8TD%2Fy0zgokLDU2ADwX42WnhW6A3eDnXY0gLLJjE%2FUbURPbG8AsTXe0J21li%2Bzg8UjcZr81zDD2%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13323,23 +13335,23 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Flair Showcase</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Emmit Smith</t>
+          <t>Malik Nabers</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>$800.00</t>
+          <t>$999.99</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -13349,7 +13361,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/315347095623?_skw=PSA+10&amp;epid=27055548809&amp;hash=item496c26d047:g:4WAAAOSwM7VmOSy1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2FCzHdADHaxweQY%2FBrUuudi3j9yKDuqXeWEozxq%2Bl16iPzzkmCQR5XCBfLJo12PYA%2B%2FnDbG9q3rRr8D3msDw1yM6WKwAHqfvGZKKk%2FvwFzgbvOmkWUvFqh2XtrkAOUd5A%2FywnnFZDdvmgmopIpRdgkuQEGjpYd%2FSWc%2BKf58%2FIBOR%2BKapQ69ZYP532trOQpar1MR0zCadpLeahopH%2BZchWvyNl497VTq2ZOLmNj9QBR4g%3D%3D%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/156660377762?_skw=PSA+10&amp;epid=28073770094&amp;hash=item2479afa8a2:g:qCkAAOSwZLxnmTzP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQ5Jy7wdpfnLKKDKOgbeNP0ny0Pyun9NSz1x7mOf1BMYh71zcQ0F00cQuPtkoxqIysvv%2F1gOUhQr75JQpOGNkjY9F%2BcvAcra0XQLldnM8ii8K7sxQH0FgXIvJhJ01tLvLX2D84j0zw2Z3srEyeqLCeDlCvNXI3svwPyoNyphB%2BjAm%2B%2FQlsr7Giy3zi156oswRbSY3f7dGhZbHkWIKwylcukH8%2FDEkXzjUWYt6bF7EgoVAV8kN5LKHUxjzDMjOHM7d6vqJsmORPRe%2FdEIhpb%2Bh6%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13361,27 +13373,27 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Donruss Optic</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Downtown</t>
+          <t>Holo Prizm</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Malik Nabers</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>$999.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -13391,7 +13403,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156660377762?_skw=PSA+10&amp;epid=28073770094&amp;hash=item2479afa8a2:g:qCkAAOSwZLxnmTzP&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQ5Jy7wdpfnLKKDKOgbeNP0ny0Pyun9NSz1x7mOf1BMYh71zcQ0F00cQuPtkoxqIysvv%2F1gOUhQr75JQpOGNkjY9F%2BcvAcra0XQLldnM8ii8K7sxQH0FgXIvJhJ01tLvLa7YUMJSJdaMjTN51A9QdAAHuUEj3BnaU6vfvuBo7WZ3a66fFdmZuujtf4giPe85Qo%2BssiFO%2B%2Bmld3rwGL3CM3c1V0UeA7jhgAHhpFVM9fVop6EDi1AltqU7rhlO%2BMNBbdUCvRX14ZwMUbVCE%2Fv9y2%7Ctkp%3ABk9SR-qnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/356495141385?_skw=PSA+10&amp;epid=28055554119&amp;hash=item5300c42a09:g:bFgAAOSwpo1nkY-0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFJ5f078X1tle05APpB%2BVa8aJLPcNGHGGmg45yGiGayQMekGpr3AedmrchYtYXmgbkkFu3Ia2UUejvS%2ByXK611djVU%2BMGHxAxuGoLwq9k%2BkLszzTjcxwDNEpJG1mBf3xWAa63VbagOKR869dckNNGgl3NmV1wO7cGL41tPNStKpuGw3sYOgwmiyYu1C4zsZyuMtu%2BRo8ttWKNwlOVZXSS9GRTvFzpBemdpyJAiehGadg%3D%3D%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13403,27 +13415,27 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Holo Prizm</t>
+          <t>Lazer Prizm</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Christian McCaffrey</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$190.00</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -13433,7 +13445,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356495141385?_skw=PSA+10&amp;epid=28055554119&amp;hash=item5300c42a09:g:bFgAAOSwpo1nkY-0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnFJ5f078X1tle05APpB%2BVa8aJLPcNGHGGmg45yGiGayQHRdJO9ZBhhznOlexn6wzK8rZcQs3kZwfzLshWVAkS%2BIZqeJqakdn%2BDsph4Tfskzs4xfxC4QksG2eVxwaariyHRzwM99joiDkTEa%2BT6HFSK8%2FKUOgL80e5naojEHitkMM%2FAnTZYWVQQaTAAZZD6oFozZw3aY9ym3XjY23sKbE5Vmsv15GyOUSDLrtc3XV5aEQ%3D%3D%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/186915513524?_skw=PSA+10&amp;epid=25055562334&amp;hash=item2b850864b4:g:YtwAAOSwV4Fnl5kt&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl8UMYz0SvUJNp3C7odmAv8vXIZVP9f1cNFUQKjoI%2BQj47bzMiCoO5MG4u%2Fd9aVvCxCCpephibm7x%2Fq9MW2rAZEth5jdTaxAvXmNkOf5keh8gH%2BOHgFuuLhhChVZVukcmdXLffg7lAJ4X3YHaYGPmtnH8GeL2KsKLy3U8zrNQ0ZJL77j8MQp3GjYznDKVcqLmNHFk75Zc9Qy459Cjoev66%2FfhAILhhmRy%2F3bG2%2BB0IYlSdahr9KP4QjXQ07LcG1g7WAqmN0R9sON%2FppPv0SPv6z%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13467,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Lazer Prizm</t>
+          <t>Orange Disco Prizm</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -13465,7 +13477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>$190.00</t>
+          <t>$162.50</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -13475,7 +13487,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186915513524?_skw=PSA+10&amp;epid=25055562334&amp;hash=item2b850864b4:g:YtwAAOSwV4Fnl5kt&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4XPtW6%2B8rv--AxikK2c4k4dFAxnfhBdtY50BXtoFCYU4dq4tp0WsiMeQzfxAx5ZFCvd6XzW47Z00PRkJsKXhtIVQGkDqHCSi%2F68CoabqqO%2BXH%2BAmuFbc5x2%2B6SdG2B2aZ4LrOrhYFPf5sztUr3aBlAtImU49AI8%2FMyOXlrbSE4dhi8VbOmPhZ56Xm%2BRPJfOjOgNnOMuv3QczX4foURDXEhPJajWrA%2BCYzDTiB6dwSQQ%3D%3D%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/186915511240?_skw=PSA+10&amp;epid=26055546570&amp;hash=item2b85085bc8:g:fwkAAOSwnWFnl5ho&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmsyNm%2BtDo%2B4TWn4dFuEnQCgqh1mkMURDUqjhm3hKY3wahnKNFTy6KYszfK2jMYp4I85YyN7BQeO17XLeNCAFhGQS5fxZC2T87Hr8Ys2VRs4pJG4ZHFWpoHKffrGAuuzJuVh2zawBiLjNo9eOPzrygdYwpbw3C%2BjTndUBtFobfPFIP5TqWVaj6nzTlPPrYffNepa6lFcVmEAjnSgbkw68Yzc8k9HpOkSpZmpndyp%2FxLPv%2Fa5%2FJzHTCJlLYS3slBpu7N6stiD%2FwxLvNt8S7z88Vq%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13487,27 +13499,27 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Panini</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Orange Disco Prizm</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>$162.50</t>
+          <t>$599.99</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -13517,7 +13529,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186915511240?_skw=PSA+10&amp;epid=26055546570&amp;hash=item2b85085bc8:g:fwkAAOSwnWFnl5ho&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlOMbFHYLLkwEXu5vIK3FnyGDW5nzisOT2iIo1BZ%2FKd0pH3HWphpMC%2BqkfDosGSpSzm95Pw6cpORCY9%2FS56uaciU2NRRKIWlmR3ft6S5RnOI6fCNqiY6YLrU%2BRKK%2B1sp6ZyfDkFeIC71FS569H8F%2FMRsIH1%2BWrL31ZayZDOxGtRsU9ZuqCI%2FdI6SYsJBiTjFRmr%2BOhZaVt6WafZw5IIWbrsb8gGXvVkgwr595dcOOSQKw%3D%3D%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/316177573527?_skw=PSA+10&amp;hash=item499da6e697:g:EIQAAOSwgKRnnz9D&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmZAck1eaakowSfneVz%2FuJ6XgO6HYZFZgudQcNb9z6uuwwZD1rNuo7cU0JVBCtc5A5sVwvlxtXffC4ERlgaGUV%2Fl%2B8uzkD64Gy0VxYjrhQmhLok867PdqwQr%2FknOriGydIUZ1Z3vQzXc2PZjQrwJ9hDpcqCzzSAriP%2Br%2FGhcBer0tSf%2BlDmlSFloc8A8hqeEupx%2FMQoSLY8ebENYjj05%2BYKGoI6eZnLPwpjb5ZpV8KM0ossGR4u7zw2vfTRCkOdreN4b55DO3tajjSIT10U%2FJdq%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13529,27 +13541,27 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Panini</t>
+          <t>Panini Contenders Optic</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Green Pulsar Prizm</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>DeVonta Smith</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>$599.99</t>
+          <t>$150.00</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -13559,7 +13571,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316177573527?_skw=PSA+10&amp;hash=item499da6e697:g:EIQAAOSwgKRnnz9D&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmZAck1eaakowSfneVz%2FuJ6XgO6HYZFZgudQcNb9z6uuwwZD1rNuo7cU0JVBCtc5A5sVwvlxtXffC4ERlgaGUV%2Fl%2B8uzkD64Gy0VxYjrhQmhLok867PdqwQr%2FknOriGydIj5R1pl6zvIvcxufQtWFOmNgd1PTPBrIBautIWMLCccN83uWokDkirLWKEh8Vehm1hjMCxosjV2Piv%2Bqi9ytbyIR4tIAo7QKd6qMxIOIv3YK3w4fEJBQV9gFTwx6Jxk8KeFXl3Y3ROIIQx1wBpV5Rf%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/375903045280?_skw=PSA+10&amp;epid=2326640033&amp;hash=item57859146a0:g:8VUAAOSwaydneEm6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlISLIgoIc4vcYI%2BkO%2F1QHW2h8n%2FpQTglOwvOGs1pOUaOh8DP6oaA4uy1HCxYgvjgahHyvEyM7EJpgUVFhzaZ7bLm%2F49f%2FYRLDC6FDmHg0hmOuIl7Yo3Q3ap5mcchP4Q5L2BOpP34MYi4LNL8VgYpF5McbEo2UrsF49FweIPIMKorNWe2QbwJvcgyD0j899QvNhg5b00TeF5MWLDNh12aw1zNMrBqReKT6wL33Zubz%2B1%2BY4bRtLm1PKac%2B%2FMHWodArT6k%2Bf%2Bi1%2FTdtC1zrlKfEf%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13576,22 +13588,18 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Panini Contenders Optic</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Green Pulsar FOTL Rookie Ticket</t>
-        </is>
-      </c>
+          <t>Panini Donruss</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr">
         <is>
-          <t>DeVonta Smith</t>
+          <t>Jerry Rice</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$499.99</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -13601,7 +13609,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375903045280?_skw=PSA+10&amp;epid=2326640033&amp;hash=item57859146a0:g:8VUAAOSwaydneEm6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlISLIgoIc4vcYI%2BkO%2F1QHW2h8n%2FpQTglOwvOGs1pOUaOh8DP6oaA4uy1HCxYgvjgahHyvEyM7EJpgUVFhzaZ7bLm%2F49f%2FYRLDC6FDmHg0hmOuIl7Yo3Q3ap5mcchP4Q5Kq2EjlC60HpPgmRLNO1kFI1JCQ7%2BqnfOTbdft1cy4ek1QM3Usr63gy2jqVxjFts48gGR1PfPSgUVH8C0IkWuHAS2dSlYViz4yvGSzBJtxVtuCatAirqguBuR4Ct1hKFTkk5JEkvipw8PQKkMke54DQ%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/156658402304?_skw=PSA+10&amp;epid=13061012434&amp;hash=item2479918400:g:JZoAAOSw~Alnl5RI&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkYNkm3%2FqlZ1yl48QLCJpo%2BhtZKloZp2JE24BcpwSv0haAUYhaUpLueazr%2FgQVa3Hm73RUKCzr17QxhsuwUQjDx5WPrXF2%2Bb2lHAbuumTKl8DA6kZuQjMMYXydspi8WHpBHtL3tB%2BKIpyaXQcq425ccJUPfL1vzjExcXI10ACfc0vhayB0vlvisUx1rJnrdAttIMbto1j6rSyjmMSG8AD%2BFyqs7Km13jhufMvNFfZLsZ7i7ttao%2BBAK6aWxrPlxdEy4dm%2FhOQ7TdDHaSn66CWTp%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13613,23 +13621,23 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Jerry Rice</t>
+          <t>Patrick Mahomes II</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>$499.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -13639,7 +13647,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156658402304?_skw=PSA+10&amp;epid=13061012434&amp;hash=item2479918400:g:JZoAAOSw~Alnl5RI&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnKSJJ71txRo0e41toU3wUw37mvm09j9DW5VZ%2FueWWauQCq2Be9Hq%2FD4pYhm5icwKNxd1vfZCB3%2Bv8zn3NJkmcEeUVPSdehFcw9lTNurQdX45wpIqlU6p1R3y2JQH%2BwTAn0SpTRrXvk810wLqkOtxywNtcu3bvluiX8kWQ0FmhusO0OCqHQv7CJRDrg7zGyixNQq5l%2Fc2RsqniGHddK1x5LpOSuK4uvnbAl%2BEJG7QUUAg%3D%3D%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/396155409472?_skw=PSA+10&amp;epid=15061301405&amp;hash=item5c3cb3d440:g:VckAAOSw8rhnl5Dy&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlD%2FM%2BlnTC%2BXj8cf54cHyAsUZxCEpvz6XkBsSK8qXzTJuDoXsADdb5%2FRuZdZ5mH6H%2BffqZTIsGnYycSZOPvYQfQOhWfN2fjYhh%2BKLJ1HB19gStP%2FH41KwVPhmJopfsIug%2BpYufMmxtkUGG35eDc7wf6%2BZGpvYY%2BgOyWVPY9FsV5XJ9iTtJB2tGzpkhygDxcWOjYDxSc4rwsXoF0Rpe8JYWhb%2BVMm0m6n82VniT5Hm1V3Q%3D%3D%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13651,7 +13659,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13659,15 +13667,19 @@
           <t>Panini Select</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Silver Prizm</t>
+        </is>
+      </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Patrick Mahomes II</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$424.99</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -13677,7 +13689,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396155409472?_skw=PSA+10&amp;epid=15061301405&amp;hash=item5c3cb3d440:g:VckAAOSw8rhnl5Dy&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmEG3RU2OuDrSZe6gXj6%2Fu%2FEkcHMz5e45Rzvei%2FfaKsVu23XPgx8n%2BeEKED997rJlk8Z%2F8LX63xKxGXR6%2FonVl66TPrZkgh%2BaT6%2B31lLuCVeYDzkYVFoqulMZkhZriAqznDZrkmXmCLQ8nrHtDa51yJu3KHmmSunGqi7hbkINbGDYLoNAIL2bMg9Q4zIBo%2FQR2KE5tVvT8T%2FRDQ8%2BaMyvoBROfmP9%2BsmAUhed2wgZK9RN2V7vM1AgYBRhVS4g6kpZ%2BaDkTYD9qeW7Hj0%2BqRp6Gv%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/176769194147?_skw=PSA+10&amp;epid=13055601404&amp;hash=item292843d8a3:g:VHwAAOSw9Ytndqvc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkN6yY5y3iFN9Kb0UD8fFPbXUeezxigMaYYQMocfg1odGYjShktOZGY%2F2m1kR2jZzZiuog4UL9%2Bp%2BkRXOUgxwdGAk8YhIg7QEptBXeDAAkWT%2FI29NuEr6x5y5Q5kJwsCXjdwWefbhksDF9FKG6V3Bvg%2B6TD%2B0tzeHWSRDFNjzo%2FHmwX1Sj3b41siIjF%2FcJ2sHQ4Hm1yf7Zw0crmYJOXUmmoxW9461ul6pFGoF5YDZw5nPdvqlTkPA0fUKVMdkzH7fS98YScA%2FDp%2FdgYfBRyr0uQ%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13689,27 +13701,23 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Panini Select</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Premier Level Silver Prizm</t>
-        </is>
-      </c>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Curtis Martin</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>$424.99</t>
+          <t>$999.99</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -13719,7 +13727,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176769194147?_skw=PSA+10&amp;epid=13055601404&amp;hash=item292843d8a3:g:VHwAAOSw9Ytndqvc&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkN6yY5y3iFN9Kb0UD8fFPbXUeezxigMaYYQMocfg1odGYjShktOZGY%2F2m1kR2jZzZiuog4UL9%2Bp%2BkRXOUgxwdGAk8YhIg7QEptBXeDAAkWT%2FI29NuEr6x5y5Q5kJwsCXiVBYkABmvzw16psA44KsE10tOOekH%2BM6h0znfyjDcmZL9AuIxUBMXL0HGv3XgKMXWQ1%2FCLhqWe423Hc7utTia3hRP7r1eBIAlwz6XucpWxIKTo2PFMylywCRcUjggjCdzV5jVVa375CB5gT4UPbeYY%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/326422820539?_skw=PSA+10&amp;epid=3055541198&amp;hash=item4c0050f6bb:g:niMAAOSwFpVnmqjK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn2RxdAuy2Qk5Epz04E957VJ8U1lXanxvAf1ZKxuFCu3fr1lUigCvzuG7pC9RrhfI2jFF%2FTQ5ihR45BVe2c6szNRnRa49qpeOYwGXjP%2F1OxSCSyFVqbWcRxRKGOTL2pnFywaFBbqH1QGgDCMvmkHoMuD9Y14CzgeZhV8kCIweHnED67K%2Bqo38P6HcPkpAmp1WFUdyHdsqqivSeoM0mEte473XgUHgyZYjdwi28QXySFsQ%3D%3D%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13731,27 +13739,27 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Foil</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Curtis Martin</t>
+          <t>Jahmyr Gibbs</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>$999.99</t>
+          <t>$500.00</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -13761,7 +13769,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326422820539?_skw=PSA+10&amp;epid=3055541198&amp;hash=item4c0050f6bb:g:niMAAOSwFpVnmqjK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnKYi00CFqnBhiSuRwWjZPcqn%2FdckGvrRMEgun2qo7hWL4TSTcqOUBUxjkCwwmUxb9TXK5N3zOvgtQFLghX%2BvJR1f7zbgA6kXNFmnZwaDf0RL%2F0NkL1g9llLrFTrW6pnuA1XR45s1V3R23xFc%2BlCMUaNgTCNdEPObMDnii1J87%2Fo5gTOnPwnDIy8dawl46BzFKT%2FnGKKNDYWDlWWwTf81VWTehZgz8HPEscToFBC%2FiipR0Z0R3xHB8hFRi8TG6GLbA2yxeSmK%2FQ%2Bai2oMOM2qN8%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/135456184670?_skw=PSA+10&amp;epid=10071444499&amp;hash=item1f89d1595e:g:kdkAAOSwN3VnYzmC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSmZYU4cv2t%2BjsWf01RZoBeQWpDPFepwspauGqTmaZ8Crfaf8YF4fmH1NH3qJmYdlRQEuCfkguit%2FMs%2BBGW54AGQcAAljeaLNryHsc2C4IVyvJ6ABnXB0HxzXRkQ3ueHwQTzPJMV5v8Agkieqicq%2BpepVSNo9IxqRvHKIfv%2BDHaQd%2F4T3RliVra8Nc5lbmPWEDg6CUZ0XrcVaQi4iQPUJ5EFhBbroV50M%2FIpg1BTjcN4CR0GkC1k7YRxlZytvJ6naAVg4URnjHJqTgT91oGB1m%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13773,27 +13781,27 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Throwback</t>
+          <t>Neon Green Pulsar Prizm</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs</t>
+          <t>Saquon Barkley</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$475.00</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -13803,7 +13811,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135456184670?_skw=PSA+10&amp;epid=10071444499&amp;hash=item1f89d1595e:g:kdkAAOSwN3VnYzmC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmSmZYU4cv2t%2BjsWf01RZoBeQWpDPFepwspauGqTmaZ8Crfaf8YF4fmH1NH3qJmYdlRQEuCfkguit%2FMs%2BBGW54AGQcAAljeaLNryHsc2C4IVyvJ6ABnXB0HxzXRkQ3ueHzvBgaN0%2BwfyaJu0XH90EDvGB%2FlI%2BrZBiix9xqR9mTYvcrm5HwGquZXRuJlFzLwI5j5xirUhKxoWKozGCA7lcsgeWPsfQCQF8B%2BnvLDSZWKFaxgAov1PdUZrBLBKNoxSM8V51Qs3u9HfnN0LtYZon%2F6%7Ctkp%3ABk9SR-ynl5OaZQ</t>
+          <t>https://www.ebay.com/itm/186926755679?_skw=PSA+10&amp;epid=7055545449&amp;hash=item2b85b3ef5f:g:688AAOSwF01nlQf8&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKms09AsSDa1kGTIN%2BmQfj%2Fu4cQsdVFJXq6b2tX4qW%2BmX8WQSLq5vPTSqIR%2Be0a6Mh27On1B1T3CuzvkcE1J0JKBr4efo7hvgFDmMuhIgxylVQA46TMAmkJd%2FWQVFaknjlhqHmktOMaA9DQDoQWHED%2FeA%2FBN6k5AhKIwcZ3jJOXMunkytQANVf7J9F--CfV0AUFnZf57%2Bmx5TSE3%2B4D8wMXke%2BjSMXqmcStEoHSs5LxP2w%3D%3D%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13815,27 +13823,27 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Bowman Chrome</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Neon Green Pulsar</t>
+          <t>Bubbles Refractor</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Saquon Barkley</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>$475.00</t>
+          <t>$179.99</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -13845,7 +13853,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186926755679?_skw=PSA+10&amp;epid=7055545449&amp;hash=item2b85b3ef5f:g:688AAOSwF01nlQf8&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmtt34T198DdNV73GJ0rzFrHRy%2BTyj6huLPCDgx2X6qfX%2FjwHvzFgtlpfTqCuM8RBqxc%2B64KD7xc0CumM3osh2bHRIjmeOXpwPVqLAbVxbVNgBTHl5AqKQHeoEjkYa9tRcfjmLUE8U5dbpD6Q63uTy0EElsWIB6kl1uUTYsyHBelxAJGe%2FKftSovBy%2B4smhCkVhmMX%2BQFWIUL6TmV2NKQroKBkJHL4od7iYSaVlWOG3C2abZ1zmSUoXLXcWx1hQlMmrVUrvtCXAjLk96cVms%2BFm%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/256586987701?_skw=PSA+10&amp;epid=14055602886&amp;hash=item3bbdc6b8b5:g:k-MAAOSw2P1kvGxa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlduQq4xOKrxWqAPhDyPR8D0bhHyjQwNWZfnBqIGBZjJbcSiJhi4gPlbP599eJobZt5DITSjqGoCbJaDbopdGM6hkqIoY5b6PtrEWCNgeNuJ5QIYFV3kjizkzj3pVGJRH%2BtKeJVqIGRVp3OU6tQLGiKVwZ0dlG7NFkcx1Hh5asiqpwqQ58yCrmdqHaKq%2Bkwn5xHdm1pIj9bXHlIeZxRg5OsrBF--k4wWx%2BDP0fhEQ1pg7V1fPsUNxL0mfqdOGOPXV49kfFmQsWFNRM3IZTe1rEV%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13857,27 +13865,27 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Bowman Chrome</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Bubbles Refractor</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Dan Marino</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>$179.99</t>
+          <t>$299.98</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -13887,7 +13895,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256586987701?_skw=PSA+10&amp;epid=14055602886&amp;hash=item3bbdc6b8b5:g:k-MAAOSw2P1kvGxa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKktLZ50ZlZOtE1VaYRvO9kgFDQptkHOcUVhJA48gBRglOHvHNZVZVIoVCkhgnDdR6sieiVSXWxY%2Fs7ErP6kGTpbhyyCA1GjDr7TrPiV%2BpA9AGTdORdOJ6f4rCnThz94Fr2jNzW%2FXJ4X6%2F7BQRzHmtFo85jfkQy%2BZ50MU%2BdeKk%2FJqYo8BIT7q4gvfD%2FDpi17DRmbkmPZJMf%2FFwAGdJZz1xety1SH33IGg7aaohlmKGvrPQ%3D%3D%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/305767140857?_skw=PSA+10&amp;hash=item4731244df9:g:Ei4AAOSwf4Zm2dP5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmm4vBJ8lkGRv0sJeIqSUsqFcJmZCKuW86ce5LJSQaQiStA1ce4J71XetBTTJxdPTKOCkhuI5C1QNycGyFacF%2FyBGYpezg1N50DjnHnpOfel%2BseJ90V07uz2fVO6a5PmrdUCK5c0dCqlq0H3C4bOyM4tOT1kSLSLAM6DblZmGuCXFziSIHUKBFZkon%2FAtbi%2F35r7ZNPpbNnFW5FqLoV0u8Z8cs0YgYqqeK3RUVpOIskjUvep6aTuQQlJKUFGqwA8B1Nc72m6GB2RPgf6rvVNgGx%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13899,27 +13907,27 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Panini Donruss</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Optic Preview Gold Ice Prizm</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Dan Marino</t>
+          <t>Josh Downs</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>$299.98</t>
+          <t>$185.00</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -13929,7 +13937,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/305767140857?_skw=PSA+10&amp;hash=item4731244df9:g:Ei4AAOSwf4Zm2dP5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmm4vBJ8lkGRv0sJeIqSUsqFcJmZCKuW86ce5LJSQaQiStA1ce4J71XetBTTJxdPTKOCkhuI5C1QNycGyFacF%2FyBGYpezg1N50DjnHnpOfel%2BseJ90V07uz2fVO6a5PmrdohyiBPhEZc7ggbmGWbi77nJuckmbZ61PFDWjGnlHCWLBBaTTZUgZ%2BDz8VF2vHXMThFRNV535nG5GA1qw921KRshDQxPtGzmZB2VqXOsqnWJaDbMNa4cnbtu2G5EgnyL4YsIL87Ct1tkmC3D1JvSba%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/126915955909?_skw=PSA+10&amp;epid=11064262512&amp;hash=item1d8cc7ccc5:g:hR4AAOSwWAxnLZqj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXw46mb5tPj7Vhs2UpalJm6xVbd1yLyweInAvI%2B4fLukNcUv8vDbCkeiW%2B7hGdLC40jehNhrOrYcCXNataEfnPmKYXESnONlgLC%2Bmq%2BhIoEodzFS%2Fkh8SVwxYVhgFO17x%2Ba5KAY2sxKVDLnMYlqhlOGtHlxryKvxC68NsdzSgGUuGYLUoUrNy914jjFhNcCpWNpAiy2ct49G4%2B0ns%2Bw2Ehd0qHjU0EXOCJlE%2F489Jw6m3pwPG%2ByktWF%2BLrRMMODBTVkLXSteOSGhNI5i4qpRl6%7Ctkp%3ABk9SR6zL_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13949,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -13949,19 +13957,15 @@
           <t>Panini Donruss</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Optic Preview Gold Ice Prizm</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Josh Downs</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>$185.00</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -13971,7 +13975,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126915955909?_skw=PSA+10&amp;epid=11064262512&amp;hash=item1d8cc7ccc5:g:hR4AAOSwWAxnLZqj&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkXw46mb5tPj7Vhs2UpalJm6xVbd1yLyweInAvI%2B4fLukNcUv8vDbCkeiW%2B7hGdLC40jehNhrOrYcCXNataEfnPmKYXESnONlgLC%2Bmq%2BhIoEodzFS%2Fkh8SVwxYVhgFO17zweVl%2FsfPbGUbXVvNH2zyViczPOh6ioZ3bYtzyHFkJED4KaNQ%2BvVPSLvgw18NCJxx4RlmC4yaYE6sEAPXoKWKjeM3%2FQpGM0O%2B8s4JRSZlKJwBmfn7KHY60B%2BI7JckDB8w1biViRbHoYsLRi0jx9bfE%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/356513789406?_skw=PSA+10&amp;epid=10074275104&amp;hash=item5301e0b5de:g:4EgAAOSw9zVnmW2n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlYuimoH0gqO%2FlflAgof0d4B7vt%2FmKPIqrlNcbYpddC1WDVv2r4fuBlKpgDJhzz3whiao2z9T49ARxXwBA5vaJl2ZkDNvaYG%2B5fed0LN8jzozqCOYMJg2HPMSbO%2F6vYOCMIugj5CCfQJgKQVHM1dYJB1PiMUE6hGfHLoiOl0W9YLb6rsrYNE3MGvTuzM3VgEPkpimZuBJQRBSKHupM47uj9uuUNKJeGxWOLUIMa3HhNYw%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -13983,23 +13987,27 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Panini Donruss</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Aqua Prizm</t>
+        </is>
+      </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$375.00</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -14009,7 +14017,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356513789406?_skw=PSA+10&amp;epid=10074275104&amp;hash=item5301e0b5de:g:4EgAAOSw9zVnmW2n&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlYuimoH0gqO%2FlflAgof0d4B7vt%2FmKPIqrlNcbYpddC1UhyNPlxPMEiimwqEvZGe4iIxs3Q89vFypY3qkppy8xgiNRz5TbHw3yhSg1qQnCr%2FzTDicUI1pkalTajVAMqWnUCGqt2u6YH6Dxp6ikQKmufgJL%2FbIF1Su8KrSDaQteY28MDm4IrZVyKCPw35LmeWhJ09%2BCPg1uX%2FTi8UTEXGZDuAsB5D4JCpl8jWr%2F347vQPw%3D%3D%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/394871656447?_skw=PSA+10&amp;epid=17055583714&amp;hash=item5bf02f4fff:g:xSIAAOSwx01k~nao&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnVpxUiAR9qPnad2dITrrCYJKmMOtfe9keOZdutLm9GghVdDo1OEKs5qXIi1e9C6WEQ3cj7clHTxWvCPDxjxIJghFx6zQHr8dFQTMbfW9up05WXx1TQu8WTTP7T37D74zFeCXEPO7VjTmOQBilB6cDVLpJYYwNRwh3VrcaTQh4y%2BgVrHjJg4fxCiaaOFpjXvKqxMLER01KldZpoOC9%2FAiJiBn66d8MY9q%2FOEPPuAHdF2gBSr8oJ7B3U9mk5uU6aHFoTEy7%2FYvMrwgbndyjUWqZo%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14021,27 +14029,27 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Panini Prizm</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Aqua Prizm</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>C. J. Stroud</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>$375.00</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -14051,7 +14059,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/394871656447?_skw=PSA+10&amp;epid=17055583714&amp;hash=item5bf02f4fff:g:xSIAAOSwx01k~nao&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmJwmdBcWACp6OqqStc8s0TAZHnpu68dSPw6C58%2BNMULnn%2BaZxOO43DCCUbKWW%2B2cBqkZ72WqzK3uPmGcKyM%2FUDRnqLpHApql6v6Z0Gd4uDNTVpLzhGQumr%2FVFXwRQ%2FN5V1plUCp7Xk6JQGE5q%2F4AO6rn7Mtd8%2BXuZus1%2B%2Bamg%2BYhPiEdC6DCGE1OwiZE4n86TSHH1r6lrJJtEJsYxX7nmQxH9j6R8EZyDX6HJnarguyQ%3D%3D%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/286288078664?_skw=PSA+10&amp;epid=18065172326&amp;hash=item42a8196748:g:5h8AAOSwHXBncxqd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn%2FvoDS5A6feFjfRmIN2%2BBbdab8rO9HpLBujyQWXTcjIPq5G5xBioO8v7h3eesms8FS1mmrDUZROm8JyUG%2BKI4e%2BYbnr37WUqw%2FshFMcsxzSpQEcXJ9EYKAnOhOKvaAzlAnmCZCGvhcQuWbyy%2FtXFHtJ%2BBNrj6LhueBBPUFsv3V13CfCQyFGQ9O%2BtIvbOhkjiH1do9UN7%2BVjZFvvfwTOQuehZdmbiaWJCRN2OCXfm8EiQ%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14063,27 +14071,27 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Panini Prizm</t>
+          <t>Select</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Signatures</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>C. J. Stroud</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$249.99</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -14093,7 +14101,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286288078664?_skw=PSA+10&amp;epid=18065172326&amp;hash=item42a8196748:g:5h8AAOSwHXBncxqd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkZNnD1XQSPbA6r9IAFnDu2jnw3fLwgoDVLQ5K0unvRIk1FBV8UB4Zh50mGVkOWdnbbXOX8wmdduyCGiSKcphZ%2BfByYPtD35YX6eTgI1MI9nF6Y%2BlrmuPieVjiJoeY%2BlEA08oSQkx4bB6Oe6LzxLQnJuKNQrUNUun%2B%2BjOGflzulW1IGvkb7LDLJTW9ixRKdQH2MqPm5u1ow%2B75WOuZGxQ4ezrmEqSELQ92lNWGv0hOdrylVbOfFAZUC5nCAzmpGiXueJ%2BBe4Sehff8aP3Pf2pXl%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/316178814000?_skw=PSA+10&amp;hash=item499db9d430:g:3PwAAOSw3JBnn3mm&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkON2nsKkXWneaKn9mZReXyKBGpWk3qAzlAYRHdlOj8O6JVJHklPrBYjXT9BraeD1vpvqZbwSo%2FUgLMiekwH1juQkciyMT%2FhIOGi4XB98K1T3wvs7trYFbHARqqWf97L15jRR165QebwCg67K9UwDN%2BDBBkUGUJfVVDuN%2FHmtj7Zb2gNRdF0l9RoaLOcr6%2BMd05i33HPraaza1LW%2BnaPoLANRFx%2BebqwLLkcbGR5rqFCJgGjTk7fjgwfti3Tu58iLRpAUZ%2BIDTemjOEZqqRJj4k%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14105,27 +14113,23 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Select</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>Signatures</t>
-        </is>
-      </c>
+          <t>Panini Donruss Optic</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>Eli Manning</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$475.00</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -14135,7 +14139,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316178814000?_skw=PSA+10&amp;hash=item499db9d430:g:3PwAAOSw3JBnn3mm&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm1EkcNnIDWnDfIhOscTvvu1oMnwm5jxivk0NmqY%2BtnmYRT%2BFHR0ZnjXpnSPH%2FmGl%2BUG3bqE6ucAYCpPvoGiAUp1e5l5pXtvb6pcIAV%2BooE8lTIEqtsEEbCwQydzQch32kRNSa4rNDXxT35RMBavTuiUebylc4ZFoO9bZB%2BQoghz8DUXDmA1h7YoZaOvGobv9XMNQRg%2Bgx%2BLooyWXWArvR5LZYxPKx%2FYlytD55vSvtLPQ%3D%3D%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/356519332172?_skw=PSA+10&amp;epid=14070301318&amp;hash=item530235494c:g:lloAAOSw28Vnm79R&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkgCzllNwPNtdtKmXvx6UssgztsvgAQn%2F8swSBspNvya2YRq9NEZxLV9GslWDzqYuQIWiCs9qNUWl8E%2BY9bQWoGZFmCCSVmaNJ5fOuBDoPq2disPcfhYnQuQXgqfOaBJOIqjA30t0ipRbCU9%2FyL5S7vQ4by1OjlYUq0%2BguFzZwCfkWbyOATq92oZxl1%2FRIbyla%2BYKP5Bga0zGHxgi%2FES8Ch3fZ8PExZSbRd2rEg4G9t%2BPGAbhmF5FOALXmY%2Bz%2Fvfed4fa6eahPGjoBVfFCFrp0%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14147,23 +14151,23 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic</t>
+          <t>Topps</t>
         </is>
       </c>
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Eli Manning</t>
+          <t>Lawrence McCutcheon</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>$475.00</t>
+          <t>$168.25</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -14173,7 +14177,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356519332172?_skw=PSA+10&amp;epid=14070301318&amp;hash=item530235494c:g:lloAAOSw28Vnm79R&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkgCzllNwPNtdtKmXvx6UssgztsvgAQn%2F8swSBspNvya2YRq9NEZxLV9GslWDzqYuQIWiCs9qNUWl8E%2BY9bQWoGZFmCCSVmaNJ5fOuBDoPq2disPcfhYnQuQXgqfOaBJNHRtZZSvDwRk0LAjLLTwftGLTFxkAcZRGGHvQgC4igWv84UZxEvbmLAQ9%2F5kO3G1va99QuMfH1X2A55QyMmleBfaFuEjkFNSVhZxu7OfMsrih0HkaD4oufyeMY4W4ZwmSxVJNwmKW2FJfd2vTW0Jve%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/267144097853?_skw=PSA+10&amp;epid=9055618260&amp;hash=item3e3307703d:g:XmcAAOSw32pnoF6x&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmhJMx%2FJdeSeC5xNXZQ3vE96f1MV2Ap1TpypFnt4b%2FEtQRRNFjT4dy0VesTtdE9jX1PUPgQcHpsX2xH0uwqDJLCUV6%2FajFRplHsJvsniZoYaDMEfEQyo5zSi6tuSi3g5kF5O%2BXBY9RD%2BC5anS5VMkK17TmmQKs4HxOqUadcK3xot7ke0difjwJ2X1MbUsDuKSnKV0n%2BcfjDmFty6RVefwOFyia5n1L23oAvAxEZQJjwKg%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14185,23 +14189,27 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Topps</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr"/>
+          <t>Panini Mosaic</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Genesis Mosaic Prizm</t>
+        </is>
+      </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Lawrence McCutcheon</t>
+          <t>Jordan Addison</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>$168.25</t>
+          <t>$185.00</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -14211,7 +14219,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267144097853?_skw=PSA+10&amp;epid=9055618260&amp;hash=item3e3307703d:g:XmcAAOSw32pnoF6x&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2FL9lT638TNensyIJXb5uLDmFb%2FDlvrPSAme%2FZNMNXVLyWoGStO2FPdUfyXytt9kG6m5fUIL23yRUJGYZ9S01MumrzVIGREC%2FtPOw1s3QY3IVRzjxooSzl1rBHu%2BsQY5MfzSKFP91vEEkZSjyVJSxkKenjnvX%2FbSkbG5Z4RO6%2BISAGZa8URB2O1sHsOfw7etK%2BJMdr2RKB2tbOG6R72R4jrGcdAvxA70enyDQ4lHVB%2Fh2hewZmApidTfBQ6oQb82EwSN507b6fqwM8c%2FgfBL2R%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/196861925438?_skw=PSA+10&amp;epid=26062933454&amp;hash=item2dd5e2983e:g:2koAAOSwKAxmMMn6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnE%2Flq2E9buNbsZ3M7HURcKOmNUOV3xg050qsvfaxw5gT3qlYJLO5c8vPvRh3kjo8UbtjHoH4RlMc2N286SRWdpDbt05lcsX3igzQLc46p61AEEiyhxhvEWSiOL2bmFH98nZXURwZLogtmYhB3aSyoRmzX%2F1qve8l%2FjYRsjibC8A49qIYUawxfbSfJ82Qrz0Z5sI7hJPf8o9%2FKE7HU1SwjtiDXtUqCv7ksAgU68pxGAbA%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14223,27 +14231,23 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Panini Mosaic</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Genesis Mosaic Prizm</t>
-        </is>
-      </c>
+          <t>Panini XR</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Jordan Addison</t>
+          <t>Joe Burrow, Tee Higgins</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>$185.00</t>
+          <t>$215.00</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -14253,7 +14257,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196861925438?_skw=PSA+10&amp;epid=26062933454&amp;hash=item2dd5e2983e:g:2koAAOSwKAxmMMn6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlkPwZKuBpBtrMOQJd43wS2YP%2FuprqiVpJ2z%2FDNOUlcY1OS8VZpbbJSsCMzZTjt83i7TF6kGJVKFBp69K7bc0VT5x53Kif%2BHhu3s6EYZxkzVttNt3G8bJDmFkrrpUx4ybcGUMr%2BQkUkrCbVEXABU%2FjB%2Fy3w0XlqTBhl5fii3WmduDXWmVX90E0oYOPBKy50KlaUHCy0039ZWoPnJPGHu2sVPay1Whfik4e8Rat39d7l1qHoXs8Sn97yUau8NynwqcjLvAQW8x%2FJo0KQLktKLLSe%7Ctkp%3ABk9SR-6nl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296836431079?_skw=PSA+10&amp;epid=5055576756&amp;hash=item451cd47ce7:g:PgoAAOSwCURnQyZv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkhEBohexzEb%2F7mndJkcQYzcfolkgkofGEsPPkZeCf8%2BdBISVAkALZY0odEW3jjFJSnAA3eyxvxBATkYlVHhzhdB%2Fb%2B31B8lerggbGiq4Rf4Kg%2FZjO3N%2FId9X%2BEPqiSARqzEisFuGicRnK%2BQQB%2BGMyuv7OXzUeRqMD3cbtnrgqE%2ByphehEYCxrEt4SgOuKPul8YC7oh2XSa565%2BWceiXzyEsnx8EC2ITquGFi4CSU515YlMtOFD5BXAlaUvsfByVLcnm8uva8UtA4MKAcJZ0Ah9%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14265,23 +14269,27 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Panini XR</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>Bowman University Chrome</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>X-Fractor</t>
+        </is>
+      </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Joe Burrow, Tee Higgins</t>
+          <t>Travis Hunter</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>$215.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -14291,7 +14299,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296836431079?_skw=PSA+10&amp;epid=5055576756&amp;hash=item451cd47ce7:g:PgoAAOSwCURnQyZv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkhEBohexzEb%2F7mndJkcQYzcfolkgkofGEsPPkZeCf8%2BdBISVAkALZY0odEW3jjFJSnAA3eyxvxBATkYlVHhzhdB%2Fb%2B31B8lerggbGiq4Rf4Kg%2FZjO3N%2FId9X%2BEPqiSARqnMqFKcDXSbcFueeS%2FrKC8R8J9xFoTvzZS%2BdqB6RD5NVG7LtmNSRz50mg0ihlQA79X2o3Foj1HBKp9bw%2B0rF9Ptu9N%2Bq7ITuVcdMIjtnfs9jCAilgmDYWVCXCEHJVq2K164wyr9VozisUP89WNI4dx%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/405457036220?_skw=PSA+10&amp;epid=5062933566&amp;hash=item5e671f63bc:g:EIMAAOSwjBVneVDf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1UtlYPOW1oHa7OhvsX%2BF6HvYLKjRbtrZcqlgCTpbBKojYLiGtgZLtnKE%2BdsPQaRFgcO8TBj3P29F4JoKrtHqtQb0li0YqEMVEQQrCgY8CRsbLWUuEyNpHZao6d17wwkSgdWUtSWq9mchPcjoOaYxIdGOB%2F9p6R%2FBF3Nh6JgQrqJE9GjN9QU95U9UnaPvBI%2BZ4SLRRwRhOiZ%2B3m5eWNKsGlJfOzka%2Fp5H7RhlDA4CaCg%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14301,29 +14309,13 @@
           <t>Football</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Bowman University Chrome</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>X-Fractor</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>Travis Hunter</t>
-        </is>
-      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$248.20</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -14333,7 +14325,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405457036220?_skw=PSA+10&amp;epid=5062933566&amp;hash=item5e671f63bc:g:EIMAAOSwjBVneVDf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlhLAJicVsgYdalHy1MJe36SagAubtXpFXxiUgzm3%2BFWGMMTbnTkByPnzm1DThAsrwTfGSCZ5t9knQVTRojQDDcAhG5WYW13seJGpZSFs8Y4YuKKWfTUge5WeJwQ5VltvihyYhXJTMQFRlyKo1FsliwhaL0GnoCn1c0aRDa%2BZqqaZCixLepVTSAucfjQIJCtj5NNidCukKYFjz0n2%2F4Hn3bU%2BSM70mDwhDcD4zLqr7Fc6O6xx117aiPhh89o8Pp6yKV3FAVd05ZZTr%2B%2FKGk07fh%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/166564089489?_skw=PSA+10&amp;hash=item26c7fe4e91:g:1IwAAOSwMZNlr-j~&amp;itmprp=enc%3AAQAJAAAA0HoV3kP08IDx%2BKZ9MfhVJKlPInjj8AlYqPT3J%2FvAbRCK9loZuj39lV%2FZEa0LcU8XSFu%2F7PkydrkPQVrF1gOTsz4hyaFpNSJ2sMzEB5uhE4z3CrdZJKC63IgzmDoIpgMWZMlcLWVlJKMpg77jhcrFiVjGKba13mDP7E0BnLWq6tdCKLeKgVQr1qcOwNr58WqBI4hPCjFeDGUL8GA9ZETKULFM9NjIwTrN8h9YRDP0AP9YubaYMAzCzpnf6LJ8g0mLDOpplrKTPsgpefQMaui%2FepE%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14343,13 +14335,29 @@
           <t>Football</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr"/>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr"/>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Bowman's Best</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Atomic Refractor</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Terrell Davis</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>$248.20</t>
+          <t>$999.99</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -14359,7 +14367,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/166564089489?_skw=PSA+10&amp;hash=item26c7fe4e91:g:1IwAAOSwMZNlr-j~&amp;itmprp=enc%3AAQAJAAAA0HoV3kP08IDx%2BKZ9MfhVJKlPInjj8AlYqPT3J%2FvAbRCK9loZuj39lV%2FZEa0LcU8XSOBWiE2E9eNDvr7KPe0B1b7G9Yo7u11a9uruxL%2BQPoLHPOoWL5BvOZxej2gO1cJRLq8myJ%2Bu5PQYcKZ68XuLu9JTGC%2FUo%2FodRV7WRzhb27ik82cJdbHBVVexH%2BhhgYx4L1uZKYoX2DbKfwTxf8Gbk5wgsOk%2FLkt%2FLd%2ByObmFDtXpuquuZRtu4l32yl7R0vZVxjJ6sdrKQLASEzBY0hypkfo%3D%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/335778949867?_skw=PSA+10&amp;epid=10055590581&amp;hash=item4e2dfc2aeb:g:i2MAAOSwNchnj6xH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl2%2BupgkGK9DlkUKHoqZlXvj8NPe0BTdmeTHAWKRpwDSTx7slGORGTWVhbh%2FqAmek0sMdI%2FUb5miD6acLc0rYEV305IriVTqND%2F4%2FBcPJCMN9wEeFhm4tKnm06mM79MEH7Maz5HX9WtbVf89zcuHYpE%2FHh0iTgGGbdm5ccCE9IbXR7%2Fr9%2F9jp%2FBEYe%2Bb%2BdkhhbmC9wW3NKU6xvakfXj82kXxb1o7ntGFPV17%2FWS0GZQyg%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14371,17 +14379,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Bowman's Best</t>
+          <t>Topps Stadium Club Chrome</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Atomic Refractor</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -14391,7 +14399,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>$999.99</t>
+          <t>$399.00</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -14401,7 +14409,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335778949867?_skw=PSA+10&amp;epid=10055590581&amp;hash=item4e2dfc2aeb:g:i2MAAOSwNchnj6xH&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl2%2BupgkGK9DlkUKHoqZlXvj8NPe0BTdmeTHAWKRpwDSYgZtnRhNhiccfimNO7NPi9J3QEn2uiDx88nNL%2BB0v%2Fp4owfINxUG19tZLni2Az5is8eiQcqxSN4xMFrmWFsbLEKiJS4mZu35j2WZIg2cxVMnk4yb5Zk9WGSCn6zKrHAOzy1eYoHidGzkNPihWZbqgWaLcbcOu2B4Wree3vdZHCSIVU2RvzpuV5Ce8qZs2sljQ%3D%3D%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/356380829900?_skw=PSA+10&amp;epid=21056322827&amp;hash=item52f9f3e8cc:g:6dcAAOSwSW5nYOPh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlv%2F9mS2KazL3fCPGOupECi%2FUIfcs64v0GzCbQGDr6TVcOHEY2xawp4Jd84ZXNK1JiuDqDZgLE1zozWtx43Kqvf87A0MYA%2FvHk41W67Qr8hCfKrV9zXFSufzOgipPcr4laWn9XOgF2JT2B0jxEedFYMNsnooLrILPG%2Flh1NnTJWAPgXq%2FxudzFzoOOCfumKVDj1BRohHud8EEq58KH4TA8Y2ZqWVS%2BsLThYrwAdeA3ZgMXBPo68IWTzMnF1KxgeYWtf5QzOB4QKQqufVcurmbjB%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14413,27 +14421,27 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Topps Stadium Club Chrome</t>
+          <t>Panini Spectra</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Neon Orange</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Terrell Davis</t>
+          <t>Michael Strahan</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>$399.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -14443,7 +14451,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/356380829900?_skw=PSA+10&amp;epid=21056322827&amp;hash=item52f9f3e8cc:g:6dcAAOSwSW5nYOPh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlv%2F9mS2KazL3fCPGOupECi%2FUIfcs64v0GzCbQGDr6TVcOHEY2xawp4Jd84ZXNK1JiuDqDZgLE1zozWtx43Kqvf87A0MYA%2FvHk41W67Qr8hCfKrV9zXFSufzOgipPcr4lY6RQQ73UIY86xBXIRyRgtCV0BeZqh4EJ2irejrV486jZEiiC7tsygOujNg98N%2FhMQOwckm6pxOU79Lxkar3cuKyOmfIovu%2FddHjmE4sJNpRjPg8jBh%2BAb1J7gvm9zB831CX0G1%2FyyRZlS%2Bwn2Simv7%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/405270209316?_skw=PSA+10&amp;epid=23055593804&amp;hash=item5e5bfca324:g:9HoAAOSw9X5nAy0b&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlt4g7ah2YLB4lNZn8vX8uYycBFaz81YE87e3YHSfSToRDhxzmPDfPvEBUtwDZJpO9GIwmnxOMpFNm%2F9JK1fEMO6z9S0H8no1j%2Fr6aB5v6fJuyAreC3go3pZqQnizLaVRaEAoe%2BNzln5pDEw4WRta64lFPOOAw0KY3pye3jMXvrvljv8DkMh5sSUE04TsNrPjlYwO4vbbPHO4IY0YKMpdLLEJ%2BTO6vTlm%2FUmNir0c4Fyg%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14455,27 +14463,27 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Panini Spectra</t>
+          <t>Donruss Optic</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Neon Orange</t>
+          <t>Autographs Blue</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Michael Strahan</t>
+          <t>Jaire Alexander</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -14485,7 +14493,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405270209316?_skw=PSA+10&amp;epid=23055593804&amp;hash=item5e5bfca324:g:9HoAAOSw9X5nAy0b&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlt4g7ah2YLB4lNZn8vX8uYycBFaz81YE87e3YHSfSToWyyd4aaRdzRWpkXM819H%2BaPMXbn0%2BIjFk%2BNUZ37mySF3ZPL5rSzNXRoMbqk0J3SU03%2FKcn1o7wds3siz9utu1IiVUE2mOPV03hv06oh7L6%2Bp%2BV2BzwT5Xzt5pRGDm2bpqQR%2BXeeNdgC1jRMaR%2BO0JAVKzIUTWVaHpASvilIVTYM0S4eEBoWhyd7HJUUdyN6gg%3D%3D%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/296920225688?_skw=PSA+10&amp;epid=19055620122&amp;hash=item4521d31798:g:1mUAAOSwYLhndwIk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnR%2FxDBNUBIQZmR%2Bzi%2FY9woWF9pRk4iLu%2BoD6HhME0QJBO8d5rywC1z4YoRXx0CGXCYqpXUmQT6Y1%2FYHpc4CEv%2Fdq4rpjxVs9iO9sZyrW37XmnhG%2FUI8elALEr%2FcDr6mYb2xRiMVlnyfTG3HP3PfKNnsz4l%2BC98IA7KSoRWQdpjfpOVEW2akzUSbhWYSUCnw9AioxiS0HSYLLE5RE4EoVGjTi4zrCSjSrPKXJoNXO1K5A%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
@@ -14502,22 +14510,22 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Donruss Optic</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Autographs Blue</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Jaire Alexander</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$430.00</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -14527,49 +14535,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296920225688?_skw=PSA+10&amp;epid=19055620122&amp;hash=item4521d31798:g:1mUAAOSwYLhndwIk&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnR%2FxDBNUBIQZmR%2Bzi%2FY9woWF9pRk4iLu%2BoD6HhME0QJGDSpPCJCwxuxDalwe0PyjG9%2BtDNN3BtGzzq6T3h0umYLh5pCuiGOytS1J%2Bi5JpHZju3IeKaV23KjBZCFB%2BTnuFjyzh6d7GIJh9D419YgnGEOn0U1H8Il0bgkwkHxKSPUAbabFEHRPvR76ordMQj1AQ59T%2BQAIqfnca48Am7xpAWSE4TbR9GgFLGOtDsuZ4GXw%3D%3D%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Football</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Panini Select</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Silver Prizm</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>Josh Allen</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>$430.00</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/235933051205?_skw=PSA+10&amp;epid=6055592298&amp;hash=item36eeb4a945:g:XykAAOSweOhnmELf&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2BRdc6Pn3FjkNO2MPMWlZF77lCFf0vrqznEcVH9LW3qjLVWV0FF7zee%2FRC9sTYMnQpGiyjNSScCr4IGWywKWa4oYGOn5qcUGQ8m2FMA7YIctvZ3P6LIKyCKHLLUYspgqdKG32nrjLen0I8WIK0fqNDCHHxfasy4W46NtLusoZyfYbzIN7Y2m%2Fr2prGtiLy%2F2l%2FqdUf%2BidXjs3HgutBOK3n6Iw9tBVhsrdJ0ogpVcRECNEpc2z4E5mtdWFRLBxGMksGpRcB3jM8RoV9TPGkKd83%7Ctkp%3ABk9SR_Cnl5OaZQ</t>
+          <t>https://www.ebay.com/itm/235933051205?_skw=PSA+10&amp;epid=6055592298&amp;hash=item36eeb4a945:g:XykAAOSweOhnmELf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm9qG%2B3EMbsXmszxqv5nJxlATZSUdi3WrYilPzpbMAMrN6elRljUwG6oHf5uM556%2B94JhVVCXYykiZ4PUPgtLGSn1Jfl%2Bh2IZh0wyF3%2BAjTi%2FhDJITYYFLN9FE5hO3Wl0DjpHjDYbzVN52VQp6HLSBTvikXNhF%2BTnqstZFoTxyk%2BwvbBtNoJIDxVo5gBG%2F4CN0R82wIINMxQYh10sB9Nf%2B6JGAAkIenDkwVFxduX7GxOQ%3D%3D%7Ctkp%3ABk9SR67L_paaZQ</t>
         </is>
       </c>
     </row>
